--- a/data/2023_08_NedPortfolio.xlsx
+++ b/data/2023_08_NedPortfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="481" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A842D9-66F5-44D0-904F-1B4737431A0C}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC32C924-0C64-44DB-8964-E8BBA7C75DBE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="384">
   <si>
     <t>Wertpapier</t>
   </si>
@@ -1179,6 +1179,15 @@
   </si>
   <si>
     <t>Date_of_Purchase</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>TXN</t>
+  </si>
+  <si>
+    <t>Chips,10.10.2023</t>
   </si>
 </sst>
 </file>
@@ -2459,7 +2468,7 @@
                   <c:v>Starbucks</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>Texas Instruments</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0</c:v>
@@ -3129,40 +3138,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>95.718779269442678</c:v>
+                  <c:v>108.70586604630219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.894885436003378</c:v>
+                  <c:v>93.881972212862891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>262.87255642561985</c:v>
+                  <c:v>275.85964320247933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>182.94000904043503</c:v>
+                  <c:v>195.92709581729454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>643.18027223360298</c:v>
+                  <c:v>656.16735901046252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>292.40600285579501</c:v>
+                  <c:v>305.39308963265449</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>166.6700611843363</c:v>
+                  <c:v>179.65714796119582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.842285436003394</c:v>
+                  <c:v>97.829372212862893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>291.31831881869385</c:v>
+                  <c:v>304.30540559555334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.791909040435058</c:v>
+                  <c:v>89.778995817294557</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.242805772664198</c:v>
+                  <c:v>58.229892549523697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>243.06515642561988</c:v>
+                  <c:v>256.05224320247936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3763,10 +3772,10 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L82" sqref="L82"/>
+      <selection pane="bottomRight" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3853,7 +3862,7 @@
         <v>1689.5847999999999</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J101" si="2">((D2*F2)+H2)/(E2*F2)-100%</f>
+        <f t="shared" ref="J2:J33" si="2">((D2*F2)+H2)/(E2*F2)-100%</f>
         <v>0.20646274279325394</v>
       </c>
       <c r="K2" s="10" t="s">
@@ -5031,7 +5040,7 @@
         <v>70</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" ref="G31:G84" si="3">F31*D31</f>
+        <f t="shared" ref="G31:G85" si="3">F31*D31</f>
         <v>525</v>
       </c>
       <c r="H31" s="6">
@@ -5039,7 +5048,7 @@
         <v>99.710000000000022</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" ref="I31:I84" si="4">(G31-(F31*E31)+H31)</f>
+        <f t="shared" ref="I31:I62" si="4">(G31-(F31*E31)+H31)</f>
         <v>40.870092999999983</v>
       </c>
       <c r="J31" s="8">
@@ -5169,7 +5178,7 @@
         <v>-33.829995999999994</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J34:J65" si="5">((D34*F34)+H34)/(E34*F34)-100%</f>
         <v>-4.5613272995339127E-2</v>
       </c>
       <c r="K34" s="10" t="s">
@@ -5211,7 +5220,7 @@
         <v>80.729996000000042</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.32655122843538198</v>
       </c>
       <c r="K35" s="10" t="s">
@@ -5253,7 +5262,7 @@
         <v>-15.459998999999826</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.4716660493204858E-2</v>
       </c>
       <c r="K36" s="10" t="s">
@@ -5294,7 +5303,7 @@
         <v>0.11999999999989086</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.5221644889756902E-5</v>
       </c>
       <c r="K37" s="10" t="s">
@@ -5336,7 +5345,7 @@
         <v>25.350000000000005</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24916453705523889</v>
       </c>
       <c r="K38" s="10" t="s">
@@ -5378,7 +5387,7 @@
         <v>173.46999999999997</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.44180419722901387</v>
       </c>
       <c r="K39" s="10" t="s">
@@ -5420,7 +5429,7 @@
         <v>-273.24499999999966</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.10087401131507767</v>
       </c>
       <c r="K40" s="10" t="s">
@@ -5462,7 +5471,7 @@
         <v>201.29999999999995</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18321152603460344</v>
       </c>
       <c r="K41" s="10" t="s">
@@ -5504,7 +5513,7 @@
         <v>139.18000999999992</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.11876440923939247</v>
       </c>
       <c r="K42" s="10" t="s">
@@ -5546,7 +5555,7 @@
         <v>177.56998600000006</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.1578343737025516</v>
       </c>
       <c r="K43" s="10" t="s">
@@ -5588,7 +5597,7 @@
         <v>-292.97000300000008</v>
       </c>
       <c r="J44" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.22047380558584206</v>
       </c>
       <c r="K44" s="10" t="s">
@@ -5630,7 +5639,7 @@
         <v>58.090000000000025</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.8762897780429331E-2</v>
       </c>
       <c r="K45" s="10" t="s">
@@ -5672,7 +5681,7 @@
         <v>551.94999999999982</v>
       </c>
       <c r="J46" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.38116777735575402</v>
       </c>
       <c r="K46" s="10" t="s">
@@ -5714,7 +5723,7 @@
         <v>-84.36999999999999</v>
       </c>
       <c r="J47" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.14827507425177067</v>
       </c>
       <c r="K47" s="10" t="s">
@@ -5756,7 +5765,7 @@
         <v>-104.67160000000004</v>
       </c>
       <c r="J48" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.16127847329693334</v>
       </c>
       <c r="K48" s="10" t="s">
@@ -5798,7 +5807,7 @@
         <v>-20.581600000000066</v>
       </c>
       <c r="J49" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.4210776520931629E-2</v>
       </c>
       <c r="K49" s="10" t="s">
@@ -5840,7 +5849,7 @@
         <v>100.94010000000007</v>
       </c>
       <c r="J50" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.12978811795714695</v>
       </c>
       <c r="K50" s="10" t="s">
@@ -5882,7 +5891,7 @@
         <v>45.760000000000048</v>
       </c>
       <c r="J51" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.9793545015026872E-2</v>
       </c>
       <c r="K51" s="10" t="s">
@@ -5924,7 +5933,7 @@
         <v>39.140000000000057</v>
       </c>
       <c r="J52" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.0976816879395814E-2</v>
       </c>
       <c r="K52" s="10" t="s">
@@ -5951,11 +5960,11 @@
         <v>44</v>
       </c>
       <c r="F53" s="6">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="3"/>
-        <v>4650</v>
+        <v>9300</v>
       </c>
       <c r="H53" s="6">
         <f>264.69+15.17+14.79+12.99+12.89+12.52+12.92+13.17</f>
@@ -5963,11 +5972,11 @@
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>1709.14</v>
+        <v>3059.14</v>
       </c>
       <c r="J53" s="8">
-        <f t="shared" si="2"/>
-        <v>0.51792121212121223</v>
+        <f t="shared" si="5"/>
+        <v>0.46350606060606059</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>118</v>
@@ -6008,7 +6017,7 @@
         <v>224.30999999999995</v>
       </c>
       <c r="J54" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.27382260309089568</v>
       </c>
       <c r="K54" s="10" t="s">
@@ -6050,7 +6059,7 @@
         <v>326.74500000000006</v>
       </c>
       <c r="J55" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.25734538366117321</v>
       </c>
       <c r="K55" s="10" t="s">
@@ -6092,7 +6101,7 @@
         <v>-18.989999999999839</v>
       </c>
       <c r="J56" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-7.7662994135400121E-3</v>
       </c>
       <c r="K56" s="10" t="s">
@@ -6134,7 +6143,7 @@
         <v>21.329000000000036</v>
       </c>
       <c r="J57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.6733541034821959E-2</v>
       </c>
       <c r="K57" s="10" t="s">
@@ -6176,7 +6185,7 @@
         <v>72.729995999999858</v>
       </c>
       <c r="J58" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.1313908006399771E-2</v>
       </c>
       <c r="K58" s="10" t="s">
@@ -6218,7 +6227,7 @@
         <v>81.219999999999956</v>
       </c>
       <c r="J59" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.2022701072980366E-2</v>
       </c>
       <c r="K59" s="10" t="s">
@@ -6256,7 +6265,7 @@
         <v>131.87999700000012</v>
       </c>
       <c r="J60" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17925297186734257</v>
       </c>
       <c r="K60" s="10" t="s">
@@ -6298,7 +6307,7 @@
         <v>29.239970000000049</v>
       </c>
       <c r="J61" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.9743338236964965E-2</v>
       </c>
       <c r="K61" s="10" t="s">
@@ -6340,7 +6349,7 @@
         <v>245.42999999999995</v>
       </c>
       <c r="J62" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.33241233594734054</v>
       </c>
       <c r="K62" s="10" t="s">
@@ -6378,11 +6387,11 @@
         <v>35.639999999999993</v>
       </c>
       <c r="I63" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I63:I94" si="6">(G63-(F63*E63)+H63)</f>
         <v>74.75</v>
       </c>
       <c r="J63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.1864601262191623</v>
       </c>
       <c r="K63" s="10" t="s">
@@ -6420,11 +6429,11 @@
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>117.20000000000005</v>
       </c>
       <c r="J64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15735767991407101</v>
       </c>
       <c r="K64" s="10" t="s">
@@ -6462,11 +6471,11 @@
         <v>59.250000000000007</v>
       </c>
       <c r="I65" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>55.51</v>
       </c>
       <c r="J65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.7387767985043867E-2</v>
       </c>
       <c r="K65" s="10" t="s">
@@ -6504,11 +6513,11 @@
         <v>248.33</v>
       </c>
       <c r="I66" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>607.73245549939986</v>
       </c>
       <c r="J66" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J66:J101" si="7">((D66*F66)+H66)/(E66*F66)-100%</f>
         <v>0.62503981131197217</v>
       </c>
       <c r="K66" s="10" t="s">
@@ -6546,11 +6555,11 @@
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>404.88</v>
       </c>
       <c r="J67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.45231924211278929</v>
       </c>
       <c r="K67" s="10" t="s">
@@ -6588,11 +6597,11 @@
         <v>16.89</v>
       </c>
       <c r="I68" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>97.899999999999991</v>
       </c>
       <c r="J68" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.11599663503122071</v>
       </c>
       <c r="K68" s="10" t="s">
@@ -6630,11 +6639,11 @@
         <v>30.64</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26.38000000000001</v>
       </c>
       <c r="J69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.9713365248547294E-2</v>
       </c>
       <c r="K69" s="10" t="s">
@@ -6672,11 +6681,11 @@
         <v>34.67</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>170.25000000000006</v>
       </c>
       <c r="J70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.2198419462307275</v>
       </c>
       <c r="K70" s="10" t="s">
@@ -6714,11 +6723,11 @@
         <v>64.400000000000006</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>159.9200000000001</v>
       </c>
       <c r="J71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.19878679395385856</v>
       </c>
       <c r="K71" s="10" t="s">
@@ -6756,11 +6765,11 @@
         <v>49.989999999999995</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>477.09000200000003</v>
       </c>
       <c r="J72" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.59273202035714267</v>
       </c>
       <c r="K72" s="10" t="s">
@@ -6798,11 +6807,11 @@
         <v>75.86</v>
       </c>
       <c r="I73" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>87.36999999999999</v>
       </c>
       <c r="J73" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7.769744506398446E-2</v>
       </c>
       <c r="K73" s="10" t="s">
@@ -6840,11 +6849,11 @@
         <v>19.490000000000002</v>
       </c>
       <c r="I74" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>203.5</v>
       </c>
       <c r="J74" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.48109884394430136</v>
       </c>
       <c r="K74" s="10" t="s">
@@ -6882,11 +6891,11 @@
         <v>23.18</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>112.53000000000003</v>
       </c>
       <c r="J75" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.20698979122597261</v>
       </c>
       <c r="K75" s="10" t="s">
@@ -6924,11 +6933,11 @@
         <v>34.74</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17.139999999999979</v>
       </c>
       <c r="J76" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.8302509907529805E-2</v>
       </c>
       <c r="K76" s="10" t="s">
@@ -6966,11 +6975,11 @@
         <v>51.87</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>222.26</v>
       </c>
       <c r="J77" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.54261370572007506</v>
       </c>
       <c r="K77" s="10" t="s">
@@ -7008,11 +7017,11 @@
         <v>87.2</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>352.72700000000026</v>
       </c>
       <c r="J78" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.31678660886449661</v>
       </c>
       <c r="K78" s="10" t="s">
@@ -7050,11 +7059,11 @@
         <v>68.58</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>61.229999999999976</v>
       </c>
       <c r="J79" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.15920436817472683</v>
       </c>
       <c r="K79" s="10" t="s">
@@ -7092,11 +7101,11 @@
         <v>53.269999999999996</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>42.409999999999982</v>
       </c>
       <c r="J80" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.10320994865055599</v>
       </c>
       <c r="K80" s="10" t="s">
@@ -7134,11 +7143,11 @@
         <v>9.15</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-7.4700000000000042</v>
       </c>
       <c r="J81" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-9.3771183249228285E-3</v>
       </c>
       <c r="K81" s="10" t="s">
@@ -7176,11 +7185,11 @@
         <v>49.4</v>
       </c>
       <c r="I82" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21.949999999999953</v>
       </c>
       <c r="J82" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.1363570003406496E-2</v>
       </c>
       <c r="K82" s="10" t="s">
@@ -7218,11 +7227,11 @@
         <v>52.940000000000012</v>
       </c>
       <c r="I83" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>53.540000000000035</v>
       </c>
       <c r="J83" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.7607058317193927E-2</v>
       </c>
       <c r="K83" s="10" t="s">
@@ -7260,11 +7269,11 @@
         <v>110.58000000000001</v>
       </c>
       <c r="I84" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>96.341772999999733</v>
       </c>
       <c r="J84" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.3751507581263098E-2</v>
       </c>
       <c r="K84" s="10" t="s">
@@ -7275,19 +7284,50 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="15">
-      <c r="B85" s="86"/>
-      <c r="C85" s="86"/>
-      <c r="J85" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="A85" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B85" s="86" t="s">
+        <v>382</v>
+      </c>
+      <c r="C85" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="49">
+        <v>150</v>
+      </c>
+      <c r="E85" s="49">
+        <v>150</v>
+      </c>
+      <c r="F85" s="13">
+        <v>40</v>
+      </c>
+      <c r="G85" s="13">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="H85" s="13">
+        <v>0</v>
+      </c>
+      <c r="I85" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>383</v>
       </c>
       <c r="L85" s="96"/>
     </row>
     <row r="86" spans="1:12" ht="15">
       <c r="B86" s="86"/>
       <c r="C86" s="86"/>
+      <c r="H86" s="13"/>
       <c r="J86" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L86" s="96"/>
@@ -7295,8 +7335,9 @@
     <row r="87" spans="1:12" ht="15">
       <c r="B87" s="86"/>
       <c r="C87" s="86"/>
+      <c r="H87" s="13"/>
       <c r="J87" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L87" s="96"/>
@@ -7321,7 +7362,7 @@
         <v>150</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" ref="G88:G98" si="5">F88*D88</f>
+        <f t="shared" ref="G88:G98" si="8">F88*D88</f>
         <v>274.5</v>
       </c>
       <c r="H88" s="6">
@@ -7329,11 +7370,11 @@
         <v>17.079999999999998</v>
       </c>
       <c r="I88" s="7">
-        <f t="shared" ref="I88:I98" si="6">(G88-(F88*E88)+H88)</f>
+        <f t="shared" ref="I88:I98" si="9">(G88-(F88*E88)+H88)</f>
         <v>-14.070049999999966</v>
       </c>
       <c r="J88" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-4.6033200387174733E-2</v>
       </c>
       <c r="K88" s="10" t="s">
@@ -7363,7 +7404,7 @@
         <v>80</v>
       </c>
       <c r="G89" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="H89" s="6">
@@ -7371,11 +7412,11 @@
         <v>6.8299999999999992</v>
       </c>
       <c r="I89" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.8899999999999446</v>
       </c>
       <c r="J89" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1589325496516034E-2</v>
       </c>
       <c r="K89" s="10" t="s">
@@ -7405,19 +7446,19 @@
         <v>11</v>
       </c>
       <c r="G90" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>440</v>
       </c>
       <c r="H90" s="6">
-        <f t="shared" ref="H90:H91" si="7">0</f>
+        <f t="shared" ref="H90:H91" si="10">0</f>
         <v>0</v>
       </c>
       <c r="I90" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-12.129997000000003</v>
       </c>
       <c r="J90" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-2.6828560547819569E-2</v>
       </c>
       <c r="K90" s="10" t="s">
@@ -7447,19 +7488,19 @@
         <v>2</v>
       </c>
       <c r="G91" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>346</v>
       </c>
       <c r="H91" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <f t="shared" si="9"/>
+        <v>-8.7699999999999818</v>
+      </c>
+      <c r="J91" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="7">
-        <f t="shared" si="6"/>
-        <v>-8.7699999999999818</v>
-      </c>
-      <c r="J91" s="8">
-        <f t="shared" si="2"/>
         <v>-2.472024128308481E-2</v>
       </c>
       <c r="K91" s="10" t="s">
@@ -7489,7 +7530,7 @@
         <v>20</v>
       </c>
       <c r="G92" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>356</v>
       </c>
       <c r="H92" s="6">
@@ -7497,11 +7538,11 @@
         <v>44.77</v>
       </c>
       <c r="I92" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>39.37999999999996</v>
       </c>
       <c r="J92" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.10896815075126587</v>
       </c>
       <c r="K92" s="10" t="s">
@@ -7531,7 +7572,7 @@
         <v>20</v>
       </c>
       <c r="G93" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>338</v>
       </c>
       <c r="H93" s="6">
@@ -7539,11 +7580,11 @@
         <v>7.8199999999999994</v>
       </c>
       <c r="I93" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-9.9600000000000293</v>
       </c>
       <c r="J93" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-2.7994828264658045E-2</v>
       </c>
       <c r="K93" s="10" t="s">
@@ -7573,7 +7614,7 @@
         <v>150</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>390</v>
       </c>
       <c r="H94" s="6">
@@ -7581,11 +7622,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-17.909999999999968</v>
       </c>
       <c r="J94" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-4.3906744134735498E-2</v>
       </c>
       <c r="K94" s="10" t="s">
@@ -7615,7 +7656,7 @@
         <v>30</v>
       </c>
       <c r="G95" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>438</v>
       </c>
       <c r="H95" s="6">
@@ -7623,11 +7664,11 @@
         <v>18.509999999999998</v>
       </c>
       <c r="I95" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12.509999999999998</v>
       </c>
       <c r="J95" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.8175675675675693E-2</v>
       </c>
       <c r="K95" s="10" t="s">
@@ -7657,7 +7698,7 @@
         <v>3</v>
       </c>
       <c r="G96" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>336</v>
       </c>
       <c r="H96" s="6">
@@ -7665,11 +7706,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-20.780000099999995</v>
       </c>
       <c r="J96" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-5.8243175329827035E-2</v>
       </c>
       <c r="K96" s="10" t="s">
@@ -7699,7 +7740,7 @@
         <v>250</v>
       </c>
       <c r="G97" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>457.5</v>
       </c>
       <c r="H97" s="6">
@@ -7707,11 +7748,11 @@
         <v>19.850000000000001</v>
       </c>
       <c r="I97" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.139999999999965</v>
       </c>
       <c r="J97" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.3939018500240827E-3</v>
       </c>
       <c r="K97" s="10" t="s">
@@ -7741,7 +7782,7 @@
         <v>1000</v>
       </c>
       <c r="G98" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1008.9999999999999</v>
       </c>
       <c r="H98" s="6">
@@ -7749,11 +7790,11 @@
         <v>59.019999999999996</v>
       </c>
       <c r="I98" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>50.089999999999932</v>
       </c>
       <c r="J98" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.9207705834389381E-2</v>
       </c>
       <c r="K98" s="10" t="s">
@@ -7772,7 +7813,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L99" s="96"/>
@@ -7784,7 +7825,7 @@
       <c r="E100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L100" s="96"/>
@@ -7817,7 +7858,7 @@
         <v>-646.24999000000003</v>
       </c>
       <c r="J101" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-0.54121617276387624</v>
       </c>
       <c r="K101" s="10" t="s">
@@ -7884,11 +7925,11 @@
         <v>0.39</v>
       </c>
       <c r="I105" s="7">
-        <f t="shared" ref="I105:I108" si="8">(G105-(F105*E105)+H105)</f>
+        <f>(G105-(F105*E105)+H105)</f>
         <v>-4.6260000000000057</v>
       </c>
       <c r="J105" s="8">
-        <f t="shared" ref="J105:J108" si="9">((D105*F105)+H105)/(E105*F105)-100%</f>
+        <f>((D105*F105)+H105)/(E105*F105)-100%</f>
         <v>-6.9672871859750685E-2</v>
       </c>
       <c r="K105" s="10" t="s">
@@ -7926,11 +7967,11 @@
         <v>0</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" si="8"/>
+        <f>(G106-(F106*E106)+H106)</f>
         <v>0</v>
       </c>
       <c r="J106" s="8">
-        <f t="shared" si="9"/>
+        <f>((D106*F106)+H106)/(E106*F106)-100%</f>
         <v>-0.20490724117295012</v>
       </c>
       <c r="K106" s="10" t="s">
@@ -7960,7 +8001,7 @@
         <v>2</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" ref="G107:G108" si="10">F107*D107</f>
+        <f t="shared" ref="G107:G108" si="11">F107*D107</f>
         <v>32.74</v>
       </c>
       <c r="H107" s="6">
@@ -7968,11 +8009,11 @@
         <v>1.06</v>
       </c>
       <c r="I107" s="7">
-        <f t="shared" si="8"/>
+        <f>(G107-(F107*E107)+H107)</f>
         <v>1.800000000000002</v>
       </c>
       <c r="J107" s="8">
-        <f t="shared" si="9"/>
+        <f>((D107*F107)+H107)/(E107*F107)-100%</f>
         <v>5.6250000000000133E-2</v>
       </c>
       <c r="K107" s="10" t="s">
@@ -8002,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.66</v>
       </c>
       <c r="H108" s="6">
@@ -8010,11 +8051,11 @@
         <v>0.98</v>
       </c>
       <c r="I108" s="7">
-        <f t="shared" si="8"/>
+        <f>(G108-(F108*E108)+H108)</f>
         <v>-84.57</v>
       </c>
       <c r="J108" s="8">
-        <f t="shared" si="9"/>
+        <f>((D108*F108)+H108)/(E108*F108)-100%</f>
         <v>-0.84392775172138501</v>
       </c>
       <c r="K108" s="10" t="s">
@@ -17422,9 +17463,9 @@
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="12.75">
-      <c r="A85" s="21">
+      <c r="A85" s="21" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Texas Instruments</v>
       </c>
       <c r="B85" s="22" t="e">
         <f t="shared" si="0"/>
@@ -29595,7 +29636,7 @@
       </c>
       <c r="Q2" s="35">
         <f>SUM(B2:B150)</f>
-        <v>95.718779269442678</v>
+        <v>108.70586604630219</v>
       </c>
       <c r="R2" s="36">
         <v>43903</v>
@@ -29678,7 +29719,7 @@
       </c>
       <c r="Q3" s="35">
         <f>SUM(C2:C151)</f>
-        <v>80.894885436003378</v>
+        <v>93.881972212862891</v>
       </c>
       <c r="R3" s="36">
         <v>43483</v>
@@ -29742,7 +29783,7 @@
       </c>
       <c r="Q4" s="35">
         <f>SUM(D2:D152)</f>
-        <v>262.87255642561985</v>
+        <v>275.85964320247933</v>
       </c>
       <c r="R4" s="14"/>
       <c r="T4" s="14"/>
@@ -29798,7 +29839,7 @@
       </c>
       <c r="Q5" s="35">
         <f>SUM(E2:E153)</f>
-        <v>182.94000904043503</v>
+        <v>195.92709581729454</v>
       </c>
       <c r="R5" s="43">
         <v>43584</v>
@@ -29878,7 +29919,7 @@
       </c>
       <c r="Q6" s="35">
         <f>SUM(F2:F154)</f>
-        <v>643.18027223360298</v>
+        <v>656.16735901046252</v>
       </c>
       <c r="R6" s="43">
         <v>43839</v>
@@ -29950,7 +29991,7 @@
       </c>
       <c r="Q7" s="35">
         <f>SUM(G2:G155)</f>
-        <v>292.40600285579501</v>
+        <v>305.39308963265449</v>
       </c>
       <c r="R7" s="36">
         <v>43515</v>
@@ -30032,7 +30073,7 @@
       </c>
       <c r="Q8" s="35">
         <f>SUM(H2:H156)</f>
-        <v>166.6700611843363</v>
+        <v>179.65714796119582</v>
       </c>
       <c r="S8" s="36">
         <v>43593</v>
@@ -30086,7 +30127,7 @@
       </c>
       <c r="Q9" s="35">
         <f>SUM(I2:I157)</f>
-        <v>84.842285436003394</v>
+        <v>97.829372212862893</v>
       </c>
       <c r="R9" s="43">
         <v>43549</v>
@@ -30160,7 +30201,7 @@
       </c>
       <c r="Q10" s="35">
         <f>SUM(J2:J158)</f>
-        <v>291.31831881869385</v>
+        <v>304.30540559555334</v>
       </c>
       <c r="R10" s="48" t="s">
         <v>241</v>
@@ -30225,7 +30266,7 @@
       </c>
       <c r="Q11" s="35">
         <f>SUM(K2:K159)</f>
-        <v>76.791909040435058</v>
+        <v>89.778995817294557</v>
       </c>
       <c r="S11" s="36">
         <v>43584</v>
@@ -30280,7 +30321,7 @@
       </c>
       <c r="Q12" s="35">
         <f>SUM(L2:L160)</f>
-        <v>45.242805772664198</v>
+        <v>58.229892549523697</v>
       </c>
       <c r="V12" s="38" t="e">
         <f>N12/(#REF!*#REF!)</f>
@@ -30325,7 +30366,7 @@
       </c>
       <c r="Q13" s="35">
         <f>SUM(M2:M161)</f>
-        <v>243.06515642561988</v>
+        <v>256.05224320247936</v>
       </c>
       <c r="T13" s="36"/>
       <c r="U13" s="21"/>
@@ -30377,7 +30418,7 @@
       </c>
       <c r="Q14" s="51">
         <f>SUM(B2:M400)</f>
-        <v>2465.9430419386545</v>
+        <v>2621.788083260969</v>
       </c>
       <c r="R14" s="48"/>
       <c r="S14" s="48"/>
@@ -30464,7 +30505,7 @@
       </c>
       <c r="Q15" s="53">
         <f>(Q14-801)*0.72+801</f>
-        <v>1999.7589901958311</v>
+        <v>2111.9674199478977</v>
       </c>
       <c r="R15" s="48" t="s">
         <v>245</v>
@@ -30644,7 +30685,7 @@
       </c>
       <c r="Q18" s="59">
         <f t="shared" ref="Q18:Q19" si="2">Q14/12</f>
-        <v>205.49525349488786</v>
+        <v>218.4823402717474</v>
       </c>
       <c r="R18" s="48" t="s">
         <v>249</v>
@@ -30712,7 +30753,7 @@
       </c>
       <c r="Q19" s="59">
         <f t="shared" si="2"/>
-        <v>166.64658251631926</v>
+        <v>175.99728499565813</v>
       </c>
       <c r="R19" s="56"/>
       <c r="S19" s="60">
@@ -30892,7 +30933,7 @@
       </c>
       <c r="Q22" s="63">
         <f>SUM(B15:M78)</f>
-        <v>1540.1239884743861</v>
+        <v>1695.9690297967002</v>
       </c>
       <c r="R22" s="45" t="s">
         <v>256</v>
@@ -31333,7 +31374,7 @@
       </c>
       <c r="Y30" s="9">
         <f t="shared" ref="Y30:Y119" si="4">N2/$Q$14</f>
-        <v>7.1446020928086398E-2</v>
+        <v>6.7199107092852428E-2</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="38"/>
@@ -31378,7 +31419,7 @@
       </c>
       <c r="Y31" s="9">
         <f t="shared" si="4"/>
-        <v>2.1650309372147395E-3</v>
+        <v>2.0363365785712861E-3</v>
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="38"/>
@@ -31580,7 +31621,7 @@
       </c>
       <c r="Y34" s="9">
         <f t="shared" si="4"/>
-        <v>3.211856995703246E-2</v>
+        <v>3.0209369173748123E-2</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="38"/>
@@ -31647,7 +31688,7 @@
       </c>
       <c r="Y35" s="9">
         <f t="shared" si="4"/>
-        <v>0.153896498639988</v>
+        <v>0.14474854105217363</v>
       </c>
       <c r="AE35" s="7"/>
       <c r="AF35" s="38"/>
@@ -31710,7 +31751,7 @@
       </c>
       <c r="Y36" s="9">
         <f t="shared" si="4"/>
-        <v>1.823183947128202E-3</v>
+        <v>1.7148097503758199E-3</v>
       </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="38"/>
@@ -31806,7 +31847,7 @@
       </c>
       <c r="Y38" s="9">
         <f t="shared" si="4"/>
-        <v>4.4098261721163386E-2</v>
+        <v>4.1476960837215145E-2</v>
       </c>
       <c r="AE38" s="7"/>
       <c r="AF38" s="38"/>
@@ -31970,7 +32011,7 @@
       </c>
       <c r="Y41" s="9">
         <f t="shared" si="4"/>
-        <v>8.5461747521634462E-3</v>
+        <v>8.038170704886655E-3</v>
       </c>
       <c r="AE41" s="7"/>
       <c r="AF41" s="38"/>
@@ -32030,7 +32071,7 @@
       </c>
       <c r="Y42" s="9">
         <f t="shared" si="4"/>
-        <v>7.8063441339124347E-3</v>
+        <v>7.3423172997479384E-3</v>
       </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="38"/>
@@ -32090,7 +32131,7 @@
       </c>
       <c r="Y43" s="9">
         <f t="shared" si="4"/>
-        <v>3.2475464058221111E-2</v>
+        <v>3.0545048678569303E-2</v>
       </c>
       <c r="AE43" s="7">
         <f>(1/117)*44</f>
@@ -32136,7 +32177,7 @@
       </c>
       <c r="Y44" s="9">
         <f t="shared" si="4"/>
-        <v>4.0146912688692523E-3</v>
+        <v>3.7760488970132256E-3</v>
       </c>
       <c r="AE44" s="7">
         <f>0.41</f>
@@ -32189,7 +32230,7 @@
       </c>
       <c r="Y45" s="9">
         <f t="shared" si="4"/>
-        <v>9.9135627125095972E-3</v>
+        <v>9.3242780176685195E-3</v>
       </c>
       <c r="AE45" s="7">
         <f>0.74*(1/1.1)</f>
@@ -32226,7 +32267,7 @@
       </c>
       <c r="Y46" s="9">
         <f t="shared" si="4"/>
-        <v>2.2789799339102525E-3</v>
+        <v>2.1435121879697749E-3</v>
       </c>
       <c r="AE46" s="7">
         <f>1.88*(1/1.1)</f>
@@ -32299,7 +32340,7 @@
       </c>
       <c r="Y47" s="9">
         <f t="shared" si="4"/>
-        <v>4.7098816973765809E-3</v>
+        <v>4.429915626725324E-3</v>
       </c>
       <c r="AE47" s="7"/>
       <c r="AF47" s="38">
@@ -32351,7 +32392,7 @@
       </c>
       <c r="Y48" s="9">
         <f t="shared" si="4"/>
-        <v>6.8695828378429434E-3</v>
+        <v>6.4612392237781858E-3</v>
       </c>
       <c r="AA48" s="4" t="s">
         <v>260</v>
@@ -32462,7 +32503,7 @@
       </c>
       <c r="Y50" s="9">
         <f t="shared" si="4"/>
-        <v>1.1212581274838441E-2</v>
+        <v>1.054607996481129E-2</v>
       </c>
       <c r="AE50" s="7">
         <f>(4*0.9)*(1/AA49)</f>
@@ -32535,7 +32576,7 @@
       </c>
       <c r="Y51" s="9">
         <f t="shared" si="4"/>
-        <v>1.0540098239438656E-2</v>
+        <v>9.9135708491609933E-3</v>
       </c>
       <c r="AE51" s="7"/>
       <c r="AF51" s="38">
@@ -32581,7 +32622,7 @@
       </c>
       <c r="Y52" s="9">
         <f t="shared" si="4"/>
-        <v>3.7562994583761125E-2</v>
+        <v>3.5330164828956935E-2</v>
       </c>
       <c r="AE52" s="7"/>
       <c r="AF52" s="38">
@@ -32603,55 +32644,55 @@
       </c>
       <c r="B53" s="7">
         <f>'Portfolio Ned'!$F$53*$O$53*$AC$2*0.85</f>
-        <v>12.987086776859506</v>
+        <v>25.974173553719012</v>
       </c>
       <c r="C53" s="7">
         <f>'Portfolio Ned'!$F$53*$O$53*$AC$2*0.85</f>
-        <v>12.987086776859506</v>
+        <v>25.974173553719012</v>
       </c>
       <c r="D53" s="7">
         <f>'Portfolio Ned'!$F$53*$O$53*$AC$2*0.85</f>
-        <v>12.987086776859506</v>
+        <v>25.974173553719012</v>
       </c>
       <c r="E53" s="7">
         <f>'Portfolio Ned'!$F$53*$O$53*$AC$2*0.85</f>
-        <v>12.987086776859506</v>
+        <v>25.974173553719012</v>
       </c>
       <c r="F53" s="7">
         <f>'Portfolio Ned'!$F$53*$O$53*$AC$2*0.85</f>
-        <v>12.987086776859506</v>
+        <v>25.974173553719012</v>
       </c>
       <c r="G53" s="7">
         <f>'Portfolio Ned'!$F$53*$O$53*$AC$2*0.85</f>
-        <v>12.987086776859506</v>
+        <v>25.974173553719012</v>
       </c>
       <c r="H53" s="7">
         <f>'Portfolio Ned'!$F$53*$O$53*$AC$2*0.85</f>
-        <v>12.987086776859506</v>
+        <v>25.974173553719012</v>
       </c>
       <c r="I53" s="7">
         <f>'Portfolio Ned'!$F$53*$O$53*$AC$2*0.85</f>
-        <v>12.987086776859506</v>
+        <v>25.974173553719012</v>
       </c>
       <c r="J53" s="7">
         <f>'Portfolio Ned'!$F$53*$O$53*$AC$2*0.85</f>
-        <v>12.987086776859506</v>
+        <v>25.974173553719012</v>
       </c>
       <c r="K53" s="7">
         <f>'Portfolio Ned'!$F$53*$O$53*$AC$2*0.85</f>
-        <v>12.987086776859506</v>
+        <v>25.974173553719012</v>
       </c>
       <c r="L53" s="7">
         <f>'Portfolio Ned'!$F$53*$O$53*$AC$2*0.85</f>
-        <v>12.987086776859506</v>
+        <v>25.974173553719012</v>
       </c>
       <c r="M53" s="7">
         <f>'Portfolio Ned'!$F$53*$O$53*$AC$2*0.85</f>
-        <v>12.987086776859506</v>
+        <v>25.974173553719012</v>
       </c>
       <c r="N53" s="32">
         <f t="shared" si="6"/>
-        <v>155.84504132231413</v>
+        <v>311.69008264462826</v>
       </c>
       <c r="O53" s="46">
         <v>0.2465</v>
@@ -32675,7 +32716,7 @@
       </c>
       <c r="Y53" s="9">
         <f t="shared" si="4"/>
-        <v>1.7924177180204136E-2</v>
+        <v>1.6858723358382281E-2</v>
       </c>
       <c r="AE53" s="7"/>
       <c r="AF53" s="38">
@@ -32731,7 +32772,7 @@
       </c>
       <c r="Y54" s="9">
         <f t="shared" si="4"/>
-        <v>1.297677985897132E-2</v>
+        <v>1.2205410576204365E-2</v>
       </c>
       <c r="AE54" s="7"/>
       <c r="AF54" s="38">
@@ -32778,7 +32819,7 @@
       </c>
       <c r="Y55" s="9">
         <f t="shared" si="4"/>
-        <v>1.0543633635414197E-2</v>
+        <v>9.9168960931660458E-3</v>
       </c>
       <c r="AE55" s="7"/>
       <c r="AF55" s="38">
@@ -32830,7 +32871,7 @@
       </c>
       <c r="Y56" s="9">
         <f t="shared" si="4"/>
-        <v>1.7548145491108943E-2</v>
+        <v>1.6505043847367267E-2</v>
       </c>
       <c r="AE56" s="7"/>
       <c r="AF56" s="38">
@@ -32878,7 +32919,7 @@
       </c>
       <c r="Y57" s="9">
         <f t="shared" si="4"/>
-        <v>3.1575180000359602E-3</v>
+        <v>2.9698279550878937E-3</v>
       </c>
       <c r="AE57" s="7"/>
       <c r="AF57" s="38">
@@ -33013,7 +33054,7 @@
       </c>
       <c r="Y59" s="9">
         <f t="shared" si="4"/>
-        <v>4.1840192640370125E-3</v>
+        <v>3.9353116513736047E-3</v>
       </c>
       <c r="AE59" s="7"/>
       <c r="AF59" s="38">
@@ -33075,7 +33116,7 @@
       </c>
       <c r="Y60" s="9">
         <f t="shared" si="4"/>
-        <v>5.0593354532807604E-2</v>
+        <v>4.7585970572929001E-2</v>
       </c>
       <c r="AE60" s="7"/>
       <c r="AF60" s="38">
@@ -33140,7 +33181,7 @@
       </c>
       <c r="Y61" s="9">
         <f t="shared" si="4"/>
-        <v>1.7046769905648688E-2</v>
+        <v>1.6033471166013915E-2</v>
       </c>
       <c r="AF61" s="38">
         <v>5.0000000000000001E-3</v>
@@ -33201,7 +33242,7 @@
       </c>
       <c r="Y62" s="9">
         <f t="shared" si="4"/>
-        <v>4.1021638810384547E-3</v>
+        <v>3.8583219383455944E-3</v>
       </c>
       <c r="AF62" s="38">
         <v>5.0000000000000001E-3</v>
@@ -33262,7 +33303,7 @@
       </c>
       <c r="Y63" s="9">
         <f t="shared" si="4"/>
-        <v>1.9143431444846122E-3</v>
+        <v>1.8005502378946111E-3</v>
       </c>
     </row>
     <row r="64" spans="1:34">
@@ -33284,7 +33325,7 @@
       </c>
       <c r="Y64" s="9">
         <f t="shared" si="4"/>
-        <v>1.3161109118331708E-2</v>
+        <v>1.2378782885525449E-2</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -33338,7 +33379,7 @@
       </c>
       <c r="Y65" s="9">
         <f t="shared" si="4"/>
-        <v>5.5962363141813824E-3</v>
+        <v>5.2635833109881324E-3</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -33457,7 +33498,7 @@
       </c>
       <c r="Y67" s="9">
         <f t="shared" si="4"/>
-        <v>5.6205677764169524E-3</v>
+        <v>5.2864684558185156E-3</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -33511,7 +33552,7 @@
       </c>
       <c r="Y68" s="9">
         <f t="shared" si="4"/>
-        <v>8.6474202521573083E-3</v>
+        <v>8.1333979422943906E-3</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -33568,7 +33609,7 @@
       </c>
       <c r="Y69" s="9">
         <f t="shared" si="4"/>
-        <v>9.7231767288307354E-3</v>
+        <v>9.1452090094855248E-3</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -33610,7 +33651,7 @@
       </c>
       <c r="Y70" s="9">
         <f t="shared" si="4"/>
-        <v>8.2043277620769094E-3</v>
+        <v>7.7166438766911889E-3</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -33651,7 +33692,7 @@
       </c>
       <c r="Y71" s="9">
         <f t="shared" si="4"/>
-        <v>1.037847461902729E-2</v>
+        <v>9.761554504014355E-3</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -33688,7 +33729,7 @@
       </c>
       <c r="Y72" s="9">
         <f t="shared" si="4"/>
-        <v>1.622097482371415E-3</v>
+        <v>1.5256763220255457E-3</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -33726,7 +33767,7 @@
       </c>
       <c r="Y73" s="9">
         <f t="shared" si="4"/>
-        <v>3.2015338009564616E-3</v>
+        <v>3.0112273567818194E-3</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -33799,7 +33840,7 @@
       </c>
       <c r="Y75" s="9">
         <f t="shared" si="4"/>
-        <v>5.1277048512980679E-3</v>
+        <v>4.8229024229319937E-3</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -33832,7 +33873,7 @@
       </c>
       <c r="Y76" s="9">
         <f t="shared" si="4"/>
-        <v>9.5622646585794922E-3</v>
+        <v>8.9938619183405916E-3</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -33866,7 +33907,7 @@
       </c>
       <c r="Y77" s="9">
         <f t="shared" si="4"/>
-        <v>7.2994386706713675E-3</v>
+        <v>6.8655434491149553E-3</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -33908,7 +33949,7 @@
       </c>
       <c r="Y78" s="9">
         <f t="shared" si="4"/>
-        <v>3.674050797571255E-3</v>
+        <v>3.4556568693878608E-3</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -33941,7 +33982,7 @@
       </c>
       <c r="Y79" s="9">
         <f t="shared" si="4"/>
-        <v>1.1964644653028825E-3</v>
+        <v>1.1253438986841319E-3</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -33972,7 +34013,7 @@
       </c>
       <c r="Y80" s="9">
         <f t="shared" si="4"/>
-        <v>1.3934507627818271E-3</v>
+        <v>1.3106208830166255E-3</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -34006,7 +34047,7 @@
       </c>
       <c r="Y81" s="9">
         <f t="shared" si="4"/>
-        <v>6.3198962292248723E-2</v>
+        <v>0.1188845447252737</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -34041,7 +34082,7 @@
       </c>
       <c r="Y82" s="9">
         <f t="shared" si="4"/>
-        <v>2.9221609057426229E-3</v>
+        <v>2.7484610212960199E-3</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -34110,13 +34151,13 @@
       </c>
       <c r="Y84" s="9">
         <f t="shared" si="4"/>
-        <v>4.0552437059285372E-2</v>
+        <v>3.8141908050638641E-2</v>
       </c>
     </row>
     <row r="85" spans="1:25">
-      <c r="A85" s="5">
+      <c r="A85" s="5" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Texas Instruments</v>
       </c>
       <c r="D85" s="7">
         <f>'Portfolio Ned'!$F$84*$O$85*$AC$2*0.85</f>
@@ -34148,7 +34189,7 @@
       </c>
       <c r="Y85" s="9">
         <f t="shared" si="4"/>
-        <v>3.5886473651244003E-3</v>
+        <v>3.3753300110332162E-3</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -34180,7 +34221,7 @@
       </c>
       <c r="Y86" s="9">
         <f t="shared" si="4"/>
-        <v>2.5289384530615293E-2</v>
+        <v>2.3786126047463E-2</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -34200,7 +34241,7 @@
       </c>
       <c r="Y87" s="9">
         <f t="shared" si="4"/>
-        <v>1.1907670154681069E-2</v>
+        <v>1.1199851182142073E-2</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -34220,7 +34261,7 @@
       </c>
       <c r="Y88" s="9">
         <f t="shared" si="4"/>
-        <v>2.0631471284046344E-2</v>
+        <v>1.9405089748738138E-2</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -34240,7 +34281,7 @@
       </c>
       <c r="Y89" s="9">
         <f t="shared" si="4"/>
-        <v>4.4611032206293179E-3</v>
+        <v>4.1959251079508328E-3</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -34262,7 +34303,7 @@
       </c>
       <c r="Y90" s="9">
         <f t="shared" si="4"/>
-        <v>4.8314374598897357E-3</v>
+        <v>4.5442458384959226E-3</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -34286,7 +34327,7 @@
       </c>
       <c r="Y91" s="9">
         <f t="shared" si="4"/>
-        <v>4.7858578612115302E-3</v>
+        <v>4.5013755947365276E-3</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -34322,7 +34363,7 @@
       <c r="V93" s="70"/>
       <c r="Y93" s="9">
         <f t="shared" si="4"/>
-        <v>7.1787867918172944E-3</v>
+        <v>6.7520633921047896E-3</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="15">
@@ -34338,7 +34379,7 @@
       <c r="V94" s="70"/>
       <c r="Y94" s="9">
         <f t="shared" si="4"/>
-        <v>2.6627355987719519E-2</v>
+        <v>2.5044565440800602E-2</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="15">
@@ -34370,7 +34411,7 @@
       <c r="V96" s="70"/>
       <c r="Y96" s="9">
         <f t="shared" si="4"/>
-        <v>1.823183947128202E-3</v>
+        <v>1.7148097503758199E-3</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="15">
@@ -34386,7 +34427,7 @@
       <c r="V97" s="70"/>
       <c r="Y97" s="9">
         <f t="shared" si="4"/>
-        <v>2.8202376682139375E-3</v>
+        <v>2.6525963326125964E-3</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="15">
@@ -34402,7 +34443,7 @@
       <c r="V98" s="70"/>
       <c r="Y98" s="9">
         <f t="shared" si="4"/>
-        <v>2.4128700050274799E-3</v>
+        <v>2.2694435290129991E-3</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="15">
@@ -34418,7 +34459,7 @@
       <c r="V99" s="70"/>
       <c r="Y99" s="9">
         <f t="shared" si="4"/>
-        <v>8.2726971600942164E-3</v>
+        <v>7.7809492423302823E-3</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="15">
@@ -34434,7 +34475,7 @@
       <c r="V100" s="70"/>
       <c r="Y100" s="9">
         <f t="shared" si="4"/>
-        <v>8.1185978992689319E-3</v>
+        <v>7.6360099917378551E-3</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="15">
@@ -34450,7 +34491,7 @@
       <c r="V101" s="70"/>
       <c r="Y101" s="9">
         <f t="shared" si="4"/>
-        <v>6.0731329739985773E-3</v>
+        <v>5.7121321496636426E-3</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="15">
@@ -34482,7 +34523,7 @@
       <c r="V103" s="70"/>
       <c r="Y103" s="9">
         <f t="shared" si="4"/>
-        <v>1.6817095648485646E-3</v>
+        <v>1.5817449268599845E-3</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="15">
@@ -34498,7 +34539,7 @@
       <c r="V104" s="70"/>
       <c r="Y104" s="9">
         <f t="shared" si="4"/>
-        <v>3.9548358717697461E-3</v>
+        <v>3.7197514407304819E-3</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="15">
@@ -34530,7 +34571,7 @@
       <c r="V106" s="70"/>
       <c r="Y106" s="9">
         <f t="shared" si="4"/>
-        <v>1.8508132273857846E-2</v>
+        <v>1.7407966834311474E-2</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="15">
@@ -34546,7 +34587,7 @@
       <c r="V107" s="70"/>
       <c r="Y107" s="9">
         <f t="shared" si="4"/>
-        <v>4.2580058912249641E-3</v>
+        <v>4.0049003453170575E-3</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="15">
@@ -34578,7 +34619,7 @@
       <c r="V109" s="70"/>
       <c r="Y109" s="9">
         <f t="shared" si="4"/>
-        <v>2.5852178625294427E-3</v>
+        <v>2.4315466382282135E-3</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="15">
@@ -34591,7 +34632,7 @@
       <c r="V110" s="70"/>
       <c r="Y110" s="9">
         <f t="shared" si="4"/>
-        <v>1.2942267146580438E-3</v>
+        <v>1.2172949377863395E-3</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="15">
@@ -34604,7 +34645,7 @@
       <c r="V111" s="70"/>
       <c r="Y111" s="9">
         <f t="shared" si="4"/>
-        <v>1.0786948257769909E-2</v>
+        <v>1.0145747541469878E-2</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="15">
@@ -34617,7 +34658,7 @@
       <c r="V112" s="70"/>
       <c r="Y112" s="9">
         <f t="shared" si="4"/>
-        <v>8.3752512571201761E-3</v>
+        <v>7.8774072907889202E-3</v>
       </c>
     </row>
     <row r="113" spans="1:25" ht="15">
@@ -34630,7 +34671,7 @@
       <c r="V113" s="70"/>
       <c r="Y113" s="9">
         <f t="shared" si="4"/>
-        <v>2.6242453938976562E-2</v>
+        <v>2.4682542844471963E-2</v>
       </c>
     </row>
     <row r="114" spans="1:25" ht="15">

--- a/data/2023_08_NedPortfolio.xlsx
+++ b/data/2023_08_NedPortfolio.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC32C924-0C64-44DB-8964-E8BBA7C75DBE}"/>
+  <xr:revisionPtr revIDLastSave="553" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661CF10C-BBBB-457A-9383-B9651CFDA4ED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Ned" sheetId="1" r:id="rId1"/>
     <sheet name="Dividends per year" sheetId="2" r:id="rId2"/>
     <sheet name="Dividendenkalender" sheetId="3" r:id="rId3"/>
-    <sheet name="Performance years Action tracke" sheetId="4" r:id="rId4"/>
+    <sheet name="Performance Action tracker" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="384">
   <si>
     <t>Wertpapier</t>
   </si>
@@ -842,9 +842,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Dividends per year</t>
-  </si>
-  <si>
     <t>Gesamt 2018: Veräußerung Covestro/Kinder Morgan+ Dividenden+Zinsen ING</t>
   </si>
   <si>
@@ -861,9 +858,6 @@
   </si>
   <si>
     <t>Gesamt 2023: kein Verkauf</t>
-  </si>
-  <si>
-    <t>Verkauf Adler Real Estate, Verlust, Totaler Verlust (einmal Dividende von 98 Euro)</t>
   </si>
   <si>
     <t>Yahoo_3_letter</t>
@@ -1189,6 +1183,12 @@
   <si>
     <t>Chips,10.10.2023</t>
   </si>
+  <si>
+    <t>davon Dividende</t>
+  </si>
+  <si>
+    <t>Gesamt 2024: Verkauf Adler Real Estate, Verlust, Totaler Verlust (einmal Dividende von 98 Euro)</t>
+  </si>
 </sst>
 </file>
 
@@ -1512,7 +1512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1740,6 +1740,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3771,7 +3774,7 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3794,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -3824,10 +3827,10 @@
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
@@ -3835,7 +3838,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>12</v>
@@ -3872,7 +3875,7 @@
         <v>43135</v>
       </c>
       <c r="M2" s="94" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -3880,7 +3883,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C3" s="86" t="s">
         <v>12</v>
@@ -3922,7 +3925,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" s="86" t="s">
         <v>12</v>
@@ -3964,7 +3967,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C5" s="86" t="s">
         <v>11</v>
@@ -4006,7 +4009,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" s="86" t="s">
         <v>12</v>
@@ -4048,7 +4051,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C7" s="86" t="s">
         <v>11</v>
@@ -4090,7 +4093,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>12</v>
@@ -4132,7 +4135,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C9" s="86" t="s">
         <v>12</v>
@@ -4173,7 +4176,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C10" s="86" t="s">
         <v>12</v>
@@ -4215,7 +4218,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11" s="86" t="s">
         <v>12</v>
@@ -4257,7 +4260,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C12" s="86" t="s">
         <v>11</v>
@@ -4299,7 +4302,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C13" s="86" t="s">
         <v>12</v>
@@ -4341,7 +4344,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C14" s="86" t="s">
         <v>23</v>
@@ -4383,7 +4386,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C15" s="86" t="s">
         <v>12</v>
@@ -4425,7 +4428,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C16" s="86" t="s">
         <v>11</v>
@@ -4509,7 +4512,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C18" s="86" t="s">
         <v>12</v>
@@ -4551,7 +4554,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C19" s="86" t="s">
         <v>12</v>
@@ -4593,7 +4596,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C20" s="86" t="s">
         <v>23</v>
@@ -4635,7 +4638,7 @@
         <v>54</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C21" s="86" t="s">
         <v>23</v>
@@ -4719,10 +4722,10 @@
         <v>58</v>
       </c>
       <c r="B23" s="86" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C23" s="86" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D23" s="6">
         <v>0.35</v>
@@ -4761,7 +4764,7 @@
         <v>60</v>
       </c>
       <c r="B24" s="86" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C24" s="86" t="s">
         <v>29</v>
@@ -4803,7 +4806,7 @@
         <v>62</v>
       </c>
       <c r="B25" s="86" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C25" s="86" t="s">
         <v>11</v>
@@ -4845,10 +4848,10 @@
         <v>64</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C26" s="86" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D26" s="6">
         <v>2.1</v>
@@ -4887,7 +4890,7 @@
         <v>66</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C27" s="86" t="s">
         <v>11</v>
@@ -4929,7 +4932,7 @@
         <v>68</v>
       </c>
       <c r="B28" s="86" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C28" s="86" t="s">
         <v>12</v>
@@ -4971,7 +4974,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="86" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C29" s="86" t="s">
         <v>12</v>
@@ -5025,7 +5028,7 @@
         <v>73</v>
       </c>
       <c r="B31" s="86" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C31" s="86" t="s">
         <v>240</v>
@@ -5067,7 +5070,7 @@
         <v>75</v>
       </c>
       <c r="B32" s="86" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C32" s="86" t="s">
         <v>12</v>
@@ -5109,7 +5112,7 @@
         <v>77</v>
       </c>
       <c r="B33" s="86" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C33" s="86" t="s">
         <v>12</v>
@@ -5151,7 +5154,7 @@
         <v>79</v>
       </c>
       <c r="B34" s="86" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C34" s="86" t="s">
         <v>12</v>
@@ -5193,7 +5196,7 @@
         <v>81</v>
       </c>
       <c r="B35" s="86" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C35" s="86" t="s">
         <v>12</v>
@@ -5235,7 +5238,7 @@
         <v>83</v>
       </c>
       <c r="B36" s="86" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C36" s="86" t="s">
         <v>12</v>
@@ -5277,7 +5280,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C37" s="86" t="s">
         <v>12</v>
@@ -5318,7 +5321,7 @@
         <v>87</v>
       </c>
       <c r="B38" s="86" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C38" s="86" t="s">
         <v>11</v>
@@ -5360,7 +5363,7 @@
         <v>89</v>
       </c>
       <c r="B39" s="86" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C39" s="86" t="s">
         <v>12</v>
@@ -5402,7 +5405,7 @@
         <v>91</v>
       </c>
       <c r="B40" s="86" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C40" s="86" t="s">
         <v>12</v>
@@ -5444,7 +5447,7 @@
         <v>93</v>
       </c>
       <c r="B41" s="86" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C41" s="86" t="s">
         <v>20</v>
@@ -5486,7 +5489,7 @@
         <v>95</v>
       </c>
       <c r="B42" s="86" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C42" s="86" t="s">
         <v>12</v>
@@ -5528,7 +5531,7 @@
         <v>97</v>
       </c>
       <c r="B43" s="86" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C43" s="86" t="s">
         <v>11</v>
@@ -5570,7 +5573,7 @@
         <v>99</v>
       </c>
       <c r="B44" s="86" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C44" s="86" t="s">
         <v>12</v>
@@ -5612,7 +5615,7 @@
         <v>101</v>
       </c>
       <c r="B45" s="86" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C45" s="86" t="s">
         <v>12</v>
@@ -5654,7 +5657,7 @@
         <v>103</v>
       </c>
       <c r="B46" s="86" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C46" s="86" t="s">
         <v>12</v>
@@ -5696,7 +5699,7 @@
         <v>105</v>
       </c>
       <c r="B47" s="86" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C47" s="86" t="s">
         <v>12</v>
@@ -5738,7 +5741,7 @@
         <v>107</v>
       </c>
       <c r="B48" s="86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C48" s="86" t="s">
         <v>11</v>
@@ -5780,7 +5783,7 @@
         <v>109</v>
       </c>
       <c r="B49" s="86" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C49" s="86" t="s">
         <v>11</v>
@@ -5822,7 +5825,7 @@
         <v>111</v>
       </c>
       <c r="B50" s="86" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C50" s="86" t="s">
         <v>11</v>
@@ -5864,7 +5867,7 @@
         <v>113</v>
       </c>
       <c r="B51" s="86" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C51" s="86" t="s">
         <v>12</v>
@@ -5906,7 +5909,7 @@
         <v>115</v>
       </c>
       <c r="B52" s="86" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C52" s="86" t="s">
         <v>240</v>
@@ -5948,7 +5951,7 @@
         <v>117</v>
       </c>
       <c r="B53" s="86" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C53" s="86" t="s">
         <v>12</v>
@@ -5990,10 +5993,10 @@
         <v>119</v>
       </c>
       <c r="B54" s="86" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C54" s="86" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D54" s="6">
         <v>20</v>
@@ -6032,7 +6035,7 @@
         <v>121</v>
       </c>
       <c r="B55" s="86" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C55" s="86" t="s">
         <v>12</v>
@@ -6074,7 +6077,7 @@
         <v>123</v>
       </c>
       <c r="B56" s="86" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C56" s="86" t="s">
         <v>11</v>
@@ -6116,7 +6119,7 @@
         <v>125</v>
       </c>
       <c r="B57" s="86" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C57" s="86" t="s">
         <v>12</v>
@@ -6158,7 +6161,7 @@
         <v>127</v>
       </c>
       <c r="B58" s="86" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C58" s="86" t="s">
         <v>12</v>
@@ -6200,7 +6203,7 @@
         <v>129</v>
       </c>
       <c r="B59" s="86" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C59" s="86" t="s">
         <v>12</v>
@@ -6277,10 +6280,10 @@
     </row>
     <row r="61" spans="1:12" ht="15">
       <c r="A61" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B61" s="86" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C61" s="86" t="s">
         <v>12</v>
@@ -6322,7 +6325,7 @@
         <v>134</v>
       </c>
       <c r="B62" s="86" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C62" s="86" t="s">
         <v>11</v>
@@ -6364,7 +6367,7 @@
         <v>136</v>
       </c>
       <c r="B63" s="86" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C63" s="86" t="s">
         <v>12</v>
@@ -6387,7 +6390,7 @@
         <v>35.639999999999993</v>
       </c>
       <c r="I63" s="7">
-        <f t="shared" ref="I63:I94" si="6">(G63-(F63*E63)+H63)</f>
+        <f t="shared" ref="I63:I85" si="6">(G63-(F63*E63)+H63)</f>
         <v>74.75</v>
       </c>
       <c r="J63" s="8">
@@ -6406,7 +6409,7 @@
         <v>138</v>
       </c>
       <c r="B64" s="86" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C64" s="86" t="s">
         <v>12</v>
@@ -6448,7 +6451,7 @@
         <v>140</v>
       </c>
       <c r="B65" s="86" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C65" s="86" t="s">
         <v>12</v>
@@ -6490,7 +6493,7 @@
         <v>142</v>
       </c>
       <c r="B66" s="86" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C66" s="86" t="s">
         <v>12</v>
@@ -6532,7 +6535,7 @@
         <v>144</v>
       </c>
       <c r="B67" s="86" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C67" s="86" t="s">
         <v>11</v>
@@ -6574,7 +6577,7 @@
         <v>146</v>
       </c>
       <c r="B68" s="86" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C68" s="86" t="s">
         <v>12</v>
@@ -6616,7 +6619,7 @@
         <v>148</v>
       </c>
       <c r="B69" s="86" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C69" s="86" t="s">
         <v>12</v>
@@ -6658,7 +6661,7 @@
         <v>150</v>
       </c>
       <c r="B70" s="86" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C70" s="86" t="s">
         <v>11</v>
@@ -6700,7 +6703,7 @@
         <v>152</v>
       </c>
       <c r="B71" s="86" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C71" s="86" t="s">
         <v>11</v>
@@ -6742,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="B72" s="86" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C72" s="86" t="s">
         <v>12</v>
@@ -6784,7 +6787,7 @@
         <v>156</v>
       </c>
       <c r="B73" s="86" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C73" s="86" t="s">
         <v>12</v>
@@ -6826,7 +6829,7 @@
         <v>158</v>
       </c>
       <c r="B74" s="86" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C74" s="86" t="s">
         <v>11</v>
@@ -6868,7 +6871,7 @@
         <v>160</v>
       </c>
       <c r="B75" s="86" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C75" s="86" t="s">
         <v>11</v>
@@ -6910,7 +6913,7 @@
         <v>161</v>
       </c>
       <c r="B76" s="86" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C76" s="86" t="s">
         <v>23</v>
@@ -6952,7 +6955,7 @@
         <v>163</v>
       </c>
       <c r="B77" s="86" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C77" s="86" t="s">
         <v>12</v>
@@ -6994,7 +6997,7 @@
         <v>165</v>
       </c>
       <c r="B78" s="86" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C78" s="86" t="s">
         <v>12</v>
@@ -7036,7 +7039,7 @@
         <v>167</v>
       </c>
       <c r="B79" s="86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C79" s="86" t="s">
         <v>11</v>
@@ -7078,7 +7081,7 @@
         <v>169</v>
       </c>
       <c r="B80" s="86" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C80" s="86" t="s">
         <v>29</v>
@@ -7120,7 +7123,7 @@
         <v>171</v>
       </c>
       <c r="B81" s="86" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C81" s="86" t="s">
         <v>12</v>
@@ -7162,7 +7165,7 @@
         <v>173</v>
       </c>
       <c r="B82" s="86" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C82" s="86" t="s">
         <v>11</v>
@@ -7204,7 +7207,7 @@
         <v>175</v>
       </c>
       <c r="B83" s="86" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C83" s="86" t="s">
         <v>12</v>
@@ -7246,7 +7249,7 @@
         <v>177</v>
       </c>
       <c r="B84" s="86" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C84" s="86" t="s">
         <v>12</v>
@@ -7285,10 +7288,10 @@
     </row>
     <row r="85" spans="1:12" ht="15">
       <c r="A85" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B85" s="86" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C85" s="86" t="s">
         <v>12</v>
@@ -7318,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L85" s="96"/>
     </row>
@@ -7347,7 +7350,7 @@
         <v>179</v>
       </c>
       <c r="B88" s="86" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C88" s="86" t="s">
         <v>11</v>
@@ -7389,7 +7392,7 @@
         <v>181</v>
       </c>
       <c r="B89" s="86" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C89" s="86" t="s">
         <v>12</v>
@@ -7431,7 +7434,7 @@
         <v>183</v>
       </c>
       <c r="B90" s="86" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C90" s="86" t="s">
         <v>12</v>
@@ -7473,7 +7476,7 @@
         <v>185</v>
       </c>
       <c r="B91" s="86" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C91" s="86" t="s">
         <v>12</v>
@@ -7515,7 +7518,7 @@
         <v>187</v>
       </c>
       <c r="B92" s="86" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C92" s="86" t="s">
         <v>12</v>
@@ -7557,7 +7560,7 @@
         <v>189</v>
       </c>
       <c r="B93" s="86" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C93" s="86" t="s">
         <v>240</v>
@@ -7599,7 +7602,7 @@
         <v>191</v>
       </c>
       <c r="B94" s="86" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C94" s="86" t="s">
         <v>240</v>
@@ -7641,7 +7644,7 @@
         <v>193</v>
       </c>
       <c r="B95" s="86" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C95" s="86" t="s">
         <v>12</v>
@@ -7683,7 +7686,7 @@
         <v>195</v>
       </c>
       <c r="B96" s="86" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C96" s="86" t="s">
         <v>11</v>
@@ -7725,7 +7728,7 @@
         <v>197</v>
       </c>
       <c r="B97" s="86" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C97" s="86" t="s">
         <v>240</v>
@@ -7767,7 +7770,7 @@
         <v>199</v>
       </c>
       <c r="B98" s="86" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C98" s="86" t="s">
         <v>240</v>
@@ -7902,7 +7905,7 @@
         <v>204</v>
       </c>
       <c r="B105" s="86" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C105" s="86" t="s">
         <v>23</v>
@@ -7944,7 +7947,7 @@
         <v>206</v>
       </c>
       <c r="B106" s="86" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C106" s="86" t="s">
         <v>11</v>
@@ -7975,7 +7978,7 @@
         <v>-0.20490724117295012</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L106" s="96">
         <v>44440</v>
@@ -7986,7 +7989,7 @@
         <v>207</v>
       </c>
       <c r="B107" s="86" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C107" s="86" t="s">
         <v>12</v>
@@ -8017,7 +8020,7 @@
         <v>5.6250000000000133E-2</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L107" s="96">
         <v>44657</v>
@@ -8028,7 +8031,7 @@
         <v>209</v>
       </c>
       <c r="B108" s="86" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C108" s="86" t="s">
         <v>12</v>
@@ -40082,20 +40085,20 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="94.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="109.5703125" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -40108,47 +40111,48 @@
       <c r="C1" s="90" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="92"/>
+      <c r="D1" s="92" t="s">
+        <v>382</v>
+      </c>
       <c r="E1" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="90" t="s">
-        <v>268</v>
-      </c>
+      <c r="F1" s="90"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="93">
         <v>2018</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="88">
         <v>387.64</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="F2" s="75" t="e">
-        <f>SUM('Dividends per year'!C:C)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="D2" s="97">
+        <v>220</v>
+      </c>
+      <c r="E2" s="88">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="93">
         <v>2019</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="88">
         <f>42+201.18+53.37</f>
         <v>296.55</v>
       </c>
-      <c r="D3" s="89"/>
+      <c r="D3" s="97">
+        <v>42</v>
+      </c>
       <c r="E3" s="88">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -40157,15 +40161,17 @@
         <v>2020</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4" s="88">
         <f>1042.24+6.04+12.91+54.22</f>
         <v>1115.4100000000001</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="97">
+        <v>12.91</v>
+      </c>
       <c r="E4" s="88">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="F4" s="76"/>
     </row>
@@ -40174,15 +40180,17 @@
         <v>2021</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" s="88">
         <f>115.57+530.98</f>
         <v>646.54999999999995</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="97">
+        <v>0</v>
+      </c>
       <c r="E5" s="88">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -40191,15 +40199,17 @@
         <v>2022</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6" s="88">
         <f>(55.78+52.9)</f>
         <v>108.68</v>
       </c>
-      <c r="D6" s="89"/>
+      <c r="D6" s="97">
+        <v>52.9</v>
+      </c>
       <c r="E6" s="88">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="F6" s="76"/>
     </row>
@@ -40208,14 +40218,16 @@
         <v>2023</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="88">
         <v>0</v>
       </c>
-      <c r="D7" s="89"/>
+      <c r="D7" s="97">
+        <v>0</v>
+      </c>
       <c r="E7" s="88">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -40224,14 +40236,16 @@
         <v>2024</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>275</v>
+        <v>383</v>
       </c>
       <c r="C8" s="88">
         <v>-1000</v>
       </c>
-      <c r="D8" s="89"/>
+      <c r="D8" s="97">
+        <v>0</v>
+      </c>
       <c r="E8" s="88">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -40242,9 +40256,7 @@
       <c r="B9" s="87"/>
       <c r="C9" s="88"/>
       <c r="D9" s="89"/>
-      <c r="E9" s="88">
-        <v>2030</v>
-      </c>
+      <c r="E9" s="88"/>
       <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">

--- a/data/2023_08_NedPortfolio.xlsx
+++ b/data/2023_08_NedPortfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="553" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661CF10C-BBBB-457A-9383-B9651CFDA4ED}"/>
+  <xr:revisionPtr revIDLastSave="574" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA5CCB4-C396-44BD-B602-D3A3E7674D0E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Ned" sheetId="1" r:id="rId1"/>
@@ -1163,9 +1163,6 @@
     <t>KKR&amp;CO.</t>
   </si>
   <si>
-    <t>Ball Corp, 20.09</t>
-  </si>
-  <si>
     <t>Spin-off Continental, 01.09.2021</t>
   </si>
   <si>
@@ -1188,6 +1185,9 @@
   </si>
   <si>
     <t>Gesamt 2024: Verkauf Adler Real Estate, Verlust, Totaler Verlust (einmal Dividende von 98 Euro)</t>
+  </si>
+  <si>
+    <t>Crown Castle, 05.10.2023</t>
   </si>
 </sst>
 </file>
@@ -2558,19 +2558,19 @@
                   <c:v>622.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>279.34999999999997</c:v>
+                  <c:v>299.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1462.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.190000000000001</c:v>
+                  <c:v>20.330000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>449.51000000000005</c:v>
+                  <c:v>480.87000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2579,13 +2579,13 @@
                   <c:v>23.04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>123.82000000000001</c:v>
+                  <c:v>184.78</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>65.289999999999992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>436.90999999999997</c:v>
+                  <c:v>443.54999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>50.58</c:v>
@@ -2633,7 +2633,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>99.710000000000022</c:v>
+                  <c:v>114.68000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>182.58999999999997</c:v>
@@ -2648,10 +2648,10 @@
                   <c:v>22.67</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>123.36999999999999</c:v>
+                  <c:v>132.70999999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>21.94</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7.09</c:v>
@@ -2663,7 +2663,7 @@
                   <c:v>35.53</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>140.02999999999997</c:v>
+                  <c:v>149.50999999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>90.38000000000001</c:v>
@@ -2696,7 +2696,7 @@
                   <c:v>11.060000000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>46.940000000000012</c:v>
+                  <c:v>50.63000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>359.14000000000004</c:v>
@@ -2705,7 +2705,7 @@
                   <c:v>43.49</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.42000000000000004</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>226.19</c:v>
@@ -2720,13 +2720,13 @@
                   <c:v>98.92</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>144</c:v>
+                  <c:v>156.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>35.96</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>35.760000000000005</c:v>
+                  <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>35.639999999999993</c:v>
@@ -2735,7 +2735,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>59.250000000000007</c:v>
+                  <c:v>65.330000000000013</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>248.33</c:v>
@@ -2780,7 +2780,7 @@
                   <c:v>68.58</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>53.269999999999996</c:v>
+                  <c:v>63.809999999999995</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>9.15</c:v>
@@ -2819,7 +2819,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.8199999999999994</c:v>
+                  <c:v>9.4599999999999991</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>0</c:v>
@@ -3774,11 +3774,11 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3827,7 +3827,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>373</v>
@@ -3875,7 +3875,7 @@
         <v>43135</v>
       </c>
       <c r="M2" s="94" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -4028,16 +4028,16 @@
         <v>6649.3</v>
       </c>
       <c r="H6" s="6">
-        <f>5.37+10.96+12.24+11.9+9.61+14.32+18.85+18.54+16.32+16.92+22.04+19.6+20.11+12.87+6.3+19.33+(11.29+12.8)+(10.6+9.38)</f>
-        <v>279.34999999999997</v>
+        <f>5.37+10.96+12.24+11.9+9.61+14.32+18.85+18.54+16.32+16.92+22.04+19.6+20.11+12.87+6.3+19.33+(11.29+12.8)+(10.6+9.38)+(9.66+10.94)</f>
+        <v>299.95</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>1785.85</v>
+        <v>1806.45</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="2"/>
-        <v>0.34725246947188304</v>
+        <v>0.35125806953410588</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>22</v>
@@ -4112,16 +4112,16 @@
         <v>4500</v>
       </c>
       <c r="H8" s="6">
-        <f>1.19+1.23+1.08+1.25+1.21+1.03+0.96+1.15+1+1.01+1.05+1.23+1.14+1.21+1.11+1.25+1.09</f>
-        <v>19.190000000000001</v>
+        <f>1.19+1.23+1.08+1.25+1.21+1.03+0.96+1.15+1+1.01+1.05+1.23+1.14+1.21+1.11+1.25+1.09+1.14</f>
+        <v>20.330000000000002</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="1"/>
-        <v>3030.5899999999997</v>
+        <v>3031.7299999999996</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="2"/>
-        <v>2.0358659142818749</v>
+        <v>2.0366317345156522</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>28</v>
@@ -4195,16 +4195,16 @@
         <v>5100</v>
       </c>
       <c r="H10" s="6">
-        <f>23.38+5.27+24.8+28.99+28.33+23.26+23.31+27.59+23.9+24.19+26.97+31.75+28.98+30.37+31.69+36.24+30.49</f>
-        <v>449.51000000000005</v>
+        <f>23.38+5.27+24.8+28.99+28.33+23.26+23.31+27.59+23.9+24.19+26.97+31.75+28.98+30.37+31.69+36.24+30.49+31.36</f>
+        <v>480.87000000000006</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>343.37999000000019</v>
+        <v>374.7399900000002</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="2"/>
-        <v>6.595686034356274E-2</v>
+        <v>7.1980528584609793E-2</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>33</v>
@@ -4321,16 +4321,16 @@
         <v>1050</v>
       </c>
       <c r="H13" s="6">
-        <f>26.14+53.34+44.34</f>
-        <v>123.82000000000001</v>
+        <f>26.14+53.34+44.34+60.96</f>
+        <v>184.78</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="1"/>
-        <v>119.32000000000001</v>
+        <v>180.28</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" si="2"/>
-        <v>0.11315315315315311</v>
+        <v>0.17096254148885714</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>39</v>
@@ -4405,16 +4405,16 @@
         <v>1964.9999999999998</v>
       </c>
       <c r="H15" s="6">
-        <f>340.29+6.82+7.01+7.12+7.03+6.67+6.55+7.38+7.53+7.4+7.33+6.55+6.41+6.38+6.44</f>
-        <v>436.90999999999997</v>
+        <f>340.29+6.82+7.01+7.12+7.03+6.67+6.55+7.38+7.53+7.4+7.33+6.55+6.41+6.38+6.44+6.64</f>
+        <v>443.54999999999995</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>589.60999999999956</v>
+        <v>596.24999999999955</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" si="2"/>
-        <v>0.32533796832753947</v>
+        <v>0.32900182089058072</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>43</v>
@@ -5047,16 +5047,16 @@
         <v>525</v>
       </c>
       <c r="H31" s="6">
-        <f>9.83+11.19+12.33+7.31+8.03+7.71+14.93+15.21+13.17</f>
-        <v>99.710000000000022</v>
+        <f>9.83+11.19+12.33+7.31+8.03+7.71+14.93+15.21+13.17+14.97</f>
+        <v>114.68000000000002</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" ref="I31:I62" si="4">(G31-(F31*E31)+H31)</f>
-        <v>40.870092999999983</v>
+        <v>55.840092999999982</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" si="2"/>
-        <v>7.0002225798518447E-2</v>
+        <v>9.5642816344858161E-2</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>74</v>
@@ -5257,16 +5257,16 @@
         <v>911.68000000000006</v>
       </c>
       <c r="H36" s="6">
-        <f>11.35+9.77+11.22+5.72+5.69+5.55+6.12+6.68+7.55+8.91+8.39+9.11+8.77+9.81+8.73</f>
-        <v>123.36999999999999</v>
+        <f>11.35+9.77+11.22+5.72+5.69+5.55+6.12+6.68+7.55+8.91+8.39+9.11+8.77+9.81+8.73+9.34</f>
+        <v>132.70999999999998</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="4"/>
-        <v>-15.459998999999826</v>
+        <v>-6.1199989999998365</v>
       </c>
       <c r="J36" s="8">
         <f t="shared" si="5"/>
-        <v>-1.4716660493204858E-2</v>
+        <v>-5.8257408361895857E-3</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>84</v>
@@ -5299,21 +5299,21 @@
         <v>1840</v>
       </c>
       <c r="H37" s="6">
-        <v>0</v>
+        <v>21.94</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="4"/>
-        <v>0.11999999999989086</v>
+        <v>22.059999999999892</v>
       </c>
       <c r="J37" s="8">
         <f t="shared" si="5"/>
-        <v>6.5221644889756902E-5</v>
+        <v>1.198991238559044E-2</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>86</v>
       </c>
       <c r="L37" s="96">
-        <v>43692</v>
+        <v>45153</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15">
@@ -5466,16 +5466,16 @@
         <v>1160</v>
       </c>
       <c r="H41" s="6">
-        <f>13.16+18.38+18.43+6.37+8.81+6.22+6.67+6.93+9.93+7.27+8.22+8.16+12.59+8.89</f>
-        <v>140.02999999999997</v>
+        <f>13.16+18.38+18.43+6.37+8.81+6.22+6.67+6.93+9.93+7.27+8.22+8.16+12.59+8.89+9.48</f>
+        <v>149.50999999999996</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
-        <v>201.29999999999995</v>
+        <v>210.77999999999994</v>
       </c>
       <c r="J41" s="8">
         <f t="shared" si="5"/>
-        <v>0.18321152603460344</v>
+        <v>0.19183966943653119</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>94</v>
@@ -5928,16 +5928,16 @@
         <v>760</v>
       </c>
       <c r="H52" s="6">
-        <f>10.69+2.79+7.64+3+9.39+3.77+9.66</f>
-        <v>46.940000000000012</v>
+        <f>10.69+2.79+7.64+3+9.39+3.77+9.66+3.69</f>
+        <v>50.63000000000001</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="4"/>
-        <v>39.140000000000057</v>
+        <v>42.830000000000055</v>
       </c>
       <c r="J52" s="8">
         <f t="shared" si="5"/>
-        <v>5.0976816879395814E-2</v>
+        <v>5.5782755926022443E-2</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>116</v>
@@ -6054,16 +6054,16 @@
         <v>1596</v>
       </c>
       <c r="H55" s="6">
-        <f>0.1+0.11+0.1+0.06+0.05</f>
-        <v>0.42000000000000004</v>
+        <f>0.1+0.11+0.1+0.06+0.05+0.09</f>
+        <v>0.51</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>326.74500000000006</v>
+        <v>326.83500000000004</v>
       </c>
       <c r="J55" s="8">
         <f t="shared" si="5"/>
-        <v>0.25734538366117321</v>
+        <v>0.25741626794258377</v>
       </c>
       <c r="K55" s="10" t="s">
         <v>122</v>
@@ -6260,16 +6260,16 @@
         <v>723.6</v>
       </c>
       <c r="H60" s="6">
-        <f>88.46+12.8+12.78+17.49+12.47</f>
-        <v>144</v>
+        <f>88.46+12.8+12.78+17.49+12.47+12.77</f>
+        <v>156.77000000000001</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="4"/>
-        <v>131.87999700000012</v>
+        <v>144.64999700000013</v>
       </c>
       <c r="J60" s="8">
         <f t="shared" si="5"/>
-        <v>0.17925297186734257</v>
+        <v>0.19661011853717425</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>132</v>
@@ -6344,16 +6344,16 @@
         <v>948</v>
       </c>
       <c r="H62" s="6">
-        <f>18+3.19+3.35+3.18+4.69+3.35</f>
-        <v>35.760000000000005</v>
+        <f>18+3.19+3.35+3.18+4.69+3.35+3.44</f>
+        <v>39.200000000000003</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>245.42999999999995</v>
+        <v>248.86999999999995</v>
       </c>
       <c r="J62" s="8">
         <f t="shared" si="5"/>
-        <v>0.33241233594734054</v>
+        <v>0.33707149919412727</v>
       </c>
       <c r="K62" s="10" t="s">
         <v>135</v>
@@ -6470,16 +6470,16 @@
         <v>820</v>
       </c>
       <c r="H65" s="6">
-        <f>3.64+3.49+4.54+3.94+4.02+4.13+6.09+5.57+5.88+5.31+6.77+5.87</f>
-        <v>59.250000000000007</v>
+        <f>3.64+3.49+4.54+3.94+4.02+4.13+6.09+5.57+5.88+5.31+6.77+5.87+6.08</f>
+        <v>65.330000000000013</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="6"/>
-        <v>55.51</v>
+        <v>61.59</v>
       </c>
       <c r="J65" s="8">
         <f t="shared" si="5"/>
-        <v>6.7387767985043867E-2</v>
+        <v>7.4768737708500232E-2</v>
       </c>
       <c r="K65" s="10" t="s">
         <v>141</v>
@@ -7100,16 +7100,16 @@
         <v>400.05</v>
       </c>
       <c r="H80" s="6">
-        <f>9.7+8.93+11.77+10+12.87</f>
-        <v>53.269999999999996</v>
+        <f>9.7+8.93+11.77+10+12.87+10.54</f>
+        <v>63.809999999999995</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="6"/>
-        <v>42.409999999999982</v>
+        <v>52.949999999999982</v>
       </c>
       <c r="J80" s="8">
         <f t="shared" si="7"/>
-        <v>0.10320994865055599</v>
+        <v>0.12886033437979116</v>
       </c>
       <c r="K80" s="10" t="s">
         <v>170</v>
@@ -7226,16 +7226,16 @@
         <v>930</v>
       </c>
       <c r="H83" s="6">
-        <f>24.7+5.78+5.26+5.38+5.31+3.49+3.02</f>
-        <v>52.940000000000012</v>
+        <f>24.7+5.78+5.26+5.38+5.31+3.49+3.02+3.13</f>
+        <v>56.070000000000014</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="6"/>
-        <v>53.540000000000035</v>
+        <v>56.670000000000037</v>
       </c>
       <c r="J83" s="8">
         <f t="shared" si="7"/>
-        <v>5.7607058317193927E-2</v>
+        <v>6.0974822466107303E-2</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>176</v>
@@ -7288,10 +7288,10 @@
     </row>
     <row r="85" spans="1:12" ht="15">
       <c r="A85" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" s="86" t="s">
         <v>379</v>
-      </c>
-      <c r="B85" s="86" t="s">
-        <v>380</v>
       </c>
       <c r="C85" s="86" t="s">
         <v>12</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L85" s="96"/>
     </row>
@@ -7579,16 +7579,16 @@
         <v>338</v>
       </c>
       <c r="H93" s="6">
-        <f>1.7+1.68+1.01+2+1.43</f>
-        <v>7.8199999999999994</v>
+        <f>1.7+1.68+1.01+2+1.43+1.64</f>
+        <v>9.4599999999999991</v>
       </c>
       <c r="I93" s="7">
         <f t="shared" si="9"/>
-        <v>-9.9600000000000293</v>
+        <v>-8.3200000000000305</v>
       </c>
       <c r="J93" s="8">
         <f t="shared" si="7"/>
-        <v>-2.7994828264658045E-2</v>
+        <v>-2.3385238068469372E-2</v>
       </c>
       <c r="K93" s="10" t="s">
         <v>190</v>
@@ -7978,7 +7978,7 @@
         <v>-0.20490724117295012</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L106" s="96">
         <v>44440</v>
@@ -8020,7 +8020,7 @@
         <v>5.6250000000000133E-2</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L107" s="96">
         <v>44657</v>
@@ -15734,11 +15734,11 @@
       </c>
       <c r="B6" s="22">
         <f t="shared" si="0"/>
-        <v>279.34999999999997</v>
+        <v>299.95</v>
       </c>
       <c r="C6" s="23">
         <f>'Portfolio Ned'!H6:H112</f>
-        <v>279.34999999999997</v>
+        <v>299.95</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -15778,11 +15778,11 @@
       </c>
       <c r="B8" s="22">
         <f t="shared" si="0"/>
-        <v>19.190000000000001</v>
+        <v>20.330000000000002</v>
       </c>
       <c r="C8" s="23">
         <f>'Portfolio Ned'!H8:H114</f>
-        <v>19.190000000000001</v>
+        <v>20.330000000000002</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -15822,11 +15822,11 @@
       </c>
       <c r="B10" s="22">
         <f t="shared" si="0"/>
-        <v>449.51000000000005</v>
+        <v>480.87000000000006</v>
       </c>
       <c r="C10" s="23">
         <f>'Portfolio Ned'!H10:H116</f>
-        <v>449.51000000000005</v>
+        <v>480.87000000000006</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -15888,11 +15888,11 @@
       </c>
       <c r="B13" s="22">
         <f t="shared" si="0"/>
-        <v>123.82000000000001</v>
+        <v>184.78</v>
       </c>
       <c r="C13" s="23">
         <f>'Portfolio Ned'!H13:H119</f>
-        <v>123.82000000000001</v>
+        <v>184.78</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -15932,11 +15932,11 @@
       </c>
       <c r="B15" s="22">
         <f t="shared" si="0"/>
-        <v>436.90999999999997</v>
+        <v>443.54999999999995</v>
       </c>
       <c r="C15" s="23">
         <f>'Portfolio Ned'!H15:H119</f>
-        <v>436.90999999999997</v>
+        <v>443.54999999999995</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -16284,11 +16284,11 @@
       </c>
       <c r="B31" s="22">
         <f t="shared" si="0"/>
-        <v>99.710000000000022</v>
+        <v>114.68000000000002</v>
       </c>
       <c r="C31" s="23">
         <f>'Portfolio Ned'!H31:H137</f>
-        <v>99.710000000000022</v>
+        <v>114.68000000000002</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -16394,11 +16394,11 @@
       </c>
       <c r="B36" s="22">
         <f t="shared" si="0"/>
-        <v>123.36999999999999</v>
+        <v>132.70999999999998</v>
       </c>
       <c r="C36" s="23">
         <f>'Portfolio Ned'!H36:H142</f>
-        <v>123.36999999999999</v>
+        <v>132.70999999999998</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -16416,11 +16416,11 @@
       </c>
       <c r="B37" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.94</v>
       </c>
       <c r="C37" s="23">
         <f>'Portfolio Ned'!H37:H143</f>
-        <v>0</v>
+        <v>21.94</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -16504,11 +16504,11 @@
       </c>
       <c r="B41" s="22">
         <f t="shared" si="0"/>
-        <v>140.02999999999997</v>
+        <v>149.50999999999996</v>
       </c>
       <c r="C41" s="23">
         <f>'Portfolio Ned'!H41:H147</f>
-        <v>140.02999999999997</v>
+        <v>149.50999999999996</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -16746,11 +16746,11 @@
       </c>
       <c r="B52" s="22">
         <f t="shared" si="0"/>
-        <v>46.940000000000012</v>
+        <v>50.63000000000001</v>
       </c>
       <c r="C52" s="23">
         <f>'Portfolio Ned'!H52:H158</f>
-        <v>46.940000000000012</v>
+        <v>50.63000000000001</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
@@ -16812,11 +16812,11 @@
       </c>
       <c r="B55" s="22">
         <f t="shared" si="0"/>
-        <v>0.42000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="C55" s="23">
         <f>'Portfolio Ned'!H55:H161</f>
-        <v>0.42000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
@@ -16922,11 +16922,11 @@
       </c>
       <c r="B60" s="22">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>156.77000000000001</v>
       </c>
       <c r="C60" s="23">
         <f>'Portfolio Ned'!H60:H166</f>
-        <v>144</v>
+        <v>156.77000000000001</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
@@ -16966,11 +16966,11 @@
       </c>
       <c r="B62" s="22">
         <f t="shared" si="0"/>
-        <v>35.760000000000005</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="C62" s="23">
         <f>'Portfolio Ned'!H62:H168</f>
-        <v>35.760000000000005</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
@@ -17032,11 +17032,11 @@
       </c>
       <c r="B65" s="22">
         <f t="shared" si="0"/>
-        <v>59.250000000000007</v>
+        <v>65.330000000000013</v>
       </c>
       <c r="C65" s="23">
         <f>'Portfolio Ned'!H65:H171</f>
-        <v>59.250000000000007</v>
+        <v>65.330000000000013</v>
       </c>
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
@@ -17362,11 +17362,11 @@
       </c>
       <c r="B80" s="22">
         <f t="shared" si="0"/>
-        <v>53.269999999999996</v>
+        <v>63.809999999999995</v>
       </c>
       <c r="C80" s="23">
         <f>'Portfolio Ned'!H80:H186</f>
-        <v>53.269999999999996</v>
+        <v>63.809999999999995</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
@@ -17648,11 +17648,11 @@
       </c>
       <c r="B93" s="22">
         <f t="shared" si="0"/>
-        <v>7.8199999999999994</v>
+        <v>9.4599999999999991</v>
       </c>
       <c r="C93" s="23">
         <f>'Portfolio Ned'!H82:H199</f>
-        <v>7.8199999999999994</v>
+        <v>9.4599999999999991</v>
       </c>
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
@@ -40085,7 +40085,7 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -40112,7 +40112,7 @@
         <v>266</v>
       </c>
       <c r="D1" s="92" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E1" s="90" t="s">
         <v>267</v>
@@ -40236,7 +40236,7 @@
         <v>2024</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C8" s="88">
         <v>-1000</v>

--- a/data/2023_08_NedPortfolio.xlsx
+++ b/data/2023_08_NedPortfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="574" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA5CCB4-C396-44BD-B602-D3A3E7674D0E}"/>
+  <xr:revisionPtr revIDLastSave="613" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09043864-4DA0-4107-B0CE-348CE78F23ED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="390">
   <si>
     <t>Wertpapier</t>
   </si>
@@ -1187,7 +1187,25 @@
     <t>Gesamt 2024: Verkauf Adler Real Estate, Verlust, Totaler Verlust (einmal Dividende von 98 Euro)</t>
   </si>
   <si>
-    <t>Crown Castle, 05.10.2023</t>
+    <t>Sandoz</t>
+  </si>
+  <si>
+    <t>Spin off Novartis, 2023</t>
+  </si>
+  <si>
+    <t>SDZNY</t>
+  </si>
+  <si>
+    <t>Veralto</t>
+  </si>
+  <si>
+    <t>VLTO</t>
+  </si>
+  <si>
+    <t>Spin off Danaher, 2023</t>
+  </si>
+  <si>
+    <t>Veralto, 24.10.2023</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1220,7 @@
     <numFmt numFmtId="168" formatCode="d\.\ mmmm"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1321,6 +1339,13 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF232A31"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1512,7 +1537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1745,9 +1770,10 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1788,7 +1814,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -1808,7 +1834,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#WERT!</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1991,7 +2017,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="623565139"/>
@@ -2075,7 +2101,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1636593992"/>
@@ -2098,7 +2124,7 @@
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2117,7 +2143,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -2200,7 +2226,7 @@
                 <a:pPr lvl="0">
                   <a:defRPr sz="1000"/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2549,7 +2575,7 @@
                   <c:v>633.06999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.54</c:v>
+                  <c:v>38.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2558,7 +2584,7 @@
                   <c:v>622.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>299.95</c:v>
+                  <c:v>317.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1462.33</c:v>
@@ -2666,7 +2692,7 @@
                   <c:v>149.50999999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>90.38000000000001</c:v>
+                  <c:v>98.330000000000013</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>132.60999999999999</c:v>
@@ -2675,7 +2701,7 @@
                   <c:v>7.55</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>48.62</c:v>
+                  <c:v>56.8</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -2699,7 +2725,7 @@
                   <c:v>50.63000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>359.14000000000004</c:v>
+                  <c:v>385.88000000000005</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43.49</c:v>
@@ -2717,7 +2743,7 @@
                   <c:v>211.33999999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>98.92</c:v>
+                  <c:v>106.98</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>156.77000000000001</c:v>
@@ -2729,7 +2755,7 @@
                   <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>35.639999999999993</c:v>
+                  <c:v>38.859999999999992</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
@@ -2738,7 +2764,7 @@
                   <c:v>65.330000000000013</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>248.33</c:v>
+                  <c:v>252.84</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
@@ -2834,7 +2860,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.06</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>0.98</c:v>
@@ -2919,7 +2945,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1312160396"/>
@@ -2995,7 +3021,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2044423251"/>
@@ -3018,7 +3044,7 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3037,7 +3063,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -3254,7 +3280,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="590469468"/>
@@ -3330,7 +3356,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="704768897"/>
@@ -3353,7 +3379,7 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3473,7 +3499,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3781,7 +3807,7 @@
       <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -3789,7 +3815,7 @@
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="11" max="11" width="24.140625" customWidth="1"/>
     <col min="12" max="12" width="24.85546875" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -3875,7 +3901,7 @@
         <v>43135</v>
       </c>
       <c r="M2" s="94" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -3902,16 +3928,16 @@
         <v>4070</v>
       </c>
       <c r="H3" s="6">
-        <f>26.93+2.26+2.35+2.7+2.3</f>
-        <v>36.54</v>
+        <f>26.93+2.26+2.35+2.7+2.3+2.45</f>
+        <v>38.99</v>
       </c>
       <c r="I3" s="7">
         <f t="shared" si="1"/>
-        <v>2312.04</v>
+        <v>2314.4899999999998</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" si="2"/>
-        <v>1.2884034550013932</v>
+        <v>1.2897687378099749</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>14</v>
@@ -4028,16 +4054,16 @@
         <v>6649.3</v>
       </c>
       <c r="H6" s="6">
-        <f>5.37+10.96+12.24+11.9+9.61+14.32+18.85+18.54+16.32+16.92+22.04+19.6+20.11+12.87+6.3+19.33+(11.29+12.8)+(10.6+9.38)+(9.66+10.94)</f>
-        <v>299.95</v>
+        <f>5.37+10.96+12.24+11.9+9.61+14.32+18.85+18.54+16.32+16.92+22.04+19.6+20.11+12.87+6.3+19.33+(11.29+12.8)+(10.6+9.38)+(9.66+10.94)+(17.13)</f>
+        <v>317.08</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>1806.45</v>
+        <v>1823.58</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="2"/>
-        <v>0.35125806953410588</v>
+        <v>0.35458893987710982</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>22</v>
@@ -5508,16 +5534,16 @@
         <v>1220.6999999999998</v>
       </c>
       <c r="H42" s="6">
-        <f>3.71+4.22+5.02+4.18+4.07+4.53+5.11+4.5+4.59+5.38+7.41+6.84+7.12+7.42+8.82+7.46</f>
-        <v>90.38000000000001</v>
+        <f>3.71+4.22+5.02+4.18+4.07+4.53+5.11+4.5+4.59+5.38+7.41+6.84+7.12+7.42+8.82+7.46+7.95</f>
+        <v>98.330000000000013</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="4"/>
-        <v>139.18000999999992</v>
+        <v>147.13000999999994</v>
       </c>
       <c r="J42" s="8">
         <f t="shared" si="5"/>
-        <v>0.11876440923939247</v>
+        <v>0.1255482645750341</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>96</v>
@@ -5634,16 +5660,16 @@
         <v>747</v>
       </c>
       <c r="H45" s="6">
-        <f>6.26+6.69+6.42+7.55+7.01+7.73+6.96</f>
-        <v>48.62</v>
+        <f>6.26+6.69+6.42+7.55+7.01+7.73+6.96+8.18</f>
+        <v>56.8</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="4"/>
-        <v>58.090000000000025</v>
+        <v>66.270000000000024</v>
       </c>
       <c r="J45" s="8">
         <f t="shared" si="5"/>
-        <v>7.8762897780429331E-2</v>
+        <v>8.9853972041815222E-2</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>102</v>
@@ -5970,16 +5996,16 @@
         <v>9300</v>
       </c>
       <c r="H53" s="6">
-        <f>264.69+15.17+14.79+12.99+12.89+12.52+12.92+13.17</f>
-        <v>359.14000000000004</v>
+        <f>264.69+15.17+14.79+12.99+12.89+12.52+12.92+13.17+26.74</f>
+        <v>385.88000000000005</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>3059.14</v>
+        <v>3085.88</v>
       </c>
       <c r="J53" s="8">
         <f t="shared" si="5"/>
-        <v>0.46350606060606059</v>
+        <v>0.46755757575757562</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>118</v>
@@ -6222,16 +6248,16 @@
         <v>1110</v>
       </c>
       <c r="H59" s="6">
-        <f>6.71+6.54+7.29+7.41+6.54+6.67+7.75+8.63+7.98+8.29+8.61+8.94+7.56</f>
-        <v>98.92</v>
+        <f>6.71+6.54+7.29+7.41+6.54+6.67+7.75+8.63+7.98+8.29+8.61+8.94+7.56+8.06</f>
+        <v>106.98</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="4"/>
-        <v>81.219999999999956</v>
+        <v>89.279999999999959</v>
       </c>
       <c r="J59" s="8">
         <f t="shared" si="5"/>
-        <v>7.2022701072980366E-2</v>
+        <v>7.9169992019153979E-2</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>130</v>
@@ -6386,16 +6412,16 @@
         <v>440</v>
       </c>
       <c r="H63" s="6">
-        <f>2.6+2.49+2.99+2.62+2.67+2.75+3.4+3.11+3.27+3.06+3.56+3.12</f>
-        <v>35.639999999999993</v>
+        <f>2.6+2.49+2.99+2.62+2.67+2.75+3.4+3.11+3.27+3.06+3.56+3.12+3.22</f>
+        <v>38.859999999999992</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" ref="I63:I85" si="6">(G63-(F63*E63)+H63)</f>
-        <v>74.75</v>
+        <v>77.97</v>
       </c>
       <c r="J63" s="8">
         <f t="shared" si="5"/>
-        <v>0.1864601262191623</v>
+        <v>0.19449225473321863</v>
       </c>
       <c r="K63" s="10" t="s">
         <v>137</v>
@@ -6512,16 +6538,16 @@
         <v>1331.71245</v>
       </c>
       <c r="H66" s="6">
-        <f>159.86+5.31+5.23+5.42+5.4+5.51+5.58+5.27+5.19+5.1+5.14+5.18+5.02+4.41+4.38+7.46+4.38+4.49</f>
-        <v>248.33</v>
+        <f>159.86+5.31+5.23+5.42+5.4+5.51+5.58+5.27+5.19+5.1+5.14+5.18+5.02+4.41+4.38+7.46+4.38+4.49+4.51</f>
+        <v>252.84</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="6"/>
-        <v>607.73245549939986</v>
+        <v>612.24245549939985</v>
       </c>
       <c r="J66" s="8">
         <f t="shared" ref="J66:J101" si="7">((D66*F66)+H66)/(E66*F66)-100%</f>
-        <v>0.62503981131197217</v>
+        <v>0.62967824969634401</v>
       </c>
       <c r="K66" s="10" t="s">
         <v>143</v>
@@ -7323,7 +7349,9 @@
       <c r="K85" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="L85" s="96"/>
+      <c r="L85" s="96">
+        <v>45214</v>
+      </c>
     </row>
     <row r="86" spans="1:12" ht="15">
       <c r="B86" s="86"/>
@@ -8004,20 +8032,20 @@
         <v>2</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" ref="G107:G108" si="11">F107*D107</f>
+        <f t="shared" ref="G107:G110" si="11">F107*D107</f>
         <v>32.74</v>
       </c>
       <c r="H107" s="6">
-        <f>0.16+0.15+0.15+0.16+0.15+0.14+0.15</f>
-        <v>1.06</v>
+        <f>0.16+0.15+0.15+0.16+0.15+0.14+0.15+0.14</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I107" s="7">
         <f>(G107-(F107*E107)+H107)</f>
-        <v>1.800000000000002</v>
+        <v>1.9400000000000022</v>
       </c>
       <c r="J107" s="8">
         <f>((D107*F107)+H107)/(E107*F107)-100%</f>
-        <v>5.6250000000000133E-2</v>
+        <v>6.0625000000000151E-2</v>
       </c>
       <c r="K107" s="10" t="s">
         <v>376</v>
@@ -8069,24 +8097,86 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="15">
-      <c r="B109" s="86"/>
-      <c r="C109" s="86"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="96"/>
-    </row>
-    <row r="110" spans="1:12" ht="15">
-      <c r="A110" s="16"/>
-      <c r="B110" s="86"/>
-      <c r="C110" s="86"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="96"/>
+      <c r="A109" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B109" s="86" t="s">
+        <v>385</v>
+      </c>
+      <c r="C109" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="13">
+        <v>25.68</v>
+      </c>
+      <c r="E109" s="49">
+        <v>46.11</v>
+      </c>
+      <c r="F109" s="13">
+        <v>1</v>
+      </c>
+      <c r="G109" s="13">
+        <f t="shared" si="11"/>
+        <v>25.68</v>
+      </c>
+      <c r="H109" s="13">
+        <v>5.19</v>
+      </c>
+      <c r="I109" s="49">
+        <f>(G109-(F109*E109)+H109)</f>
+        <v>-15.239999999999998</v>
+      </c>
+      <c r="J109" s="8">
+        <f>((D109*F109)+H109)/(E109*F109)-100%</f>
+        <v>-0.33051398828887435</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="L109" s="96">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="18">
+      <c r="A110" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B110" s="98" t="s">
+        <v>387</v>
+      </c>
+      <c r="C110" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="6">
+        <v>63.42</v>
+      </c>
+      <c r="E110" s="7">
+        <v>114.8</v>
+      </c>
+      <c r="F110" s="6">
+        <v>1</v>
+      </c>
+      <c r="G110" s="6">
+        <f t="shared" si="11"/>
+        <v>63.42</v>
+      </c>
+      <c r="H110" s="6">
+        <v>45.33</v>
+      </c>
+      <c r="I110" s="49">
+        <f>(G110-(F110*E110)+H110)</f>
+        <v>-6.0499999999999972</v>
+      </c>
+      <c r="J110" s="8">
+        <f>((D110*F110)+H110)/(E110*F110)-100%</f>
+        <v>-5.2700348432055732E-2</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="L110" s="96">
+        <v>45202</v>
+      </c>
     </row>
     <row r="111" spans="1:12" ht="15">
       <c r="A111" s="16"/>
@@ -15589,7 +15679,7 @@
       <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
@@ -15668,11 +15758,11 @@
       </c>
       <c r="B3" s="22">
         <f t="shared" si="0"/>
-        <v>36.54</v>
+        <v>38.99</v>
       </c>
       <c r="C3" s="23">
         <f>'Portfolio Ned'!H3:H109</f>
-        <v>36.54</v>
+        <v>38.99</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -15734,11 +15824,11 @@
       </c>
       <c r="B6" s="22">
         <f t="shared" si="0"/>
-        <v>299.95</v>
+        <v>317.08</v>
       </c>
       <c r="C6" s="23">
         <f>'Portfolio Ned'!H6:H112</f>
-        <v>299.95</v>
+        <v>317.08</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -16526,11 +16616,11 @@
       </c>
       <c r="B42" s="22">
         <f t="shared" si="0"/>
-        <v>90.38000000000001</v>
+        <v>98.330000000000013</v>
       </c>
       <c r="C42" s="23">
         <f>'Portfolio Ned'!H42:H148</f>
-        <v>90.38000000000001</v>
+        <v>98.330000000000013</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
@@ -16592,11 +16682,11 @@
       </c>
       <c r="B45" s="22">
         <f t="shared" si="0"/>
-        <v>48.62</v>
+        <v>56.8</v>
       </c>
       <c r="C45" s="23">
         <f>'Portfolio Ned'!H45:H151</f>
-        <v>48.62</v>
+        <v>56.8</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
@@ -16768,11 +16858,11 @@
       </c>
       <c r="B53" s="22">
         <f t="shared" si="0"/>
-        <v>359.14000000000004</v>
+        <v>385.88000000000005</v>
       </c>
       <c r="C53" s="23">
         <f>'Portfolio Ned'!H53:H159</f>
-        <v>359.14000000000004</v>
+        <v>385.88000000000005</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
@@ -16900,11 +16990,11 @@
       </c>
       <c r="B59" s="22">
         <f t="shared" si="0"/>
-        <v>98.92</v>
+        <v>106.98</v>
       </c>
       <c r="C59" s="23">
         <f>'Portfolio Ned'!H59:H165</f>
-        <v>98.92</v>
+        <v>106.98</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
@@ -16988,11 +17078,11 @@
       </c>
       <c r="B63" s="22">
         <f t="shared" si="0"/>
-        <v>35.639999999999993</v>
+        <v>38.859999999999992</v>
       </c>
       <c r="C63" s="23">
         <f>'Portfolio Ned'!H63:H169</f>
-        <v>35.639999999999993</v>
+        <v>38.859999999999992</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
@@ -17054,11 +17144,11 @@
       </c>
       <c r="B66" s="22">
         <f t="shared" si="0"/>
-        <v>248.33</v>
+        <v>252.84</v>
       </c>
       <c r="C66" s="23">
         <f>'Portfolio Ned'!H66:H172</f>
-        <v>248.33</v>
+        <v>252.84</v>
       </c>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
@@ -17917,11 +18007,11 @@
       </c>
       <c r="B107" s="22">
         <f t="shared" si="1"/>
-        <v>1.06</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="C107" s="23">
         <f>'Portfolio Ned'!H107:H213</f>
-        <v>1.06</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="D107" s="24"/>
       <c r="E107" s="24"/>
@@ -17955,14 +18045,14 @@
       <c r="K108" s="24"/>
     </row>
     <row r="109" spans="1:11" ht="12.75">
-      <c r="A109" s="21">
+      <c r="A109" s="21" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Sandoz</v>
       </c>
       <c r="B109" s="22"/>
       <c r="C109" s="23">
         <f>'Portfolio Ned'!H109:H215</f>
-        <v>0</v>
+        <v>5.19</v>
       </c>
       <c r="D109" s="24"/>
       <c r="E109" s="24"/>
@@ -17974,9 +18064,9 @@
       <c r="K109" s="24"/>
     </row>
     <row r="110" spans="1:11" ht="12.75">
-      <c r="A110" s="21">
+      <c r="A110" s="21" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Veralto</v>
       </c>
       <c r="B110" s="22"/>
     </row>
@@ -29492,7 +29582,7 @@
       <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
@@ -34610,9 +34700,9 @@
       </c>
     </row>
     <row r="109" spans="1:25" ht="15">
-      <c r="A109" s="5">
+      <c r="A109" s="5" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Sandoz</v>
       </c>
       <c r="N109" s="32">
         <f t="shared" si="9"/>
@@ -34626,9 +34716,9 @@
       </c>
     </row>
     <row r="110" spans="1:25" ht="15">
-      <c r="A110" s="5">
+      <c r="A110" s="5" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Veralto</v>
       </c>
       <c r="N110" s="71"/>
       <c r="O110" s="21"/>
@@ -40092,7 +40182,7 @@
       <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="109.5703125" customWidth="1"/>
     <col min="3" max="3" width="45.140625" customWidth="1"/>

--- a/data/2023_08_NedPortfolio.xlsx
+++ b/data/2023_08_NedPortfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="613" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09043864-4DA0-4107-B0CE-348CE78F23ED}"/>
+  <xr:revisionPtr revIDLastSave="657" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E58782-D120-48D7-BAEF-54D9184A0CF0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Ned" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="392">
   <si>
     <t>Wertpapier</t>
   </si>
@@ -1205,7 +1205,13 @@
     <t>Spin off Danaher, 2023</t>
   </si>
   <si>
-    <t>Veralto, 24.10.2023</t>
+    <t>13.12.2023, Lenovo</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>p.a</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1826,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4457392825896783E-2"/>
+          <c:y val="8.9847259658580411E-2"/>
+          <c:w val="0.76710376202974628"/>
+          <c:h val="0.80157508613310124"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1834,7 +1850,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#VALUE!</c:v>
+                  <c:v>1792.593333</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2572,7 +2588,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="0">
-                  <c:v>633.06999999999994</c:v>
+                  <c:v>686.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>38.99</c:v>
@@ -2581,7 +2597,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>622.29999999999995</c:v>
+                  <c:v>664.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>317.08</c:v>
@@ -2602,7 +2618,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.04</c:v>
+                  <c:v>32.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>184.78</c:v>
@@ -2611,13 +2627,13 @@
                   <c:v>65.289999999999992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>443.54999999999995</c:v>
+                  <c:v>456.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>50.58</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>127.14</c:v>
+                  <c:v>133.52000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>25.79</c:v>
@@ -2632,7 +2648,7 @@
                   <c:v>60.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>151.07999999999998</c:v>
+                  <c:v>157.88</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>140.68</c:v>
@@ -2653,7 +2669,7 @@
                   <c:v>205.22000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.500000000000004</c:v>
+                  <c:v>33.190000000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -2662,10 +2678,10 @@
                   <c:v>114.68000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>182.58999999999997</c:v>
+                  <c:v>212.80999999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>188.72</c:v>
+                  <c:v>199.72</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>39.56</c:v>
@@ -2686,7 +2702,7 @@
                   <c:v>55.51</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.53</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>149.50999999999996</c:v>
@@ -2698,7 +2714,7 @@
                   <c:v>132.60999999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.55</c:v>
+                  <c:v>9.61</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>56.8</c:v>
@@ -2707,7 +2723,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>49.64</c:v>
+                  <c:v>53.27</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>82.34</c:v>
@@ -2719,16 +2735,16 @@
                   <c:v>38.67</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.060000000000002</c:v>
+                  <c:v>12.010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>50.63000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>385.88000000000005</c:v>
+                  <c:v>411.87000000000006</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43.49</c:v>
+                  <c:v>46.49</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0.51</c:v>
@@ -2740,7 +2756,7 @@
                   <c:v>31.97</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>211.33999999999997</c:v>
+                  <c:v>227.52999999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>106.98</c:v>
@@ -2749,7 +2765,7 @@
                   <c:v>156.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>35.96</c:v>
+                  <c:v>38.99</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>39.200000000000003</c:v>
@@ -2764,13 +2780,13 @@
                   <c:v>65.330000000000013</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>252.84</c:v>
+                  <c:v>257.23</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>16.89</c:v>
+                  <c:v>18.66</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>30.64</c:v>
@@ -2779,7 +2795,7 @@
                   <c:v>34.67</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>64.400000000000006</c:v>
+                  <c:v>70.84</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>49.989999999999995</c:v>
@@ -2788,7 +2804,7 @@
                   <c:v>75.86</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>19.490000000000002</c:v>
+                  <c:v>22.87</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>23.18</c:v>
@@ -2803,7 +2819,7 @@
                   <c:v>87.2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>68.58</c:v>
+                  <c:v>92.13</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>63.809999999999995</c:v>
@@ -2815,13 +2831,13 @@
                   <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>56.070000000000014</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>128.54000000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>39.590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0</c:v>
@@ -2830,10 +2846,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>17.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>6.8299999999999992</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>0</c:v>
@@ -2842,7 +2858,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>49.49</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>9.4599999999999991</c:v>
@@ -2851,7 +2867,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>18.509999999999998</c:v>
+                  <c:v>22.58</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>0.39</c:v>
@@ -3097,7 +3113,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17269327022852021"/>
+          <c:y val="0.13102119460500963"/>
+          <c:w val="0.64289361861967609"/>
+          <c:h val="0.58141095079878025"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3399,10 +3425,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -3467,9 +3493,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>494242</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42332</xdr:rowOff>
+      <xdr:colOff>240242</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>201082</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5324475" cy="3295650"/>
     <xdr:graphicFrame macro="">
@@ -3800,7 +3826,7 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3883,16 +3909,16 @@
         <v>9240</v>
       </c>
       <c r="H2" s="6">
-        <f>19.34+4.27+14.6+25.13+28.65+30.08+31.45+30.7+35.77+32.05+32.97+34.46+40.76+38.71+41.66+39.54+45.29+53.75+53.89</f>
-        <v>633.06999999999994</v>
+        <f>19.34+4.27+14.6+25.13+28.65+30.08+31.45+30.7+35.77+32.05+32.97+34.46+40.76+38.71+41.66+39.54+45.29+53.75+53.89+53.6</f>
+        <v>686.67</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I29" si="1">(G2-(F2*E2)+H2)</f>
-        <v>1689.5847999999999</v>
+        <v>1743.1848</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:J33" si="2">((D2*F2)+H2)/(E2*F2)-100%</f>
-        <v>0.20646274279325394</v>
+        <v>0.21301251940921206</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>10</v>
@@ -4012,16 +4038,16 @@
         <v>13500</v>
       </c>
       <c r="H5" s="6">
-        <f>13.68+15.59+15.28+12.58+26.64+142.49+26.04+25.99+26.93+52.63+43.61+45.79+43.23+49+41.51+41.31</f>
-        <v>622.29999999999995</v>
+        <f>13.68+15.59+15.28+12.58+26.64+142.49+26.04+25.99+26.93+52.63+43.61+45.79+43.23+49+41.51+41.31+42.13</f>
+        <v>664.43</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>4684.0999999999995</v>
+        <v>4726.2299999999996</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" si="2"/>
-        <v>0.49629166578372974</v>
+        <v>0.50075544065605726</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>19</v>
@@ -4305,16 +4331,16 @@
         <v>14119.4488</v>
       </c>
       <c r="H12" s="6">
-        <f>6.5+8.27+8.27</f>
-        <v>23.04</v>
+        <f>6.5+8.27+8.27+9.02</f>
+        <v>32.06</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="1"/>
-        <v>6031.2944096800002</v>
+        <v>6040.3144096800006</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" si="2"/>
-        <v>0.74357660776541401</v>
+        <v>0.74468865114225169</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>37</v>
@@ -4431,16 +4457,16 @@
         <v>1964.9999999999998</v>
       </c>
       <c r="H15" s="6">
-        <f>340.29+6.82+7.01+7.12+7.03+6.67+6.55+7.38+7.53+7.4+7.33+6.55+6.41+6.38+6.44+6.64</f>
-        <v>443.54999999999995</v>
+        <f>340.29+6.82+7.01+7.12+7.03+6.67+6.55+7.38+7.53+7.4+7.33+6.55+6.41+6.38+6.44+6.64+6.67+6.43</f>
+        <v>456.65</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>596.24999999999955</v>
+        <v>609.34999999999957</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" si="2"/>
-        <v>0.32900182089058072</v>
+        <v>0.33623020471224385</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>43</v>
@@ -4515,16 +4541,16 @@
         <v>1098</v>
       </c>
       <c r="H17" s="6">
-        <f>100.64+6.47+7.26+6.41+6.36</f>
-        <v>127.14</v>
+        <f>100.64+6.47+7.26+6.41+6.36+6.38</f>
+        <v>133.52000000000001</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="1"/>
-        <v>496.64</v>
+        <v>503.02</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" si="2"/>
-        <v>0.68172958133150319</v>
+        <v>0.69048730267673308</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>47</v>
@@ -4725,16 +4751,16 @@
         <v>720</v>
       </c>
       <c r="H22" s="6">
-        <f>129.67+7.81+6.78+6.82</f>
-        <v>151.07999999999998</v>
+        <f>129.67+7.81+6.78+6.82+6.8</f>
+        <v>157.88</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>149.57999999999998</v>
+        <v>156.38</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" si="2"/>
-        <v>0.20731808731808732</v>
+        <v>0.21674289674289682</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>57</v>
@@ -5019,16 +5045,16 @@
         <v>1221.4000000000001</v>
       </c>
       <c r="H29" s="6">
-        <f>2.77+2.45+3.41+2.91+3.31+3.43+3.68+3.6+3.94</f>
-        <v>29.500000000000004</v>
+        <f>2.77+2.45+3.41+2.91+3.31+3.43+3.68+3.6+3.94+3.69</f>
+        <v>33.190000000000005</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="1"/>
-        <v>454.1</v>
+        <v>457.79</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" si="2"/>
-        <v>0.56990461847389562</v>
+        <v>0.57453564257028122</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>71</v>
@@ -5115,16 +5141,16 @@
         <v>4920</v>
       </c>
       <c r="H32" s="6">
-        <f>6.48+6.59+5.71+6.67+6.65+5.48+5.37+6.32+5.4+5.43+5.82+6.89+6.6+6.2+35.52+30.58+30.88</f>
-        <v>182.58999999999997</v>
+        <f>6.48+6.59+5.71+6.67+6.65+5.48+5.37+6.32+5.4+5.43+5.82+6.89+6.6+6.2+35.52+30.58+30.88+30.22</f>
+        <v>212.80999999999997</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
-        <v>1497.76</v>
+        <v>1527.98</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" si="2"/>
-        <v>0.41548699938693368</v>
+        <v>0.42387019637541878</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>76</v>
@@ -5157,16 +5183,16 @@
         <v>1071</v>
       </c>
       <c r="H33" s="6">
-        <f>167.58+10.54+10.6</f>
-        <v>188.72</v>
+        <f>167.58+10.54+10.6+11</f>
+        <v>199.72</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
-        <v>116.38000199999985</v>
+        <v>127.38000199999985</v>
       </c>
       <c r="J33" s="8">
         <f t="shared" si="2"/>
-        <v>0.10178949586612807</v>
+        <v>0.11141043103785453</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>78</v>
@@ -5450,16 +5476,16 @@
         <v>2400</v>
       </c>
       <c r="H40" s="6">
-        <f>3.35+3.84+3.19+3.05+3.15+2.81+8.4+7.74</f>
-        <v>35.53</v>
+        <f>3.35+3.84+3.19+3.05+3.15+2.81+8.4+7.74+7.77</f>
+        <v>43.3</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="4"/>
-        <v>-273.24499999999966</v>
+        <v>-265.47499999999962</v>
       </c>
       <c r="J40" s="8">
         <f t="shared" si="5"/>
-        <v>-0.10087401131507767</v>
+        <v>-9.8005556017018547E-2</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>92</v>
@@ -5618,16 +5644,16 @@
         <v>1028.3</v>
       </c>
       <c r="H44" s="6">
-        <f>2.47+1.52+1.76+1.8</f>
-        <v>7.55</v>
+        <f>2.47+1.52+1.76+1.8+2.06</f>
+        <v>9.61</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>-292.97000300000008</v>
+        <v>-290.91000300000007</v>
       </c>
       <c r="J44" s="8">
         <f t="shared" si="5"/>
-        <v>-0.22047380558584206</v>
+        <v>-0.2189235580012564</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>100</v>
@@ -5744,16 +5770,16 @@
         <v>435</v>
       </c>
       <c r="H47" s="6">
-        <f>3.45+3.47+2.82+2.83+3.17+2.75+2.79+3.19+3.75+3.5+3.6+3.72+3.88+3.35+3.37</f>
-        <v>49.64</v>
+        <f>3.45+3.47+2.82+2.83+3.17+2.75+2.79+3.19+3.75+3.5+3.6+3.72+3.88+3.35+3.37+3.63</f>
+        <v>53.27</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="4"/>
-        <v>-84.36999999999999</v>
+        <v>-80.739999999999981</v>
       </c>
       <c r="J47" s="8">
         <f t="shared" si="5"/>
-        <v>-0.14827507425177067</v>
+        <v>-0.14189557301277655</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>106</v>
@@ -5912,16 +5938,16 @@
         <v>800</v>
       </c>
       <c r="H51" s="6">
-        <f>0.7+0.57+0.58+0.63+0.65+0.66+0.69+0.79+1+0.92+0.93+0.98+1.05+0.91</f>
-        <v>11.060000000000002</v>
+        <f>0.7+0.57+0.58+0.63+0.65+0.66+0.69+0.79+1+0.92+0.93+0.98+1.05+0.91+0.95</f>
+        <v>12.010000000000002</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="4"/>
-        <v>45.760000000000048</v>
+        <v>46.710000000000051</v>
       </c>
       <c r="J51" s="8">
         <f t="shared" si="5"/>
-        <v>5.9793545015026872E-2</v>
+        <v>6.1034888279106303E-2</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>114</v>
@@ -5996,16 +6022,16 @@
         <v>9300</v>
       </c>
       <c r="H53" s="6">
-        <f>264.69+15.17+14.79+12.99+12.89+12.52+12.92+13.17+26.74</f>
-        <v>385.88000000000005</v>
+        <f>264.69+15.17+14.79+12.99+12.89+12.52+12.92+13.17+26.74+25.99</f>
+        <v>411.87000000000006</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>3085.88</v>
+        <v>3111.87</v>
       </c>
       <c r="J53" s="8">
         <f t="shared" si="5"/>
-        <v>0.46755757575757562</v>
+        <v>0.47149545454545461</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>118</v>
@@ -6038,16 +6064,16 @@
         <v>1000</v>
       </c>
       <c r="H54" s="6">
-        <f>1.18+1.8+4.52+3.19+5.34+4.53+5.4+3.86+5.67+3.9+4.1</f>
-        <v>43.49</v>
+        <f>1.18+1.8+4.52+3.19+5.34+4.53+5.4+3.86+5.67+3.9+4.1+3</f>
+        <v>46.49</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>224.30999999999995</v>
+        <v>227.30999999999995</v>
       </c>
       <c r="J54" s="8">
         <f t="shared" si="5"/>
-        <v>0.27382260309089568</v>
+        <v>0.27748480187504576</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>120</v>
@@ -6206,16 +6232,16 @@
         <v>2184</v>
       </c>
       <c r="H58" s="6">
-        <f>178.7+16.51+16.13</f>
-        <v>211.33999999999997</v>
+        <f>178.7+16.51+16.13+16.19</f>
+        <v>227.52999999999997</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="4"/>
-        <v>72.729995999999858</v>
+        <v>88.919995999999855</v>
       </c>
       <c r="J58" s="8">
         <f t="shared" si="5"/>
-        <v>3.1313908006399771E-2</v>
+        <v>3.8284514338120301E-2</v>
       </c>
       <c r="K58" s="10" t="s">
         <v>128</v>
@@ -6328,16 +6354,16 @@
         <v>729</v>
       </c>
       <c r="H61" s="6">
-        <f>2.28+2.26+2.59+2.38+2.46+2.57+3.05+2.88+3.07+2.94+3.36+3.06+3.06</f>
-        <v>35.96</v>
+        <f>2.28+2.26+2.59+2.38+2.46+2.57+3.05+2.88+3.07+2.94+3.36+3.06+3.06+3.03</f>
+        <v>38.99</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="4"/>
-        <v>29.239970000000049</v>
+        <v>32.26997000000005</v>
       </c>
       <c r="J61" s="8">
         <f t="shared" si="5"/>
-        <v>3.9743338236964965E-2</v>
+        <v>4.3861752683286515E-2</v>
       </c>
       <c r="K61" s="10" t="s">
         <v>133</v>
@@ -6538,16 +6564,16 @@
         <v>1331.71245</v>
       </c>
       <c r="H66" s="6">
-        <f>159.86+5.31+5.23+5.42+5.4+5.51+5.58+5.27+5.19+5.1+5.14+5.18+5.02+4.41+4.38+7.46+4.38+4.49+4.51</f>
-        <v>252.84</v>
+        <f>159.86+5.31+5.23+5.42+5.4+5.51+5.58+5.27+5.19+5.1+5.14+5.18+5.02+4.41+4.38+7.46+4.38+4.49+4.51+4.39</f>
+        <v>257.23</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="6"/>
-        <v>612.24245549939985</v>
+        <v>616.63245549939984</v>
       </c>
       <c r="J66" s="8">
         <f t="shared" ref="J66:J101" si="7">((D66*F66)+H66)/(E66*F66)-100%</f>
-        <v>0.62967824969634401</v>
+        <v>0.63419327065141995</v>
       </c>
       <c r="K66" s="10" t="s">
         <v>143</v>
@@ -6622,16 +6648,16 @@
         <v>925</v>
       </c>
       <c r="H68" s="6">
-        <f>0.94+0.98+1.12+0.98+1+1.24+1.44+1.3+1.4+1.58+1.8+1.56+1.55</f>
-        <v>16.89</v>
+        <f>0.94+0.98+1.12+0.98+1+1.24+1.44+1.3+1.4+1.58+1.8+1.56+1.55+1.77</f>
+        <v>18.66</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="6"/>
-        <v>97.899999999999991</v>
+        <v>99.669999999999987</v>
       </c>
       <c r="J68" s="8">
         <f t="shared" si="7"/>
-        <v>0.11599663503122071</v>
+        <v>0.11809381627744409</v>
       </c>
       <c r="K68" s="10" t="s">
         <v>147</v>
@@ -6748,16 +6774,16 @@
         <v>900</v>
       </c>
       <c r="H71" s="6">
-        <f>14.99+3.89+16.87+6.15+22.5</f>
-        <v>64.400000000000006</v>
+        <f>14.99+3.89+16.87+6.15+22.5+6.44</f>
+        <v>70.84</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="6"/>
-        <v>159.9200000000001</v>
+        <v>166.3600000000001</v>
       </c>
       <c r="J71" s="8">
         <f t="shared" si="7"/>
-        <v>0.19878679395385856</v>
+        <v>0.20679196499602237</v>
       </c>
       <c r="K71" s="10" t="s">
         <v>153</v>
@@ -6874,16 +6900,16 @@
         <v>607</v>
       </c>
       <c r="H74" s="6">
-        <f>1.18+2.94+1.8+5.25+3.07+5.25</f>
-        <v>19.490000000000002</v>
+        <f>1.18+2.94+1.8+5.25+3.07+5.25+3.38</f>
+        <v>22.87</v>
       </c>
       <c r="I74" s="7">
         <f t="shared" si="6"/>
-        <v>203.5</v>
+        <v>206.88</v>
       </c>
       <c r="J74" s="8">
         <f t="shared" si="7"/>
-        <v>0.48109884394430136</v>
+        <v>0.48908957658573482</v>
       </c>
       <c r="K74" s="10" t="s">
         <v>159</v>
@@ -7084,16 +7110,16 @@
         <v>377.25</v>
       </c>
       <c r="H79" s="6">
-        <f>9.19+23.01+27.19+9.19</f>
-        <v>68.58</v>
+        <f>9.19+23.01+27.19+9.19+23.55</f>
+        <v>92.13</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="6"/>
-        <v>61.229999999999976</v>
+        <v>84.779999999999973</v>
       </c>
       <c r="J79" s="8">
         <f t="shared" si="7"/>
-        <v>0.15920436817472683</v>
+        <v>0.22043681747269872</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>168</v>
@@ -7294,16 +7320,16 @@
         <v>4042</v>
       </c>
       <c r="H84" s="6">
-        <f>6.31+15.88+16.88+17.67+19.81+17.07+16.96</f>
-        <v>110.58000000000001</v>
+        <f>6.31+15.88+16.88+17.67+19.81+17.07+16.96+17.96</f>
+        <v>128.54000000000002</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="6"/>
-        <v>96.341772999999733</v>
+        <v>114.30177299999974</v>
       </c>
       <c r="J84" s="8">
         <f t="shared" si="7"/>
-        <v>2.3751507581263098E-2</v>
+        <v>2.8179255409398696E-2</v>
       </c>
       <c r="K84" s="10" t="s">
         <v>178</v>
@@ -7336,15 +7362,15 @@
         <v>6000</v>
       </c>
       <c r="H85" s="13">
-        <v>0</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="I85" s="49">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="J85" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.5983333333332617E-3</v>
       </c>
       <c r="K85" s="10" t="s">
         <v>380</v>
@@ -7565,16 +7591,16 @@
         <v>356</v>
       </c>
       <c r="H92" s="6">
-        <f>1.61+2.99+3.08+4.87+3.53+3.71+3.62+12.48+4.17+4.71</f>
-        <v>44.77</v>
+        <f>1.61+2.99+3.08+4.87+3.53+3.71+3.62+12.48+4.17+4.71+4.72</f>
+        <v>49.49</v>
       </c>
       <c r="I92" s="7">
         <f t="shared" si="9"/>
-        <v>39.37999999999996</v>
+        <v>44.099999999999959</v>
       </c>
       <c r="J92" s="8">
         <f t="shared" si="7"/>
-        <v>0.10896815075126587</v>
+        <v>0.12202883311657753</v>
       </c>
       <c r="K92" s="10" t="s">
         <v>188</v>
@@ -7691,16 +7717,16 @@
         <v>438</v>
       </c>
       <c r="H95" s="6">
-        <f>3.38+3.52+3.86+3.83+3.92</f>
-        <v>18.509999999999998</v>
+        <f>3.38+3.52+3.86+3.83+3.92+4.07</f>
+        <v>22.58</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="9"/>
-        <v>12.509999999999998</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="J95" s="8">
         <f t="shared" si="7"/>
-        <v>2.8175675675675693E-2</v>
+        <v>3.7342342342342238E-2</v>
       </c>
       <c r="K95" s="10" t="s">
         <v>194</v>
@@ -7775,16 +7801,16 @@
         <v>457.5</v>
       </c>
       <c r="H97" s="6">
-        <f>4.71+3.81+5.01+2.61+3.71</f>
-        <v>19.850000000000001</v>
+        <f>4.71+3.81+5.01+2.61+3.71+5.43</f>
+        <v>25.28</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="9"/>
-        <v>1.139999999999965</v>
+        <v>6.5699999999999648</v>
       </c>
       <c r="J97" s="8">
         <f t="shared" si="7"/>
-        <v>2.3939018500240827E-3</v>
+        <v>1.3796434346191599E-2</v>
       </c>
       <c r="K97" s="10" t="s">
         <v>198</v>
@@ -7817,16 +7843,16 @@
         <v>1008.9999999999999</v>
       </c>
       <c r="H98" s="6">
-        <f>26.97+6.99+25.06</f>
-        <v>59.019999999999996</v>
+        <f>26.97+6.99+25.06+6.73</f>
+        <v>65.75</v>
       </c>
       <c r="I98" s="7">
         <f t="shared" si="9"/>
-        <v>50.089999999999932</v>
+        <v>56.819999999999936</v>
       </c>
       <c r="J98" s="8">
         <f t="shared" si="7"/>
-        <v>4.9207705834389381E-2</v>
+        <v>5.5819162417848123E-2</v>
       </c>
       <c r="K98" s="10" t="s">
         <v>200</v>
@@ -7956,11 +7982,11 @@
         <v>0.39</v>
       </c>
       <c r="I105" s="7">
-        <f>(G105-(F105*E105)+H105)</f>
+        <f t="shared" ref="I105:I110" si="11">(G105-(F105*E105)+H105)</f>
         <v>-4.6260000000000057</v>
       </c>
       <c r="J105" s="8">
-        <f>((D105*F105)+H105)/(E105*F105)-100%</f>
+        <f t="shared" ref="J105:J110" si="12">((D105*F105)+H105)/(E105*F105)-100%</f>
         <v>-6.9672871859750685E-2</v>
       </c>
       <c r="K105" s="10" t="s">
@@ -7998,11 +8024,11 @@
         <v>0</v>
       </c>
       <c r="I106" s="7">
-        <f>(G106-(F106*E106)+H106)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J106" s="8">
-        <f>((D106*F106)+H106)/(E106*F106)-100%</f>
+        <f t="shared" si="12"/>
         <v>-0.20490724117295012</v>
       </c>
       <c r="K106" s="10" t="s">
@@ -8032,7 +8058,7 @@
         <v>2</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" ref="G107:G110" si="11">F107*D107</f>
+        <f t="shared" ref="G107:G110" si="13">F107*D107</f>
         <v>32.74</v>
       </c>
       <c r="H107" s="6">
@@ -8040,11 +8066,11 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="I107" s="7">
-        <f>(G107-(F107*E107)+H107)</f>
+        <f t="shared" si="11"/>
         <v>1.9400000000000022</v>
       </c>
       <c r="J107" s="8">
-        <f>((D107*F107)+H107)/(E107*F107)-100%</f>
+        <f t="shared" si="12"/>
         <v>6.0625000000000151E-2</v>
       </c>
       <c r="K107" s="10" t="s">
@@ -8074,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14.66</v>
       </c>
       <c r="H108" s="6">
@@ -8082,11 +8108,11 @@
         <v>0.98</v>
       </c>
       <c r="I108" s="7">
-        <f>(G108-(F108*E108)+H108)</f>
+        <f t="shared" si="11"/>
         <v>-84.57</v>
       </c>
       <c r="J108" s="8">
-        <f>((D108*F108)+H108)/(E108*F108)-100%</f>
+        <f t="shared" si="12"/>
         <v>-0.84392775172138501</v>
       </c>
       <c r="K108" s="10" t="s">
@@ -8116,18 +8142,18 @@
         <v>1</v>
       </c>
       <c r="G109" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>25.68</v>
       </c>
       <c r="H109" s="13">
         <v>5.19</v>
       </c>
       <c r="I109" s="49">
-        <f>(G109-(F109*E109)+H109)</f>
+        <f t="shared" si="11"/>
         <v>-15.239999999999998</v>
       </c>
       <c r="J109" s="8">
-        <f>((D109*F109)+H109)/(E109*F109)-100%</f>
+        <f t="shared" si="12"/>
         <v>-0.33051398828887435</v>
       </c>
       <c r="K109" s="10" t="s">
@@ -8157,18 +8183,18 @@
         <v>1</v>
       </c>
       <c r="G110" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63.42</v>
       </c>
       <c r="H110" s="6">
         <v>45.33</v>
       </c>
       <c r="I110" s="49">
-        <f>(G110-(F110*E110)+H110)</f>
+        <f t="shared" si="11"/>
         <v>-6.0499999999999972</v>
       </c>
       <c r="J110" s="8">
-        <f>((D110*F110)+H110)/(E110*F110)-100%</f>
+        <f t="shared" si="12"/>
         <v>-5.2700348432055732E-2</v>
       </c>
       <c r="K110" s="10" t="s">
@@ -15674,9 +15700,9 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="Z111" sqref="Z111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15736,11 +15762,11 @@
       </c>
       <c r="B2" s="22">
         <f t="shared" ref="B2:B95" si="0">SUM(C2:X2)</f>
-        <v>633.06999999999994</v>
+        <v>686.67</v>
       </c>
       <c r="C2" s="23">
         <f>'Portfolio Ned'!H2:H108</f>
-        <v>633.06999999999994</v>
+        <v>686.67</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -15802,11 +15828,11 @@
       </c>
       <c r="B5" s="22">
         <f t="shared" si="0"/>
-        <v>622.29999999999995</v>
+        <v>664.43</v>
       </c>
       <c r="C5" s="23">
         <f>'Portfolio Ned'!H5:H111</f>
-        <v>622.29999999999995</v>
+        <v>664.43</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -15956,11 +15982,11 @@
       </c>
       <c r="B12" s="22">
         <f t="shared" si="0"/>
-        <v>23.04</v>
+        <v>32.06</v>
       </c>
       <c r="C12" s="23">
         <f>'Portfolio Ned'!H12:H118</f>
-        <v>23.04</v>
+        <v>32.06</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -16022,11 +16048,11 @@
       </c>
       <c r="B15" s="22">
         <f t="shared" si="0"/>
-        <v>443.54999999999995</v>
+        <v>456.65</v>
       </c>
       <c r="C15" s="23">
         <f>'Portfolio Ned'!H15:H119</f>
-        <v>443.54999999999995</v>
+        <v>456.65</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -16066,11 +16092,11 @@
       </c>
       <c r="B17" s="22">
         <f t="shared" si="0"/>
-        <v>127.14</v>
+        <v>133.52000000000001</v>
       </c>
       <c r="C17" s="23">
         <f>'Portfolio Ned'!H17:H119</f>
-        <v>127.14</v>
+        <v>133.52000000000001</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -16176,11 +16202,11 @@
       </c>
       <c r="B22" s="22">
         <f t="shared" si="0"/>
-        <v>151.07999999999998</v>
+        <v>157.88</v>
       </c>
       <c r="C22" s="23">
         <f>'Portfolio Ned'!H22:H119</f>
-        <v>151.07999999999998</v>
+        <v>157.88</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -16330,11 +16356,11 @@
       </c>
       <c r="B29" s="22">
         <f t="shared" si="0"/>
-        <v>29.500000000000004</v>
+        <v>33.190000000000005</v>
       </c>
       <c r="C29" s="23">
         <f>'Portfolio Ned'!H29:H135</f>
-        <v>29.500000000000004</v>
+        <v>33.190000000000005</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -16396,11 +16422,11 @@
       </c>
       <c r="B32" s="22">
         <f t="shared" si="0"/>
-        <v>182.58999999999997</v>
+        <v>212.80999999999997</v>
       </c>
       <c r="C32" s="23">
         <f>'Portfolio Ned'!H32:H138</f>
-        <v>182.58999999999997</v>
+        <v>212.80999999999997</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -16418,11 +16444,11 @@
       </c>
       <c r="B33" s="22">
         <f t="shared" si="0"/>
-        <v>188.72</v>
+        <v>199.72</v>
       </c>
       <c r="C33" s="23">
         <f>'Portfolio Ned'!H33:H139</f>
-        <v>188.72</v>
+        <v>199.72</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -16572,11 +16598,11 @@
       </c>
       <c r="B40" s="22">
         <f t="shared" si="0"/>
-        <v>35.53</v>
+        <v>43.3</v>
       </c>
       <c r="C40" s="23">
         <f>'Portfolio Ned'!H40:H146</f>
-        <v>35.53</v>
+        <v>43.3</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -16660,11 +16686,11 @@
       </c>
       <c r="B44" s="22">
         <f t="shared" si="0"/>
-        <v>7.55</v>
+        <v>9.61</v>
       </c>
       <c r="C44" s="23">
         <f>'Portfolio Ned'!H44:H150</f>
-        <v>7.55</v>
+        <v>9.61</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -16726,11 +16752,11 @@
       </c>
       <c r="B47" s="22">
         <f t="shared" si="0"/>
-        <v>49.64</v>
+        <v>53.27</v>
       </c>
       <c r="C47" s="23">
         <f>'Portfolio Ned'!H47:H153</f>
-        <v>49.64</v>
+        <v>53.27</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -16814,11 +16840,11 @@
       </c>
       <c r="B51" s="22">
         <f t="shared" si="0"/>
-        <v>11.060000000000002</v>
+        <v>12.010000000000002</v>
       </c>
       <c r="C51" s="23">
         <f>'Portfolio Ned'!H51:H157</f>
-        <v>11.060000000000002</v>
+        <v>12.010000000000002</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
@@ -16858,11 +16884,11 @@
       </c>
       <c r="B53" s="22">
         <f t="shared" si="0"/>
-        <v>385.88000000000005</v>
+        <v>411.87000000000006</v>
       </c>
       <c r="C53" s="23">
         <f>'Portfolio Ned'!H53:H159</f>
-        <v>385.88000000000005</v>
+        <v>411.87000000000006</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
@@ -16880,11 +16906,11 @@
       </c>
       <c r="B54" s="22">
         <f t="shared" si="0"/>
-        <v>43.49</v>
+        <v>46.49</v>
       </c>
       <c r="C54" s="23">
         <f>'Portfolio Ned'!H54:H160</f>
-        <v>43.49</v>
+        <v>46.49</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
@@ -16968,11 +16994,11 @@
       </c>
       <c r="B58" s="22">
         <f t="shared" si="0"/>
-        <v>211.33999999999997</v>
+        <v>227.52999999999997</v>
       </c>
       <c r="C58" s="23">
         <f>'Portfolio Ned'!H58:H164</f>
-        <v>211.33999999999997</v>
+        <v>227.52999999999997</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
@@ -17034,11 +17060,11 @@
       </c>
       <c r="B61" s="22">
         <f t="shared" si="0"/>
-        <v>35.96</v>
+        <v>38.99</v>
       </c>
       <c r="C61" s="23">
         <f>'Portfolio Ned'!H61:H167</f>
-        <v>35.96</v>
+        <v>38.99</v>
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
@@ -17144,11 +17170,11 @@
       </c>
       <c r="B66" s="22">
         <f t="shared" si="0"/>
-        <v>252.84</v>
+        <v>257.23</v>
       </c>
       <c r="C66" s="23">
         <f>'Portfolio Ned'!H66:H172</f>
-        <v>252.84</v>
+        <v>257.23</v>
       </c>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
@@ -17188,11 +17214,11 @@
       </c>
       <c r="B68" s="22">
         <f t="shared" si="0"/>
-        <v>16.89</v>
+        <v>18.66</v>
       </c>
       <c r="C68" s="23">
         <f>'Portfolio Ned'!H68:H174</f>
-        <v>16.89</v>
+        <v>18.66</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
@@ -17254,11 +17280,11 @@
       </c>
       <c r="B71" s="22">
         <f t="shared" si="0"/>
-        <v>64.400000000000006</v>
+        <v>70.84</v>
       </c>
       <c r="C71" s="23">
         <f>'Portfolio Ned'!H71:H177</f>
-        <v>64.400000000000006</v>
+        <v>70.84</v>
       </c>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
@@ -17320,11 +17346,11 @@
       </c>
       <c r="B74" s="22">
         <f t="shared" si="0"/>
-        <v>19.490000000000002</v>
+        <v>22.87</v>
       </c>
       <c r="C74" s="23">
         <f>'Portfolio Ned'!H74:H180</f>
-        <v>19.490000000000002</v>
+        <v>22.87</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
@@ -17430,11 +17456,11 @@
       </c>
       <c r="B79" s="22">
         <f t="shared" si="0"/>
-        <v>68.58</v>
+        <v>92.13</v>
       </c>
       <c r="C79" s="23">
         <f>'Portfolio Ned'!H79:H185</f>
-        <v>68.58</v>
+        <v>92.13</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
@@ -17516,13 +17542,13 @@
         <f>'Portfolio Ned'!A:A</f>
         <v>V.F Corp</v>
       </c>
-      <c r="B83" s="22" t="e">
+      <c r="B83" s="22">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C83" s="23" t="e">
-        <f>'Portfolio Ned'!H89:H189</f>
-        <v>#VALUE!</v>
+        <v>56.070000000000014</v>
+      </c>
+      <c r="C83" s="24">
+        <f>'Portfolio Ned'!H83:H189</f>
+        <v>56.070000000000014</v>
       </c>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
@@ -17538,13 +17564,13 @@
         <f>'Portfolio Ned'!A:A</f>
         <v>Starbucks</v>
       </c>
-      <c r="B84" s="22" t="e">
+      <c r="B84" s="22">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C84" s="23" t="e">
-        <f>'Portfolio Ned'!H90:H190</f>
-        <v>#VALUE!</v>
+        <v>128.54000000000002</v>
+      </c>
+      <c r="C84" s="24">
+        <f>'Portfolio Ned'!H84:H190</f>
+        <v>128.54000000000002</v>
       </c>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
@@ -17560,13 +17586,13 @@
         <f>'Portfolio Ned'!A:A</f>
         <v>Texas Instruments</v>
       </c>
-      <c r="B85" s="22" t="e">
+      <c r="B85" s="22">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C85" s="23" t="e">
-        <f>'Portfolio Ned'!H91:H191</f>
-        <v>#VALUE!</v>
+        <v>39.590000000000003</v>
+      </c>
+      <c r="C85" s="24">
+        <f>'Portfolio Ned'!H85:H191</f>
+        <v>39.590000000000003</v>
       </c>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
@@ -17582,13 +17608,13 @@
         <f>'Portfolio Ned'!A:A</f>
         <v>0</v>
       </c>
-      <c r="B86" s="22" t="e">
+      <c r="B86" s="22">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C86" s="23" t="e">
-        <f>'Portfolio Ned'!H92:H192</f>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="C86" s="24">
+        <f>'Portfolio Ned'!H86:H192</f>
+        <v>0</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
@@ -17604,13 +17630,13 @@
         <f>'Portfolio Ned'!A:A</f>
         <v>0</v>
       </c>
-      <c r="B87" s="22" t="e">
+      <c r="B87" s="22">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C87" s="23" t="e">
-        <f>'Portfolio Ned'!H93:H193</f>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="C87" s="24">
+        <f>'Portfolio Ned'!H87:H193</f>
+        <v>0</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
@@ -17626,13 +17652,13 @@
         <f>'Portfolio Ned'!A:A</f>
         <v>Wharf Holdings Ltd</v>
       </c>
-      <c r="B88" s="22" t="e">
+      <c r="B88" s="22">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C88" s="23" t="e">
-        <f>'Portfolio Ned'!H94:H194</f>
-        <v>#VALUE!</v>
+        <v>17.079999999999998</v>
+      </c>
+      <c r="C88" s="24">
+        <f>'Portfolio Ned'!H88:H194</f>
+        <v>17.079999999999998</v>
       </c>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
@@ -17648,13 +17674,13 @@
         <f>'Portfolio Ned'!A:A</f>
         <v xml:space="preserve">Wipro ADR </v>
       </c>
-      <c r="B89" s="22" t="e">
+      <c r="B89" s="22">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="23" t="e">
-        <f>'Portfolio Ned'!H95:H195</f>
-        <v>#VALUE!</v>
+        <v>6.8299999999999992</v>
+      </c>
+      <c r="C89" s="24">
+        <f>'Portfolio Ned'!H89:H195</f>
+        <v>6.8299999999999992</v>
       </c>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>
@@ -17670,13 +17696,13 @@
         <f>'Portfolio Ned'!A:A</f>
         <v>Meituan Cl B</v>
       </c>
-      <c r="B90" s="22" t="e">
+      <c r="B90" s="22">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C90" s="23" t="e">
-        <f>'Portfolio Ned'!H96:H196</f>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="C90" s="24">
+        <f>'Portfolio Ned'!H90:H196</f>
+        <v>0</v>
       </c>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
@@ -17692,13 +17718,13 @@
         <f>'Portfolio Ned'!A:A</f>
         <v>Sea Ltd</v>
       </c>
-      <c r="B91" s="22" t="e">
+      <c r="B91" s="22">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C91" s="23" t="e">
-        <f>'Portfolio Ned'!H97:H197</f>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="C91" s="24">
+        <f>'Portfolio Ned'!H91:H197</f>
+        <v>0</v>
       </c>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
@@ -17714,13 +17740,13 @@
         <f>'Portfolio Ned'!A:A</f>
         <v>DBS Grp Hld</v>
       </c>
-      <c r="B92" s="22" t="e">
+      <c r="B92" s="22">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C92" s="23" t="e">
-        <f>'Portfolio Ned'!H98:H198</f>
-        <v>#VALUE!</v>
+        <v>49.49</v>
+      </c>
+      <c r="C92" s="24">
+        <f>'Portfolio Ned'!H92:H198</f>
+        <v>49.49</v>
       </c>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
@@ -17740,8 +17766,8 @@
         <f t="shared" si="0"/>
         <v>9.4599999999999991</v>
       </c>
-      <c r="C93" s="23">
-        <f>'Portfolio Ned'!H82:H199</f>
+      <c r="C93" s="24">
+        <f>'Portfolio Ned'!H93:H199</f>
         <v>9.4599999999999991</v>
       </c>
       <c r="D93" s="24"/>
@@ -17762,8 +17788,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C94" s="23">
-        <f>'Portfolio Ned'!H83:H200</f>
+      <c r="C94" s="24">
+        <f>'Portfolio Ned'!H94:H200</f>
         <v>0</v>
       </c>
       <c r="D94" s="24"/>
@@ -17782,11 +17808,11 @@
       </c>
       <c r="B95" s="22">
         <f t="shared" si="0"/>
-        <v>18.509999999999998</v>
-      </c>
-      <c r="C95" s="23">
-        <f>'Portfolio Ned'!H84:H201</f>
-        <v>18.509999999999998</v>
+        <v>22.58</v>
+      </c>
+      <c r="C95" s="24">
+        <f>'Portfolio Ned'!H95:H201</f>
+        <v>22.58</v>
       </c>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
@@ -17803,9 +17829,9 @@
         <v>Pinduoduo</v>
       </c>
       <c r="B96" s="22"/>
-      <c r="C96" s="23" t="e">
-        <f>'Portfolio Ned'!H99:H202</f>
-        <v>#VALUE!</v>
+      <c r="C96" s="24">
+        <f>'Portfolio Ned'!H96:H202</f>
+        <v>0</v>
       </c>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
@@ -17822,9 +17848,9 @@
         <v>Weichai Power</v>
       </c>
       <c r="B97" s="22"/>
-      <c r="C97" s="23" t="e">
-        <f>'Portfolio Ned'!H99:H203</f>
-        <v>#VALUE!</v>
+      <c r="C97" s="24">
+        <f>'Portfolio Ned'!H97:H203</f>
+        <v>25.28</v>
       </c>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
@@ -17841,9 +17867,9 @@
         <v>Lenovo Group</v>
       </c>
       <c r="B98" s="22"/>
-      <c r="C98" s="23" t="e">
-        <f>'Portfolio Ned'!H99:H204</f>
-        <v>#VALUE!</v>
+      <c r="C98" s="24">
+        <f>'Portfolio Ned'!H98:H204</f>
+        <v>65.75</v>
       </c>
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
@@ -17860,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="22"/>
-      <c r="C99" s="23">
+      <c r="C99" s="24">
         <f>'Portfolio Ned'!H99:H205</f>
         <v>0</v>
       </c>
@@ -17876,7 +17902,10 @@
     <row r="100" spans="1:11" ht="12.75">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
-      <c r="C100" s="23"/>
+      <c r="C100" s="24">
+        <f>'Portfolio Ned'!H100:H206</f>
+        <v>0</v>
+      </c>
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
@@ -17889,7 +17918,10 @@
     <row r="101" spans="1:11" ht="12.75">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
-      <c r="C101" s="23"/>
+      <c r="C101" s="24">
+        <f>'Portfolio Ned'!H101:H207</f>
+        <v>97.82</v>
+      </c>
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
@@ -17905,7 +17937,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="22"/>
-      <c r="C102" s="23">
+      <c r="C102" s="24">
         <f>'Portfolio Ned'!H102:H208</f>
         <v>0</v>
       </c>
@@ -18145,7 +18177,9 @@
     </row>
     <row r="127" spans="1:14" ht="12.75">
       <c r="A127" s="21"/>
-      <c r="B127" s="22"/>
+      <c r="B127" s="20" t="s">
+        <v>390</v>
+      </c>
       <c r="C127" s="20" t="s">
         <v>212</v>
       </c>
@@ -18185,10 +18219,12 @@
     </row>
     <row r="128" spans="1:14" ht="12.75">
       <c r="A128" s="21"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="21" t="e">
+      <c r="B128" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C128" s="21">
         <f>SUM(C2:C108)/6</f>
-        <v>#VALUE!</v>
+        <v>1792.5933333333339</v>
       </c>
       <c r="D128" s="21">
         <f t="shared" ref="D128:F128" si="2">SUM(D2:D108)</f>
@@ -29575,7 +29611,7 @@
   </sheetPr>
   <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/data/2023_08_NedPortfolio.xlsx
+++ b/data/2023_08_NedPortfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="840" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6269375-94CA-4692-92D6-83B2CA646DA9}"/>
+  <xr:revisionPtr revIDLastSave="954" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C4990F1-FA8C-4EC4-9E90-AC18C402C43F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Ned" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="401">
   <si>
     <t>Wertpapier</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Pharma&amp;Konsum, 04.02.2018</t>
-  </si>
-  <si>
-    <t>01.01.2024</t>
   </si>
   <si>
     <t>ThermoFisher Scientific</t>
@@ -288,9 +285,6 @@
   </si>
   <si>
     <t>2. größte Bank China, 23.05.18</t>
-  </si>
-  <si>
-    <t>Charterl Hall Grp</t>
   </si>
   <si>
     <t>CHC.AX</t>
@@ -857,18 +851,6 @@
     <t>Chips,10.10.2023</t>
   </si>
   <si>
-    <t>Pepsi Co</t>
-  </si>
-  <si>
-    <t>PEP</t>
-  </si>
-  <si>
-    <t>USd</t>
-  </si>
-  <si>
-    <t>Consumer goods, 2024</t>
-  </si>
-  <si>
     <t>Wharf Holdings Ltd</t>
   </si>
   <si>
@@ -1038,9 +1020,6 @@
   </si>
   <si>
     <t>return</t>
-  </si>
-  <si>
-    <t>p.a</t>
   </si>
   <si>
     <t>Januar</t>
@@ -1235,10 +1214,34 @@
     <t>Gesamt 2023: kein Verkauf</t>
   </si>
   <si>
-    <t xml:space="preserve">Gesamt 2024: Verkauf Adler Real Estate (-1187.53), Verkauf Meta (Gewinn +1213.67), </t>
+    <t>Trade Amazon, Kauf BYD, Kauf Samsung, Kauf Nike, Kauf UPS</t>
   </si>
   <si>
-    <t>Trade Amazon, Kauf BYD, Kauf Samsung, Kauf Nike, Kauf UPS</t>
+    <t>Charter Hall Grp</t>
+  </si>
+  <si>
+    <t>p.a total in EUR</t>
+  </si>
+  <si>
+    <t>pasted</t>
+  </si>
+  <si>
+    <t>Gesamt 2024: Verkauf Adler Real Estate (-1187.53), Verkauf Meta (Gewinn +1213.67), 29.91 (Solventum 3M Spinoff)</t>
+  </si>
+  <si>
+    <t>10.04.2024, Solventum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solventum </t>
+  </si>
+  <si>
+    <t>Spin-off Brookfield, 2022</t>
+  </si>
+  <si>
+    <t>Spin-off 3M, 2023</t>
+  </si>
+  <si>
+    <t>SOLV</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1257,7 @@
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1264,10 +1267,12 @@
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1278,6 +1283,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1306,6 +1312,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1322,11 +1329,13 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1355,7 +1364,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1444,7 +1457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1542,11 +1555,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1773,6 +1801,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1851,92 +1889,73 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4285F4"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'Dividends per year'!$D$127:$N$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>'Dividends per year'!$C$127:$N$127</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>2017-2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2024</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2025</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2026</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2027</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2028</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2029</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2030</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2031</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2032</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2033</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2034</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dividends per year'!$D$128:$N$128</c:f>
+              <c:f>'Dividends per year'!$C$129:$N$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>326.68000000000006</c:v>
+                  <c:v>1802.8300000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>698.50999999999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln cmpd="sng">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6F0D-4E54-90B5-6CE08BE0A03E}"/>
             </c:ext>
@@ -1961,34 +1980,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2298,7 +2289,7 @@
                   <c:v>ICBC</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Charterl Hall Grp</c:v>
+                  <c:v>Charter Hall Grp</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>Porsche Holding</c:v>
@@ -2484,7 +2475,7 @@
                   <c:v>Texas Instruments</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>Pepsi Co</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0</c:v>
@@ -2556,7 +2547,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="0">
-                  <c:v>686.67</c:v>
+                  <c:v>747.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>41.72</c:v>
@@ -2568,19 +2559,19 @@
                   <c:v>664.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>339.90999999999997</c:v>
+                  <c:v>384.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1462.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.410000000000004</c:v>
+                  <c:v>22.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>514.49</c:v>
+                  <c:v>553.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>53.6</c:v>
@@ -2592,10 +2583,10 @@
                   <c:v>184.78</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.289999999999992</c:v>
+                  <c:v>92.859999999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>470.46</c:v>
+                  <c:v>477.94</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>50.58</c:v>
@@ -2604,37 +2595,37 @@
                   <c:v>140.92000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.15</c:v>
+                  <c:v>28.709999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>100.29</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79.72</c:v>
+                  <c:v>94.28</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>60.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>157.88</c:v>
+                  <c:v>165.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>140.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>369.77</c:v>
+                  <c:v>402.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>181.62</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>189.6</c:v>
+                  <c:v>212.34</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>159.26999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>217.78000000000003</c:v>
+                  <c:v>233.87000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>33.190000000000005</c:v>
@@ -2646,40 +2637,40 @@
                   <c:v>114.68000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>212.80999999999997</c:v>
+                  <c:v>247.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>199.72</c:v>
+                  <c:v>212.23</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42.47</c:v>
+                  <c:v>46.03</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>23.970000000000002</c:v>
+                  <c:v>25.470000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>141.66999999999999</c:v>
+                  <c:v>152.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42.980000000000004</c:v>
+                  <c:v>56.56</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7.09</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>55.51</c:v>
+                  <c:v>68.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>159.02999999999997</c:v>
+                  <c:v>172.27999999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>107.21000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>142.57</c:v>
+                  <c:v>156.75</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9.61</c:v>
@@ -2709,10 +2700,10 @@
                   <c:v>50.63000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>497.86000000000007</c:v>
+                  <c:v>527.91000000000008</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>46.49</c:v>
+                  <c:v>52.68</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>11.17</c:v>
@@ -2724,7 +2715,7 @@
                   <c:v>31.97</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>227.52999999999997</c:v>
+                  <c:v>249.58999999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>115.96000000000001</c:v>
@@ -2733,31 +2724,31 @@
                   <c:v>156.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>38.99</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42.550000000000004</c:v>
+                  <c:v>47.690000000000005</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>41.949999999999989</c:v>
+                  <c:v>45.759999999999991</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>71.200000000000017</c:v>
+                  <c:v>78.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>271.00000000000006</c:v>
+                  <c:v>275.66000000000003</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>18.66</c:v>
+                  <c:v>20.69</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>33.29</c:v>
+                  <c:v>36.230000000000004</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>34.67</c:v>
@@ -2766,7 +2757,7 @@
                   <c:v>70.84</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>49.989999999999995</c:v>
+                  <c:v>68.44</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>75.86</c:v>
@@ -2778,7 +2769,7 @@
                   <c:v>26.55</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>34.74</c:v>
+                  <c:v>47.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>63.14</c:v>
@@ -2790,7 +2781,7 @@
                   <c:v>92.13</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>63.809999999999995</c:v>
+                  <c:v>76.77</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>9.15</c:v>
@@ -2799,10 +2790,10 @@
                   <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>56.980000000000011</c:v>
+                  <c:v>58.040000000000013</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>128.54000000000002</c:v>
+                  <c:v>149.45000000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>85.610000000000014</c:v>
@@ -3147,7 +3138,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>108.70586604630219</c:v>
+                  <c:v>150.30669249258318</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>106.87783998145792</c:v>
@@ -3156,7 +3147,7 @@
                   <c:v>275.85964320247933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195.92709581729454</c:v>
+                  <c:v>237.52792226357553</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>669.16322677905748</c:v>
@@ -3165,7 +3156,7 @@
                   <c:v>291.59308963265448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179.65714796119582</c:v>
+                  <c:v>221.25797440747681</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>110.82523998145793</c:v>
@@ -3174,7 +3165,7 @@
                   <c:v>304.30540559555334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.778995817294557</c:v>
+                  <c:v>131.37982226357553</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>71.225760318118731</c:v>
@@ -3380,11 +3371,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="5715000" cy="4314825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 5" title="Chart">
@@ -3439,6 +3430,85 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E42C58-1A9E-4681-EBC0-3B84C010A966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15068550" y="24403050"/>
+          <a:ext cx="3829050" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>year</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> completion:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>-paste dividens as values below</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3781,10 +3851,10 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K65" sqref="K65"/>
+      <selection pane="bottomRight" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3864,15 +3934,15 @@
       </c>
       <c r="H2" s="6">
         <f>'Dividends per year'!B2</f>
-        <v>686.67</v>
+        <v>747.76</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I30" si="1">(G2-(F2*E2)+H2)</f>
-        <v>1743.1848</v>
+        <v>1804.2747999999999</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:J33" si="2">((D2*F2)+H2)/(E2*F2)-100%</f>
-        <v>0.21301251940921206</v>
+        <v>0.22047755398885549</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>16</v>
@@ -3881,15 +3951,15 @@
         <v>43135</v>
       </c>
       <c r="M2" s="80" t="s">
-        <v>17</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="72" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="87" t="s">
         <v>15</v>
@@ -3920,7 +3990,7 @@
         <v>1.2912900529395377</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="81">
         <v>43251</v>
@@ -3928,10 +3998,10 @@
     </row>
     <row r="4" spans="1:13" ht="15">
       <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>22</v>
       </c>
       <c r="C4" s="87" t="s">
         <v>15</v>
@@ -3962,7 +4032,7 @@
         <v>1.0871337244654802</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="81">
         <v>43767</v>
@@ -3970,13 +4040,13 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="C5" s="87" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="6">
         <v>1350</v>
@@ -4004,7 +4074,7 @@
         <v>0.50075544065605726</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="82">
         <v>43679</v>
@@ -4012,10 +4082,10 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="72" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>29</v>
       </c>
       <c r="C6" s="87" t="s">
         <v>15</v>
@@ -4035,18 +4105,18 @@
       </c>
       <c r="H6" s="6">
         <f>'Dividends per year'!B6</f>
-        <v>339.90999999999997</v>
+        <v>384.26</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>1846.4099999999999</v>
+        <v>1890.76</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="2"/>
-        <v>0.35902815586839854</v>
+        <v>0.3676518627984755</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="82">
         <v>43594</v>
@@ -4054,13 +4124,13 @@
     </row>
     <row r="7" spans="1:13" ht="15">
       <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6">
         <v>50</v>
@@ -4088,7 +4158,7 @@
         <v>5.1938540167033809E-2</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="82">
         <v>43434</v>
@@ -4096,10 +4166,10 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="72" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>35</v>
       </c>
       <c r="C8" s="87" t="s">
         <v>15</v>
@@ -4119,18 +4189,18 @@
       </c>
       <c r="H8" s="6">
         <f>'Dividends per year'!B8</f>
-        <v>21.410000000000004</v>
+        <v>22.67</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="1"/>
-        <v>3032.8099999999995</v>
+        <v>3034.0699999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="2"/>
-        <v>2.0373572484213351</v>
+        <v>2.0382036813112991</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="82">
         <v>43608</v>
@@ -4138,10 +4208,10 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="72" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>38</v>
       </c>
       <c r="C9" s="87" t="s">
         <v>15</v>
@@ -4172,7 +4242,7 @@
         <v>7.1447817638313316E-2</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="82">
         <v>43686</v>
@@ -4180,10 +4250,10 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="72" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>41</v>
       </c>
       <c r="C10" s="87" t="s">
         <v>15</v>
@@ -4203,18 +4273,18 @@
       </c>
       <c r="H10" s="6">
         <f>'Dividends per year'!B10</f>
-        <v>514.49</v>
+        <v>553.6</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>408.35999000000015</v>
+        <v>447.46999000000017</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="2"/>
-        <v>7.8438300468028466E-2</v>
+        <v>8.5950598456145944E-2</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="82">
         <v>43466</v>
@@ -4222,10 +4292,10 @@
     </row>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="72" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>44</v>
       </c>
       <c r="C11" s="87" t="s">
         <v>15</v>
@@ -4256,7 +4326,7 @@
         <v>-0.38955354206224846</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" s="82">
         <v>43607</v>
@@ -4264,13 +4334,13 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="72" t="s">
-        <v>47</v>
-      </c>
       <c r="C12" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6">
         <v>27</v>
@@ -4298,7 +4368,7 @@
         <v>0.30533353899868687</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="82">
         <v>43466</v>
@@ -4306,10 +4376,10 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="72" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>50</v>
       </c>
       <c r="C13" s="87" t="s">
         <v>15</v>
@@ -4340,7 +4410,7 @@
         <v>0.17096254148885714</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" s="82">
         <v>44312</v>
@@ -4348,13 +4418,13 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="C14" s="87" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" s="87" t="s">
-        <v>54</v>
       </c>
       <c r="D14" s="6">
         <v>168.81</v>
@@ -4371,18 +4441,18 @@
       </c>
       <c r="H14" s="6">
         <f>'Dividends per year'!B14</f>
-        <v>65.289999999999992</v>
+        <v>92.859999999999985</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="1"/>
-        <v>409.14999999999986</v>
+        <v>436.71999999999991</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" si="2"/>
-        <v>0.30437273105992957</v>
+        <v>0.32488246146521438</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="82">
         <v>43614</v>
@@ -4390,10 +4460,10 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="72" t="s">
         <v>56</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>57</v>
       </c>
       <c r="C15" s="87" t="s">
         <v>15</v>
@@ -4413,18 +4483,18 @@
       </c>
       <c r="H15" s="6">
         <f>'Dividends per year'!B15</f>
-        <v>470.46</v>
+        <v>477.94</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>623.15999999999963</v>
+        <v>630.63999999999965</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" si="2"/>
-        <v>0.34385035590134039</v>
+        <v>0.3479777078850077</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="82">
         <v>43091</v>
@@ -4432,13 +4502,13 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="72" t="s">
-        <v>60</v>
-      </c>
       <c r="C16" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6">
         <v>30</v>
@@ -4466,7 +4536,7 @@
         <v>-0.21745535714285713</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" s="82">
         <v>43109</v>
@@ -4474,10 +4544,10 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="72" t="s">
         <v>62</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>63</v>
       </c>
       <c r="C17" s="87" t="s">
         <v>15</v>
@@ -4508,7 +4578,7 @@
         <v>0.70064516129032262</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L17" s="82">
         <v>43123</v>
@@ -4516,10 +4586,10 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="72" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>66</v>
       </c>
       <c r="C18" s="87" t="s">
         <v>15</v>
@@ -4539,18 +4609,18 @@
       </c>
       <c r="H18" s="6">
         <f>'Dividends per year'!B18</f>
-        <v>27.15</v>
+        <v>28.709999999999997</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="1"/>
-        <v>308.54999999999995</v>
+        <v>310.10999999999996</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" si="2"/>
-        <v>1.0312499999999996</v>
+        <v>1.0364639037433152</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L18" s="82">
         <v>43130</v>
@@ -4558,10 +4628,10 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="72" t="s">
         <v>68</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>69</v>
       </c>
       <c r="C19" s="87" t="s">
         <v>15</v>
@@ -4592,7 +4662,7 @@
         <v>0.21979457079970643</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" s="82">
         <v>43158</v>
@@ -4600,13 +4670,13 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="72" t="s">
-        <v>72</v>
-      </c>
       <c r="C20" s="87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="6">
         <v>475</v>
@@ -4623,18 +4693,18 @@
       </c>
       <c r="H20" s="6">
         <f>'Dividends per year'!B20</f>
-        <v>79.72</v>
+        <v>94.28</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>142.22</v>
+        <v>156.78</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" si="2"/>
-        <v>0.34477575757575774</v>
+        <v>0.38007272727272712</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L20" s="82">
         <v>43179</v>
@@ -4642,13 +4712,13 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="72" t="s">
-        <v>75</v>
-      </c>
       <c r="C21" s="87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="6">
         <v>158</v>
@@ -4676,7 +4746,7 @@
         <v>7.7692760447312104E-4</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L21" s="82">
         <v>43196</v>
@@ -4684,10 +4754,10 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="87" t="s">
         <v>15</v>
@@ -4707,18 +4777,18 @@
       </c>
       <c r="H22" s="6">
         <f>'Dividends per year'!B22</f>
-        <v>157.88</v>
+        <v>165.6</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>156.38</v>
+        <v>164.1</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" si="2"/>
-        <v>0.21674289674289682</v>
+        <v>0.22744282744282751</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L22" s="82">
         <v>43209</v>
@@ -4726,13 +4796,13 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="C23" s="87" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" s="87" t="s">
-        <v>81</v>
       </c>
       <c r="D23" s="6">
         <v>0.35</v>
@@ -4760,7 +4830,7 @@
         <v>-0.33557210561949902</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L23" s="82">
         <v>43608</v>
@@ -4768,13 +4838,13 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="87" t="s">
         <v>83</v>
-      </c>
-      <c r="B24" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="87" t="s">
-        <v>85</v>
       </c>
       <c r="D24" s="6">
         <v>2.6389999999999998</v>
@@ -4791,18 +4861,18 @@
       </c>
       <c r="H24" s="6">
         <f>'Dividends per year'!B24</f>
-        <v>369.77</v>
+        <v>402.29999999999995</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
-        <v>299.77</v>
+        <v>332.29999999999995</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" si="2"/>
-        <v>0.21573947463116228</v>
+        <v>0.2391507736595897</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L24" s="82">
         <v>43251</v>
@@ -4810,13 +4880,13 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="6">
         <v>50</v>
@@ -4844,7 +4914,7 @@
         <v>-6.5543693159351601E-2</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L25" s="82">
         <v>43251</v>
@@ -4852,13 +4922,13 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="87" t="s">
         <v>90</v>
-      </c>
-      <c r="B26" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="87" t="s">
-        <v>92</v>
       </c>
       <c r="D26" s="6">
         <v>2.1</v>
@@ -4875,18 +4945,18 @@
       </c>
       <c r="H26" s="6">
         <f>'Dividends per year'!B26</f>
-        <v>189.6</v>
+        <v>212.34</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="1"/>
-        <v>389.6</v>
+        <v>412.34000000000003</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" si="2"/>
-        <v>0.45835294117647041</v>
+        <v>0.48510588235294105</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L26" s="82">
         <v>43270</v>
@@ -4894,13 +4964,13 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="6">
         <v>60</v>
@@ -4928,7 +4998,7 @@
         <v>-7.3309244614126134E-2</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L27" s="82">
         <v>43272</v>
@@ -4936,10 +5006,10 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" s="72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="87" t="s">
         <v>15</v>
@@ -4959,18 +5029,18 @@
       </c>
       <c r="H28" s="6">
         <f>'Dividends per year'!B28</f>
-        <v>217.78000000000003</v>
+        <v>233.87000000000003</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="1"/>
-        <v>1215.43</v>
+        <v>1231.5200000000002</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" si="2"/>
-        <v>0.78579602392112502</v>
+        <v>0.79619848068530796</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L28" s="82">
         <v>43433</v>
@@ -4978,10 +5048,10 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" s="87" t="s">
         <v>15</v>
@@ -5012,7 +5082,7 @@
         <v>0.57453564257028122</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L29" s="82">
         <v>43554</v>
@@ -5020,26 +5090,26 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" s="87" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="6">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E30" s="7">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F30" s="6">
         <v>50</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="0"/>
-        <v>4750</v>
+        <v>4050</v>
       </c>
       <c r="H30" s="6">
         <f>'Dividends per year'!B30</f>
@@ -5054,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L30" s="82">
         <v>45309</v>
@@ -5062,13 +5132,13 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="87" t="s">
         <v>106</v>
-      </c>
-      <c r="B31" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="87" t="s">
-        <v>108</v>
       </c>
       <c r="D31" s="6">
         <v>7.5</v>
@@ -5096,7 +5166,7 @@
         <v>9.5642816344858161E-2</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L31" s="82">
         <v>43591</v>
@@ -5104,10 +5174,10 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" s="87" t="s">
         <v>15</v>
@@ -5127,18 +5197,18 @@
       </c>
       <c r="H32" s="6">
         <f>'Dividends per year'!B32</f>
-        <v>212.80999999999997</v>
+        <v>247.89999999999998</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
-        <v>1527.98</v>
+        <v>1563.0700000000002</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" si="2"/>
-        <v>0.42387019637541878</v>
+        <v>0.43360435859666047</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L32" s="82">
         <v>43594</v>
@@ -5146,10 +5216,10 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" s="87" t="s">
         <v>15</v>
@@ -5169,18 +5239,18 @@
       </c>
       <c r="H33" s="6">
         <f>'Dividends per year'!B33</f>
-        <v>199.72</v>
+        <v>212.23</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
-        <v>127.38000199999985</v>
+        <v>139.89000199999984</v>
       </c>
       <c r="J33" s="8">
         <f t="shared" si="2"/>
-        <v>0.11141043103785453</v>
+        <v>0.12235205821951833</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L33" s="82">
         <v>43608</v>
@@ -5188,10 +5258,10 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" s="72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34" s="87" t="s">
         <v>15</v>
@@ -5211,18 +5281,18 @@
       </c>
       <c r="H34" s="6">
         <f>'Dividends per year'!B34</f>
-        <v>42.47</v>
+        <v>46.03</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="4"/>
-        <v>-30.919995999999998</v>
+        <v>-27.359995999999995</v>
       </c>
       <c r="J34" s="8">
         <f t="shared" ref="J34:J65" si="5">((D34*F34)+H34)/(E34*F34)-100%</f>
-        <v>-4.1689695102618107E-2</v>
+        <v>-3.6889716649667448E-2</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L34" s="82">
         <v>43623</v>
@@ -5230,10 +5300,10 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B35" s="72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35" s="87" t="s">
         <v>15</v>
@@ -5253,18 +5323,18 @@
       </c>
       <c r="H35" s="6">
         <f>'Dividends per year'!B35</f>
-        <v>23.970000000000002</v>
+        <v>25.470000000000002</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="4"/>
-        <v>82.02999600000004</v>
+        <v>83.52999600000004</v>
       </c>
       <c r="J35" s="8">
         <f t="shared" si="5"/>
-        <v>0.33180970258377673</v>
+        <v>0.33787717275500118</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L35" s="82">
         <v>43624</v>
@@ -5272,10 +5342,10 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" s="87" t="s">
         <v>15</v>
@@ -5295,18 +5365,18 @@
       </c>
       <c r="H36" s="6">
         <f>'Dividends per year'!B36</f>
-        <v>141.66999999999999</v>
+        <v>152.39999999999998</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="4"/>
-        <v>2.8400010000001714</v>
+        <v>13.570001000000161</v>
       </c>
       <c r="J36" s="8">
         <f t="shared" si="5"/>
-        <v>2.703449755550924E-3</v>
+        <v>1.2917536256596973E-2</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L36" s="82">
         <v>43615</v>
@@ -5314,10 +5384,10 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="87" t="s">
         <v>15</v>
@@ -5337,18 +5407,18 @@
       </c>
       <c r="H37" s="6">
         <f>'Dividends per year'!B37</f>
-        <v>42.980000000000004</v>
+        <v>56.56</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="4"/>
-        <v>43.099999999999895</v>
+        <v>56.679999999999893</v>
       </c>
       <c r="J37" s="8">
         <f t="shared" si="5"/>
-        <v>2.3425440789616614E-2</v>
+        <v>3.0806356936321944E-2</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L37" s="82">
         <v>45153</v>
@@ -5356,13 +5426,13 @@
     </row>
     <row r="38" spans="1:12" ht="15">
       <c r="A38" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C38" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" s="6">
         <v>120</v>
@@ -5390,7 +5460,7 @@
         <v>0.24916453705523889</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L38" s="82">
         <v>43657</v>
@@ -5398,10 +5468,10 @@
     </row>
     <row r="39" spans="1:12" ht="15">
       <c r="A39" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C39" s="87" t="s">
         <v>15</v>
@@ -5421,18 +5491,18 @@
       </c>
       <c r="H39" s="6">
         <f>'Dividends per year'!B39</f>
-        <v>55.51</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="4"/>
-        <v>173.46999999999997</v>
+        <v>186.85999999999999</v>
       </c>
       <c r="J39" s="8">
         <f t="shared" si="5"/>
-        <v>0.44180419722901387</v>
+        <v>0.47590668296658523</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L39" s="82">
         <v>43165</v>
@@ -5440,10 +5510,10 @@
     </row>
     <row r="40" spans="1:12" ht="15">
       <c r="A40" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B40" s="72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C40" s="87" t="s">
         <v>15</v>
@@ -5474,7 +5544,7 @@
         <v>-9.8005556017018547E-2</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L40" s="82">
         <v>43697</v>
@@ -5482,13 +5552,13 @@
     </row>
     <row r="41" spans="1:12" ht="15">
       <c r="A41" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="87" t="s">
         <v>137</v>
-      </c>
-      <c r="B41" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="87" t="s">
-        <v>139</v>
       </c>
       <c r="D41" s="6">
         <v>5.8</v>
@@ -5505,18 +5575,18 @@
       </c>
       <c r="H41" s="6">
         <f>'Dividends per year'!B41</f>
-        <v>159.02999999999997</v>
+        <v>172.27999999999997</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
-        <v>220.29999999999995</v>
+        <v>233.54999999999995</v>
       </c>
       <c r="J41" s="8">
         <f t="shared" si="5"/>
-        <v>0.20050421850682154</v>
+        <v>0.21256359615192078</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L41" s="82">
         <v>43700</v>
@@ -5524,10 +5594,10 @@
     </row>
     <row r="42" spans="1:12" ht="15">
       <c r="A42" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="87" t="s">
         <v>15</v>
@@ -5558,7 +5628,7 @@
         <v>0.13312570298767556</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L42" s="82">
         <v>43700</v>
@@ -5566,13 +5636,13 @@
     </row>
     <row r="43" spans="1:12" ht="15">
       <c r="A43" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B43" s="72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C43" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43" s="6">
         <v>26</v>
@@ -5589,18 +5659,18 @@
       </c>
       <c r="H43" s="6">
         <f>'Dividends per year'!B43</f>
-        <v>142.57</v>
+        <v>156.75</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="4"/>
-        <v>187.52998600000006</v>
+        <v>201.70998600000007</v>
       </c>
       <c r="J43" s="8">
         <f t="shared" si="5"/>
-        <v>0.1666873921517249</v>
+        <v>0.17929138829723446</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L43" s="82">
         <v>43703</v>
@@ -5608,10 +5678,10 @@
     </row>
     <row r="44" spans="1:12" ht="15">
       <c r="A44" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" s="87" t="s">
         <v>15</v>
@@ -5642,7 +5712,7 @@
         <v>-0.2189235580012564</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L44" s="82">
         <v>43728</v>
@@ -5650,10 +5720,10 @@
     </row>
     <row r="45" spans="1:12" ht="15">
       <c r="A45" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B45" s="72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C45" s="87" t="s">
         <v>15</v>
@@ -5684,7 +5754,7 @@
         <v>8.9853972041815222E-2</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L45" s="82">
         <v>43733</v>
@@ -5692,10 +5762,10 @@
     </row>
     <row r="46" spans="1:12" ht="15">
       <c r="A46" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B46" s="72" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C46" s="87" t="s">
         <v>15</v>
@@ -5726,7 +5796,7 @@
         <v>0.38116777735575402</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L46" s="82">
         <v>43591</v>
@@ -5734,10 +5804,10 @@
     </row>
     <row r="47" spans="1:12" ht="15">
       <c r="A47" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B47" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C47" s="87" t="s">
         <v>15</v>
@@ -5768,7 +5838,7 @@
         <v>-0.14189557301277655</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L47" s="82">
         <v>43768</v>
@@ -5776,13 +5846,13 @@
     </row>
     <row r="48" spans="1:12" ht="15">
       <c r="A48" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" s="6">
         <v>77</v>
@@ -5810,7 +5880,7 @@
         <v>-0.16127847329693334</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L48" s="82">
         <v>43858</v>
@@ -5818,13 +5888,13 @@
     </row>
     <row r="49" spans="1:12" ht="15">
       <c r="A49" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B49" s="72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D49" s="6">
         <v>90</v>
@@ -5852,7 +5922,7 @@
         <v>-3.4210776520931629E-2</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L49" s="82">
         <v>43859</v>
@@ -5860,13 +5930,13 @@
     </row>
     <row r="50" spans="1:12" ht="15">
       <c r="A50" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C50" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50" s="6">
         <v>280</v>
@@ -5894,7 +5964,7 @@
         <v>0.12978811795714695</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L50" s="82">
         <v>43861</v>
@@ -5902,10 +5972,10 @@
     </row>
     <row r="51" spans="1:12" ht="15">
       <c r="A51" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B51" s="72" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C51" s="87" t="s">
         <v>15</v>
@@ -5936,7 +6006,7 @@
         <v>6.2263164771984902E-2</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L51" s="82">
         <v>43880</v>
@@ -5944,13 +6014,13 @@
     </row>
     <row r="52" spans="1:12" ht="15">
       <c r="A52" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B52" s="72" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C52" s="87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D52" s="6">
         <v>7.6</v>
@@ -5978,7 +6048,7 @@
         <v>5.5782755926022443E-2</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L52" s="82">
         <v>43902</v>
@@ -5986,10 +6056,10 @@
     </row>
     <row r="53" spans="1:12" ht="15">
       <c r="A53" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B53" s="72" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C53" s="87" t="s">
         <v>15</v>
@@ -6009,18 +6079,18 @@
       </c>
       <c r="H53" s="6">
         <f>'Dividends per year'!B53</f>
-        <v>497.86000000000007</v>
+        <v>527.91000000000008</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>3197.86</v>
+        <v>3227.91</v>
       </c>
       <c r="J53" s="8">
         <f t="shared" si="5"/>
-        <v>0.48452424242424241</v>
+        <v>0.48907727272727275</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L53" s="82">
         <v>43908</v>
@@ -6028,13 +6098,13 @@
     </row>
     <row r="54" spans="1:12" ht="15">
       <c r="A54" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="87" t="s">
         <v>177</v>
-      </c>
-      <c r="B54" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="87" t="s">
-        <v>179</v>
       </c>
       <c r="D54" s="6">
         <v>20</v>
@@ -6051,18 +6121,18 @@
       </c>
       <c r="H54" s="6">
         <f>'Dividends per year'!B54</f>
-        <v>46.49</v>
+        <v>52.68</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>227.30999999999995</v>
+        <v>233.49999999999994</v>
       </c>
       <c r="J54" s="8">
         <f t="shared" si="5"/>
-        <v>0.27748480187504576</v>
+        <v>0.28504113869967518</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L54" s="82">
         <v>43998</v>
@@ -6070,10 +6140,10 @@
     </row>
     <row r="55" spans="1:12" ht="15">
       <c r="A55" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B55" s="72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C55" s="87" t="s">
         <v>15</v>
@@ -6104,7 +6174,7 @@
         <v>0.2658121172741057</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L55" s="82">
         <v>44002</v>
@@ -6112,13 +6182,13 @@
     </row>
     <row r="56" spans="1:12" ht="15">
       <c r="A56" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B56" s="72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C56" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="7">
         <v>44</v>
@@ -6146,7 +6216,7 @@
         <v>-7.7662994135400121E-3</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L56" s="82">
         <v>43965</v>
@@ -6154,10 +6224,10 @@
     </row>
     <row r="57" spans="1:12" ht="15">
       <c r="A57" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B57" s="72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C57" s="87" t="s">
         <v>15</v>
@@ -6188,7 +6258,7 @@
         <v>3.6733541034821959E-2</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L57" s="82">
         <v>43978</v>
@@ -6196,10 +6266,10 @@
     </row>
     <row r="58" spans="1:12" ht="15">
       <c r="A58" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B58" s="72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C58" s="87" t="s">
         <v>15</v>
@@ -6219,18 +6289,18 @@
       </c>
       <c r="H58" s="6">
         <f>'Dividends per year'!B58</f>
-        <v>227.52999999999997</v>
+        <v>249.58999999999997</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="4"/>
-        <v>88.919995999999855</v>
+        <v>110.97999599999986</v>
       </c>
       <c r="J58" s="8">
         <f t="shared" si="5"/>
-        <v>3.8284514338120301E-2</v>
+        <v>4.7782449833966956E-2</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L58" s="82">
         <v>43377</v>
@@ -6238,10 +6308,10 @@
     </row>
     <row r="59" spans="1:12" ht="15">
       <c r="A59" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B59" s="72" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C59" s="87" t="s">
         <v>15</v>
@@ -6272,7 +6342,7 @@
         <v>8.7133102775560856E-2</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L59" s="82">
         <v>43985</v>
@@ -6280,7 +6350,7 @@
     </row>
     <row r="60" spans="1:12" ht="15">
       <c r="A60" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B60" s="72"/>
       <c r="C60" s="87"/>
@@ -6310,7 +6380,7 @@
         <v>0.19661011853717425</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L60" s="82">
         <v>43992</v>
@@ -6318,10 +6388,10 @@
     </row>
     <row r="61" spans="1:12" ht="15">
       <c r="A61" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B61" s="72" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C61" s="87" t="s">
         <v>15</v>
@@ -6341,18 +6411,18 @@
       </c>
       <c r="H61" s="6">
         <f>'Dividends per year'!B61</f>
-        <v>38.99</v>
+        <v>42.47</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="4"/>
-        <v>32.26997000000005</v>
+        <v>35.749970000000047</v>
       </c>
       <c r="J61" s="8">
         <f t="shared" si="5"/>
-        <v>4.3861752683286515E-2</v>
+        <v>4.8591812839457571E-2</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L61" s="82">
         <v>43993</v>
@@ -6360,13 +6430,13 @@
     </row>
     <row r="62" spans="1:12" ht="15">
       <c r="A62" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B62" s="72" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D62" s="7">
         <v>237</v>
@@ -6383,18 +6453,18 @@
       </c>
       <c r="H62" s="6">
         <f>'Dividends per year'!B62</f>
-        <v>42.550000000000004</v>
+        <v>47.690000000000005</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>252.21999999999997</v>
+        <v>257.35999999999996</v>
       </c>
       <c r="J62" s="8">
         <f t="shared" si="5"/>
-        <v>0.34160876572806176</v>
+        <v>0.3485704224398305</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L62" s="82">
         <v>43994</v>
@@ -6402,10 +6472,10 @@
     </row>
     <row r="63" spans="1:12" ht="15">
       <c r="A63" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B63" s="72" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C63" s="87" t="s">
         <v>15</v>
@@ -6425,18 +6495,18 @@
       </c>
       <c r="H63" s="6">
         <f>'Dividends per year'!B63</f>
-        <v>41.949999999999989</v>
+        <v>45.759999999999991</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" ref="I63:I86" si="6">(G63-(F63*E63)+H63)</f>
-        <v>81.06</v>
+        <v>84.87</v>
       </c>
       <c r="J63" s="8">
         <f t="shared" si="5"/>
-        <v>0.20220010476689376</v>
+        <v>0.2117039586919105</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L63" s="82">
         <v>44019</v>
@@ -6444,10 +6514,10 @@
     </row>
     <row r="64" spans="1:12" ht="15">
       <c r="A64" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B64" s="72" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C64" s="87" t="s">
         <v>15</v>
@@ -6478,7 +6548,7 @@
         <v>0.15735767991407101</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L64" s="82">
         <v>44026</v>
@@ -6486,10 +6556,10 @@
     </row>
     <row r="65" spans="1:12" ht="15">
       <c r="A65" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B65" s="72" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C65" s="87" t="s">
         <v>15</v>
@@ -6509,18 +6579,18 @@
       </c>
       <c r="H65" s="6">
         <f>'Dividends per year'!B65</f>
-        <v>71.200000000000017</v>
+        <v>78.77000000000001</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="6"/>
-        <v>67.460000000000008</v>
+        <v>75.03</v>
       </c>
       <c r="J65" s="8">
         <f t="shared" si="5"/>
-        <v>8.1894772622429501E-2</v>
+        <v>9.1084565518245952E-2</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L65" s="82">
         <v>44027</v>
@@ -6528,10 +6598,10 @@
     </row>
     <row r="66" spans="1:12" ht="15">
       <c r="A66" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B66" s="72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C66" s="87" t="s">
         <v>15</v>
@@ -6551,18 +6621,18 @@
       </c>
       <c r="H66" s="6">
         <f>'Dividends per year'!B66</f>
-        <v>271.00000000000006</v>
+        <v>275.66000000000003</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="6"/>
-        <v>630.40245549939982</v>
+        <v>635.0624554993999</v>
       </c>
       <c r="J66" s="8">
         <f t="shared" ref="J66:J100" si="7">((D66*F66)+H66)/(E66*F66)-100%</f>
-        <v>0.64835542066312746</v>
+        <v>0.65314813083411938</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L66" s="82">
         <v>44062</v>
@@ -6570,13 +6640,13 @@
     </row>
     <row r="67" spans="1:12" ht="15">
       <c r="A67" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C67" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67" s="7">
         <v>52</v>
@@ -6604,7 +6674,7 @@
         <v>0.45231924211278929</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L67" s="82">
         <v>44036</v>
@@ -6612,10 +6682,10 @@
     </row>
     <row r="68" spans="1:12" ht="15">
       <c r="A68" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C68" s="87" t="s">
         <v>15</v>
@@ -6635,18 +6705,18 @@
       </c>
       <c r="H68" s="6">
         <f>'Dividends per year'!B68</f>
-        <v>18.66</v>
+        <v>20.69</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="6"/>
-        <v>99.669999999999987</v>
+        <v>101.69999999999999</v>
       </c>
       <c r="J68" s="8">
         <f t="shared" si="7"/>
-        <v>0.11809381627744409</v>
+        <v>0.12049905804571148</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L68" s="82">
         <v>44037</v>
@@ -6654,10 +6724,10 @@
     </row>
     <row r="69" spans="1:12" ht="15">
       <c r="A69" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B69" s="72" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C69" s="87" t="s">
         <v>15</v>
@@ -6677,18 +6747,18 @@
       </c>
       <c r="H69" s="6">
         <f>'Dividends per year'!B69</f>
-        <v>33.29</v>
+        <v>36.230000000000004</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" si="6"/>
-        <v>29.030000000000008</v>
+        <v>31.970000000000013</v>
       </c>
       <c r="J69" s="8">
         <f t="shared" si="7"/>
-        <v>4.3702766988829689E-2</v>
+        <v>4.8128744768614728E-2</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L69" s="82">
         <v>44043</v>
@@ -6696,13 +6766,13 @@
     </row>
     <row r="70" spans="1:12" ht="15">
       <c r="A70" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B70" s="72" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C70" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D70" s="7">
         <v>91</v>
@@ -6730,7 +6800,7 @@
         <v>0.2198419462307275</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L70" s="82">
         <v>44049</v>
@@ -6738,13 +6808,13 @@
     </row>
     <row r="71" spans="1:12" ht="15">
       <c r="A71" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B71" s="72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C71" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" s="7">
         <v>90</v>
@@ -6772,7 +6842,7 @@
         <v>0.20679196499602237</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L71" s="82">
         <v>44074</v>
@@ -6780,10 +6850,10 @@
     </row>
     <row r="72" spans="1:12" ht="15">
       <c r="A72" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B72" s="72" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C72" s="87" t="s">
         <v>15</v>
@@ -6803,18 +6873,18 @@
       </c>
       <c r="H72" s="6">
         <f>'Dividends per year'!B72</f>
-        <v>49.989999999999995</v>
+        <v>68.44</v>
       </c>
       <c r="I72" s="7">
         <f t="shared" si="6"/>
-        <v>477.09000200000003</v>
+        <v>495.54000200000002</v>
       </c>
       <c r="J72" s="8">
         <f t="shared" si="7"/>
-        <v>0.59273202035714267</v>
+        <v>0.61565412253858653</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L72" s="82">
         <v>44095</v>
@@ -6822,10 +6892,10 @@
     </row>
     <row r="73" spans="1:12" ht="15">
       <c r="A73" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B73" s="72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C73" s="87" t="s">
         <v>15</v>
@@ -6856,7 +6926,7 @@
         <v>0.4903289491236027</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L73" s="82">
         <v>44096</v>
@@ -6864,13 +6934,13 @@
     </row>
     <row r="74" spans="1:12" ht="15">
       <c r="A74" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B74" s="72" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C74" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" s="7">
         <v>607</v>
@@ -6898,7 +6968,7 @@
         <v>0.48908957658573482</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L74" s="82">
         <v>44131</v>
@@ -6906,13 +6976,13 @@
     </row>
     <row r="75" spans="1:12" ht="15">
       <c r="A75" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B75" s="72" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C75" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D75" s="7">
         <v>400</v>
@@ -6940,7 +7010,7 @@
         <v>-0.21539593488457642</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L75" s="82">
         <v>44132</v>
@@ -6948,13 +7018,13 @@
     </row>
     <row r="76" spans="1:12" ht="15">
       <c r="A76" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B76" s="72" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C76" s="87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D76" s="7">
         <v>294</v>
@@ -6971,18 +7041,18 @@
       </c>
       <c r="H76" s="6">
         <f>'Dividends per year'!B76</f>
-        <v>34.74</v>
+        <v>47.650000000000006</v>
       </c>
       <c r="I76" s="7">
         <f t="shared" si="6"/>
-        <v>17.139999999999979</v>
+        <v>30.049999999999983</v>
       </c>
       <c r="J76" s="8">
         <f t="shared" si="7"/>
-        <v>2.8302509907529805E-2</v>
+        <v>4.9620211360634103E-2</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L76" s="82">
         <v>44103</v>
@@ -6990,10 +7060,10 @@
     </row>
     <row r="77" spans="1:12" ht="15">
       <c r="A77" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B77" s="72" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C77" s="87" t="s">
         <v>15</v>
@@ -7024,7 +7094,7 @@
         <v>0.57012768242962819</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L77" s="82">
         <v>44129</v>
@@ -7032,10 +7102,10 @@
     </row>
     <row r="78" spans="1:12" ht="15">
       <c r="A78" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B78" s="72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C78" s="87" t="s">
         <v>15</v>
@@ -7066,7 +7136,7 @@
         <v>0.34008350599441584</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L78" s="82">
         <v>44131</v>
@@ -7074,13 +7144,13 @@
     </row>
     <row r="79" spans="1:12" ht="15">
       <c r="A79" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B79" s="72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C79" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" s="7">
         <v>25.15</v>
@@ -7108,7 +7178,7 @@
         <v>0.22043681747269872</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L79" s="82">
         <v>44126</v>
@@ -7116,13 +7186,13 @@
     </row>
     <row r="80" spans="1:12" ht="15">
       <c r="A80" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B80" s="72" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C80" s="87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D80" s="7">
         <v>40.005000000000003</v>
@@ -7139,18 +7209,18 @@
       </c>
       <c r="H80" s="6">
         <f>'Dividends per year'!B80</f>
-        <v>63.809999999999995</v>
+        <v>76.77</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="6"/>
-        <v>52.949999999999982</v>
+        <v>65.909999999999982</v>
       </c>
       <c r="J80" s="8">
         <f t="shared" si="7"/>
-        <v>0.12886033437979116</v>
+        <v>0.16040008761042546</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L80" s="82">
         <v>44132</v>
@@ -7158,10 +7228,10 @@
     </row>
     <row r="81" spans="1:12" ht="15">
       <c r="A81" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B81" s="72" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C81" s="87" t="s">
         <v>15</v>
@@ -7192,7 +7262,7 @@
         <v>-9.3771183249228285E-3</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L81" s="82">
         <v>44327</v>
@@ -7200,13 +7270,13 @@
     </row>
     <row r="82" spans="1:12" ht="15">
       <c r="A82" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B82" s="72" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C82" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D82" s="7">
         <v>5</v>
@@ -7234,7 +7304,7 @@
         <v>2.1363570003406496E-2</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L82" s="82">
         <v>43935</v>
@@ -7242,10 +7312,10 @@
     </row>
     <row r="83" spans="1:12" ht="15">
       <c r="A83" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B83" s="72" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C83" s="87" t="s">
         <v>15</v>
@@ -7265,18 +7335,18 @@
       </c>
       <c r="H83" s="6">
         <f>'Dividends per year'!B83</f>
-        <v>56.980000000000011</v>
+        <v>58.040000000000013</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="6"/>
-        <v>57.580000000000034</v>
+        <v>58.640000000000036</v>
       </c>
       <c r="J83" s="8">
         <f t="shared" si="7"/>
-        <v>6.1953948784161827E-2</v>
+        <v>6.3094469550247556E-2</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L83" s="82">
         <v>44553</v>
@@ -7284,10 +7354,10 @@
     </row>
     <row r="84" spans="1:12" ht="15">
       <c r="A84" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B84" s="72" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C84" s="87" t="s">
         <v>15</v>
@@ -7307,18 +7377,18 @@
       </c>
       <c r="H84" s="6">
         <f>'Dividends per year'!B84</f>
-        <v>128.54000000000002</v>
+        <v>149.45000000000002</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="6"/>
-        <v>114.30177299999974</v>
+        <v>135.21177299999974</v>
       </c>
       <c r="J84" s="8">
         <f t="shared" si="7"/>
-        <v>2.8179255409398696E-2</v>
+        <v>3.3334278075674684E-2</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L84" s="82">
         <v>44580</v>
@@ -7326,10 +7396,10 @@
     </row>
     <row r="85" spans="1:12" ht="15">
       <c r="A85" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B85" s="72" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C85" s="87" t="s">
         <v>15</v>
@@ -7360,34 +7430,24 @@
         <v>7.1567544196771804E-2</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L85" s="82">
         <v>45214</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15">
-      <c r="A86" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B86" s="72" t="s">
-        <v>273</v>
-      </c>
+      <c r="A86" s="5"/>
+      <c r="B86" s="72"/>
       <c r="C86" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="D86" s="7">
-        <v>150</v>
-      </c>
-      <c r="E86" s="7">
-        <v>150</v>
-      </c>
-      <c r="F86" s="6">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="6"/>
       <c r="G86" s="6">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H86" s="6">
         <f>'Dividends per year'!B86</f>
@@ -7397,13 +7457,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J86" s="8" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="10" t="s">
-        <v>275</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K86" s="10"/>
       <c r="L86" s="82"/>
     </row>
     <row r="87" spans="1:12" ht="15">
@@ -7421,13 +7479,13 @@
     </row>
     <row r="88" spans="1:12" ht="15">
       <c r="A88" s="14" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B88" s="72" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C88" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D88" s="7">
         <v>1.83</v>
@@ -7455,7 +7513,7 @@
         <v>-4.6033200387174733E-2</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L88" s="82">
         <v>44211</v>
@@ -7463,10 +7521,10 @@
     </row>
     <row r="89" spans="1:12" ht="15">
       <c r="A89" s="14" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B89" s="72" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C89" s="87" t="s">
         <v>15</v>
@@ -7497,7 +7555,7 @@
         <v>1.3485329667725088E-2</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L89" s="82">
         <v>44215</v>
@@ -7505,10 +7563,10 @@
     </row>
     <row r="90" spans="1:12" ht="15">
       <c r="A90" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B90" s="72" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C90" s="87" t="s">
         <v>15</v>
@@ -7539,7 +7597,7 @@
         <v>-2.6828560547819569E-2</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L90" s="82">
         <v>44222</v>
@@ -7547,10 +7605,10 @@
     </row>
     <row r="91" spans="1:12" ht="15">
       <c r="A91" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B91" s="72" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C91" s="87" t="s">
         <v>15</v>
@@ -7581,7 +7639,7 @@
         <v>-2.472024128308481E-2</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L91" s="82">
         <v>44223</v>
@@ -7589,10 +7647,10 @@
     </row>
     <row r="92" spans="1:12" ht="15">
       <c r="A92" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B92" s="72" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C92" s="87" t="s">
         <v>15</v>
@@ -7623,7 +7681,7 @@
         <v>0.12202883311657753</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L92" s="82">
         <v>44277</v>
@@ -7631,13 +7689,13 @@
     </row>
     <row r="93" spans="1:12" ht="15">
       <c r="A93" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B93" s="72" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C93" s="87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D93" s="7">
         <v>16.899999999999999</v>
@@ -7665,7 +7723,7 @@
         <v>-2.3385238068469372E-2</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L93" s="82">
         <v>44252</v>
@@ -7673,13 +7731,13 @@
     </row>
     <row r="94" spans="1:12" ht="15">
       <c r="A94" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B94" s="72" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C94" s="87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D94" s="7">
         <v>2.6</v>
@@ -7707,7 +7765,7 @@
         <v>-4.3906744134735498E-2</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L94" s="82">
         <v>44252</v>
@@ -7715,10 +7773,10 @@
     </row>
     <row r="95" spans="1:12" ht="15">
       <c r="A95" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B95" s="72" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C95" s="87" t="s">
         <v>15</v>
@@ -7749,7 +7807,7 @@
         <v>3.7342342342342238E-2</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L95" s="82">
         <v>44243</v>
@@ -7757,13 +7815,13 @@
     </row>
     <row r="96" spans="1:12" ht="15">
       <c r="A96" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B96" s="72" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C96" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D96" s="7">
         <v>112</v>
@@ -7791,7 +7849,7 @@
         <v>-5.8243175329827035E-2</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L96" s="82">
         <v>44274</v>
@@ -7799,13 +7857,13 @@
     </row>
     <row r="97" spans="1:12" ht="15">
       <c r="A97" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B97" s="72" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C97" s="87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D97" s="7">
         <v>1.83</v>
@@ -7833,7 +7891,7 @@
         <v>-3.9289389135045538E-2</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L97" s="82">
         <v>44319</v>
@@ -7841,13 +7899,13 @@
     </row>
     <row r="98" spans="1:12" ht="15">
       <c r="A98" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B98" s="72" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C98" s="87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D98" s="7">
         <v>1.0089999999999999</v>
@@ -7875,7 +7933,7 @@
         <v>-8.7727053923158937E-3</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L98" s="82">
         <v>44566</v>
@@ -7956,7 +8014,7 @@
     </row>
     <row r="104" spans="1:12" ht="15">
       <c r="A104" s="14" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B104" s="72"/>
       <c r="C104" s="87"/>
@@ -7971,13 +8029,13 @@
     </row>
     <row r="105" spans="1:12" ht="15">
       <c r="A105" s="14" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B105" s="72" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C105" s="87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D105" s="6">
         <v>51.15</v>
@@ -7997,15 +8055,15 @@
         <v>0.39</v>
       </c>
       <c r="I105" s="7">
-        <f t="shared" ref="I105:I111" si="10">(G105-(F105*E105)+H105)</f>
+        <f t="shared" ref="I105:I112" si="10">(G105-(F105*E105)+H105)</f>
         <v>-4.6260000000000057</v>
       </c>
       <c r="J105" s="8">
-        <f t="shared" ref="J105:J111" si="11">((D105*F105)+H105)/(E105*F105)-100%</f>
+        <f t="shared" ref="J105:J112" si="11">((D105*F105)+H105)/(E105*F105)-100%</f>
         <v>-6.9672871859750685E-2</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L105" s="82">
         <v>43564</v>
@@ -8013,13 +8071,13 @@
     </row>
     <row r="106" spans="1:12" ht="15">
       <c r="A106" s="14" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B106" s="72" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C106" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D106" s="6">
         <v>66.430000000000007</v>
@@ -8047,7 +8105,7 @@
         <v>-0.20490724117295012</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L106" s="82">
         <v>44440</v>
@@ -8055,10 +8113,10 @@
     </row>
     <row r="107" spans="1:12" ht="15">
       <c r="A107" s="14" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B107" s="72" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C107" s="87" t="s">
         <v>15</v>
@@ -8073,7 +8131,7 @@
         <v>2</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" ref="G107:G111" si="12">F107*D107</f>
+        <f t="shared" ref="G107:G112" si="12">F107*D107</f>
         <v>32.74</v>
       </c>
       <c r="H107" s="6">
@@ -8089,7 +8147,7 @@
         <v>6.5625000000000044E-2</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L107" s="82">
         <v>44657</v>
@@ -8097,10 +8155,10 @@
     </row>
     <row r="108" spans="1:12" ht="15">
       <c r="A108" s="14" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B108" s="72" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C108" s="87" t="s">
         <v>15</v>
@@ -8131,7 +8189,7 @@
         <v>-0.84392775172138501</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L108" s="82">
         <v>43831</v>
@@ -8139,10 +8197,10 @@
     </row>
     <row r="109" spans="1:12" ht="15">
       <c r="A109" s="14" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B109" s="72" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C109" s="87" t="s">
         <v>15</v>
@@ -8173,7 +8231,7 @@
         <v>-0.33051398828887435</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L109" s="82">
         <v>45201</v>
@@ -8181,10 +8239,10 @@
     </row>
     <row r="110" spans="1:12" ht="15">
       <c r="A110" s="14" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B110" s="72" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C110" s="87" t="s">
         <v>15</v>
@@ -8215,7 +8273,7 @@
         <v>-5.2090592334494756E-2</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L110" s="82">
         <v>45202</v>
@@ -8223,10 +8281,10 @@
     </row>
     <row r="111" spans="1:12" ht="15">
       <c r="A111" s="14" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B111" s="72" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C111" s="87" t="s">
         <v>15</v>
@@ -8256,24 +8314,52 @@
         <v>34599.100000000006</v>
       </c>
       <c r="K111" s="10" t="s">
-        <v>183</v>
+        <v>398</v>
       </c>
       <c r="L111" s="82">
         <v>44907</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15">
-      <c r="A112" s="14"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="87"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="7"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="82"/>
+      <c r="A112" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B112" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="C112" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="6">
+        <v>63</v>
+      </c>
+      <c r="E112" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="F112" s="6">
+        <v>7</v>
+      </c>
+      <c r="G112" s="6">
+        <f t="shared" si="12"/>
+        <v>441</v>
+      </c>
+      <c r="H112" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="I112" s="7">
+        <f t="shared" si="10"/>
+        <v>440.99309999999997</v>
+      </c>
+      <c r="J112" s="8">
+        <f t="shared" si="11"/>
+        <v>62999.014285714278</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="L112" s="82">
+        <v>45392</v>
+      </c>
     </row>
     <row r="113" spans="1:12" ht="15">
       <c r="A113" s="14"/>
@@ -15723,6 +15809,7 @@
       <c r="J1000" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="J2:J1000">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
@@ -15746,13 +15833,14 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J132" sqref="J132"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
@@ -15761,10 +15849,10 @@
         <v>Wertpapier</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D1" s="18">
         <v>2024</v>
@@ -15807,13 +15895,14 @@
       </c>
       <c r="B2" s="20">
         <f t="shared" ref="B2:B95" si="0">SUM(C2:X2)</f>
-        <v>686.67</v>
+        <v>747.76</v>
       </c>
       <c r="C2" s="21">
         <v>686.67</v>
       </c>
       <c r="D2" s="21">
-        <v>0</v>
+        <f>61.09</f>
+        <v>61.09</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -15900,14 +15989,14 @@
       </c>
       <c r="B6" s="20">
         <f t="shared" si="0"/>
-        <v>339.90999999999997</v>
+        <v>384.26</v>
       </c>
       <c r="C6" s="21">
         <v>317.08</v>
       </c>
       <c r="D6" s="21">
-        <f>9.41+13.37+0.05</f>
-        <v>22.830000000000002</v>
+        <f>9.41+13.37+0.05+16.63+15.01+12.71</f>
+        <v>67.180000000000007</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -15947,13 +16036,14 @@
       </c>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
-        <v>21.410000000000004</v>
+        <v>22.67</v>
       </c>
       <c r="C8" s="21">
         <v>20.330000000000002</v>
       </c>
       <c r="D8" s="21">
-        <v>1.08</v>
+        <f>1.08+1.26</f>
+        <v>2.34</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
@@ -15993,13 +16083,14 @@
       </c>
       <c r="B10" s="20">
         <f t="shared" si="0"/>
-        <v>514.49</v>
+        <v>553.6</v>
       </c>
       <c r="C10" s="21">
         <v>514.49</v>
       </c>
       <c r="D10" s="21">
-        <v>0</v>
+        <f>39.11</f>
+        <v>39.11</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -16086,13 +16177,14 @@
       </c>
       <c r="B14" s="20">
         <f t="shared" si="0"/>
-        <v>65.289999999999992</v>
+        <v>92.859999999999985</v>
       </c>
       <c r="C14" s="21">
         <v>65.289999999999992</v>
       </c>
       <c r="D14" s="21">
-        <v>0</v>
+        <f>10.86+16.71</f>
+        <v>27.57</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -16109,14 +16201,14 @@
       </c>
       <c r="B15" s="20">
         <f t="shared" si="0"/>
-        <v>470.46</v>
+        <v>477.94</v>
       </c>
       <c r="C15" s="21">
         <v>456.65</v>
       </c>
       <c r="D15" s="21">
-        <f>6.37+7.44</f>
-        <v>13.81</v>
+        <f>6.37+7.44+7.48</f>
+        <v>21.29</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -16180,13 +16272,14 @@
       </c>
       <c r="B18" s="20">
         <f t="shared" si="0"/>
-        <v>27.15</v>
+        <v>28.709999999999997</v>
       </c>
       <c r="C18" s="21">
         <v>27.15</v>
       </c>
       <c r="D18" s="21">
-        <v>0</v>
+        <f>1.56</f>
+        <v>1.56</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -16226,13 +16319,14 @@
       </c>
       <c r="B20" s="20">
         <f t="shared" si="0"/>
-        <v>79.72</v>
+        <v>94.28</v>
       </c>
       <c r="C20" s="21">
         <v>79.72</v>
       </c>
       <c r="D20" s="21">
-        <v>0</v>
+        <f>14.56</f>
+        <v>14.56</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -16272,13 +16366,14 @@
       </c>
       <c r="B22" s="20">
         <f t="shared" si="0"/>
-        <v>157.88</v>
+        <v>165.6</v>
       </c>
       <c r="C22" s="21">
         <v>157.88</v>
       </c>
       <c r="D22" s="21">
-        <v>0</v>
+        <f>7.72</f>
+        <v>7.72</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -16314,17 +16409,18 @@
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="19" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>Charterl Hall Grp</v>
+        <v>Charter Hall Grp</v>
       </c>
       <c r="B24" s="20">
         <f t="shared" si="0"/>
-        <v>369.77</v>
+        <v>402.29999999999995</v>
       </c>
       <c r="C24" s="21">
         <v>369.77</v>
       </c>
       <c r="D24" s="21">
-        <v>0</v>
+        <f>24.48+8.05</f>
+        <v>32.53</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -16364,13 +16460,14 @@
       </c>
       <c r="B26" s="20">
         <f t="shared" si="0"/>
-        <v>189.6</v>
+        <v>212.34</v>
       </c>
       <c r="C26" s="21">
         <v>189.6</v>
       </c>
       <c r="D26" s="21">
-        <v>0</v>
+        <f>14.2+1.82+6.72</f>
+        <v>22.74</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -16410,13 +16507,14 @@
       </c>
       <c r="B28" s="20">
         <f t="shared" si="0"/>
-        <v>217.78000000000003</v>
+        <v>233.87000000000003</v>
       </c>
       <c r="C28" s="21">
         <v>217.78000000000003</v>
       </c>
       <c r="D28" s="21">
-        <v>0</v>
+        <f>16.09</f>
+        <v>16.09</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -16502,13 +16600,14 @@
       </c>
       <c r="B32" s="20">
         <f t="shared" si="0"/>
-        <v>212.80999999999997</v>
+        <v>247.89999999999998</v>
       </c>
       <c r="C32" s="21">
         <v>212.80999999999997</v>
       </c>
       <c r="D32" s="21">
-        <v>0</v>
+        <f>35.09</f>
+        <v>35.090000000000003</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
@@ -16525,13 +16624,14 @@
       </c>
       <c r="B33" s="20">
         <f t="shared" si="0"/>
-        <v>199.72</v>
+        <v>212.23</v>
       </c>
       <c r="C33" s="21">
         <v>199.72</v>
       </c>
       <c r="D33" s="21">
-        <v>0</v>
+        <f>12.51</f>
+        <v>12.51</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
@@ -16548,13 +16648,14 @@
       </c>
       <c r="B34" s="20">
         <f t="shared" si="0"/>
-        <v>42.47</v>
+        <v>46.03</v>
       </c>
       <c r="C34" s="21">
         <v>42.47</v>
       </c>
       <c r="D34" s="21">
-        <v>0</v>
+        <f>3.56</f>
+        <v>3.56</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
@@ -16571,13 +16672,14 @@
       </c>
       <c r="B35" s="20">
         <f t="shared" si="0"/>
-        <v>23.970000000000002</v>
+        <v>25.470000000000002</v>
       </c>
       <c r="C35" s="21">
         <v>23.970000000000002</v>
       </c>
       <c r="D35" s="21">
-        <v>0</v>
+        <f>1.5</f>
+        <v>1.5</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
@@ -16594,14 +16696,14 @@
       </c>
       <c r="B36" s="20">
         <f t="shared" si="0"/>
-        <v>141.66999999999999</v>
+        <v>152.39999999999998</v>
       </c>
       <c r="C36" s="21">
         <v>132.70999999999998</v>
       </c>
       <c r="D36" s="21">
-        <f>8.96</f>
-        <v>8.9600000000000009</v>
+        <f>8.96+10.73</f>
+        <v>19.690000000000001</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
@@ -16618,14 +16720,14 @@
       </c>
       <c r="B37" s="20">
         <f t="shared" si="0"/>
-        <v>42.980000000000004</v>
+        <v>56.56</v>
       </c>
       <c r="C37" s="21">
         <v>21.94</v>
       </c>
       <c r="D37" s="21">
-        <f>21.04</f>
-        <v>21.04</v>
+        <f>10+24.62</f>
+        <v>34.620000000000005</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -16665,13 +16767,14 @@
       </c>
       <c r="B39" s="20">
         <f t="shared" si="0"/>
-        <v>55.51</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="C39" s="21">
         <v>55.51</v>
       </c>
       <c r="D39" s="21">
-        <v>0</v>
+        <f>13.39</f>
+        <v>13.39</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -16711,13 +16814,14 @@
       </c>
       <c r="B41" s="20">
         <f t="shared" si="0"/>
-        <v>159.02999999999997</v>
+        <v>172.27999999999997</v>
       </c>
       <c r="C41" s="21">
         <v>159.02999999999997</v>
       </c>
       <c r="D41" s="21">
-        <v>0</v>
+        <f>13.25</f>
+        <v>13.25</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
@@ -16758,13 +16862,14 @@
       </c>
       <c r="B43" s="20">
         <f t="shared" si="0"/>
-        <v>142.57</v>
+        <v>156.75</v>
       </c>
       <c r="C43" s="21">
         <v>142.57</v>
       </c>
       <c r="D43" s="21">
-        <v>0</v>
+        <f>14.18</f>
+        <v>14.18</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
@@ -16989,14 +17094,14 @@
       </c>
       <c r="B53" s="20">
         <f t="shared" si="0"/>
-        <v>497.86000000000007</v>
+        <v>527.91000000000008</v>
       </c>
       <c r="C53" s="21">
         <v>437.65000000000009</v>
       </c>
       <c r="D53" s="21">
-        <f>29.95+30.26</f>
-        <v>60.21</v>
+        <f>29.95+30.26+30.05</f>
+        <v>90.26</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
@@ -17013,13 +17118,14 @@
       </c>
       <c r="B54" s="20">
         <f t="shared" si="0"/>
-        <v>46.49</v>
+        <v>52.68</v>
       </c>
       <c r="C54" s="21">
         <v>46.49</v>
       </c>
       <c r="D54" s="21">
-        <v>0</v>
+        <f>6.19</f>
+        <v>6.19</v>
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
@@ -17106,13 +17212,14 @@
       </c>
       <c r="B58" s="20">
         <f t="shared" si="0"/>
-        <v>227.52999999999997</v>
+        <v>249.58999999999997</v>
       </c>
       <c r="C58" s="21">
         <v>227.52999999999997</v>
       </c>
       <c r="D58" s="21">
-        <v>0</v>
+        <f>22.06</f>
+        <v>22.06</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
@@ -17176,13 +17283,14 @@
       </c>
       <c r="B61" s="20">
         <f t="shared" si="0"/>
-        <v>38.99</v>
+        <v>42.47</v>
       </c>
       <c r="C61" s="21">
         <v>38.99</v>
       </c>
       <c r="D61" s="21">
-        <v>0</v>
+        <f>3.48</f>
+        <v>3.48</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -17199,13 +17307,14 @@
       </c>
       <c r="B62" s="20">
         <f t="shared" si="0"/>
-        <v>42.550000000000004</v>
+        <v>47.690000000000005</v>
       </c>
       <c r="C62" s="21">
         <v>42.550000000000004</v>
       </c>
       <c r="D62" s="21">
-        <v>0</v>
+        <f>5.14</f>
+        <v>5.14</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
@@ -17222,13 +17331,14 @@
       </c>
       <c r="B63" s="20">
         <f t="shared" si="0"/>
-        <v>41.949999999999989</v>
+        <v>45.759999999999991</v>
       </c>
       <c r="C63" s="21">
         <v>41.949999999999989</v>
       </c>
       <c r="D63" s="21">
-        <v>0</v>
+        <f>3.81</f>
+        <v>3.81</v>
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
@@ -17268,14 +17378,14 @@
       </c>
       <c r="B65" s="20">
         <f t="shared" si="0"/>
-        <v>71.200000000000017</v>
+        <v>78.77000000000001</v>
       </c>
       <c r="C65" s="21">
         <v>65.330000000000013</v>
       </c>
       <c r="D65" s="21">
-        <f>5.87</f>
-        <v>5.87</v>
+        <f>5.87+7.57</f>
+        <v>13.440000000000001</v>
       </c>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
@@ -17292,14 +17402,14 @@
       </c>
       <c r="B66" s="20">
         <f t="shared" si="0"/>
-        <v>271.00000000000006</v>
+        <v>275.66000000000003</v>
       </c>
       <c r="C66" s="21">
         <v>261.59000000000003</v>
       </c>
       <c r="D66" s="21">
-        <f>4.69+4.72</f>
-        <v>9.41</v>
+        <f>4.69+4.72+4.66</f>
+        <v>14.07</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
@@ -17339,13 +17449,14 @@
       </c>
       <c r="B68" s="20">
         <f t="shared" si="0"/>
-        <v>18.66</v>
+        <v>20.69</v>
       </c>
       <c r="C68" s="21">
         <v>18.66</v>
       </c>
       <c r="D68" s="21">
-        <v>0</v>
+        <f>2.03</f>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
@@ -17362,14 +17473,14 @@
       </c>
       <c r="B69" s="20">
         <f t="shared" si="0"/>
-        <v>33.29</v>
+        <v>36.230000000000004</v>
       </c>
       <c r="C69" s="21">
         <v>30.64</v>
       </c>
       <c r="D69" s="21">
-        <f>2.65</f>
-        <v>2.65</v>
+        <f>2.65+2.94</f>
+        <v>5.59</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
@@ -17432,13 +17543,14 @@
       </c>
       <c r="B72" s="20">
         <f t="shared" si="0"/>
-        <v>49.989999999999995</v>
+        <v>68.44</v>
       </c>
       <c r="C72" s="21">
         <v>49.989999999999995</v>
       </c>
       <c r="D72" s="21">
-        <v>0</v>
+        <f>18.45</f>
+        <v>18.45</v>
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="21"/>
@@ -17525,13 +17637,14 @@
       </c>
       <c r="B76" s="20">
         <f t="shared" si="0"/>
-        <v>34.74</v>
+        <v>47.650000000000006</v>
       </c>
       <c r="C76" s="21">
         <v>34.74</v>
       </c>
       <c r="D76" s="21">
-        <v>0</v>
+        <f>12.91</f>
+        <v>12.91</v>
       </c>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
@@ -17619,13 +17732,14 @@
       </c>
       <c r="B80" s="20">
         <f t="shared" si="0"/>
-        <v>63.809999999999995</v>
+        <v>76.77</v>
       </c>
       <c r="C80" s="21">
         <v>63.809999999999995</v>
       </c>
       <c r="D80" s="21">
-        <v>0</v>
+        <f>12.96</f>
+        <v>12.96</v>
       </c>
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
@@ -17688,13 +17802,14 @@
       </c>
       <c r="B83" s="20">
         <f t="shared" si="0"/>
-        <v>56.980000000000011</v>
+        <v>58.040000000000013</v>
       </c>
       <c r="C83" s="21">
         <v>56.980000000000011</v>
       </c>
       <c r="D83" s="21">
-        <v>0</v>
+        <f>1.06</f>
+        <v>1.06</v>
       </c>
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
@@ -17711,13 +17826,14 @@
       </c>
       <c r="B84" s="20">
         <f t="shared" si="0"/>
-        <v>128.54000000000002</v>
+        <v>149.45000000000002</v>
       </c>
       <c r="C84" s="21">
         <v>128.54000000000002</v>
       </c>
       <c r="D84" s="21">
-        <v>0</v>
+        <f>20.91</f>
+        <v>20.91</v>
       </c>
       <c r="E84" s="21"/>
       <c r="F84" s="21"/>
@@ -17752,9 +17868,9 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" ht="12.75">
-      <c r="A86" s="19" t="str">
+      <c r="A86" s="19">
         <f>'Portfolio Ned'!A:A</f>
-        <v>Pepsi Co</v>
+        <v>0</v>
       </c>
       <c r="B86" s="20">
         <f t="shared" si="0"/>
@@ -18272,19 +18388,20 @@
       </c>
       <c r="B111" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C111" s="21">
         <v>0</v>
       </c>
       <c r="D111" s="21">
-        <v>0</v>
+        <f>0.07</f>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="12.75">
-      <c r="A112" s="19">
+      <c r="A112" s="19" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v xml:space="preserve">Solventum </v>
       </c>
       <c r="B112" s="20">
         <f t="shared" si="1"/>
@@ -18367,90 +18484,103 @@
     </row>
     <row r="127" spans="1:14" ht="12.75">
       <c r="A127" s="19"/>
-      <c r="B127" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="D127" s="18">
+      <c r="B127" s="97" t="s">
+        <v>326</v>
+      </c>
+      <c r="C127" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="D127" s="97">
         <v>2024</v>
       </c>
-      <c r="E127" s="18">
+      <c r="E127" s="97">
         <v>2025</v>
       </c>
-      <c r="F127" s="18">
+      <c r="F127" s="97">
         <v>2026</v>
       </c>
-      <c r="G127" s="18">
+      <c r="G127" s="97">
         <v>2027</v>
       </c>
-      <c r="H127" s="18">
+      <c r="H127" s="97">
         <v>2028</v>
       </c>
-      <c r="I127" s="18">
+      <c r="I127" s="97">
         <v>2029</v>
       </c>
-      <c r="J127" s="18">
+      <c r="J127" s="97">
         <v>2030</v>
       </c>
-      <c r="K127" s="18">
+      <c r="K127" s="97">
         <v>2031</v>
       </c>
-      <c r="L127" s="18">
+      <c r="L127" s="97">
         <v>2032</v>
       </c>
-      <c r="M127" s="18">
+      <c r="M127" s="97">
         <v>2033</v>
       </c>
-      <c r="N127" s="18">
+      <c r="N127" s="97">
         <v>2034</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="12.75">
-      <c r="A128" s="19"/>
-      <c r="B128" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C128" s="19">
+      <c r="A128" s="96"/>
+      <c r="B128" s="98" t="s">
+        <v>393</v>
+      </c>
+      <c r="C128" s="98">
         <f>SUM(C2:C111)/6</f>
         <v>1802.8300000000002</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D128" s="98">
         <f>SUM(D2:D114)</f>
-        <v>326.68000000000006</v>
-      </c>
-      <c r="E128" s="19">
+        <v>874.81999999999994</v>
+      </c>
+      <c r="E128" s="98">
         <f t="shared" ref="E128:F128" si="2">SUM(E2:E108)</f>
         <v>0</v>
       </c>
-      <c r="F128" s="19">
+      <c r="F128" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
-      <c r="J128" s="21"/>
-      <c r="K128" s="21"/>
-      <c r="L128" s="21"/>
-      <c r="M128" s="21"/>
-      <c r="N128" s="21"/>
-    </row>
-    <row r="129" spans="1:11" ht="12.75">
-      <c r="A129" s="19"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
-      <c r="I129" s="21"/>
-      <c r="J129" s="21"/>
-      <c r="K129" s="21"/>
-    </row>
-    <row r="130" spans="1:11" ht="12.75">
+      <c r="G128" s="98"/>
+      <c r="H128" s="98"/>
+      <c r="I128" s="98"/>
+      <c r="J128" s="98"/>
+      <c r="K128" s="98"/>
+      <c r="L128" s="98"/>
+      <c r="M128" s="98"/>
+      <c r="N128" s="98"/>
+    </row>
+    <row r="129" spans="1:14" ht="12.75">
+      <c r="A129" s="96"/>
+      <c r="B129" s="98" t="s">
+        <v>394</v>
+      </c>
+      <c r="C129" s="98">
+        <v>1802.8300000000002</v>
+      </c>
+      <c r="D129" s="98">
+        <v>698.50999999999988</v>
+      </c>
+      <c r="E129" s="98">
+        <v>0</v>
+      </c>
+      <c r="F129" s="98">
+        <v>0</v>
+      </c>
+      <c r="G129" s="98"/>
+      <c r="H129" s="98"/>
+      <c r="I129" s="98"/>
+      <c r="J129" s="98"/>
+      <c r="K129" s="98"/>
+      <c r="L129" s="99"/>
+      <c r="M129" s="99"/>
+      <c r="N129" s="99"/>
+    </row>
+    <row r="130" spans="1:14" ht="12.75">
       <c r="A130" s="19"/>
       <c r="B130" s="20"/>
       <c r="C130" s="21"/>
@@ -18463,7 +18593,7 @@
       <c r="J130" s="21"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" ht="12.75">
+    <row r="131" spans="1:14" ht="12.75">
       <c r="A131" s="19"/>
       <c r="B131" s="20"/>
       <c r="C131" s="21"/>
@@ -18476,7 +18606,7 @@
       <c r="J131" s="21"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" ht="12.75">
+    <row r="132" spans="1:14" ht="12.75">
       <c r="A132" s="19"/>
       <c r="B132" s="20"/>
       <c r="C132" s="21"/>
@@ -18489,7 +18619,7 @@
       <c r="J132" s="21"/>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:11" ht="12.75">
+    <row r="133" spans="1:14" ht="12.75">
       <c r="A133" s="19"/>
       <c r="B133" s="20"/>
       <c r="C133" s="21"/>
@@ -18502,7 +18632,7 @@
       <c r="J133" s="21"/>
       <c r="K133" s="21"/>
     </row>
-    <row r="134" spans="1:11" ht="12.75">
+    <row r="134" spans="1:14" ht="12.75">
       <c r="A134" s="19"/>
       <c r="B134" s="20"/>
       <c r="C134" s="21"/>
@@ -18515,7 +18645,7 @@
       <c r="J134" s="21"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" ht="12.75">
+    <row r="135" spans="1:14" ht="12.75">
       <c r="A135" s="19"/>
       <c r="B135" s="20"/>
       <c r="C135" s="21"/>
@@ -18528,7 +18658,7 @@
       <c r="J135" s="21"/>
       <c r="K135" s="21"/>
     </row>
-    <row r="136" spans="1:11" ht="12.75">
+    <row r="136" spans="1:14" ht="12.75">
       <c r="A136" s="19"/>
       <c r="B136" s="20"/>
       <c r="C136" s="21"/>
@@ -18540,7 +18670,7 @@
       <c r="I136" s="21"/>
       <c r="K136" s="21"/>
     </row>
-    <row r="137" spans="1:11" ht="12.75">
+    <row r="137" spans="1:14" ht="12.75">
       <c r="A137" s="19"/>
       <c r="B137" s="20"/>
       <c r="C137" s="21"/>
@@ -18553,7 +18683,7 @@
       <c r="J137" s="21"/>
       <c r="K137" s="21"/>
     </row>
-    <row r="138" spans="1:11" ht="12.75">
+    <row r="138" spans="1:14" ht="12.75">
       <c r="A138" s="19"/>
       <c r="B138" s="20"/>
       <c r="C138" s="21"/>
@@ -18566,7 +18696,7 @@
       <c r="J138" s="21"/>
       <c r="K138" s="21"/>
     </row>
-    <row r="139" spans="1:11" ht="12.75">
+    <row r="139" spans="1:14" ht="12.75">
       <c r="A139" s="19"/>
       <c r="B139" s="20"/>
       <c r="C139" s="21"/>
@@ -18579,7 +18709,7 @@
       <c r="J139" s="21"/>
       <c r="K139" s="21"/>
     </row>
-    <row r="140" spans="1:11" ht="12.75">
+    <row r="140" spans="1:14" ht="12.75">
       <c r="A140" s="19"/>
       <c r="B140" s="20"/>
       <c r="C140" s="21"/>
@@ -18592,7 +18722,7 @@
       <c r="J140" s="21"/>
       <c r="K140" s="21"/>
     </row>
-    <row r="141" spans="1:11" ht="12.75">
+    <row r="141" spans="1:14" ht="12.75">
       <c r="A141" s="19"/>
       <c r="B141" s="20"/>
       <c r="C141" s="21"/>
@@ -18605,7 +18735,7 @@
       <c r="J141" s="21"/>
       <c r="K141" s="21"/>
     </row>
-    <row r="142" spans="1:11" ht="12.75">
+    <row r="142" spans="1:14" ht="12.75">
       <c r="A142" s="19"/>
       <c r="B142" s="20"/>
       <c r="C142" s="21"/>
@@ -18618,7 +18748,7 @@
       <c r="J142" s="21"/>
       <c r="K142" s="21"/>
     </row>
-    <row r="143" spans="1:11" ht="12.75">
+    <row r="143" spans="1:14" ht="12.75">
       <c r="A143" s="19"/>
       <c r="B143" s="20"/>
       <c r="C143" s="21"/>
@@ -18631,7 +18761,7 @@
       <c r="J143" s="21"/>
       <c r="K143" s="21"/>
     </row>
-    <row r="144" spans="1:11" ht="12.75">
+    <row r="144" spans="1:14" ht="12.75">
       <c r="A144" s="19"/>
       <c r="B144" s="20"/>
       <c r="C144" s="21"/>
@@ -29786,10 +29916,10 @@
   <dimension ref="A1:AI1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -29819,83 +29949,83 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="M1" s="92" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="N1" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="O1" s="92" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="R1" s="93" t="s">
         <v>343</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="S1" s="93" t="s">
         <v>344</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="T1" s="93" t="s">
         <v>345</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="U1" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="V1" s="94" t="s">
         <v>347</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="AB1" s="95" t="s">
         <v>348</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="R1" s="93" t="s">
-        <v>350</v>
-      </c>
-      <c r="S1" s="93" t="s">
-        <v>351</v>
-      </c>
-      <c r="T1" s="93" t="s">
-        <v>352</v>
-      </c>
-      <c r="U1" s="93" t="s">
-        <v>353</v>
-      </c>
-      <c r="V1" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB1" s="95" t="s">
-        <v>355</v>
       </c>
       <c r="AD1" s="95"/>
       <c r="AE1" s="95" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AF1" s="95" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AG1" s="95" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AH1" s="95" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -29935,11 +30065,11 @@
         <v>0.95</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Q2" s="28">
         <f>SUM(B2:B150)</f>
-        <v>108.70586604630219</v>
+        <v>150.30669249258318</v>
       </c>
       <c r="R2" s="29">
         <v>43903</v>
@@ -29951,7 +30081,7 @@
         <v>43720</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="V2" s="31">
         <f>N2/('Portfolio Ned'!E2*'Portfolio Ned'!F2)</f>
@@ -30018,7 +30148,7 @@
         <v>0.19</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q3" s="28">
         <f>SUM(C2:C151)</f>
@@ -30041,7 +30171,7 @@
         <v>2.9751145027621128E-3</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC3" s="11">
         <v>1</v>
@@ -30082,7 +30212,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="28">
         <f>SUM(D2:D152)</f>
@@ -30096,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AC4" s="11">
         <f>1/131</f>
@@ -30138,11 +30268,11 @@
         <v>7.798</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="28">
         <f>SUM(E2:E153)</f>
-        <v>195.92709581729454</v>
+        <v>237.52792226357553</v>
       </c>
       <c r="R5" s="36">
         <v>43584</v>
@@ -30161,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC5" s="11">
         <v>0.86</v>
@@ -30218,7 +30348,7 @@
         <v>0.158</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q6" s="28">
         <f>SUM(F2:F154)</f>
@@ -30241,7 +30371,7 @@
         <v>1.5400669694050731E-2</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="11">
         <v>1.1000000000000001</v>
@@ -30290,7 +30420,7 @@
         <v>3.3</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="28">
         <f>SUM(G2:G155)</f>
@@ -30313,7 +30443,7 @@
         <v>#REF!</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AC7" s="11">
         <f>1/1.49</f>
@@ -30372,11 +30502,11 @@
         <v>0.16</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="28">
         <f>SUM(H2:H156)</f>
-        <v>179.65714796119582</v>
+        <v>221.25797440747681</v>
       </c>
       <c r="S8" s="29">
         <v>43593</v>
@@ -30387,7 +30517,7 @@
         <v>6.5573491191887889E-4</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC8" s="11">
         <f>1/1.56</f>
@@ -30426,7 +30556,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Q9" s="28">
         <f>SUM(I2:I157)</f>
@@ -30449,7 +30579,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC9" s="11">
         <f>1/9.4</f>
@@ -30500,14 +30630,14 @@
         <v>1.29</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="28">
         <f>SUM(J2:J158)</f>
         <v>304.30540559555334</v>
       </c>
       <c r="R10" s="40" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="S10" s="37">
         <v>43634</v>
@@ -30516,7 +30646,7 @@
         <v>43729</v>
       </c>
       <c r="U10" s="30" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="V10" s="31">
         <f>N10/('Portfolio Ned'!E9*'Portfolio Ned'!F9)</f>
@@ -30565,11 +30695,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="28">
         <f>SUM(K2:K159)</f>
-        <v>89.778995817294557</v>
+        <v>131.37982226357553</v>
       </c>
       <c r="S11" s="29">
         <v>43584</v>
@@ -30620,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="28">
         <f>SUM(L2:L160)</f>
@@ -30665,7 +30795,7 @@
         <v>0.1</v>
       </c>
       <c r="P13" s="27" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="28">
         <f>SUM(M2:M161)</f>
@@ -30717,11 +30847,11 @@
         <v>2.5</v>
       </c>
       <c r="P14" s="41" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="42">
         <f>SUM(B2:M400)</f>
-        <v>2659.9715543353491</v>
+        <v>2826.3748601204738</v>
       </c>
       <c r="R14" s="40"/>
       <c r="S14" s="40"/>
@@ -30804,23 +30934,23 @@
         <v>0.19</v>
       </c>
       <c r="P15" s="43" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="Q15" s="44">
         <f>(Q14-801)*0.72+801</f>
-        <v>2139.4595191214512</v>
+        <v>2259.2698992867408</v>
       </c>
       <c r="R15" s="40" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="T15" s="40" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="U15" s="40" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="V15" s="31">
         <f>N15/('Portfolio Ned'!E15*'Portfolio Ned'!F15)</f>
@@ -30865,7 +30995,7 @@
         <v>0.99</v>
       </c>
       <c r="P16" s="45" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="46" t="e">
         <f>Q14/'Portfolio Ned'!#REF!</f>
@@ -30927,7 +31057,7 @@
         <v>0.87</v>
       </c>
       <c r="P17" s="47" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="46" t="e">
         <f>Q14/'Portfolio Ned'!#REF!</f>
@@ -30984,14 +31114,14 @@
         <v>0.2</v>
       </c>
       <c r="P18" s="48" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="Q18" s="48">
         <f t="shared" ref="Q18:Q19" si="2">Q14/12</f>
-        <v>221.66429619461243</v>
+        <v>235.53123834337282</v>
       </c>
       <c r="R18" s="40" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="S18" s="29">
         <v>43634</v>
@@ -31000,7 +31130,7 @@
         <v>43728</v>
       </c>
       <c r="U18" s="30" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="V18" s="31">
         <f>N18/('Portfolio Ned'!E18*'Portfolio Ned'!F18)</f>
@@ -31052,11 +31182,11 @@
         <v>0.73</v>
       </c>
       <c r="P19" s="48" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="48">
         <f t="shared" si="2"/>
-        <v>178.28829326012092</v>
+        <v>188.2724916072284</v>
       </c>
       <c r="R19" s="40"/>
       <c r="S19" s="49">
@@ -31064,7 +31194,7 @@
       </c>
       <c r="T19" s="50"/>
       <c r="U19" s="30" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="V19" s="31">
         <f>N19/('Portfolio Ned'!E19*'Portfolio Ned'!F19)</f>
@@ -31114,11 +31244,11 @@
         <v>22</v>
       </c>
       <c r="P20" s="48" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="51">
         <f>COUNTIF(B2:M500, "&gt;0.1")</f>
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="R20" s="40"/>
       <c r="S20" s="37">
@@ -31169,7 +31299,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="48" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="Q21" s="52">
         <f>SUM(B2:M12)</f>
@@ -31232,14 +31362,14 @@
         <v>1.64</v>
       </c>
       <c r="P22" s="48" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="52">
         <f>SUM(B15:M78)</f>
         <v>1734.1525008710803</v>
       </c>
       <c r="R22" s="37" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="S22" s="37">
         <v>43629</v>
@@ -31248,7 +31378,7 @@
         <v>43721</v>
       </c>
       <c r="U22" s="30" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="V22" s="31">
         <f>N22/('Portfolio Ned'!E22*'Portfolio Ned'!F22)</f>
@@ -31317,7 +31447,7 @@
     <row r="24" spans="1:34">
       <c r="A24" s="5" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>Charterl Hall Grp</v>
+        <v>Charter Hall Grp</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="7">
@@ -31450,7 +31580,7 @@
       <c r="P26" s="54"/>
       <c r="Q26" s="56"/>
       <c r="R26" s="37" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="S26" s="37">
         <v>43620</v>
@@ -31459,7 +31589,7 @@
         <v>43707</v>
       </c>
       <c r="U26" s="30" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="V26" s="31">
         <f>N26/('Portfolio Ned'!E26*'Portfolio Ned'!F26)</f>
@@ -31564,7 +31694,7 @@
       <c r="P28" s="54"/>
       <c r="Q28" s="56"/>
       <c r="R28" s="37" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="S28" s="37">
         <v>43634</v>
@@ -31573,7 +31703,7 @@
         <v>43728</v>
       </c>
       <c r="U28" s="30" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="V28" s="31">
         <f>N28/('Portfolio Ned'!E28*'Portfolio Ned'!F28)</f>
@@ -31689,7 +31819,7 @@
       </c>
       <c r="Y30" s="9">
         <f t="shared" ref="Y30:Y119" si="4">N2/$Q$14</f>
-        <v>6.6234474535890653E-2</v>
+        <v>6.2334908460906856E-2</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="31"/>
@@ -31734,7 +31864,7 @@
       </c>
       <c r="Y31" s="9">
         <f t="shared" si="4"/>
-        <v>2.0071052889663837E-3</v>
+        <v>1.8889366200274807E-3</v>
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="31"/>
@@ -31936,7 +32066,7 @@
       </c>
       <c r="Y34" s="9">
         <f t="shared" si="4"/>
-        <v>2.9775718455889486E-2</v>
+        <v>2.8022667912913753E-2</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="31"/>
@@ -32003,7 +32133,7 @@
       </c>
       <c r="Y35" s="9">
         <f t="shared" si="4"/>
-        <v>0.14267069863264992</v>
+        <v>0.13427093672345497</v>
       </c>
       <c r="AE35" s="7"/>
       <c r="AF35" s="31"/>
@@ -32066,7 +32196,7 @@
       </c>
       <c r="Y36" s="9">
         <f t="shared" si="4"/>
-        <v>1.6901939275506389E-3</v>
+        <v>1.590683469496826E-3</v>
       </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="31"/>
@@ -32162,7 +32292,7 @@
       </c>
       <c r="Y38" s="9">
         <f t="shared" si="4"/>
-        <v>4.088156562263108E-2</v>
+        <v>3.8474656418454482E-2</v>
       </c>
       <c r="AE38" s="7"/>
       <c r="AF38" s="31"/>
@@ -32203,7 +32333,7 @@
       </c>
       <c r="Q39" s="56"/>
       <c r="S39" s="40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="V39" s="31">
         <f>N39/('Portfolio Ned'!E39*'Portfolio Ned'!F39)</f>
@@ -32326,7 +32456,7 @@
       </c>
       <c r="Y41" s="9">
         <f t="shared" si="4"/>
-        <v>7.922784035393619E-3</v>
+        <v>7.456328763266371E-3</v>
       </c>
       <c r="AE41" s="7"/>
       <c r="AF41" s="31"/>
@@ -32386,7 +32516,7 @@
       </c>
       <c r="Y42" s="9">
         <f t="shared" si="4"/>
-        <v>7.2369194958590548E-3</v>
+        <v>6.8108446164071353E-3</v>
       </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="31"/>
@@ -32446,7 +32576,7 @@
       </c>
       <c r="Y43" s="9">
         <f t="shared" si="4"/>
-        <v>3.0106579334495766E-2</v>
+        <v>2.8334049300412223E-2</v>
       </c>
       <c r="AE43" s="7">
         <f>(1/117)*44</f>
@@ -32492,7 +32622,7 @@
       </c>
       <c r="Y44" s="9">
         <f t="shared" si="4"/>
-        <v>3.7218443121560855E-3</v>
+        <v>3.5027200884379557E-3</v>
       </c>
       <c r="AE44" s="7">
         <f>0.41</f>
@@ -32545,7 +32675,7 @@
       </c>
       <c r="Y45" s="9">
         <f t="shared" si="4"/>
-        <v>9.1904294810565973E-3</v>
+        <v>8.6493413653889895E-3</v>
       </c>
       <c r="AE45" s="7">
         <f>0.74*(1/1.1)</f>
@@ -32582,7 +32712,7 @@
       </c>
       <c r="Y46" s="9">
         <f t="shared" si="4"/>
-        <v>2.1127424094382987E-3</v>
+        <v>1.9883543368710323E-3</v>
       </c>
       <c r="AE46" s="7">
         <f>1.88*(1/1.1)</f>
@@ -32655,7 +32785,7 @@
       </c>
       <c r="Y47" s="9">
         <f t="shared" si="4"/>
-        <v>4.3663248883509514E-3</v>
+        <v>4.1092567599136307E-3</v>
       </c>
       <c r="AE47" s="7"/>
       <c r="AF47" s="31">
@@ -32707,10 +32837,10 @@
       </c>
       <c r="Y48" s="9">
         <f t="shared" si="4"/>
-        <v>6.3684891563559687E-3</v>
+        <v>5.9935432624382799E-3</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AE48" s="7"/>
       <c r="AF48" s="31">
@@ -32818,7 +32948,7 @@
       </c>
       <c r="Y50" s="9">
         <f t="shared" si="4"/>
-        <v>1.0394692654436427E-2</v>
+        <v>9.7827033374054788E-3</v>
       </c>
       <c r="AE50" s="7">
         <f>(4*0.9)*(1/AA49)</f>
@@ -32891,7 +33021,7 @@
       </c>
       <c r="Y51" s="9">
         <f t="shared" si="4"/>
-        <v>9.7712631071305185E-3</v>
+        <v>9.1959783118739386E-3</v>
       </c>
       <c r="AE51" s="7"/>
       <c r="AF51" s="31">
@@ -32937,7 +33067,7 @@
       </c>
       <c r="Y52" s="9">
         <f t="shared" si="4"/>
-        <v>3.4823005899155282E-2</v>
+        <v>3.2772795440254111E-2</v>
       </c>
       <c r="AE52" s="7"/>
       <c r="AF52" s="31">
@@ -33014,16 +33144,16 @@
       </c>
       <c r="Q53" s="56"/>
       <c r="R53" s="40" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="S53" s="40" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="T53" s="40" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="U53" s="40" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="V53" s="31">
         <f>N53/('Portfolio Ned'!E53*'Portfolio Ned'!F53)</f>
@@ -33031,7 +33161,7 @@
       </c>
       <c r="Y53" s="9">
         <f t="shared" si="4"/>
-        <v>1.661671905023222E-2</v>
+        <v>1.563840685949067E-2</v>
       </c>
       <c r="AE53" s="7"/>
       <c r="AF53" s="31">
@@ -33087,7 +33217,7 @@
       </c>
       <c r="Y54" s="9">
         <f t="shared" si="4"/>
-        <v>1.2030203837272194E-2</v>
+        <v>1.1321923518183291E-2</v>
       </c>
       <c r="AE54" s="7"/>
       <c r="AF54" s="31">
@@ -33134,7 +33264,7 @@
       </c>
       <c r="Y55" s="9">
         <f t="shared" si="4"/>
-        <v>9.7745406177836575E-3</v>
+        <v>9.199062858523923E-3</v>
       </c>
       <c r="AE55" s="7"/>
       <c r="AF55" s="31">
@@ -33186,7 +33316,7 @@
       </c>
       <c r="Y56" s="9">
         <f t="shared" si="4"/>
-        <v>1.6268116552674898E-2</v>
+        <v>1.531032839390695E-2</v>
       </c>
       <c r="AE56" s="7"/>
       <c r="AF56" s="31">
@@ -33234,7 +33364,7 @@
       </c>
       <c r="Y57" s="9">
         <f t="shared" si="4"/>
-        <v>2.9271965443744361E-3</v>
+        <v>2.7548573445961245E-3</v>
       </c>
       <c r="AE57" s="7"/>
       <c r="AF57" s="31">
@@ -33286,7 +33416,7 @@
       </c>
       <c r="Q58" s="56"/>
       <c r="R58" s="40" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="S58" s="37">
         <v>43621</v>
@@ -33295,7 +33425,7 @@
         <v>43719</v>
       </c>
       <c r="U58" s="30" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="V58" s="31">
         <f>N58/('Portfolio Ned'!E58*'Portfolio Ned'!F58)</f>
@@ -33303,7 +33433,7 @@
       </c>
       <c r="Y58" s="9">
         <f t="shared" si="4"/>
-        <v>1.9542867287304262E-2</v>
+        <v>1.8392277616057048E-2</v>
       </c>
       <c r="AE58" s="7"/>
       <c r="AF58" s="31">
@@ -33369,7 +33499,7 @@
       </c>
       <c r="Y59" s="9">
         <f t="shared" si="4"/>
-        <v>3.8788208748598528E-3</v>
+        <v>3.650454629025952E-3</v>
       </c>
       <c r="AE59" s="7"/>
       <c r="AF59" s="31">
@@ -33431,7 +33561,7 @@
       </c>
       <c r="Y60" s="9">
         <f t="shared" si="4"/>
-        <v>4.6902881489530229E-2</v>
+        <v>4.414146627853692E-2</v>
       </c>
       <c r="AE60" s="7"/>
       <c r="AF60" s="31">
@@ -33496,7 +33626,7 @@
       </c>
       <c r="Y61" s="9">
         <f t="shared" si="4"/>
-        <v>1.5803313222598474E-2</v>
+        <v>1.4872890439795323E-2</v>
       </c>
       <c r="AF61" s="31">
         <v>5.0000000000000001E-3</v>
@@ -33557,7 +33687,7 @@
       </c>
       <c r="Y62" s="9">
         <f t="shared" si="4"/>
-        <v>3.8029363369889374E-3</v>
+        <v>3.5790378063678581E-3</v>
       </c>
       <c r="AF62" s="31">
         <v>5.0000000000000001E-3</v>
@@ -33618,7 +33748,7 @@
       </c>
       <c r="Y63" s="9">
         <f t="shared" si="4"/>
-        <v>1.7747036239281709E-3</v>
+        <v>1.6702176429716673E-3</v>
       </c>
     </row>
     <row r="64" spans="1:34">
@@ -33640,7 +33770,7 @@
       </c>
       <c r="Y64" s="9">
         <f t="shared" si="4"/>
-        <v>1.2201087414506174E-2</v>
+        <v>1.1482746295430212E-2</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -33759,16 +33889,16 @@
       </c>
       <c r="Q66" s="56"/>
       <c r="R66" s="40" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="S66" s="40" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="T66" s="40" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="U66" s="40" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="V66" s="31">
         <f>N66/('Portfolio Ned'!E66*'Portfolio Ned'!F66)</f>
@@ -33813,7 +33943,7 @@
       </c>
       <c r="Y67" s="9">
         <f t="shared" si="4"/>
-        <v>5.2105820370185194E-3</v>
+        <v>4.9038081238131376E-3</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -33867,7 +33997,7 @@
       </c>
       <c r="Y68" s="9">
         <f t="shared" si="4"/>
-        <v>8.0166443008654609E-3</v>
+        <v>7.5446629894725939E-3</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -33924,7 +34054,7 @@
       </c>
       <c r="Y69" s="9">
         <f t="shared" si="4"/>
-        <v>9.0139309801721239E-3</v>
+        <v>8.4832342440867847E-3</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -33966,7 +34096,7 @@
       </c>
       <c r="Y70" s="9">
         <f t="shared" si="4"/>
-        <v>7.6058726739778749E-3</v>
+        <v>7.1580756127357162E-3</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -34007,7 +34137,7 @@
       </c>
       <c r="Y71" s="9">
         <f t="shared" si="4"/>
-        <v>9.6214289325820129E-3</v>
+        <v>9.0549656501106822E-3</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -34044,7 +34174,7 @@
       </c>
       <c r="Y72" s="9">
         <f t="shared" si="4"/>
-        <v>1.5037754796590243E-3</v>
+        <v>1.4152404397729113E-3</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -34082,7 +34212,7 @@
       </c>
       <c r="Y73" s="9">
         <f t="shared" si="4"/>
-        <v>2.9680016642030164E-3</v>
+        <v>2.7932600559797951E-3</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -34155,7 +34285,7 @@
       </c>
       <c r="Y75" s="9">
         <f t="shared" si="4"/>
-        <v>4.7536704212361716E-3</v>
+        <v>4.4737972579598226E-3</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -34188,7 +34318,7 @@
       </c>
       <c r="Y76" s="9">
         <f t="shared" si="4"/>
-        <v>8.8647564525899496E-3</v>
+        <v>8.3428423924613131E-3</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -34222,7 +34352,7 @@
       </c>
       <c r="Y77" s="9">
         <f t="shared" si="4"/>
-        <v>6.7669896584656095E-3</v>
+        <v>6.3685819789781007E-3</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -34264,7 +34394,7 @@
       </c>
       <c r="Y78" s="9">
         <f t="shared" si="4"/>
-        <v>3.4060514614276901E-3</v>
+        <v>3.2055195960856444E-3</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -34297,7 +34427,7 @@
       </c>
       <c r="Y79" s="9">
         <f t="shared" si="4"/>
-        <v>1.1091897649551069E-3</v>
+        <v>1.0438860268572922E-3</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -34328,7 +34458,7 @@
       </c>
       <c r="Y80" s="9">
         <f t="shared" si="4"/>
-        <v>1.2918071274730448E-3</v>
+        <v>1.215751760762368E-3</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -34362,7 +34492,7 @@
       </c>
       <c r="Y81" s="9">
         <f t="shared" si="4"/>
-        <v>0.1171779758834717</v>
+        <v>0.11027910240870969</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -34397,7 +34527,7 @@
       </c>
       <c r="Y82" s="9">
         <f t="shared" si="4"/>
-        <v>2.7090072979151546E-3</v>
+        <v>2.5495140275320831E-3</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -34466,7 +34596,7 @@
       </c>
       <c r="Y84" s="9">
         <f t="shared" si="4"/>
-        <v>3.759438699147561E-2</v>
+        <v>3.5381010994322781E-2</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -34504,19 +34634,37 @@
       </c>
       <c r="Y85" s="9">
         <f t="shared" si="4"/>
-        <v>3.326877682423643E-3</v>
+        <v>3.1310071869316007E-3</v>
       </c>
     </row>
     <row r="86" spans="1:25">
-      <c r="A86" s="5" t="str">
+      <c r="A86" s="5">
         <f>'Portfolio Ned'!A:A</f>
-        <v>Pepsi Co</v>
+        <v>0</v>
+      </c>
+      <c r="B86" s="7">
+        <f>'Portfolio Ned'!$F$84*$O$86*$AC$2*0.85</f>
+        <v>41.60082644628099</v>
+      </c>
+      <c r="E86" s="7">
+        <f>'Portfolio Ned'!$F$84*$O$86*$AC$2*0.85</f>
+        <v>41.60082644628099</v>
+      </c>
+      <c r="H86" s="7">
+        <f>'Portfolio Ned'!$F$84*$O$86*$AC$2*0.85</f>
+        <v>41.60082644628099</v>
+      </c>
+      <c r="K86" s="7">
+        <f>'Portfolio Ned'!$F$84*$O$86*$AC$2*0.85</f>
+        <v>41.60082644628099</v>
       </c>
       <c r="N86" s="25">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O86" s="38"/>
+        <v>166.40330578512396</v>
+      </c>
+      <c r="O86" s="38">
+        <v>1.26</v>
+      </c>
       <c r="Q86" s="56"/>
       <c r="R86" s="37">
         <v>43243</v>
@@ -34532,11 +34680,11 @@
       </c>
       <c r="V86" s="31">
         <f>N86/('Portfolio Ned'!E92*'Portfolio Ned'!F92)</f>
-        <v>0</v>
+        <v>0.46045354266892813</v>
       </c>
       <c r="Y86" s="9">
         <f t="shared" si="4"/>
-        <v>2.3444679969054916E-2</v>
+        <v>2.2064370405390474E-2</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -34556,7 +34704,7 @@
       </c>
       <c r="Y87" s="9">
         <f t="shared" si="4"/>
-        <v>1.1039079089315109E-2</v>
+        <v>1.0389151410151143E-2</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -34576,7 +34724,7 @@
       </c>
       <c r="Y88" s="9">
         <f t="shared" si="4"/>
-        <v>1.9126532753679655E-2</v>
+        <v>1.800045484967364E-2</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -34596,7 +34744,7 @@
       </c>
       <c r="Y89" s="9">
         <f t="shared" si="4"/>
-        <v>4.1356932664754686E-3</v>
+        <v>3.892203614425045E-3</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -34618,7 +34766,7 @@
       </c>
       <c r="Y90" s="9">
         <f t="shared" si="4"/>
-        <v>4.4790139080091934E-3</v>
+        <v>4.2153111941665893E-3</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -34642,7 +34790,7 @@
       </c>
       <c r="Y91" s="9">
         <f t="shared" si="4"/>
-        <v>4.4367590598204274E-3</v>
+        <v>4.1755441074291686E-3</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -34678,7 +34826,7 @@
       <c r="V93" s="58"/>
       <c r="Y93" s="9">
         <f t="shared" si="4"/>
-        <v>6.6551385897306399E-3</v>
+        <v>6.2633161611437517E-3</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="15">
@@ -34694,7 +34842,7 @@
       <c r="V94" s="58"/>
       <c r="Y94" s="9">
         <f t="shared" si="4"/>
-        <v>2.4685054663882471E-2</v>
+        <v>2.323171782682135E-2</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="15">
@@ -34726,7 +34874,7 @@
       <c r="V96" s="58"/>
       <c r="Y96" s="9">
         <f t="shared" si="4"/>
-        <v>1.6901939275506389E-3</v>
+        <v>1.590683469496826E-3</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="15">
@@ -34742,7 +34890,7 @@
       <c r="V97" s="58"/>
       <c r="Y97" s="9">
         <f t="shared" si="4"/>
-        <v>2.6145187316798948E-3</v>
+        <v>2.4605884918779027E-3</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="15">
@@ -34758,7 +34906,7 @@
       <c r="V98" s="58"/>
       <c r="Y98" s="9">
         <f t="shared" si="4"/>
-        <v>2.2368660259927987E-3</v>
+        <v>2.1051701541622055E-3</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="15">
@@ -34774,7 +34922,7 @@
       <c r="V99" s="58"/>
       <c r="Y99" s="9">
         <f t="shared" si="4"/>
-        <v>7.669254946261023E-3</v>
+        <v>7.2177262428418472E-3</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="15">
@@ -34790,7 +34938,7 @@
       <c r="V100" s="58"/>
       <c r="Y100" s="9">
         <f t="shared" si="4"/>
-        <v>7.5263962756934163E-3</v>
+        <v>7.0832784010634205E-3</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="15">
@@ -34806,7 +34954,7 @@
       <c r="V101" s="58"/>
       <c r="Y101" s="9">
         <f t="shared" si="4"/>
-        <v>5.6301353958433864E-3</v>
+        <v>5.2986602065097799E-3</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="15">
@@ -34838,7 +34986,7 @@
       <c r="V103" s="58"/>
       <c r="Y103" s="9">
         <f t="shared" si="4"/>
-        <v>1.5590392285364935E-3</v>
+        <v>1.4672505259345659E-3</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="15">
@@ -34854,7 +35002,7 @@
       <c r="V104" s="58"/>
       <c r="Y104" s="9">
         <f t="shared" si="4"/>
-        <v>3.6663549969566662E-3</v>
+        <v>3.4504977162103344E-3</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="15">
@@ -34886,7 +35034,7 @@
       <c r="V106" s="58"/>
       <c r="Y106" s="9">
         <f t="shared" si="4"/>
-        <v>1.7158078222909469E-2</v>
+        <v>1.6147893417808919E-2</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="15">
@@ -34902,7 +35050,7 @@
       <c r="V107" s="58"/>
       <c r="Y107" s="9">
         <f t="shared" si="4"/>
-        <v>3.9474106341049389E-3</v>
+        <v>3.7150061544038923E-3</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="15">
@@ -34934,7 +35082,7 @@
       <c r="V109" s="58"/>
       <c r="Y109" s="9">
         <f t="shared" si="4"/>
-        <v>2.39664217070657E-3</v>
+        <v>2.2555394508880773E-3</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="15">
@@ -34947,7 +35095,7 @@
       <c r="V110" s="58"/>
       <c r="Y110" s="9">
         <f t="shared" si="4"/>
-        <v>1.1998208614300726E-3</v>
+        <v>1.1291812019464718E-3</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="15">
@@ -34960,20 +35108,20 @@
       <c r="V111" s="58"/>
       <c r="Y111" s="9">
         <f t="shared" si="4"/>
-        <v>1.000010693973251E-2</v>
+        <v>9.4113489244898596E-3</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="15">
-      <c r="A112" s="5">
+      <c r="A112" s="5" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v xml:space="preserve">Solventum </v>
       </c>
       <c r="N112" s="59"/>
       <c r="O112" s="19"/>
       <c r="V112" s="58"/>
       <c r="Y112" s="9">
         <f t="shared" si="4"/>
-        <v>7.7643283546857461E-3</v>
+        <v>7.3072021880010423E-3</v>
       </c>
     </row>
     <row r="113" spans="1:25" ht="15">
@@ -34986,7 +35134,7 @@
       <c r="V113" s="58"/>
       <c r="Y113" s="9">
         <f t="shared" si="4"/>
-        <v>2.4328228844682012E-2</v>
+        <v>2.2895900189069941E-2</v>
       </c>
     </row>
     <row r="114" spans="1:25" ht="15">
@@ -34999,7 +35147,7 @@
       <c r="V114" s="58"/>
       <c r="Y114" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.8875171914751265E-2</v>
       </c>
     </row>
     <row r="115" spans="1:25" ht="15">
@@ -40401,7 +40549,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -40415,22 +40563,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="76" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G1" s="76"/>
     </row>
@@ -40439,7 +40587,7 @@
         <v>2018</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="74">
@@ -40458,7 +40606,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C3" s="73"/>
       <c r="D3" s="74">
@@ -40478,7 +40626,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C4" s="73"/>
       <c r="D4" s="74">
@@ -40498,7 +40646,7 @@
         <v>2021</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C5" s="73"/>
       <c r="D5" s="74">
@@ -40518,7 +40666,7 @@
         <v>2022</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C6" s="73"/>
       <c r="D6" s="74">
@@ -40538,7 +40686,7 @@
         <v>2023</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="74">
@@ -40557,14 +40705,14 @@
         <v>2024</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D8" s="74">
-        <f>-1187.53+1213.67</f>
-        <v>26.1400000000001</v>
+        <f>-1187.53+1213.67+29.91</f>
+        <v>56.050000000000097</v>
       </c>
       <c r="E8" s="83">
         <v>0</v>
@@ -40576,7 +40724,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="79">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B9" s="73"/>
       <c r="C9" s="73"/>
@@ -40587,7 +40735,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="79">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>

--- a/data/2023_08_NedPortfolio.xlsx
+++ b/data/2023_08_NedPortfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2218" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E324E3D6-812F-461D-B3BB-4185EF8E5D1D}"/>
+  <xr:revisionPtr revIDLastSave="2232" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0540485-BB4A-4A34-BE05-76F4B7C1FE17}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4505,7 +4505,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4596,11 +4596,11 @@
         <v>803.56</v>
       </c>
       <c r="I2" s="93">
-        <f t="shared" ref="I2:I29" si="1">(G2-(F2*E2)+H2)</f>
+        <f>(G2-(F2*E2)+H2)</f>
         <v>1662.0747999999999</v>
       </c>
       <c r="J2" s="94">
-        <f t="shared" ref="J2:J34" si="2">((D2*F2)+H2)/(E2*F2)-100%</f>
+        <f t="shared" ref="J2:J34" si="1">((D2*F2)+H2)/(E2*F2)-100%</f>
         <v>0.20310109438457835</v>
       </c>
       <c r="K2" s="133" t="s">
@@ -4645,11 +4645,11 @@
         <v>44.82</v>
       </c>
       <c r="I3" s="93">
+        <f t="shared" ref="I2:I54" si="2">(G3-(F3*E3)+H3)</f>
+        <v>3550.32</v>
+      </c>
+      <c r="J3" s="94">
         <f t="shared" si="1"/>
-        <v>3550.32</v>
-      </c>
-      <c r="J3" s="94">
-        <f t="shared" si="2"/>
         <v>1.9784452493730842</v>
       </c>
       <c r="K3" s="133" t="s">
@@ -4691,11 +4691,11 @@
         <v>11.06</v>
       </c>
       <c r="I4" s="93">
+        <f t="shared" si="2"/>
+        <v>6743.14</v>
+      </c>
+      <c r="J4" s="94">
         <f t="shared" si="1"/>
-        <v>6743.14</v>
-      </c>
-      <c r="J4" s="94">
-        <f t="shared" si="2"/>
         <v>1.3852199707472597</v>
       </c>
       <c r="K4" s="133" t="s">
@@ -4737,11 +4737,11 @@
         <v>745.99</v>
       </c>
       <c r="I5" s="93">
+        <f t="shared" si="2"/>
+        <v>2107.7899999999991</v>
+      </c>
+      <c r="J5" s="94">
         <f t="shared" si="1"/>
-        <v>2107.7899999999991</v>
-      </c>
-      <c r="J5" s="94">
-        <f t="shared" si="2"/>
         <v>0.22332542222033847</v>
       </c>
       <c r="K5" s="133" t="s">
@@ -4783,11 +4783,11 @@
         <v>384.26</v>
       </c>
       <c r="I6" s="93">
+        <f t="shared" si="2"/>
+        <v>3889.46</v>
+      </c>
+      <c r="J6" s="94">
         <f t="shared" si="1"/>
-        <v>3889.46</v>
-      </c>
-      <c r="J6" s="94">
-        <f t="shared" si="2"/>
         <v>0.75629229213657934</v>
       </c>
       <c r="K6" s="133" t="s">
@@ -4829,11 +4829,11 @@
         <v>1846</v>
       </c>
       <c r="I7" s="93">
+        <f t="shared" si="2"/>
+        <v>854.77244999999948</v>
+      </c>
+      <c r="J7" s="94">
         <f t="shared" si="1"/>
-        <v>854.77244999999948</v>
-      </c>
-      <c r="J7" s="94">
-        <f t="shared" si="2"/>
         <v>0.12467095699004327</v>
       </c>
       <c r="K7" s="133" t="s">
@@ -4875,11 +4875,11 @@
         <v>22.67</v>
       </c>
       <c r="I8" s="93">
+        <f t="shared" si="2"/>
+        <v>50534.07</v>
+      </c>
+      <c r="J8" s="94">
         <f t="shared" si="1"/>
-        <v>50534.07</v>
-      </c>
-      <c r="J8" s="94">
-        <f t="shared" si="2"/>
         <v>33.947380088673924</v>
       </c>
       <c r="K8" s="133" t="s">
@@ -4921,11 +4921,11 @@
         <v>117.19000000000001</v>
       </c>
       <c r="I9" s="93">
+        <f t="shared" si="2"/>
+        <v>767.85679999999911</v>
+      </c>
+      <c r="J9" s="94">
         <f t="shared" si="1"/>
-        <v>767.85679999999911</v>
-      </c>
-      <c r="J9" s="94">
-        <f t="shared" si="2"/>
         <v>4.9141787261214764E-2</v>
       </c>
       <c r="K9" s="134" t="s">
@@ -4987,11 +4987,11 @@
         <v>588.21</v>
       </c>
       <c r="I10" s="93">
+        <f t="shared" si="2"/>
+        <v>3122.0799900000002</v>
+      </c>
+      <c r="J10" s="94">
         <f t="shared" si="1"/>
-        <v>3122.0799900000002</v>
-      </c>
-      <c r="J10" s="94">
-        <f t="shared" si="2"/>
         <v>0.59969305107691673</v>
       </c>
       <c r="K10" s="133" t="s">
@@ -5029,11 +5029,11 @@
         <v>53.6</v>
       </c>
       <c r="I11" s="93">
+        <f t="shared" si="2"/>
+        <v>-6154.5200199999999</v>
+      </c>
+      <c r="J11" s="94">
         <f t="shared" si="1"/>
-        <v>-6154.5200199999999</v>
-      </c>
-      <c r="J11" s="94">
-        <f t="shared" si="2"/>
         <v>-0.59131908626856899</v>
       </c>
       <c r="K11" s="133" t="s">
@@ -5071,11 +5071,11 @@
         <v>32.06</v>
       </c>
       <c r="I12" s="93">
+        <f t="shared" si="2"/>
+        <v>1851.1831530392001</v>
+      </c>
+      <c r="J12" s="94">
         <f t="shared" si="1"/>
-        <v>1851.1831530392001</v>
-      </c>
-      <c r="J12" s="94">
-        <f t="shared" si="2"/>
         <v>0.49743999056247912</v>
       </c>
       <c r="K12" s="133" t="s">
@@ -5114,11 +5114,11 @@
         <v>125.75</v>
       </c>
       <c r="I13" s="93">
+        <f t="shared" si="2"/>
+        <v>697.27000000000044</v>
+      </c>
+      <c r="J13" s="94">
         <f t="shared" si="1"/>
-        <v>697.27000000000044</v>
-      </c>
-      <c r="J13" s="94">
-        <f t="shared" si="2"/>
         <v>0.11963153343581867</v>
       </c>
       <c r="K13" s="133" t="s">
@@ -5131,11 +5131,11 @@
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1">
       <c r="I14" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="94" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="94" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M14" s="98"/>
@@ -5168,11 +5168,11 @@
         <v>491.03</v>
       </c>
       <c r="I15" s="93">
+        <f t="shared" si="2"/>
+        <v>228.72999999999979</v>
+      </c>
+      <c r="J15" s="94">
         <f t="shared" si="1"/>
-        <v>228.72999999999979</v>
-      </c>
-      <c r="J15" s="94">
-        <f t="shared" si="2"/>
         <v>0.12620978866633537</v>
       </c>
       <c r="K15" s="134" t="s">
@@ -5209,12 +5209,12 @@
         <f>'Dividends per year'!B16</f>
         <v>612.2600000000001</v>
       </c>
-      <c r="I16" s="7">
-        <f>(G16-(F16*E16)+H16)</f>
+      <c r="I16" s="93">
+        <f t="shared" si="2"/>
         <v>1212.2600000000002</v>
       </c>
       <c r="J16" s="94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18367575757575771</v>
       </c>
       <c r="K16" s="134" t="s">
@@ -5252,11 +5252,11 @@
         <v>147.81</v>
       </c>
       <c r="I17" s="93">
+        <f t="shared" si="2"/>
+        <v>919.31</v>
+      </c>
+      <c r="J17" s="94">
         <f t="shared" si="1"/>
-        <v>919.31</v>
-      </c>
-      <c r="J17" s="94">
-        <f t="shared" si="2"/>
         <v>1.2619217570350032</v>
       </c>
       <c r="K17" s="134" t="s">
@@ -5294,11 +5294,11 @@
         <v>30.09</v>
       </c>
       <c r="I18" s="93">
+        <f t="shared" si="2"/>
+        <v>330.88999999999993</v>
+      </c>
+      <c r="J18" s="94">
         <f t="shared" si="1"/>
-        <v>330.88999999999993</v>
-      </c>
-      <c r="J18" s="94">
-        <f t="shared" si="2"/>
         <v>1.1059157754010691</v>
       </c>
       <c r="K18" s="134" t="s">
@@ -5335,12 +5335,12 @@
         <f>'Dividends per year'!B19</f>
         <v>110.29</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="93">
+        <f t="shared" si="2"/>
+        <v>-61.209999999999994</v>
+      </c>
+      <c r="J19" s="94">
         <f t="shared" si="1"/>
-        <v>-61.209999999999994</v>
-      </c>
-      <c r="J19" s="94">
-        <f t="shared" si="2"/>
         <v>-8.9816581071166635E-2</v>
       </c>
       <c r="K19" s="134" t="s">
@@ -5351,8 +5351,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
+      <c r="I20" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J20" s="94" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5383,12 +5387,12 @@
         <f>'Dividends per year'!B21</f>
         <v>80.06</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="93">
+        <f t="shared" si="2"/>
+        <v>190.56</v>
+      </c>
+      <c r="J21" s="94">
         <f t="shared" si="1"/>
-        <v>190.56</v>
-      </c>
-      <c r="J21" s="94">
-        <f t="shared" si="2"/>
         <v>0.22432018834608591</v>
       </c>
       <c r="K21" s="134" t="s">
@@ -5425,12 +5429,12 @@
         <f>'Dividends per year'!B22</f>
         <v>172.51</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="93">
+        <f t="shared" si="2"/>
+        <v>351.01</v>
+      </c>
+      <c r="J22" s="94">
         <f t="shared" si="1"/>
-        <v>351.01</v>
-      </c>
-      <c r="J22" s="94">
-        <f t="shared" si="2"/>
         <v>0.48650034650034657</v>
       </c>
       <c r="K22" s="134" t="s">
@@ -5441,8 +5445,12 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="I23" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J23" s="94" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5473,12 +5481,12 @@
         <f>'Dividends per year'!B24</f>
         <v>402.29999999999995</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="93">
+        <f t="shared" si="2"/>
+        <v>22.799999999999955</v>
+      </c>
+      <c r="J24" s="94">
         <f t="shared" si="1"/>
-        <v>22.799999999999955</v>
-      </c>
-      <c r="J24" s="94">
-        <f t="shared" si="2"/>
         <v>1.6408780136739853E-2</v>
       </c>
       <c r="K24" s="134" t="s">
@@ -5515,12 +5523,12 @@
         <f>'Dividends per year'!B25</f>
         <v>219.32</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="93">
+        <f t="shared" si="2"/>
+        <v>-45.180000000000007</v>
+      </c>
+      <c r="J25" s="94">
         <f t="shared" si="1"/>
-        <v>-45.180000000000007</v>
-      </c>
-      <c r="J25" s="94">
-        <f t="shared" si="2"/>
         <v>-3.5729537366548048E-2</v>
       </c>
       <c r="K25" s="134" t="s">
@@ -5558,11 +5566,11 @@
         <v>#REF!</v>
       </c>
       <c r="I26" s="93" t="e">
-        <f>(G26-(F26*E26)+H26)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="J26" s="94" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="K26" s="133" t="s">
@@ -5599,12 +5607,12 @@
         <f>'Dividends per year'!B27</f>
         <v>159.26999999999998</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="93">
+        <f t="shared" si="2"/>
+        <v>-367.5300000000002</v>
+      </c>
+      <c r="J27" s="94">
         <f t="shared" si="1"/>
-        <v>-367.5300000000002</v>
-      </c>
-      <c r="J27" s="94">
-        <f t="shared" si="2"/>
         <v>-0.25056585764930472</v>
       </c>
       <c r="K27" s="134" t="s">
@@ -5641,12 +5649,12 @@
         <f>'Dividends per year'!B28</f>
         <v>248.10000000000002</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="93">
+        <f t="shared" si="2"/>
+        <v>1181.3499999999999</v>
+      </c>
+      <c r="J28" s="94">
         <f t="shared" si="1"/>
-        <v>1181.3499999999999</v>
-      </c>
-      <c r="J28" s="94">
-        <f t="shared" si="2"/>
         <v>0.76376272830127689</v>
       </c>
       <c r="K28" s="134" t="s">
@@ -5683,12 +5691,12 @@
         <f>'Dividends per year'!B29</f>
         <v>37.130000000000003</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="93">
+        <f t="shared" si="2"/>
+        <v>760.32999999999993</v>
+      </c>
+      <c r="J29" s="94">
         <f t="shared" si="1"/>
-        <v>760.32999999999993</v>
-      </c>
-      <c r="J29" s="94">
-        <f t="shared" si="2"/>
         <v>0.9542294176706827</v>
       </c>
       <c r="K29" s="134" t="s">
@@ -5725,12 +5733,12 @@
         <f>'Dividends per year'!B30</f>
         <v>197.93</v>
       </c>
-      <c r="I30" s="7">
-        <f>(G30-(F30*E30)+H30)</f>
+      <c r="I30" s="93">
+        <f t="shared" si="2"/>
         <v>193.43</v>
       </c>
       <c r="J30" s="94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18343290659080136</v>
       </c>
       <c r="K30" s="134" t="s">
@@ -5763,17 +5771,17 @@
         <f>F31*D31</f>
         <v>1300</v>
       </c>
-      <c r="H31" s="6" t="e">
-        <f>'Dividends per year'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I31" s="7" t="e">
-        <f>(G31-(F31*E31)+H31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J31" s="94" t="e">
+      <c r="H31" s="6">
+        <f>'Dividends per year'!B31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="93">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>-2800.9930000000004</v>
+      </c>
+      <c r="J31" s="94">
+        <f t="shared" si="1"/>
+        <v>-0.68300360424901974</v>
       </c>
       <c r="K31" s="134" t="s">
         <v>37</v>
@@ -5809,12 +5817,12 @@
         <f>'Dividends per year'!B32</f>
         <v>262.45999999999998</v>
       </c>
-      <c r="I32" s="7">
-        <f t="shared" ref="I32:I62" si="4">(G32-(F32*E32)+H32)</f>
+      <c r="I32" s="93">
+        <f t="shared" si="2"/>
         <v>1577.63</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.43764338401533509</v>
       </c>
       <c r="K32" s="134" t="s">
@@ -5851,12 +5859,12 @@
         <f>'Dividends per year'!B33</f>
         <v>223.37</v>
       </c>
-      <c r="I33" s="7">
-        <f t="shared" si="4"/>
+      <c r="I33" s="93">
+        <f t="shared" si="2"/>
         <v>1001.0300019999999</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.87553134129048438</v>
       </c>
       <c r="K33" s="134" t="s">
@@ -5896,12 +5904,12 @@
         <f>'Dividends per year'!B34</f>
         <v>49.18</v>
       </c>
-      <c r="I34" s="7">
-        <f t="shared" si="4"/>
+      <c r="I34" s="93">
+        <f t="shared" si="2"/>
         <v>-24.209995999999997</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.2642544703938681E-2</v>
       </c>
       <c r="K34" s="134" t="s">
@@ -5941,12 +5949,12 @@
         <f>'Dividends per year'!B35</f>
         <v>26.800000000000004</v>
       </c>
-      <c r="I35" s="7">
-        <f t="shared" si="4"/>
+      <c r="I35" s="93">
+        <f t="shared" si="2"/>
         <v>379.57999599999999</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ref="J35:J65" si="5">((D35*F35)+H35)/(E35*F35)-100%</f>
+        <f t="shared" ref="J35:J65" si="4">((D35*F35)+H35)/(E35*F35)-100%</f>
         <v>1.5353935355490083</v>
       </c>
       <c r="K35" s="134" t="s">
@@ -5965,7 +5973,10 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J36" s="8"/>
       <c r="K36" s="134"/>
       <c r="L36" s="75"/>
@@ -5998,12 +6009,12 @@
         <f>'Dividends per year'!B37</f>
         <v>56.56</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="93">
+        <f t="shared" si="2"/>
+        <v>-3.3200000000001069</v>
+      </c>
+      <c r="J37" s="8">
         <f t="shared" si="4"/>
-        <v>-3.3200000000001069</v>
-      </c>
-      <c r="J37" s="8">
-        <f t="shared" si="5"/>
         <v>-1.8044655086202344E-3</v>
       </c>
       <c r="K37" s="134" t="s">
@@ -6040,12 +6051,12 @@
         <f>'Dividends per year'!B38</f>
         <v>9.9600000000000009</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="93">
+        <f t="shared" si="2"/>
+        <v>-2.779999999999994</v>
+      </c>
+      <c r="J38" s="8">
         <f t="shared" si="4"/>
-        <v>-2.779999999999994</v>
-      </c>
-      <c r="J38" s="8">
-        <f t="shared" si="5"/>
         <v>-2.7324552781600064E-2</v>
       </c>
       <c r="K38" s="134" t="s">
@@ -6082,12 +6093,12 @@
         <f>'Dividends per year'!B39</f>
         <v>68.900000000000006</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="93">
+        <f t="shared" si="2"/>
+        <v>228.26000000000002</v>
+      </c>
+      <c r="J39" s="8">
         <f t="shared" si="4"/>
-        <v>228.26000000000002</v>
-      </c>
-      <c r="J39" s="8">
-        <f t="shared" si="5"/>
         <v>0.58134678076609614</v>
       </c>
       <c r="K39" s="134" t="s">
@@ -6124,12 +6135,12 @@
         <f>'Dividends per year'!B40</f>
         <v>43.3</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="93">
+        <f t="shared" si="2"/>
+        <v>1159.5250000000003</v>
+      </c>
+      <c r="J40" s="8">
         <f t="shared" si="4"/>
-        <v>1159.5250000000003</v>
-      </c>
-      <c r="J40" s="8">
-        <f t="shared" si="5"/>
         <v>0.42806250057682926</v>
       </c>
       <c r="K40" s="134" t="s">
@@ -6166,12 +6177,12 @@
         <f>'Dividends per year'!B41</f>
         <v>172.27999999999997</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="93">
+        <f t="shared" si="2"/>
+        <v>303.54999999999995</v>
+      </c>
+      <c r="J41" s="8">
         <f t="shared" si="4"/>
-        <v>303.54999999999995</v>
-      </c>
-      <c r="J41" s="8">
-        <f t="shared" si="5"/>
         <v>0.2762735157864078</v>
       </c>
       <c r="K41" s="134" t="s">
@@ -6190,12 +6201,12 @@
       <c r="C42" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="8" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="8" t="e">
-        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6226,12 +6237,12 @@
         <f>'Dividends per year'!B43</f>
         <v>156.75</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="93">
+        <f t="shared" si="2"/>
+        <v>201.70998600000007</v>
+      </c>
+      <c r="J43" s="8">
         <f t="shared" si="4"/>
-        <v>201.70998600000007</v>
-      </c>
-      <c r="J43" s="8">
-        <f t="shared" si="5"/>
         <v>0.17929138829723446</v>
       </c>
       <c r="K43" s="134" t="s">
@@ -6268,12 +6279,12 @@
         <f>'Dividends per year'!B44</f>
         <v>9.61</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="93">
+        <f t="shared" si="2"/>
+        <v>-290.91000300000007</v>
+      </c>
+      <c r="J44" s="8">
         <f t="shared" si="4"/>
-        <v>-290.91000300000007</v>
-      </c>
-      <c r="J44" s="8">
-        <f t="shared" si="5"/>
         <v>-0.2189235580012564</v>
       </c>
       <c r="K44" s="134" t="s">
@@ -6310,12 +6321,12 @@
         <f>'Dividends per year'!B45</f>
         <v>64.27</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="93">
+        <f t="shared" si="2"/>
+        <v>-73.259999999999977</v>
+      </c>
+      <c r="J45" s="8">
         <f t="shared" si="4"/>
-        <v>-73.259999999999977</v>
-      </c>
-      <c r="J45" s="8">
-        <f t="shared" si="5"/>
         <v>-9.933155261480886E-2</v>
       </c>
       <c r="K45" s="134" t="s">
@@ -6325,8 +6336,12 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="12.75">
+    <row r="46" spans="1:13" ht="15">
       <c r="C46"/>
+      <c r="I46" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="15">
       <c r="A47" s="13" t="s">
@@ -6355,12 +6370,12 @@
         <f>'Dividends per year'!B47</f>
         <v>57.260000000000005</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="93">
+        <f t="shared" si="2"/>
+        <v>-76.749999999999986</v>
+      </c>
+      <c r="J47" s="8">
         <f t="shared" si="4"/>
-        <v>-76.749999999999986</v>
-      </c>
-      <c r="J47" s="8">
-        <f t="shared" si="5"/>
         <v>-0.13488339396495663</v>
       </c>
       <c r="K47" s="134" t="s">
@@ -6397,12 +6412,12 @@
         <f>'Dividends per year'!B48</f>
         <v>82.34</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="93">
+        <f t="shared" si="2"/>
+        <v>-104.67160000000004</v>
+      </c>
+      <c r="J48" s="8">
         <f t="shared" si="4"/>
-        <v>-104.67160000000004</v>
-      </c>
-      <c r="J48" s="8">
-        <f t="shared" si="5"/>
         <v>-0.16127847329693334</v>
       </c>
       <c r="K48" s="134" t="s">
@@ -6439,12 +6454,12 @@
         <f>'Dividends per year'!B49</f>
         <v>52.370000000000005</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="93">
+        <f t="shared" si="2"/>
+        <v>-9.2416000000000622</v>
+      </c>
+      <c r="J49" s="8">
         <f t="shared" si="4"/>
-        <v>-9.2416000000000622</v>
-      </c>
-      <c r="J49" s="8">
-        <f t="shared" si="5"/>
         <v>-1.5361405930337857E-2</v>
       </c>
       <c r="K49" s="134" t="s">
@@ -6481,12 +6496,12 @@
         <f>'Dividends per year'!B50</f>
         <v>50.97</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="93">
+        <f t="shared" si="2"/>
+        <v>113.24010000000007</v>
+      </c>
+      <c r="J50" s="8">
         <f t="shared" si="4"/>
-        <v>113.24010000000007</v>
-      </c>
-      <c r="J50" s="8">
-        <f t="shared" si="5"/>
         <v>0.14560337721360606</v>
       </c>
       <c r="K50" s="134" t="s">
@@ -6523,12 +6538,12 @@
         <f>'Dividends per year'!B51</f>
         <v>13.89</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="93">
+        <f t="shared" si="2"/>
+        <v>48.590000000000046</v>
+      </c>
+      <c r="J51" s="8">
         <f t="shared" si="4"/>
-        <v>48.590000000000046</v>
-      </c>
-      <c r="J51" s="8">
-        <f t="shared" si="5"/>
         <v>6.3491441264863502E-2</v>
       </c>
       <c r="K51" s="134" t="s">
@@ -6565,8 +6580,8 @@
         <f>'Dividends per year'!B52</f>
         <v>94.28</v>
       </c>
-      <c r="I52" s="7">
-        <f>(G52-(F52*E52)+H52)</f>
+      <c r="I52" s="93">
+        <f t="shared" si="2"/>
         <v>201.78</v>
       </c>
       <c r="J52" s="94">
@@ -6580,7 +6595,12 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="12.75"/>
+    <row r="53" spans="1:13" ht="15">
+      <c r="I53" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="54" spans="1:13" ht="15">
       <c r="A54" s="13" t="s">
         <v>154</v>
@@ -6608,12 +6628,12 @@
         <f>'Dividends per year'!B54</f>
         <v>55.86</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="93">
+        <f t="shared" si="2"/>
+        <v>236.67999999999995</v>
+      </c>
+      <c r="J54" s="8">
         <f t="shared" si="4"/>
-        <v>236.67999999999995</v>
-      </c>
-      <c r="J54" s="8">
-        <f t="shared" si="5"/>
         <v>0.28892306941087398</v>
       </c>
       <c r="K54" s="134" t="s">
@@ -6651,11 +6671,11 @@
         <v>11.17</v>
       </c>
       <c r="I55" s="7">
+        <f t="shared" ref="I32:I62" si="5">(G55-(F55*E55)+H55)</f>
+        <v>337.49500000000006</v>
+      </c>
+      <c r="J55" s="8">
         <f t="shared" si="4"/>
-        <v>337.49500000000006</v>
-      </c>
-      <c r="J55" s="8">
-        <f t="shared" si="5"/>
         <v>0.2658121172741057</v>
       </c>
       <c r="K55" s="134" t="s">
@@ -6693,11 +6713,11 @@
         <v>230.24</v>
       </c>
       <c r="I56" s="7">
+        <f t="shared" si="5"/>
+        <v>-814.93999999999983</v>
+      </c>
+      <c r="J56" s="8">
         <f t="shared" si="4"/>
-        <v>-814.93999999999983</v>
-      </c>
-      <c r="J56" s="8">
-        <f t="shared" si="5"/>
         <v>-0.33328425719169952</v>
       </c>
       <c r="K56" s="134" t="s">
@@ -6735,11 +6755,11 @@
         <v>43.879999999999995</v>
       </c>
       <c r="I57" s="7">
+        <f t="shared" si="5"/>
+        <v>33.239000000000033</v>
+      </c>
+      <c r="J57" s="8">
         <f t="shared" si="4"/>
-        <v>33.239000000000033</v>
-      </c>
-      <c r="J57" s="8">
-        <f t="shared" si="5"/>
         <v>5.7245354702819773E-2</v>
       </c>
       <c r="K57" s="134" t="s">
@@ -6777,11 +6797,11 @@
         <v>266.15999999999997</v>
       </c>
       <c r="I58" s="7">
+        <f t="shared" si="5"/>
+        <v>127.54999599999985</v>
+      </c>
+      <c r="J58" s="8">
         <f t="shared" si="4"/>
-        <v>127.54999599999985</v>
-      </c>
-      <c r="J58" s="8">
-        <f t="shared" si="5"/>
         <v>5.4916665208680326E-2</v>
       </c>
       <c r="K58" s="134" t="s">
@@ -6819,11 +6839,11 @@
         <v>125.71000000000001</v>
       </c>
       <c r="I59" s="7">
+        <f t="shared" si="5"/>
+        <v>108.00999999999996</v>
+      </c>
+      <c r="J59" s="8">
         <f t="shared" si="4"/>
-        <v>108.00999999999996</v>
-      </c>
-      <c r="J59" s="8">
-        <f t="shared" si="5"/>
         <v>9.5779019242706376E-2</v>
       </c>
       <c r="K59" s="134" t="s">
@@ -6906,11 +6926,11 @@
         <v>45.71</v>
       </c>
       <c r="I61" s="7">
+        <f t="shared" si="5"/>
+        <v>1712.9899700000001</v>
+      </c>
+      <c r="J61" s="8">
         <f t="shared" si="4"/>
-        <v>1712.9899700000001</v>
-      </c>
-      <c r="J61" s="8">
-        <f t="shared" si="5"/>
         <v>2.3283177025912973</v>
       </c>
       <c r="K61" s="134" t="s">
@@ -6948,11 +6968,11 @@
         <v>51.49</v>
       </c>
       <c r="I62" s="7">
+        <f t="shared" si="5"/>
+        <v>261.15999999999997</v>
+      </c>
+      <c r="J62" s="8">
         <f t="shared" si="4"/>
-        <v>261.15999999999997</v>
-      </c>
-      <c r="J62" s="8">
-        <f t="shared" si="5"/>
         <v>0.35371717253802504</v>
       </c>
       <c r="K62" s="134" t="s">
@@ -6994,7 +7014,7 @@
         <v>84.87</v>
       </c>
       <c r="J63" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.2117039586919105</v>
       </c>
       <c r="K63" s="134" t="s">
@@ -7036,7 +7056,7 @@
         <v>117.20000000000005</v>
       </c>
       <c r="J64" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.15735767991407101</v>
       </c>
       <c r="K64" s="134" t="s">
@@ -7078,7 +7098,7 @@
         <v>75.03</v>
       </c>
       <c r="J65" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.1084565518245952E-2</v>
       </c>
       <c r="K65" s="134" t="s">
@@ -8648,7 +8668,7 @@
         <v>-4.4660000000000055</v>
       </c>
       <c r="J105" s="8">
-        <f t="shared" ref="J105:J110" si="11">((D105*F105)+H105)/(E105*F105)-100%</f>
+        <f t="shared" ref="J105:J111" si="11">((D105*F105)+H105)/(E105*F105)-100%</f>
         <v>-6.7263088137839766E-2</v>
       </c>
       <c r="K105" s="134" t="s">
@@ -8882,7 +8902,7 @@
         <v>63</v>
       </c>
       <c r="E111" s="7">
-        <v>1E-3</v>
+        <v>63</v>
       </c>
       <c r="F111" s="6">
         <v>7</v>
@@ -8892,15 +8912,16 @@
         <v>441</v>
       </c>
       <c r="H111" s="6">
-        <v>1E-4</v>
+        <f>'Dividends per year'!B111</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I111" s="7">
         <f>(G111-(F111*E111)+H111)</f>
-        <v>440.99309999999997</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J111" s="8">
-        <f>((D111*F111)+H111)/(E111*F111)-100%</f>
-        <v>62999.014285714278</v>
+        <f t="shared" si="11"/>
+        <v>1.5873015873024698E-4</v>
       </c>
       <c r="K111" s="134" t="s">
         <v>359</v>
@@ -16361,12 +16382,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="J113:J1000 J47:J52 J54:J111 J2:J45">
+  <conditionalFormatting sqref="J113:J1000 J47:J52 J2:J45 J54:J111">
     <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J113:J1000 J47:J52 J54:J111 J2:J45">
+  <conditionalFormatting sqref="J113:J1000 J47:J52 J2:J45 J54:J111">
     <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -31073,7 +31094,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O36" sqref="O36"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -47450,7 +47471,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -47534,7 +47555,10 @@
         <v>25000</v>
       </c>
       <c r="H2" s="92"/>
-      <c r="I2" s="93"/>
+      <c r="I2" s="93">
+        <f>(G2-(F2*E2)+H2)</f>
+        <v>2240</v>
+      </c>
       <c r="J2" s="94">
         <f t="shared" ref="J2:J65" si="1">((D2*F2)+H2)/(E2*F2)-100%</f>
         <v>9.8418277680140553E-2</v>
@@ -47575,7 +47599,10 @@
         <v>27800</v>
       </c>
       <c r="H3" s="92"/>
-      <c r="I3" s="93"/>
+      <c r="I3" s="93">
+        <f t="shared" ref="I3:I66" si="2">(G3-(F3*E3)+H3)</f>
+        <v>-188</v>
+      </c>
       <c r="J3" s="94">
         <f t="shared" si="1"/>
         <v>-6.7171644990710044E-3</v>
@@ -47613,7 +47640,10 @@
         <v>6400</v>
       </c>
       <c r="H4" s="92"/>
-      <c r="I4" s="93"/>
+      <c r="I4" s="93">
+        <f t="shared" si="2"/>
+        <v>5057.3</v>
+      </c>
       <c r="J4" s="94">
         <f t="shared" si="1"/>
         <v>3.7665152305056973</v>
@@ -47652,7 +47682,10 @@
         <v>30100</v>
       </c>
       <c r="H5" s="92"/>
-      <c r="I5" s="93"/>
+      <c r="I5" s="93">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
       <c r="J5" s="94">
         <f t="shared" si="1"/>
         <v>4.8780487804878092E-2</v>
@@ -47690,7 +47723,10 @@
         <v>13795</v>
       </c>
       <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
+      <c r="I6" s="93">
+        <f t="shared" si="2"/>
+        <v>5623.4000000000005</v>
+      </c>
       <c r="J6" s="94">
         <f t="shared" si="1"/>
         <v>0.68816388467374812</v>
@@ -47728,7 +47764,10 @@
         <v>12282</v>
       </c>
       <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
+      <c r="I7" s="93">
+        <f t="shared" si="2"/>
+        <v>3725.5400000000009</v>
+      </c>
       <c r="J7" s="94">
         <f t="shared" si="1"/>
         <v>0.43540669856459346</v>
@@ -47766,7 +47805,10 @@
         <v>8064</v>
       </c>
       <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
+      <c r="I8" s="93">
+        <f t="shared" si="2"/>
+        <v>3962.2799999999997</v>
+      </c>
       <c r="J8" s="94">
         <f t="shared" si="1"/>
         <v>0.96600450542699146</v>
@@ -47800,7 +47842,10 @@
         <v>10380</v>
       </c>
       <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
+      <c r="I9" s="93">
+        <f t="shared" si="2"/>
+        <v>6842.4</v>
+      </c>
       <c r="J9" s="94">
         <f t="shared" si="1"/>
         <v>1.9341926729986434</v>
@@ -47851,7 +47896,10 @@
         <v>24600</v>
       </c>
       <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
+      <c r="I10" s="93">
+        <f t="shared" si="2"/>
+        <v>4947</v>
+      </c>
       <c r="J10" s="94">
         <f t="shared" si="1"/>
         <v>0.25171729506945506</v>
@@ -47885,7 +47933,10 @@
         <v>17380.079999999998</v>
       </c>
       <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
+      <c r="I11" s="93">
+        <f t="shared" si="2"/>
+        <v>2850.7676219999976</v>
+      </c>
       <c r="J11" s="94">
         <f t="shared" si="1"/>
         <v>0.19620802057477782</v>
@@ -47919,7 +47970,10 @@
         <v>20680</v>
       </c>
       <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
+      <c r="I12" s="93">
+        <f t="shared" si="2"/>
+        <v>167.86000000000058</v>
+      </c>
       <c r="J12" s="94">
         <f t="shared" si="1"/>
         <v>8.1834464858372424E-3</v>
@@ -47970,7 +48024,10 @@
         <v>40040</v>
       </c>
       <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
+      <c r="I13" s="93">
+        <f t="shared" si="2"/>
+        <v>10181.599999999999</v>
+      </c>
       <c r="J13" s="94">
         <f t="shared" si="1"/>
         <v>0.34099616858237547</v>
@@ -48021,7 +48078,10 @@
         <v>7000</v>
       </c>
       <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
+      <c r="I14" s="93">
+        <f t="shared" si="2"/>
+        <v>293.00000000000091</v>
+      </c>
       <c r="J14" s="94">
         <f t="shared" si="1"/>
         <v>4.3685701505889574E-2</v>
@@ -48072,7 +48132,10 @@
         <v>2100</v>
       </c>
       <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+      <c r="I15" s="93">
+        <f t="shared" si="2"/>
+        <v>1091.1300000000001</v>
+      </c>
       <c r="J15" s="94">
         <f t="shared" si="1"/>
         <v>1.08153676886021</v>
@@ -48123,7 +48186,10 @@
         <v>28000</v>
       </c>
       <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
+      <c r="I16" s="93">
+        <f t="shared" si="2"/>
+        <v>5580</v>
+      </c>
       <c r="J16" s="94">
         <f t="shared" si="1"/>
         <v>0.24888492417484387</v>
@@ -48174,7 +48240,10 @@
         <v>7000</v>
       </c>
       <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
+      <c r="I17" s="93">
+        <f t="shared" si="2"/>
+        <v>-33.180000000000291</v>
+      </c>
       <c r="J17" s="94">
         <f t="shared" si="1"/>
         <v>-4.7176383940124023E-3</v>
@@ -48225,7 +48294,10 @@
         <v>3000</v>
       </c>
       <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
+      <c r="I18" s="93">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
       <c r="J18" s="94">
         <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
@@ -48258,7 +48330,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="123">
-        <v>425</v>
+        <v>490</v>
       </c>
       <c r="E19" s="124">
         <v>438</v>
@@ -48268,13 +48340,16 @@
       </c>
       <c r="G19" s="92">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>9800</v>
       </c>
       <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
+      <c r="I19" s="93">
+        <f t="shared" si="2"/>
+        <v>1040</v>
+      </c>
       <c r="J19" s="94">
         <f t="shared" si="1"/>
-        <v>-2.9680365296803624E-2</v>
+        <v>0.11872146118721472</v>
       </c>
       <c r="K19" s="95" t="s">
         <v>432</v>
@@ -48291,7 +48366,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="123">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="E20" s="124">
         <v>197</v>
@@ -48301,13 +48376,16 @@
       </c>
       <c r="G20" s="92">
         <f t="shared" si="0"/>
-        <v>19700</v>
+        <v>22500</v>
       </c>
       <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
+      <c r="I20" s="93">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
       <c r="J20" s="94">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.14213197969543145</v>
       </c>
       <c r="K20" s="95" t="s">
         <v>432</v>
@@ -48329,7 +48407,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="93"/>
+      <c r="I21" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J21" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -48353,7 +48434,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="93"/>
+      <c r="I22" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J22" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -48381,7 +48465,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="93"/>
+      <c r="I23" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J23" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -48415,7 +48502,10 @@
         <v>3360</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="93"/>
+      <c r="I24" s="93">
+        <f t="shared" si="2"/>
+        <v>1622</v>
+      </c>
       <c r="J24" s="94">
         <f t="shared" si="1"/>
         <v>0.93325661680092065</v>
@@ -48449,7 +48539,10 @@
         <v>2040</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="93"/>
+      <c r="I25" s="93">
+        <f t="shared" si="2"/>
+        <v>1073.6399999999999</v>
+      </c>
       <c r="J25" s="94">
         <f t="shared" si="1"/>
         <v>1.111014528747051</v>
@@ -48483,7 +48576,10 @@
         <v>7620</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="93"/>
+      <c r="I26" s="93">
+        <f t="shared" si="2"/>
+        <v>3737.6</v>
+      </c>
       <c r="J26" s="94">
         <f t="shared" si="1"/>
         <v>0.96270348238203174</v>
@@ -48511,7 +48607,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="93"/>
+      <c r="I27" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J27" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -48539,7 +48638,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="93"/>
+      <c r="I28" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J28" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -48573,7 +48675,10 @@
         <v>7000</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="93"/>
+      <c r="I29" s="93">
+        <f t="shared" si="2"/>
+        <v>2172.1999999999998</v>
+      </c>
       <c r="J29" s="94">
         <f t="shared" si="1"/>
         <v>0.44993578855793515</v>
@@ -48600,6 +48705,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I30" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J30" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -48627,7 +48736,10 @@
         <v>0</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J31" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -48655,7 +48767,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J32" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -48689,7 +48804,10 @@
         <v>5616</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="93">
+        <f t="shared" si="2"/>
+        <v>902.97999999999956</v>
+      </c>
       <c r="J33" s="94">
         <f t="shared" si="1"/>
         <v>0.19159265184531349</v>
@@ -48723,7 +48841,10 @@
         <v>1260</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="93">
+        <f t="shared" si="2"/>
+        <v>89.700000000000045</v>
+      </c>
       <c r="J34" s="94">
         <f t="shared" si="1"/>
         <v>7.6647013586260027E-2</v>
@@ -48751,7 +48872,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="6"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J35" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -48779,7 +48903,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J36" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -48813,7 +48940,10 @@
         <v>1000</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="7"/>
+      <c r="I37" s="93">
+        <f t="shared" si="2"/>
+        <v>-37.399999999999864</v>
+      </c>
       <c r="J37" s="94">
         <f t="shared" si="1"/>
         <v>-3.6051667630614848E-2</v>
@@ -48847,7 +48977,10 @@
         <v>2100</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="7"/>
+      <c r="I38" s="93">
+        <f t="shared" si="2"/>
+        <v>1089</v>
+      </c>
       <c r="J38" s="94">
         <f t="shared" si="1"/>
         <v>1.0771513353115725</v>
@@ -48875,7 +49008,10 @@
         <v>0</v>
       </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="7"/>
+      <c r="I39" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J39" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -48909,7 +49045,10 @@
         <v>3630</v>
       </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="7"/>
+      <c r="I40" s="93">
+        <f t="shared" si="2"/>
+        <v>1284</v>
+      </c>
       <c r="J40" s="94">
         <f t="shared" si="1"/>
         <v>0.54731457800511518</v>
@@ -48943,7 +49082,10 @@
         <v>3300</v>
       </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="7"/>
+      <c r="I41" s="93">
+        <f t="shared" si="2"/>
+        <v>2252.5</v>
+      </c>
       <c r="J41" s="94">
         <f t="shared" si="1"/>
         <v>2.1503579952267304</v>
@@ -48977,7 +49119,10 @@
         <v>5208</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="7"/>
+      <c r="I42" s="93">
+        <f t="shared" si="2"/>
+        <v>275.77599999999984</v>
+      </c>
       <c r="J42" s="94">
         <f t="shared" si="1"/>
         <v>5.5913113435237305E-2</v>
@@ -49002,7 +49147,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="7"/>
+      <c r="I43" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J43" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49030,7 +49178,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="7"/>
+      <c r="I44" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J44" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49064,7 +49215,10 @@
         <v>2700</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="7"/>
+      <c r="I45" s="93">
+        <f t="shared" si="2"/>
+        <v>740.25</v>
+      </c>
       <c r="J45" s="94">
         <f t="shared" si="1"/>
         <v>0.37772675086107932</v>
@@ -49091,6 +49245,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I46" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J46" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49124,7 +49282,10 @@
         <v>2670</v>
       </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="7"/>
+      <c r="I47" s="93">
+        <f t="shared" si="2"/>
+        <v>449.40000000000009</v>
+      </c>
       <c r="J47" s="94">
         <f t="shared" si="1"/>
         <v>0.2023777357470955</v>
@@ -49152,7 +49313,10 @@
         <v>0</v>
       </c>
       <c r="H48" s="6"/>
-      <c r="I48" s="7"/>
+      <c r="I48" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J48" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49176,7 +49340,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="7"/>
+      <c r="I49" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J49" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49204,7 +49371,10 @@
         <v>0</v>
       </c>
       <c r="H50" s="6"/>
-      <c r="I50" s="7"/>
+      <c r="I50" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J50" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49238,7 +49408,10 @@
         <v>1600</v>
       </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="7"/>
+      <c r="I51" s="93">
+        <f t="shared" si="2"/>
+        <v>719.32</v>
+      </c>
       <c r="J51" s="94">
         <f t="shared" si="1"/>
         <v>0.81677794431575612</v>
@@ -49263,6 +49436,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I52" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J52" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49287,7 +49464,10 @@
         <v>0</v>
       </c>
       <c r="H53" s="6"/>
-      <c r="I53" s="7"/>
+      <c r="I53" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J53" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49301,7 +49481,10 @@
         <v>0</v>
       </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="7"/>
+      <c r="I54" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J54" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49315,7 +49498,10 @@
         <v>0</v>
       </c>
       <c r="H55" s="6"/>
-      <c r="I55" s="7"/>
+      <c r="I55" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J55" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49329,7 +49515,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="6"/>
-      <c r="I56" s="7"/>
+      <c r="I56" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J56" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49344,7 +49533,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="6"/>
-      <c r="I57" s="7"/>
+      <c r="I57" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J57" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49358,7 +49550,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="6"/>
-      <c r="I58" s="7"/>
+      <c r="I58" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J58" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49372,7 +49567,10 @@
         <v>0</v>
       </c>
       <c r="H59" s="6"/>
-      <c r="I59" s="7"/>
+      <c r="I59" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J59" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49392,7 +49590,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="6"/>
-      <c r="I60" s="7"/>
+      <c r="I60" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J60" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49407,7 +49608,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="6"/>
-      <c r="I61" s="7"/>
+      <c r="I61" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J61" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49422,7 +49626,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="6"/>
-      <c r="I62" s="7"/>
+      <c r="I62" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J62" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49437,7 +49644,10 @@
         <v>0</v>
       </c>
       <c r="H63" s="6"/>
-      <c r="I63" s="7"/>
+      <c r="I63" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J63" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49452,7 +49662,10 @@
         <v>0</v>
       </c>
       <c r="H64" s="6"/>
-      <c r="I64" s="7"/>
+      <c r="I64" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J64" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49467,7 +49680,10 @@
         <v>0</v>
       </c>
       <c r="H65" s="6"/>
-      <c r="I65" s="7"/>
+      <c r="I65" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J65" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49495,13 +49711,16 @@
         <v>15</v>
       </c>
       <c r="G66" s="92">
-        <f t="shared" ref="G66:G69" si="2">F66*D66</f>
+        <f t="shared" ref="G66:G69" si="3">F66*D66</f>
         <v>750</v>
       </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="7"/>
+      <c r="I66" s="93">
+        <f t="shared" si="2"/>
+        <v>-254.54999999999995</v>
+      </c>
       <c r="J66" s="94">
-        <f t="shared" ref="J66:J67" si="3">((D66*F66)+H66)/(E66*F66)-100%</f>
+        <f t="shared" ref="J66:J67" si="4">((D66*F66)+H66)/(E66*F66)-100%</f>
         <v>-0.25339704345229208</v>
       </c>
       <c r="K66" s="10" t="s">
@@ -49518,13 +49737,16 @@
         <v>15</v>
       </c>
       <c r="G67" s="92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H67" s="6"/>
-      <c r="I67" s="7"/>
+      <c r="I67" s="93">
+        <f t="shared" ref="I67:I100" si="5">(G67-(F67*E67)+H67)</f>
+        <v>0</v>
+      </c>
       <c r="J67" s="94" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K67" s="10" t="s">
@@ -49544,13 +49766,16 @@
       <c r="E68" s="7"/>
       <c r="F68" s="6"/>
       <c r="G68" s="92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H68" s="6"/>
-      <c r="I68" s="7"/>
+      <c r="I68" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J68" s="94" t="e">
-        <f t="shared" ref="J68:J100" si="4">((D68*F68)+H68)/(E68*F68)-100%</f>
+        <f t="shared" ref="J68:J100" si="6">((D68*F68)+H68)/(E68*F68)-100%</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K68" s="10" t="s">
@@ -49570,13 +49795,16 @@
       <c r="E69" s="7"/>
       <c r="F69" s="6"/>
       <c r="G69" s="92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H69" s="6"/>
-      <c r="I69" s="7"/>
+      <c r="I69" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J69" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K69" s="10" t="s">
@@ -49596,13 +49824,16 @@
       <c r="E70" s="7"/>
       <c r="F70" s="6"/>
       <c r="G70" s="92">
-        <f t="shared" ref="G70:G73" si="5">F70*D70</f>
+        <f t="shared" ref="G70:G73" si="7">F70*D70</f>
         <v>0</v>
       </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="7"/>
+      <c r="I70" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J70" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K70" s="10"/>
@@ -49611,13 +49842,16 @@
     <row r="71" spans="1:12" ht="15">
       <c r="A71" s="13"/>
       <c r="G71" s="92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="7"/>
       <c r="J71" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K71" s="10"/>
@@ -49633,13 +49867,16 @@
       <c r="E72" s="7"/>
       <c r="F72" s="6"/>
       <c r="G72" s="92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="7"/>
       <c r="J72" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K72" s="10"/>
@@ -49655,13 +49892,16 @@
       <c r="E73" s="7"/>
       <c r="F73" s="6"/>
       <c r="G73" s="92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="7"/>
       <c r="J73" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K73" s="10"/>
@@ -49677,13 +49917,16 @@
       <c r="E74" s="7"/>
       <c r="F74" s="6"/>
       <c r="G74" s="92">
-        <f t="shared" ref="G74:G84" si="6">F74*D74</f>
+        <f t="shared" ref="G74:G84" si="8">F74*D74</f>
         <v>0</v>
       </c>
       <c r="H74" s="6"/>
-      <c r="I74" s="7"/>
+      <c r="I74" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J74" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K74" s="10"/>
@@ -49699,13 +49942,16 @@
       <c r="E75" s="7"/>
       <c r="F75" s="6"/>
       <c r="G75" s="92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="94" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="94" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K75" s="10"/>
@@ -49721,13 +49967,16 @@
       <c r="E76" s="7"/>
       <c r="F76" s="6"/>
       <c r="G76" s="92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="94" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="94" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K76" s="10"/>
@@ -49743,13 +49992,16 @@
       <c r="E77" s="7"/>
       <c r="F77" s="6"/>
       <c r="G77" s="92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="94" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="94" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K77" s="10"/>
@@ -49765,13 +50017,16 @@
       <c r="E78" s="7"/>
       <c r="F78" s="6"/>
       <c r="G78" s="92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="94" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="94" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K78" s="10"/>
@@ -49787,13 +50042,16 @@
       <c r="E79" s="7"/>
       <c r="F79" s="6"/>
       <c r="G79" s="92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="94" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="94" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K79" s="10"/>
@@ -49809,13 +50067,16 @@
       <c r="E80" s="7"/>
       <c r="F80" s="6"/>
       <c r="G80" s="92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="94" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="94" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K80" s="10"/>
@@ -49831,13 +50092,16 @@
       <c r="E81" s="7"/>
       <c r="F81" s="6"/>
       <c r="G81" s="92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="94" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="94" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K81" s="10"/>
@@ -49853,13 +50117,16 @@
       <c r="E82" s="7"/>
       <c r="F82" s="6"/>
       <c r="G82" s="92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="94" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="94" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K82" s="10"/>
@@ -49875,13 +50142,16 @@
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="94" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="94" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K83" s="10"/>
@@ -49897,13 +50167,16 @@
       <c r="E84" s="7"/>
       <c r="F84" s="6"/>
       <c r="G84" s="92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="6"/>
+      <c r="I84" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="94" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="94" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K84" s="10"/>
@@ -49911,8 +50184,12 @@
     </row>
     <row r="85" spans="1:12" ht="15">
       <c r="A85" s="13"/>
+      <c r="I85" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J85" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -49930,9 +50207,12 @@
         <v>0</v>
       </c>
       <c r="H86" s="6"/>
-      <c r="I86" s="7"/>
+      <c r="I86" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J86" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K86" s="10"/>
@@ -49952,9 +50232,12 @@
         <v>0</v>
       </c>
       <c r="H87" s="6"/>
-      <c r="I87" s="7"/>
+      <c r="I87" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J87" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K87" s="10"/>
@@ -49970,13 +50253,16 @@
       <c r="E88" s="7"/>
       <c r="F88" s="6"/>
       <c r="G88" s="14">
-        <f t="shared" ref="G88:G98" si="7">F88*D88</f>
+        <f t="shared" ref="G88:G98" si="9">F88*D88</f>
         <v>0</v>
       </c>
       <c r="H88" s="6"/>
-      <c r="I88" s="7"/>
+      <c r="I88" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J88" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K88" s="10"/>
@@ -49992,13 +50278,16 @@
       <c r="E89" s="7"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H89" s="6"/>
-      <c r="I89" s="7"/>
+      <c r="I89" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J89" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K89" s="10"/>
@@ -50014,13 +50303,16 @@
       <c r="E90" s="7"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H90" s="6"/>
-      <c r="I90" s="7"/>
+      <c r="I90" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J90" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K90" s="10"/>
@@ -50038,13 +50330,16 @@
       <c r="E91" s="7"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H91" s="6"/>
-      <c r="I91" s="7"/>
+      <c r="I91" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J91" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K91" s="95" t="s">
@@ -50064,13 +50359,16 @@
       <c r="E92" s="7"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H92" s="6"/>
-      <c r="I92" s="7"/>
+      <c r="I92" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J92" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K92" s="95" t="s">
@@ -50090,13 +50388,16 @@
       <c r="E93" s="7"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H93" s="6"/>
-      <c r="I93" s="7"/>
+      <c r="I93" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J93" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K93" s="95" t="s">
@@ -50116,13 +50417,16 @@
       <c r="E94" s="7"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H94" s="6"/>
-      <c r="I94" s="7"/>
+      <c r="I94" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J94" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K94" s="95" t="s">
@@ -50142,13 +50446,16 @@
       <c r="E95" s="7"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H95" s="6"/>
-      <c r="I95" s="7"/>
+      <c r="I95" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J95" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K95" s="95" t="s">
@@ -50168,13 +50475,16 @@
       <c r="E96" s="7"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H96" s="6"/>
-      <c r="I96" s="7"/>
+      <c r="I96" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J96" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K96" s="95" t="s">
@@ -50194,13 +50504,16 @@
       <c r="E97" s="7"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H97" s="6"/>
-      <c r="I97" s="7"/>
+      <c r="I97" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J97" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K97" s="95" t="s">
@@ -50220,13 +50533,16 @@
       <c r="E98" s="7"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H98" s="6"/>
-      <c r="I98" s="7"/>
+      <c r="I98" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J98" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K98" s="95" t="s">
@@ -50248,9 +50564,12 @@
         <v>0</v>
       </c>
       <c r="H99" s="6"/>
-      <c r="I99" s="7"/>
+      <c r="I99" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J99" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K99" s="95"/>
@@ -50270,9 +50589,12 @@
         <v>0</v>
       </c>
       <c r="H100" s="6"/>
-      <c r="I100" s="7"/>
+      <c r="I100" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J100" s="94" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K100" s="10"/>
@@ -50340,7 +50662,7 @@
       <c r="H105" s="6"/>
       <c r="I105" s="7"/>
       <c r="J105" s="8" t="e">
-        <f t="shared" ref="J105:J112" si="8">((D105*F105)+H105)/(E105*F105)-100%</f>
+        <f t="shared" ref="J105:J112" si="10">((D105*F105)+H105)/(E105*F105)-100%</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K105" s="10"/>
@@ -50362,7 +50684,7 @@
       <c r="H106" s="6"/>
       <c r="I106" s="7"/>
       <c r="J106" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K106" s="10"/>
@@ -50378,13 +50700,13 @@
       <c r="E107" s="7"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6">
-        <f t="shared" ref="G107:G112" si="9">F107*D107</f>
+        <f t="shared" ref="G107:G112" si="11">F107*D107</f>
         <v>0</v>
       </c>
       <c r="H107" s="6"/>
       <c r="I107" s="7"/>
       <c r="J107" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K107" s="10"/>
@@ -50400,13 +50722,13 @@
       <c r="E108" s="7"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H108" s="6"/>
       <c r="I108" s="7"/>
       <c r="J108" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K108" s="10"/>
@@ -50422,13 +50744,13 @@
       <c r="E109" s="7"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="7"/>
       <c r="J109" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K109" s="10"/>
@@ -50444,13 +50766,13 @@
       <c r="E110" s="7"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H110" s="6"/>
       <c r="I110" s="7"/>
       <c r="J110" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K110" s="10"/>
@@ -50466,13 +50788,13 @@
       <c r="E111" s="7"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="7"/>
       <c r="J111" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K111" s="10"/>
@@ -50488,13 +50810,13 @@
       <c r="E112" s="7"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H112" s="6"/>
       <c r="I112" s="7"/>
       <c r="J112" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K112" s="10"/>

--- a/data/2023_08_NedPortfolio.xlsx
+++ b/data/2023_08_NedPortfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2232" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0540485-BB4A-4A34-BE05-76F4B7C1FE17}"/>
+  <xr:revisionPtr revIDLastSave="2315" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B8C902-E1F4-46C3-8194-91BC82F02B0F}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Ned" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="494">
   <si>
     <t>Wertpapier</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>FPE3.DE</t>
-  </si>
-  <si>
-    <t>Schmierstoffe, 09.01.18</t>
   </si>
   <si>
     <t>Procter&amp;Gamble</t>
@@ -572,9 +569,6 @@
   </si>
   <si>
     <t>ADBE</t>
-  </si>
-  <si>
-    <t>Software Design 14.07.2020</t>
   </si>
   <si>
     <t>Prologis</t>
@@ -1105,9 +1099,6 @@
     <t>Gesamt 2021: (Verkauf Intel 115.57+ 530.98 Kursgewinn, Verkauf Netflix 353 Euro, Verkauf Amazon 670)</t>
   </si>
   <si>
-    <t>Gesamt 2022: Verkauf Vonovia 55 Kursgewinn 52.9 Dividende) plus</t>
-  </si>
-  <si>
     <t>Gesamt 2023: kein Verkauf</t>
   </si>
   <si>
@@ -1435,9 +1426,6 @@
     <t>hold, Retail grocery, Pol/PT, 21.09.2020</t>
   </si>
   <si>
-    <t>, keepKonsum, 27.05.2020</t>
-  </si>
-  <si>
     <t xml:space="preserve"> hold,Pharma GER, 14.05.2020</t>
   </si>
   <si>
@@ -1492,16 +1480,49 @@
     <t>Cyclical goods&amp;Chemistry</t>
   </si>
   <si>
-    <t>21.06.2024, Linde</t>
-  </si>
-  <si>
     <t>travel</t>
   </si>
   <si>
-    <t>Gesamt 2024: Verkauf Adler Real Estate (-1187.53), Verkauf Meta (Gewinn +1213.67), 29.91 (Solventum 3M Spinoff), Trade Microsoft (312.32), Zwangsverkauf Brookfield Reinsurance (29.85), Verkauf Simon Propertry Trust(-95.32),</t>
+    <t>replacement with Bruker?</t>
   </si>
   <si>
-    <t xml:space="preserve">Verkauf Chevron (+500), Kauf Rexford Realty (15k) </t>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Grail</t>
+  </si>
+  <si>
+    <t>Spin-Off Illumina</t>
+  </si>
+  <si>
+    <t>Gesamt 2024: Verkauf Adler Real Estate (-1187.53), Verkauf Meta (Gewinn +1213.67), 29.91 (Solventum 3M Spinoff), Trade Microsoft (312.32), Zwangsverkauf Brookfield Reinsurance (29.85), Verkauf Simon Propertry Trust(-95.32+11.07),</t>
+  </si>
+  <si>
+    <t>18.07.2024, ThermoFisher</t>
+  </si>
+  <si>
+    <t>Verkauf Chevron (+500), Kauf Rexford Realty (15k), trade Amazon</t>
+  </si>
+  <si>
+    <t>Gesamt 2022: Verkauf Vonovia bei 55 Kursgewinn 52.9 Dividende) plus</t>
+  </si>
+  <si>
+    <t>keep Konsum, 27.05.2020</t>
+  </si>
+  <si>
+    <t>keep, Schmierstoffe, 09.01.18</t>
+  </si>
+  <si>
+    <t>hold, Software Design 14.07.2020</t>
+  </si>
+  <si>
+    <t>sell after AI rally 2026</t>
+  </si>
+  <si>
+    <t>BRKR</t>
   </si>
 </sst>
 </file>
@@ -1617,6 +1638,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1996,7 +2018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2328,6 +2350,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2578,7 +2606,7 @@
                   <c:v>1802.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1906</c:v>
+                  <c:v>2270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2887,7 +2915,7 @@
                   <c:v>Texas Instruments</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>Bruker</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>LTC Properties</c:v>
@@ -2905,7 +2933,7 @@
                   <c:v>Reckit Benckiser</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>Pepsi</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Flughafen Zürich</c:v>
@@ -2914,7 +2942,7 @@
                   <c:v>IBM</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>Nike</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Charter Hall Grp</c:v>
@@ -3184,7 +3212,7 @@
                   <c:v>803.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.82</c:v>
+                  <c:v>47.480000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.06</c:v>
@@ -3193,22 +3221,22 @@
                   <c:v>745.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>384.26</c:v>
+                  <c:v>413.65999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1846</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.67</c:v>
+                  <c:v>25.830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>117.19000000000001</c:v>
+                  <c:v>125.74000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>588.21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.6</c:v>
+                  <c:v>92.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>32.06</c:v>
@@ -3220,10 +3248,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>491.03</c:v>
+                  <c:v>498.51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>612.2600000000001</c:v>
+                  <c:v>639.10000000000014</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>147.81</c:v>
@@ -3286,7 +3314,7 @@
                   <c:v>152.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>56.56</c:v>
+                  <c:v>81.3</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9.9600000000000009</c:v>
@@ -3295,10 +3323,10 @@
                   <c:v>68.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43.3</c:v>
+                  <c:v>51.44</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>172.27999999999997</c:v>
+                  <c:v>185.62999999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>156.75</c:v>
@@ -3316,13 +3344,13 @@
                   <c:v>57.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>82.34</c:v>
+                  <c:v>106.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>52.370000000000005</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50.97</c:v>
+                  <c:v>51.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>13.89</c:v>
@@ -3337,7 +3365,7 @@
                   <c:v>55.86</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.17</c:v>
+                  <c:v>26.290000000000003</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>230.24</c:v>
@@ -3349,7 +3377,7 @@
                   <c:v>266.15999999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>125.71000000000001</c:v>
+                  <c:v>134.05000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>58.75</c:v>
@@ -3361,16 +3389,16 @@
                   <c:v>51.49</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>45.759999999999991</c:v>
+                  <c:v>49.579999999999991</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>78.77000000000001</c:v>
+                  <c:v>86.360000000000014</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>288.69000000000005</c:v>
+                  <c:v>292.77000000000004</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
@@ -3421,7 +3449,7 @@
                   <c:v>70.64</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>58.040000000000013</c:v>
+                  <c:v>59.110000000000014</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>167.73000000000002</c:v>
@@ -3433,7 +3461,7 @@
                   <c:v>212.34</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>114.68000000000002</c:v>
+                  <c:v>132.70000000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>20.639999999999997</c:v>
@@ -3457,13 +3485,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>22.58</c:v>
+                  <c:v>29.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>25.28</c:v>
+                  <c:v>33.880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>65.75</c:v>
@@ -3481,7 +3509,7 @@
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.5200000000000002</c:v>
+                  <c:v>1.6600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>0.98</c:v>
@@ -4505,7 +4533,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4562,10 +4590,10 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="98" customFormat="1" ht="15.75" customHeight="1">
@@ -4610,10 +4638,10 @@
         <v>43135</v>
       </c>
       <c r="M2" s="97" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="O2" s="98" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P2" s="104"/>
     </row>
@@ -4628,7 +4656,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="92">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="E3" s="93">
         <v>179.45</v>
@@ -4638,19 +4666,19 @@
       </c>
       <c r="G3" s="92">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="H3" s="92">
         <f>'Dividends per year'!B3</f>
-        <v>44.82</v>
+        <v>47.480000000000004</v>
       </c>
       <c r="I3" s="93">
-        <f t="shared" ref="I2:I54" si="2">(G3-(F3*E3)+H3)</f>
-        <v>3550.32</v>
+        <f t="shared" ref="I3:I54" si="2">(G3-(F3*E3)+H3)</f>
+        <v>3252.98</v>
       </c>
       <c r="J3" s="94">
         <f t="shared" si="1"/>
-        <v>1.9784452493730842</v>
+        <v>1.812750069657286</v>
       </c>
       <c r="K3" s="133" t="s">
         <v>19</v>
@@ -4658,8 +4686,11 @@
       <c r="L3" s="96">
         <v>43251</v>
       </c>
+      <c r="M3" s="98" t="s">
+        <v>480</v>
+      </c>
       <c r="O3" s="98" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P3" s="142"/>
     </row>
@@ -4705,7 +4736,7 @@
         <v>43767</v>
       </c>
       <c r="O4" s="108" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P4" s="105"/>
     </row>
@@ -4751,7 +4782,7 @@
         <v>43679</v>
       </c>
       <c r="O5" s="103" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P5" s="107"/>
     </row>
@@ -4780,15 +4811,15 @@
       </c>
       <c r="H6" s="92">
         <f>'Dividends per year'!B6</f>
-        <v>384.26</v>
+        <v>413.65999999999997</v>
       </c>
       <c r="I6" s="93">
         <f t="shared" si="2"/>
-        <v>3889.46</v>
+        <v>3918.8599999999997</v>
       </c>
       <c r="J6" s="94">
         <f t="shared" si="1"/>
-        <v>0.75629229213657934</v>
+        <v>0.76200902232247025</v>
       </c>
       <c r="K6" s="133" t="s">
         <v>29</v>
@@ -4797,7 +4828,7 @@
         <v>43594</v>
       </c>
       <c r="O6" s="103" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P6" s="106"/>
     </row>
@@ -4843,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="O7" s="108" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P7" s="109"/>
     </row>
@@ -4872,33 +4903,33 @@
       </c>
       <c r="H8" s="92">
         <f>'Dividends per year'!B8</f>
-        <v>22.67</v>
+        <v>25.830000000000002</v>
       </c>
       <c r="I8" s="93">
         <f t="shared" si="2"/>
-        <v>50534.07</v>
+        <v>50537.23</v>
       </c>
       <c r="J8" s="94">
         <f t="shared" si="1"/>
-        <v>33.947380088673924</v>
+        <v>33.949502888620181</v>
       </c>
       <c r="K8" s="133" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L8" s="99">
         <v>43608</v>
       </c>
       <c r="O8" s="108" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P8" s="126"/>
     </row>
     <row r="9" spans="1:36" s="100" customFormat="1" ht="15">
       <c r="A9" s="118" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="91" t="s">
         <v>15</v>
@@ -4918,18 +4949,18 @@
       </c>
       <c r="H9" s="6">
         <f>'Dividends per year'!B9</f>
-        <v>117.19000000000001</v>
+        <v>125.74000000000001</v>
       </c>
       <c r="I9" s="93">
         <f t="shared" si="2"/>
-        <v>767.85679999999911</v>
+        <v>776.40679999999907</v>
       </c>
       <c r="J9" s="94">
         <f t="shared" si="1"/>
-        <v>4.9141787261214764E-2</v>
+        <v>4.968897559253338E-2</v>
       </c>
       <c r="K9" s="134" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L9" s="75">
         <v>45527</v>
@@ -5026,15 +5057,15 @@
       </c>
       <c r="H11" s="92">
         <f>'Dividends per year'!B11</f>
-        <v>53.6</v>
+        <v>92.77000000000001</v>
       </c>
       <c r="I11" s="93">
         <f t="shared" si="2"/>
-        <v>-6154.5200199999999</v>
+        <v>-6115.3500199999999</v>
       </c>
       <c r="J11" s="94">
         <f t="shared" si="1"/>
-        <v>-0.59131908626856899</v>
+        <v>-0.58755567847496826</v>
       </c>
       <c r="K11" s="133" t="s">
         <v>43</v>
@@ -5059,7 +5090,7 @@
       <c r="E12" s="93">
         <v>20.821788999999999</v>
       </c>
-      <c r="F12" s="93">
+      <c r="F12" s="143">
         <v>178.72720000000001</v>
       </c>
       <c r="G12" s="131">
@@ -5088,10 +5119,10 @@
     </row>
     <row r="13" spans="1:36" ht="15.75" customHeight="1">
       <c r="A13" s="118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B13" s="104" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C13" s="91" t="s">
         <v>15</v>
@@ -5122,7 +5153,7 @@
         <v>0.11963153343581867</v>
       </c>
       <c r="K13" s="133" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L13" s="99">
         <v>45214</v>
@@ -5130,6 +5161,15 @@
       <c r="M13" s="98"/>
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A14" s="118" t="s">
+        <v>395</v>
+      </c>
+      <c r="B14" s="109" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>15</v>
+      </c>
       <c r="I14" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5165,15 +5205,15 @@
       </c>
       <c r="H15" s="6">
         <f>'Dividends per year'!B15</f>
-        <v>491.03</v>
+        <v>498.51</v>
       </c>
       <c r="I15" s="93">
         <f t="shared" si="2"/>
-        <v>228.72999999999979</v>
+        <v>236.20999999999981</v>
       </c>
       <c r="J15" s="94">
         <f t="shared" si="1"/>
-        <v>0.12620978866633537</v>
+        <v>0.13033714065000268</v>
       </c>
       <c r="K15" s="134" t="s">
         <v>56</v>
@@ -5184,10 +5224,10 @@
     </row>
     <row r="16" spans="1:36" ht="15.75" customHeight="1">
       <c r="A16" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="105" t="s">
         <v>152</v>
-      </c>
-      <c r="B16" s="105" t="s">
-        <v>153</v>
       </c>
       <c r="C16" s="80" t="s">
         <v>15</v>
@@ -5207,18 +5247,18 @@
       </c>
       <c r="H16" s="6">
         <f>'Dividends per year'!B16</f>
-        <v>612.2600000000001</v>
+        <v>639.10000000000014</v>
       </c>
       <c r="I16" s="93">
         <f t="shared" si="2"/>
-        <v>1212.2600000000002</v>
+        <v>1239.1000000000001</v>
       </c>
       <c r="J16" s="94">
         <f t="shared" si="1"/>
-        <v>0.18367575757575771</v>
+        <v>0.18774242424242438</v>
       </c>
       <c r="K16" s="134" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L16" s="75">
         <v>43908</v>
@@ -5226,10 +5266,10 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="110" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" s="110" t="s">
-        <v>61</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>15</v>
@@ -5260,7 +5300,7 @@
         <v>1.2619217570350032</v>
       </c>
       <c r="K17" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" s="75">
         <v>43123</v>
@@ -5268,10 +5308,10 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="110" t="s">
         <v>63</v>
-      </c>
-      <c r="B18" s="110" t="s">
-        <v>64</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>15</v>
@@ -5302,7 +5342,7 @@
         <v>1.1059157754010691</v>
       </c>
       <c r="K18" s="134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L18" s="75">
         <v>43130</v>
@@ -5310,10 +5350,10 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="110" t="s">
         <v>66</v>
-      </c>
-      <c r="B19" s="110" t="s">
-        <v>67</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>15</v>
@@ -5344,13 +5384,16 @@
         <v>-8.9816581071166635E-2</v>
       </c>
       <c r="K19" s="134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L19" s="75">
         <v>43158</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>481</v>
+      </c>
       <c r="I20" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5362,10 +5405,10 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="105" t="s">
         <v>72</v>
-      </c>
-      <c r="B21" s="105" t="s">
-        <v>73</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>52</v>
@@ -5396,7 +5439,7 @@
         <v>0.22432018834608591</v>
       </c>
       <c r="K21" s="134" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L21" s="75">
         <v>43196</v>
@@ -5404,10 +5447,10 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>15</v>
@@ -5438,13 +5481,16 @@
         <v>0.48650034650034657</v>
       </c>
       <c r="K22" s="134" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L22" s="75">
         <v>43209</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>482</v>
+      </c>
       <c r="I23" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5456,13 +5502,13 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B24" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="80" t="s">
         <v>81</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>82</v>
       </c>
       <c r="D24" s="6">
         <v>2.02</v>
@@ -5490,7 +5536,7 @@
         <v>1.6408780136739853E-2</v>
       </c>
       <c r="K24" s="134" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L24" s="75">
         <v>43251</v>
@@ -5498,10 +5544,10 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="110" t="s">
         <v>84</v>
-      </c>
-      <c r="B25" s="110" t="s">
-        <v>85</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>25</v>
@@ -5532,7 +5578,7 @@
         <v>-3.5729537366548048E-2</v>
       </c>
       <c r="K25" s="134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L25" s="75">
         <v>43251</v>
@@ -5561,17 +5607,17 @@
         <f>F26*D26</f>
         <v>2660</v>
       </c>
-      <c r="H26" s="92" t="e">
-        <f>'Dividends per year'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I26" s="93" t="e">
+      <c r="H26" s="6">
+        <f>'Dividends per year'!B26</f>
+        <v>92.859999999999985</v>
+      </c>
+      <c r="I26" s="93">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J26" s="94" t="e">
+        <v>1408.62</v>
+      </c>
+      <c r="J26" s="94">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1.0478932333511874</v>
       </c>
       <c r="K26" s="133" t="s">
         <v>53</v>
@@ -5582,10 +5628,10 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="107" t="s">
         <v>91</v>
-      </c>
-      <c r="B27" s="107" t="s">
-        <v>92</v>
       </c>
       <c r="C27" s="80" t="s">
         <v>25</v>
@@ -5616,7 +5662,7 @@
         <v>-0.25056585764930472</v>
       </c>
       <c r="K27" s="134" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L27" s="75">
         <v>43272</v>
@@ -5624,10 +5670,10 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="142" t="s">
         <v>93</v>
-      </c>
-      <c r="B28" s="142" t="s">
-        <v>94</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>15</v>
@@ -5658,7 +5704,7 @@
         <v>0.76376272830127689</v>
       </c>
       <c r="K28" s="134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L28" s="75">
         <v>43433</v>
@@ -5666,10 +5712,10 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="104" t="s">
         <v>96</v>
-      </c>
-      <c r="B29" s="104" t="s">
-        <v>97</v>
       </c>
       <c r="C29" s="80" t="s">
         <v>15</v>
@@ -5700,7 +5746,7 @@
         <v>0.9542294176706827</v>
       </c>
       <c r="K29" s="134" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L29" s="75">
         <v>43554</v>
@@ -5792,10 +5838,10 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="107" t="s">
         <v>103</v>
-      </c>
-      <c r="B32" s="107" t="s">
-        <v>104</v>
       </c>
       <c r="C32" s="80" t="s">
         <v>15</v>
@@ -5826,7 +5872,7 @@
         <v>0.43764338401533509</v>
       </c>
       <c r="K32" s="134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L32" s="75">
         <v>43594</v>
@@ -5834,10 +5880,10 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1">
       <c r="A33" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="107" t="s">
         <v>106</v>
-      </c>
-      <c r="B33" s="107" t="s">
-        <v>107</v>
       </c>
       <c r="C33" s="80" t="s">
         <v>15</v>
@@ -5868,21 +5914,21 @@
         <v>0.87553134129048438</v>
       </c>
       <c r="K33" s="134" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L33" s="75">
         <v>43608</v>
       </c>
       <c r="M33" s="67" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
       <c r="A34" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="107" t="s">
         <v>108</v>
-      </c>
-      <c r="B34" s="107" t="s">
-        <v>109</v>
       </c>
       <c r="C34" s="80" t="s">
         <v>15</v>
@@ -5913,21 +5959,21 @@
         <v>-3.2642544703938681E-2</v>
       </c>
       <c r="K34" s="134" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L34" s="75">
         <v>43623</v>
       </c>
       <c r="M34" s="67" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
       <c r="A35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="106" t="s">
         <v>111</v>
-      </c>
-      <c r="B35" s="106" t="s">
-        <v>112</v>
       </c>
       <c r="C35" s="80" t="s">
         <v>15</v>
@@ -5958,7 +6004,7 @@
         <v>1.5353935355490083</v>
       </c>
       <c r="K35" s="134" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L35" s="75">
         <v>43624</v>
@@ -5984,10 +6030,10 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
       <c r="A37" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="105" t="s">
         <v>114</v>
-      </c>
-      <c r="B37" s="105" t="s">
-        <v>115</v>
       </c>
       <c r="C37" s="80" t="s">
         <v>15</v>
@@ -6007,18 +6053,18 @@
       </c>
       <c r="H37" s="6">
         <f>'Dividends per year'!B37</f>
-        <v>56.56</v>
+        <v>81.3</v>
       </c>
       <c r="I37" s="93">
         <f t="shared" si="2"/>
-        <v>-3.3200000000001069</v>
+        <v>21.419999999999888</v>
       </c>
       <c r="J37" s="8">
         <f t="shared" si="4"/>
-        <v>-1.8044655086202344E-3</v>
+        <v>1.1642063612844256E-2</v>
       </c>
       <c r="K37" s="134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L37" s="75">
         <v>45153</v>
@@ -6026,10 +6072,10 @@
     </row>
     <row r="38" spans="1:13" ht="15">
       <c r="A38" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="107" t="s">
         <v>117</v>
-      </c>
-      <c r="B38" s="107" t="s">
-        <v>118</v>
       </c>
       <c r="C38" s="80" t="s">
         <v>25</v>
@@ -6060,7 +6106,7 @@
         <v>-2.7324552781600064E-2</v>
       </c>
       <c r="K38" s="134" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L38" s="75">
         <v>43657</v>
@@ -6068,10 +6114,10 @@
     </row>
     <row r="39" spans="1:13" ht="15">
       <c r="A39" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="109" t="s">
         <v>120</v>
-      </c>
-      <c r="B39" s="109" t="s">
-        <v>121</v>
       </c>
       <c r="C39" s="80" t="s">
         <v>15</v>
@@ -6102,7 +6148,7 @@
         <v>0.58134678076609614</v>
       </c>
       <c r="K39" s="134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L39" s="75">
         <v>43165</v>
@@ -6110,10 +6156,10 @@
     </row>
     <row r="40" spans="1:13" ht="15">
       <c r="A40" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="104" t="s">
         <v>123</v>
-      </c>
-      <c r="B40" s="104" t="s">
-        <v>124</v>
       </c>
       <c r="C40" s="80" t="s">
         <v>15</v>
@@ -6133,18 +6179,18 @@
       </c>
       <c r="H40" s="6">
         <f>'Dividends per year'!B40</f>
-        <v>43.3</v>
+        <v>51.44</v>
       </c>
       <c r="I40" s="93">
         <f t="shared" si="2"/>
-        <v>1159.5250000000003</v>
+        <v>1167.6650000000004</v>
       </c>
       <c r="J40" s="8">
         <f t="shared" si="4"/>
-        <v>0.42806250057682926</v>
+        <v>0.43106754898431965</v>
       </c>
       <c r="K40" s="134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L40" s="75">
         <v>43697</v>
@@ -6152,13 +6198,13 @@
     </row>
     <row r="41" spans="1:13" ht="15">
       <c r="A41" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="119" t="s">
+      <c r="C41" s="80" t="s">
         <v>127</v>
-      </c>
-      <c r="C41" s="80" t="s">
-        <v>128</v>
       </c>
       <c r="D41" s="6">
         <v>6.15</v>
@@ -6175,24 +6221,24 @@
       </c>
       <c r="H41" s="6">
         <f>'Dividends per year'!B41</f>
-        <v>172.27999999999997</v>
+        <v>185.62999999999997</v>
       </c>
       <c r="I41" s="93">
         <f t="shared" si="2"/>
-        <v>303.54999999999995</v>
+        <v>316.89999999999998</v>
       </c>
       <c r="J41" s="8">
         <f t="shared" si="4"/>
-        <v>0.2762735157864078</v>
+        <v>0.28842390760241354</v>
       </c>
       <c r="K41" s="134" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L41" s="75">
         <v>43700</v>
       </c>
       <c r="M41" s="67" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15">
@@ -6212,10 +6258,10 @@
     </row>
     <row r="43" spans="1:13" ht="15">
       <c r="A43" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="142" t="s">
         <v>130</v>
-      </c>
-      <c r="B43" s="142" t="s">
-        <v>131</v>
       </c>
       <c r="C43" s="80" t="s">
         <v>25</v>
@@ -6246,7 +6292,7 @@
         <v>0.17929138829723446</v>
       </c>
       <c r="K43" s="134" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L43" s="75">
         <v>43703</v>
@@ -6254,10 +6300,10 @@
     </row>
     <row r="44" spans="1:13" ht="15">
       <c r="A44" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="104" t="s">
         <v>132</v>
-      </c>
-      <c r="B44" s="104" t="s">
-        <v>133</v>
       </c>
       <c r="C44" s="80" t="s">
         <v>15</v>
@@ -6288,7 +6334,7 @@
         <v>-0.2189235580012564</v>
       </c>
       <c r="K44" s="134" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L44" s="75">
         <v>43728</v>
@@ -6296,10 +6342,10 @@
     </row>
     <row r="45" spans="1:13" ht="15">
       <c r="A45" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="106" t="s">
         <v>134</v>
-      </c>
-      <c r="B45" s="106" t="s">
-        <v>135</v>
       </c>
       <c r="C45" s="80" t="s">
         <v>15</v>
@@ -6330,7 +6376,7 @@
         <v>-9.933155261480886E-2</v>
       </c>
       <c r="K45" s="134" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L45" s="75">
         <v>43733</v>
@@ -6345,10 +6391,10 @@
     </row>
     <row r="47" spans="1:13" ht="15">
       <c r="A47" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="126" t="s">
         <v>139</v>
-      </c>
-      <c r="B47" s="126" t="s">
-        <v>140</v>
       </c>
       <c r="C47" s="80" t="s">
         <v>15</v>
@@ -6379,7 +6425,7 @@
         <v>-0.13488339396495663</v>
       </c>
       <c r="K47" s="134" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L47" s="75">
         <v>43768</v>
@@ -6387,10 +6433,10 @@
     </row>
     <row r="48" spans="1:13" ht="15">
       <c r="A48" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="107" t="s">
         <v>141</v>
-      </c>
-      <c r="B48" s="107" t="s">
-        <v>142</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>25</v>
@@ -6410,18 +6456,18 @@
       </c>
       <c r="H48" s="6">
         <f>'Dividends per year'!B48</f>
-        <v>82.34</v>
+        <v>106.77000000000001</v>
       </c>
       <c r="I48" s="93">
         <f t="shared" si="2"/>
-        <v>-104.67160000000004</v>
+        <v>-80.241600000000034</v>
       </c>
       <c r="J48" s="8">
         <f t="shared" si="4"/>
-        <v>-0.16127847329693334</v>
+        <v>-0.12363661912976598</v>
       </c>
       <c r="K48" s="134" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L48" s="75">
         <v>43858</v>
@@ -6429,10 +6475,10 @@
     </row>
     <row r="49" spans="1:13" ht="15">
       <c r="A49" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="107" t="s">
         <v>143</v>
-      </c>
-      <c r="B49" s="107" t="s">
-        <v>144</v>
       </c>
       <c r="C49" s="80" t="s">
         <v>25</v>
@@ -6463,7 +6509,7 @@
         <v>-1.5361405930337857E-2</v>
       </c>
       <c r="K49" s="134" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L49" s="75">
         <v>43859</v>
@@ -6471,10 +6517,10 @@
     </row>
     <row r="50" spans="1:13" ht="15">
       <c r="A50" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="106" t="s">
         <v>145</v>
-      </c>
-      <c r="B50" s="106" t="s">
-        <v>146</v>
       </c>
       <c r="C50" s="80" t="s">
         <v>25</v>
@@ -6494,18 +6540,18 @@
       </c>
       <c r="H50" s="6">
         <f>'Dividends per year'!B50</f>
-        <v>50.97</v>
+        <v>51.260000000000005</v>
       </c>
       <c r="I50" s="93">
         <f t="shared" si="2"/>
-        <v>113.24010000000007</v>
+        <v>113.53010000000008</v>
       </c>
       <c r="J50" s="8">
         <f t="shared" si="4"/>
-        <v>0.14560337721360606</v>
+        <v>0.14597625730989661</v>
       </c>
       <c r="K50" s="134" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L50" s="75">
         <v>43861</v>
@@ -6513,10 +6559,10 @@
     </row>
     <row r="51" spans="1:13" ht="15">
       <c r="A51" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="104" t="s">
         <v>147</v>
-      </c>
-      <c r="B51" s="104" t="s">
-        <v>148</v>
       </c>
       <c r="C51" s="80" t="s">
         <v>15</v>
@@ -6547,7 +6593,7 @@
         <v>6.3491441264863502E-2</v>
       </c>
       <c r="K51" s="134" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L51" s="75">
         <v>43880</v>
@@ -6555,10 +6601,10 @@
     </row>
     <row r="52" spans="1:13" ht="15">
       <c r="A52" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="105" t="s">
         <v>69</v>
-      </c>
-      <c r="B52" s="105" t="s">
-        <v>70</v>
       </c>
       <c r="C52" s="80" t="s">
         <v>52</v>
@@ -6589,7 +6635,7 @@
         <v>0.48916363636363625</v>
       </c>
       <c r="K52" s="134" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L52" s="75">
         <v>43179</v>
@@ -6603,13 +6649,13 @@
     </row>
     <row r="54" spans="1:13" ht="15">
       <c r="A54" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="106" t="s">
+      <c r="C54" s="80" t="s">
         <v>155</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>156</v>
       </c>
       <c r="D54" s="6">
         <v>20</v>
@@ -6637,7 +6683,7 @@
         <v>0.28892306941087398</v>
       </c>
       <c r="K54" s="134" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L54" s="75">
         <v>43998</v>
@@ -6645,10 +6691,10 @@
     </row>
     <row r="55" spans="1:13" ht="15">
       <c r="A55" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="105" t="s">
         <v>157</v>
-      </c>
-      <c r="B55" s="105" t="s">
-        <v>158</v>
       </c>
       <c r="C55" s="80" t="s">
         <v>15</v>
@@ -6668,18 +6714,18 @@
       </c>
       <c r="H55" s="6">
         <f>'Dividends per year'!B55</f>
-        <v>11.17</v>
+        <v>26.290000000000003</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" ref="I32:I62" si="5">(G55-(F55*E55)+H55)</f>
-        <v>337.49500000000006</v>
+        <f t="shared" ref="I55:I62" si="5">(G55-(F55*E55)+H55)</f>
+        <v>352.61500000000007</v>
       </c>
       <c r="J55" s="8">
         <f t="shared" si="4"/>
-        <v>0.2658121172741057</v>
+        <v>0.27772067655108601</v>
       </c>
       <c r="K55" s="134" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L55" s="75">
         <v>44002</v>
@@ -6687,10 +6733,10 @@
     </row>
     <row r="56" spans="1:13" ht="15">
       <c r="A56" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="109" t="s">
         <v>159</v>
-      </c>
-      <c r="B56" s="109" t="s">
-        <v>160</v>
       </c>
       <c r="C56" s="80" t="s">
         <v>25</v>
@@ -6721,7 +6767,7 @@
         <v>-0.33328425719169952</v>
       </c>
       <c r="K56" s="134" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L56" s="75">
         <v>43965</v>
@@ -6729,10 +6775,10 @@
     </row>
     <row r="57" spans="1:13" ht="15">
       <c r="A57" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="106" t="s">
         <v>161</v>
-      </c>
-      <c r="B57" s="106" t="s">
-        <v>162</v>
       </c>
       <c r="C57" s="80" t="s">
         <v>15</v>
@@ -6763,7 +6809,7 @@
         <v>5.7245354702819773E-2</v>
       </c>
       <c r="K57" s="134" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="L57" s="75">
         <v>43978</v>
@@ -6771,10 +6817,10 @@
     </row>
     <row r="58" spans="1:13" ht="15">
       <c r="A58" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="106" t="s">
         <v>163</v>
-      </c>
-      <c r="B58" s="106" t="s">
-        <v>164</v>
       </c>
       <c r="C58" s="80" t="s">
         <v>15</v>
@@ -6805,7 +6851,7 @@
         <v>5.4916665208680326E-2</v>
       </c>
       <c r="K58" s="134" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L58" s="75">
         <v>43377</v>
@@ -6813,10 +6859,10 @@
     </row>
     <row r="59" spans="1:13" ht="15">
       <c r="A59" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="67" t="s">
         <v>165</v>
-      </c>
-      <c r="B59" s="67" t="s">
-        <v>166</v>
       </c>
       <c r="C59" s="80" t="s">
         <v>15</v>
@@ -6836,24 +6882,24 @@
       </c>
       <c r="H59" s="6">
         <f>'Dividends per year'!B59</f>
-        <v>125.71000000000001</v>
+        <v>134.05000000000001</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="5"/>
-        <v>108.00999999999996</v>
+        <v>116.34999999999997</v>
       </c>
       <c r="J59" s="8">
         <f t="shared" si="4"/>
-        <v>9.5779019242706376E-2</v>
+        <v>0.10317460317460303</v>
       </c>
       <c r="K59" s="134" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L59" s="75">
         <v>43985</v>
       </c>
       <c r="M59" s="67" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15">
@@ -6867,7 +6913,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="6">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E60" s="7">
         <v>44.8</v>
@@ -6877,7 +6923,7 @@
       </c>
       <c r="G60" s="6">
         <f>F60*D60</f>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H60" s="6">
         <f>'Dividends per year'!B60</f>
@@ -6885,14 +6931,14 @@
       </c>
       <c r="I60" s="93">
         <f>(G60-(F60*E60)+H60)</f>
-        <v>-39.25</v>
+        <v>10.75</v>
       </c>
       <c r="J60" s="94">
         <f>((D60*F60)+H60)/(E60*F60)-100%</f>
-        <v>-8.7611607142857095E-2</v>
+        <v>2.3995535714285809E-2</v>
       </c>
       <c r="K60" s="134" t="s">
-        <v>59</v>
+        <v>490</v>
       </c>
       <c r="L60" s="75">
         <v>43109</v>
@@ -6900,10 +6946,10 @@
     </row>
     <row r="61" spans="1:13" ht="15">
       <c r="A61" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="105" t="s">
         <v>167</v>
-      </c>
-      <c r="B61" s="105" t="s">
-        <v>168</v>
       </c>
       <c r="C61" s="80" t="s">
         <v>15</v>
@@ -6934,7 +6980,7 @@
         <v>2.3283177025912973</v>
       </c>
       <c r="K61" s="134" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L61" s="75">
         <v>43993</v>
@@ -6942,10 +6988,10 @@
     </row>
     <row r="62" spans="1:13" ht="15">
       <c r="A62" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="142" t="s">
         <v>169</v>
-      </c>
-      <c r="B62" s="142" t="s">
-        <v>170</v>
       </c>
       <c r="C62" s="80" t="s">
         <v>25</v>
@@ -6976,7 +7022,7 @@
         <v>0.35371717253802504</v>
       </c>
       <c r="K62" s="134" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L62" s="75">
         <v>43994</v>
@@ -6984,10 +7030,10 @@
     </row>
     <row r="63" spans="1:13" ht="15">
       <c r="A63" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="106" t="s">
         <v>172</v>
-      </c>
-      <c r="B63" s="106" t="s">
-        <v>173</v>
       </c>
       <c r="C63" s="80" t="s">
         <v>15</v>
@@ -7007,18 +7053,18 @@
       </c>
       <c r="H63" s="6">
         <f>'Dividends per year'!B63</f>
-        <v>45.759999999999991</v>
+        <v>49.579999999999991</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" ref="I63:I84" si="6">(G63-(F63*E63)+H63)</f>
-        <v>84.87</v>
+        <v>88.69</v>
       </c>
       <c r="J63" s="8">
         <f t="shared" si="4"/>
-        <v>0.2117039586919105</v>
+        <v>0.22123275711541823</v>
       </c>
       <c r="K63" s="134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L63" s="75">
         <v>44019</v>
@@ -7026,10 +7072,10 @@
     </row>
     <row r="64" spans="1:13" ht="15">
       <c r="A64" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="104" t="s">
         <v>175</v>
-      </c>
-      <c r="B64" s="67" t="s">
-        <v>176</v>
       </c>
       <c r="C64" s="80" t="s">
         <v>15</v>
@@ -7060,18 +7106,21 @@
         <v>0.15735767991407101</v>
       </c>
       <c r="K64" s="134" t="s">
-        <v>177</v>
+        <v>491</v>
       </c>
       <c r="L64" s="75">
         <v>44026</v>
       </c>
+      <c r="M64" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="65" spans="1:12" ht="15">
       <c r="A65" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>15</v>
@@ -7091,18 +7140,18 @@
       </c>
       <c r="H65" s="6">
         <f>'Dividends per year'!B65</f>
-        <v>78.77000000000001</v>
+        <v>86.360000000000014</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="6"/>
-        <v>75.03</v>
+        <v>82.62</v>
       </c>
       <c r="J65" s="8">
         <f t="shared" si="4"/>
-        <v>9.1084565518245952E-2</v>
+        <v>0.10029863791973193</v>
       </c>
       <c r="K65" s="134" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L65" s="75">
         <v>44027</v>
@@ -7110,10 +7159,10 @@
     </row>
     <row r="66" spans="1:12" ht="15">
       <c r="A66" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C66" s="80" t="s">
         <v>15</v>
@@ -7133,18 +7182,18 @@
       </c>
       <c r="H66" s="6">
         <f>'Dividends per year'!B66</f>
-        <v>288.69000000000005</v>
+        <v>292.77000000000004</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="6"/>
-        <v>648.09245549939988</v>
+        <v>652.1724554993998</v>
       </c>
       <c r="J66" s="8">
         <f t="shared" ref="J66:J98" si="7">((D66*F66)+H66)/(E66*F66)-100%</f>
-        <v>0.66654920669850193</v>
+        <v>0.67074539929456334</v>
       </c>
       <c r="K66" s="134" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L66" s="75">
         <v>44062</v>
@@ -7152,10 +7201,10 @@
     </row>
     <row r="67" spans="1:12" ht="15">
       <c r="A67" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B67" s="105" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C67" s="80" t="s">
         <v>25</v>
@@ -7186,7 +7235,7 @@
         <v>0.45231924211278929</v>
       </c>
       <c r="K67" s="134" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L67" s="75">
         <v>44036</v>
@@ -7194,10 +7243,10 @@
     </row>
     <row r="68" spans="1:12" ht="15">
       <c r="A68" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B68" s="104" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C68" s="80" t="s">
         <v>15</v>
@@ -7228,7 +7277,7 @@
         <v>0.12260808777355181</v>
       </c>
       <c r="K68" s="134" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L68" s="75">
         <v>44037</v>
@@ -7236,10 +7285,10 @@
     </row>
     <row r="69" spans="1:12" ht="15">
       <c r="A69" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B69" s="106" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C69" s="80" t="s">
         <v>15</v>
@@ -7270,7 +7319,7 @@
         <v>5.2012766085568929E-2</v>
       </c>
       <c r="K69" s="134" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L69" s="75">
         <v>44043</v>
@@ -7278,10 +7327,10 @@
     </row>
     <row r="70" spans="1:12" ht="15">
       <c r="A70" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B70" s="106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C70" s="80" t="s">
         <v>25</v>
@@ -7312,7 +7361,7 @@
         <v>0.22984943570672245</v>
       </c>
       <c r="K70" s="134" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L70" s="75">
         <v>44049</v>
@@ -7320,10 +7369,10 @@
     </row>
     <row r="71" spans="1:12" ht="15">
       <c r="A71" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B71" s="105" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C71" s="80" t="s">
         <v>25</v>
@@ -7354,7 +7403,7 @@
         <v>0.23894938345266525</v>
       </c>
       <c r="K71" s="134" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L71" s="75">
         <v>44074</v>
@@ -7362,10 +7411,10 @@
     </row>
     <row r="72" spans="1:12" ht="15">
       <c r="A72" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B72" s="106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C72" s="80" t="s">
         <v>15</v>
@@ -7396,7 +7445,7 @@
         <v>0.61565412253858653</v>
       </c>
       <c r="K72" s="134" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L72" s="75">
         <v>44095</v>
@@ -7404,10 +7453,10 @@
     </row>
     <row r="73" spans="1:12" ht="15">
       <c r="A73" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B73" s="106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C73" s="80" t="s">
         <v>15</v>
@@ -7438,7 +7487,7 @@
         <v>0.51570934379140776</v>
       </c>
       <c r="K73" s="134" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L73" s="75">
         <v>44096</v>
@@ -7446,10 +7495,10 @@
     </row>
     <row r="74" spans="1:12" ht="15">
       <c r="A74" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B74" s="106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C74" s="80" t="s">
         <v>25</v>
@@ -7480,7 +7529,7 @@
         <v>0.50237594269368069</v>
       </c>
       <c r="K74" s="134" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L74" s="75">
         <v>44131</v>
@@ -7488,10 +7537,10 @@
     </row>
     <row r="75" spans="1:12" ht="15">
       <c r="A75" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B75" s="106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C75" s="80" t="s">
         <v>25</v>
@@ -7522,7 +7571,7 @@
         <v>-0.20454336429688214</v>
       </c>
       <c r="K75" s="134" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L75" s="75">
         <v>44132</v>
@@ -7530,10 +7579,10 @@
     </row>
     <row r="76" spans="1:12" ht="15">
       <c r="A76" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B76" s="109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C76" s="80" t="s">
         <v>52</v>
@@ -7564,7 +7613,7 @@
         <v>4.9620211360634103E-2</v>
       </c>
       <c r="K76" s="134" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L76" s="75">
         <v>44103</v>
@@ -7572,10 +7621,10 @@
     </row>
     <row r="77" spans="1:12" ht="15">
       <c r="A77" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B77" s="105" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C77" s="80" t="s">
         <v>15</v>
@@ -7606,7 +7655,7 @@
         <v>0.57012768242962819</v>
       </c>
       <c r="K77" s="134" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L77" s="75">
         <v>44129</v>
@@ -7614,16 +7663,16 @@
     </row>
     <row r="78" spans="1:12" ht="15">
       <c r="A78" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B78" s="119" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C78" s="80" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="7">
-        <v>8.4600000000000009</v>
+        <v>5</v>
       </c>
       <c r="E78" s="7">
         <v>6.8310000000000004</v>
@@ -7633,7 +7682,7 @@
       </c>
       <c r="G78" s="6">
         <f t="shared" si="3"/>
-        <v>1378.9800000000002</v>
+        <v>815</v>
       </c>
       <c r="H78" s="6">
         <f>'Dividends per year'!B78</f>
@@ -7641,14 +7690,14 @@
       </c>
       <c r="I78" s="7">
         <f t="shared" si="6"/>
-        <v>378.66700000000026</v>
+        <v>-185.31299999999999</v>
       </c>
       <c r="J78" s="8">
         <f t="shared" si="7"/>
-        <v>0.34008350599441584</v>
+        <v>-0.16643091356348227</v>
       </c>
       <c r="K78" s="134" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L78" s="75">
         <v>44131</v>
@@ -7656,10 +7705,10 @@
     </row>
     <row r="79" spans="1:12" ht="15">
       <c r="A79" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B79" s="105" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C79" s="80" t="s">
         <v>25</v>
@@ -7690,7 +7739,7 @@
         <v>0.23978159126365051</v>
       </c>
       <c r="K79" s="134" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L79" s="75">
         <v>44126</v>
@@ -7698,13 +7747,13 @@
     </row>
     <row r="80" spans="1:12" ht="15">
       <c r="A80" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B80" s="126" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C80" s="80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" s="7">
         <v>40.005000000000003</v>
@@ -7732,7 +7781,7 @@
         <v>0.16040008761042546</v>
       </c>
       <c r="K80" s="134" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L80" s="75">
         <v>44132</v>
@@ -7740,10 +7789,10 @@
     </row>
     <row r="81" spans="1:13" ht="15">
       <c r="A81" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B81" s="106" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C81" s="80" t="s">
         <v>15</v>
@@ -7774,7 +7823,7 @@
         <v>-2.6361376817052307E-3</v>
       </c>
       <c r="K81" s="134" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L81" s="75">
         <v>44327</v>
@@ -7782,10 +7831,10 @@
     </row>
     <row r="82" spans="1:13" ht="15">
       <c r="A82" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B82" s="142" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C82" s="80" t="s">
         <v>25</v>
@@ -7816,7 +7865,7 @@
         <v>-0.24994890262299874</v>
       </c>
       <c r="K82" s="134" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L82" s="75">
         <v>43935</v>
@@ -7824,16 +7873,16 @@
     </row>
     <row r="83" spans="1:13" ht="15">
       <c r="A83" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B83" s="106" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C83" s="80" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="7">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E83" s="6">
         <v>61.96</v>
@@ -7843,36 +7892,36 @@
       </c>
       <c r="G83" s="6">
         <f t="shared" si="3"/>
-        <v>930</v>
+        <v>210</v>
       </c>
       <c r="H83" s="6">
         <f>'Dividends per year'!B83</f>
-        <v>58.040000000000013</v>
+        <v>59.110000000000014</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="6"/>
-        <v>58.640000000000036</v>
+        <v>-660.29</v>
       </c>
       <c r="J83" s="8">
         <f t="shared" si="7"/>
-        <v>6.3094469550247556E-2</v>
+        <v>-0.71044760060253931</v>
       </c>
       <c r="K83" s="134" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L83" s="75">
         <v>44553</v>
       </c>
       <c r="M83" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15">
       <c r="A84" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B84" s="106" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>15</v>
@@ -7903,7 +7952,7 @@
         <v>3.784091673371015E-2</v>
       </c>
       <c r="K84" s="134" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L84" s="75">
         <v>44580</v>
@@ -7911,13 +7960,13 @@
     </row>
     <row r="85" spans="1:13" ht="15">
       <c r="A85" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="126" t="s">
+      <c r="C85" s="80" t="s">
         <v>78</v>
-      </c>
-      <c r="C85" s="80" t="s">
-        <v>79</v>
       </c>
       <c r="D85" s="6">
         <v>0.48</v>
@@ -7932,20 +7981,20 @@
         <f>F85*D85</f>
         <v>480</v>
       </c>
-      <c r="H85" s="6" t="e">
-        <f>'Dividends per year'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I85" s="7" t="e">
+      <c r="H85" s="6">
+        <f>'Dividends per year'!B85</f>
+        <v>140.68</v>
+      </c>
+      <c r="I85" s="7">
         <f>(G85-(F85*E85)+H85)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J85" s="8" t="e">
+        <v>-117.82</v>
+      </c>
+      <c r="J85" s="8">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>-0.15953960731211903</v>
       </c>
       <c r="K85" s="134" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L85" s="75">
         <v>43608</v>
@@ -7953,13 +8002,13 @@
     </row>
     <row r="86" spans="1:13" ht="15">
       <c r="A86" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="105" t="s">
+      <c r="C86" s="80" t="s">
         <v>88</v>
-      </c>
-      <c r="C86" s="80" t="s">
-        <v>89</v>
       </c>
       <c r="D86" s="6">
         <v>2.3570000000000002</v>
@@ -7975,19 +8024,19 @@
         <v>1178.5</v>
       </c>
       <c r="H86" s="6">
-        <f>'Dividends per year'!B13</f>
-        <v>125.75</v>
+        <f>'Dividends per year'!B86</f>
+        <v>212.34</v>
       </c>
       <c r="I86" s="7">
         <f>(G86-(F86*E86)+H86)</f>
-        <v>454.25</v>
+        <v>540.84</v>
       </c>
       <c r="J86" s="8">
         <f t="shared" si="7"/>
-        <v>0.53441176470588236</v>
+        <v>0.6362823529411763</v>
       </c>
       <c r="K86" s="134" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L86" s="75">
         <v>43270</v>
@@ -7995,13 +8044,13 @@
     </row>
     <row r="87" spans="1:13" ht="15">
       <c r="A87" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="106" t="s">
+      <c r="C87" s="80" t="s">
         <v>100</v>
-      </c>
-      <c r="C87" s="80" t="s">
-        <v>101</v>
       </c>
       <c r="D87" s="6">
         <v>8.4</v>
@@ -8017,19 +8066,19 @@
         <v>588</v>
       </c>
       <c r="H87" s="6">
-        <f>'Dividends per year'!B31</f>
-        <v>0</v>
+        <f>'Dividends per year'!B87</f>
+        <v>132.70000000000002</v>
       </c>
       <c r="I87" s="7">
         <f>(G87-(F87*E87)+H87)</f>
-        <v>4.1600929999999607</v>
+        <v>136.86009299999998</v>
       </c>
       <c r="J87" s="8">
         <f>((D87*F87)+H87)/(E87*F87)-100%</f>
-        <v>7.1254002169467423E-3</v>
+        <v>0.23441373458563519</v>
       </c>
       <c r="K87" s="134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L87" s="75">
         <v>43591</v>
@@ -8037,10 +8086,10 @@
     </row>
     <row r="88" spans="1:13" ht="15">
       <c r="A88" s="116" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B88" s="105" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C88" s="80" t="s">
         <v>25</v>
@@ -8071,7 +8120,7 @@
         <v>-3.4385893278931157E-2</v>
       </c>
       <c r="K88" s="134" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L88" s="75">
         <v>44211</v>
@@ -8079,10 +8128,10 @@
     </row>
     <row r="89" spans="1:13" ht="15">
       <c r="A89" s="116" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B89" s="104" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C89" s="80" t="s">
         <v>15</v>
@@ -8113,7 +8162,7 @@
         <v>1.3485329667725088E-2</v>
       </c>
       <c r="K89" s="134" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L89" s="75">
         <v>44215</v>
@@ -8121,10 +8170,10 @@
     </row>
     <row r="90" spans="1:13" ht="15">
       <c r="A90" s="116" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B90" s="104" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C90" s="80" t="s">
         <v>15</v>
@@ -8155,7 +8204,7 @@
         <v>-2.6828560547819569E-2</v>
       </c>
       <c r="K90" s="134" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L90" s="75">
         <v>44222</v>
@@ -8163,10 +8212,10 @@
     </row>
     <row r="91" spans="1:13" ht="15">
       <c r="A91" s="117" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B91" s="104" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C91" s="80" t="s">
         <v>15</v>
@@ -8197,7 +8246,7 @@
         <v>-0.77450178989204277</v>
       </c>
       <c r="K91" s="134" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L91" s="75">
         <v>44223</v>
@@ -8205,10 +8254,10 @@
     </row>
     <row r="92" spans="1:13" ht="15">
       <c r="A92" s="117" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B92" s="126" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C92" s="80" t="s">
         <v>15</v>
@@ -8239,7 +8288,7 @@
         <v>0.15905254710977057</v>
       </c>
       <c r="K92" s="134" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L92" s="75">
         <v>44277</v>
@@ -8247,13 +8296,13 @@
     </row>
     <row r="93" spans="1:13" ht="15">
       <c r="A93" s="117" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B93" s="106" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C93" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D93" s="7">
         <v>16.899999999999999</v>
@@ -8281,7 +8330,7 @@
         <v>-2.3385238068469372E-2</v>
       </c>
       <c r="K93" s="134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L93" s="75">
         <v>44252</v>
@@ -8289,13 +8338,13 @@
     </row>
     <row r="94" spans="1:13" ht="15">
       <c r="A94" s="117" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C94" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D94" s="7">
         <v>2.6</v>
@@ -8323,7 +8372,7 @@
         <v>-4.3906744134735498E-2</v>
       </c>
       <c r="K94" s="134" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L94" s="75">
         <v>44252</v>
@@ -8331,10 +8380,10 @@
     </row>
     <row r="95" spans="1:13" ht="15">
       <c r="A95" s="117" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B95" s="104" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C95" s="80" t="s">
         <v>15</v>
@@ -8354,18 +8403,18 @@
       </c>
       <c r="H95" s="6">
         <f>'Dividends per year'!B95</f>
-        <v>22.58</v>
+        <v>29.049999999999997</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="9"/>
-        <v>16.579999999999998</v>
+        <v>23.049999999999997</v>
       </c>
       <c r="J95" s="8">
         <f t="shared" si="7"/>
-        <v>3.7342342342342238E-2</v>
+        <v>5.1914414414414356E-2</v>
       </c>
       <c r="K95" s="134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L95" s="75">
         <v>44243</v>
@@ -8373,10 +8422,10 @@
     </row>
     <row r="96" spans="1:13" ht="15">
       <c r="A96" s="117" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B96" s="104" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C96" s="80" t="s">
         <v>25</v>
@@ -8407,7 +8456,7 @@
         <v>-5.8243175329827035E-2</v>
       </c>
       <c r="K96" s="134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L96" s="75">
         <v>44274</v>
@@ -8415,13 +8464,13 @@
     </row>
     <row r="97" spans="1:12" ht="15">
       <c r="A97" s="117" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B97" s="105" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C97" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D97" s="7">
         <v>1.83</v>
@@ -8438,18 +8487,18 @@
       </c>
       <c r="H97" s="6">
         <f>'Dividends per year'!B97</f>
-        <v>25.28</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="9"/>
-        <v>6.5699999999999648</v>
+        <v>15.169999999999966</v>
       </c>
       <c r="J97" s="8">
         <f t="shared" si="7"/>
-        <v>1.3796434346191599E-2</v>
+        <v>3.1855693916549299E-2</v>
       </c>
       <c r="K97" s="134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L97" s="75">
         <v>44319</v>
@@ -8457,13 +8506,13 @@
     </row>
     <row r="98" spans="1:12" ht="15">
       <c r="A98" s="117" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B98" s="106" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C98" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" s="7">
         <v>1.0089999999999999</v>
@@ -8491,7 +8540,7 @@
         <v>5.5819162417848123E-2</v>
       </c>
       <c r="K98" s="134" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L98" s="75">
         <v>44566</v>
@@ -8499,13 +8548,13 @@
     </row>
     <row r="99" spans="1:12" ht="15">
       <c r="A99" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="B99" s="126" t="s">
-        <v>150</v>
-      </c>
       <c r="C99" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D99" s="6">
         <v>7.6</v>
@@ -8533,7 +8582,7 @@
         <v>0.11263349830685088</v>
       </c>
       <c r="K99" s="134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L99" s="75">
         <v>43902</v>
@@ -8541,10 +8590,10 @@
     </row>
     <row r="100" spans="1:12" ht="15">
       <c r="A100" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="104" t="s">
         <v>136</v>
-      </c>
-      <c r="B100" s="104" t="s">
-        <v>137</v>
       </c>
       <c r="C100" s="80" t="s">
         <v>15</v>
@@ -8575,7 +8624,7 @@
         <v>-0.30941611132212288</v>
       </c>
       <c r="K100" s="134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L100" s="75">
         <v>43591</v>
@@ -8623,7 +8672,7 @@
     </row>
     <row r="104" spans="1:12" ht="15">
       <c r="A104" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B104" s="67"/>
       <c r="C104" s="80"/>
@@ -8638,10 +8687,10 @@
     </row>
     <row r="105" spans="1:12" ht="15">
       <c r="A105" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B105" s="67" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C105" s="80" t="s">
         <v>52</v>
@@ -8668,11 +8717,11 @@
         <v>-4.4660000000000055</v>
       </c>
       <c r="J105" s="8">
-        <f t="shared" ref="J105:J111" si="11">((D105*F105)+H105)/(E105*F105)-100%</f>
+        <f t="shared" ref="J105:J112" si="11">((D105*F105)+H105)/(E105*F105)-100%</f>
         <v>-6.7263088137839766E-2</v>
       </c>
       <c r="K105" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L105" s="75">
         <v>43564</v>
@@ -8680,10 +8729,10 @@
     </row>
     <row r="106" spans="1:12" ht="15">
       <c r="A106" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B106" s="67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C106" s="80" t="s">
         <v>25</v>
@@ -8714,7 +8763,7 @@
         <v>-0.20191502094554148</v>
       </c>
       <c r="K106" s="134" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L106" s="75">
         <v>44440</v>
@@ -8722,10 +8771,10 @@
     </row>
     <row r="107" spans="1:12" ht="15">
       <c r="A107" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B107" s="67" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C107" s="80" t="s">
         <v>15</v>
@@ -8745,18 +8794,18 @@
       </c>
       <c r="H107" s="6">
         <f>'Dividends per year'!B107</f>
-        <v>1.5200000000000002</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="I107" s="7">
         <f t="shared" si="10"/>
-        <v>2.2600000000000025</v>
+        <v>2.4000000000000021</v>
       </c>
       <c r="J107" s="8">
         <f t="shared" si="11"/>
-        <v>7.062500000000016E-2</v>
+        <v>7.5000000000000178E-2</v>
       </c>
       <c r="K107" s="134" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L107" s="75">
         <v>44657</v>
@@ -8764,10 +8813,10 @@
     </row>
     <row r="108" spans="1:12" ht="15">
       <c r="A108" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B108" s="67" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C108" s="80" t="s">
         <v>15</v>
@@ -8798,7 +8847,7 @@
         <v>-0.84392775172138501</v>
       </c>
       <c r="K108" s="134" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L108" s="75">
         <v>43831</v>
@@ -8806,10 +8855,10 @@
     </row>
     <row r="109" spans="1:12" ht="15">
       <c r="A109" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B109" s="67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C109" s="80" t="s">
         <v>15</v>
@@ -8840,7 +8889,7 @@
         <v>-0.32509217089568421</v>
       </c>
       <c r="K109" s="134" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L109" s="75">
         <v>45201</v>
@@ -8848,10 +8897,10 @@
     </row>
     <row r="110" spans="1:12" ht="15">
       <c r="A110" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B110" s="67" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C110" s="80" t="s">
         <v>15</v>
@@ -8882,7 +8931,7 @@
         <v>-5.1567944250871078E-2</v>
       </c>
       <c r="K110" s="134" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L110" s="75">
         <v>45202</v>
@@ -8890,10 +8939,10 @@
     </row>
     <row r="111" spans="1:12" ht="15">
       <c r="A111" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B111" s="67" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>15</v>
@@ -8924,14 +8973,30 @@
         <v>1.5873015873024698E-4</v>
       </c>
       <c r="K111" s="134" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L111" s="75">
         <v>45392</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15">
-      <c r="A112" s="13"/>
+      <c r="A112" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="I112" s="7">
+        <f>(G112-(F112*E112)+H112)</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K112" s="144" t="s">
+        <v>484</v>
+      </c>
+      <c r="L112" s="75">
+        <v>45449</v>
+      </c>
     </row>
     <row r="113" spans="1:12" ht="15">
       <c r="A113" s="13"/>
@@ -16382,12 +16447,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="J113:J1000 J47:J52 J2:J45 J54:J111">
+  <conditionalFormatting sqref="J47:J52 J54:J1000 J2:J45">
     <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J113:J1000 J47:J52 J2:J45 J54:J111">
+  <conditionalFormatting sqref="J47:J52 J54:J1000 J2:J45">
     <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -16416,8 +16481,8 @@
   <dimension ref="A1:AB1001"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -16430,13 +16495,13 @@
   <sheetData>
     <row r="1" spans="1:28" s="130" customFormat="1" ht="18.75" thickBot="1">
       <c r="A1" s="128" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B1" s="129" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C1" s="129" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D1" s="129">
         <v>2024</v>
@@ -16506,14 +16571,14 @@
       </c>
       <c r="B3" s="18">
         <f>SUM(C3:X3)</f>
-        <v>44.82</v>
+        <v>47.480000000000004</v>
       </c>
       <c r="C3" s="102">
         <v>38.99</v>
       </c>
       <c r="D3" s="102">
-        <f>2.73+3.1</f>
-        <v>5.83</v>
+        <f>2.73+3.1+2.66</f>
+        <v>8.49</v>
       </c>
       <c r="E3" s="102"/>
       <c r="F3" s="102"/>
@@ -16595,14 +16660,14 @@
       </c>
       <c r="B6" s="18">
         <f t="shared" si="0"/>
-        <v>384.26</v>
+        <v>413.65999999999997</v>
       </c>
       <c r="C6" s="102">
         <v>317.08</v>
       </c>
       <c r="D6" s="102">
-        <f>9.41+13.37+0.05+16.63+15.01+12.71</f>
-        <v>67.180000000000007</v>
+        <f>9.41+13.37+0.05+16.63+15.01+12.71+16.55+12.85</f>
+        <v>96.58</v>
       </c>
       <c r="E6" s="102"/>
       <c r="F6" s="102"/>
@@ -16676,14 +16741,14 @@
       </c>
       <c r="B8" s="18">
         <f t="shared" si="0"/>
-        <v>22.67</v>
+        <v>25.830000000000002</v>
       </c>
       <c r="C8" s="102">
         <v>20.330000000000002</v>
       </c>
       <c r="D8" s="102">
-        <f>1.08+1.26</f>
-        <v>2.34</v>
+        <f>1.08+1.26+3.16</f>
+        <v>5.5</v>
       </c>
       <c r="E8" s="102"/>
       <c r="F8" s="102"/>
@@ -16717,14 +16782,14 @@
       </c>
       <c r="B9" s="18">
         <f t="shared" si="0"/>
-        <v>117.19000000000001</v>
+        <v>125.74000000000001</v>
       </c>
       <c r="C9" s="19">
         <v>98.330000000000013</v>
       </c>
       <c r="D9" s="19">
-        <f>8.88+9.98</f>
-        <v>18.86</v>
+        <f>8.88+9.98+8.55</f>
+        <v>27.41</v>
       </c>
       <c r="E9" s="102"/>
       <c r="F9" s="102"/>
@@ -16799,14 +16864,14 @@
       </c>
       <c r="B11" s="18">
         <f t="shared" si="0"/>
-        <v>53.6</v>
+        <v>92.77000000000001</v>
       </c>
       <c r="C11" s="102">
         <v>0</v>
       </c>
       <c r="D11" s="102">
-        <f>53.6</f>
-        <v>53.6</v>
+        <f>53.6+39.17</f>
+        <v>92.77000000000001</v>
       </c>
       <c r="E11" s="102"/>
       <c r="F11" s="102"/>
@@ -16915,9 +16980,9 @@
       <c r="AB13" s="102"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="17" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Bruker</v>
       </c>
       <c r="B14" s="18">
         <f t="shared" si="0"/>
@@ -16955,14 +17020,14 @@
       </c>
       <c r="B15" s="18">
         <f t="shared" si="0"/>
-        <v>491.03</v>
+        <v>498.51</v>
       </c>
       <c r="C15" s="102">
         <v>456.65</v>
       </c>
       <c r="D15" s="102">
-        <f>6.37+7.44+7.48+6.59+6.5</f>
-        <v>34.379999999999995</v>
+        <f>6.37+7.44+7.48+6.59+6.5+7.48</f>
+        <v>41.86</v>
       </c>
       <c r="E15" s="102"/>
       <c r="F15" s="102"/>
@@ -16996,14 +17061,14 @@
       </c>
       <c r="B16" s="18">
         <f>SUM(C16:X16)</f>
-        <v>612.2600000000001</v>
+        <v>639.10000000000014</v>
       </c>
       <c r="C16" s="19">
         <v>437.65000000000009</v>
       </c>
       <c r="D16" s="19">
-        <f>29.95+30.26+30.05+30.7+26.36+27.29</f>
-        <v>174.60999999999999</v>
+        <f>29.95+30.26+30.05+30.7+26.36+27.29+26.84</f>
+        <v>201.45</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -17086,9 +17151,9 @@
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="17">
+      <c r="A20" s="17" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Pepsi</v>
       </c>
       <c r="B20" s="18">
         <f t="shared" si="0"/>
@@ -17157,9 +17222,9 @@
       <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="17">
+      <c r="A23" s="17" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Nike</v>
       </c>
       <c r="B23" s="18">
         <f t="shared" si="0"/>
@@ -17496,14 +17561,14 @@
       </c>
       <c r="B37" s="18">
         <f t="shared" si="0"/>
-        <v>56.56</v>
+        <v>81.3</v>
       </c>
       <c r="C37" s="19">
         <v>21.94</v>
       </c>
       <c r="D37" s="19">
-        <f>10+24.62</f>
-        <v>34.620000000000005</v>
+        <f>10+24.62+24.74</f>
+        <v>59.36</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
@@ -17568,13 +17633,14 @@
       </c>
       <c r="B40" s="18">
         <f t="shared" si="0"/>
-        <v>43.3</v>
+        <v>51.44</v>
       </c>
       <c r="C40" s="19">
         <v>43.3</v>
       </c>
       <c r="D40" s="19">
-        <v>0</v>
+        <f>8.14</f>
+        <v>8.14</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
@@ -17591,14 +17657,14 @@
       </c>
       <c r="B41" s="18">
         <f t="shared" si="0"/>
-        <v>172.27999999999997</v>
+        <v>185.62999999999997</v>
       </c>
       <c r="C41" s="19">
         <v>159.02999999999997</v>
       </c>
       <c r="D41" s="19">
-        <f>13.25</f>
-        <v>13.25</v>
+        <f>13.25+13.35</f>
+        <v>26.6</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
@@ -17752,13 +17818,14 @@
       </c>
       <c r="B48" s="18">
         <f t="shared" si="0"/>
-        <v>82.34</v>
+        <v>106.77000000000001</v>
       </c>
       <c r="C48" s="19">
         <v>82.34</v>
       </c>
       <c r="D48" s="19">
-        <v>0</v>
+        <f>24.43</f>
+        <v>24.43</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
@@ -17799,14 +17866,14 @@
       </c>
       <c r="B50" s="18">
         <f t="shared" si="0"/>
-        <v>50.97</v>
+        <v>51.260000000000005</v>
       </c>
       <c r="C50" s="19">
         <v>38.67</v>
       </c>
       <c r="D50" s="19">
-        <f>12.3</f>
-        <v>12.3</v>
+        <f>12.3+0.29</f>
+        <v>12.59</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
@@ -17918,14 +17985,14 @@
       </c>
       <c r="B55" s="18">
         <f t="shared" si="0"/>
-        <v>11.17</v>
+        <v>26.290000000000003</v>
       </c>
       <c r="C55" s="19">
         <v>0.51</v>
       </c>
       <c r="D55" s="19">
-        <f>10.66</f>
-        <v>10.66</v>
+        <f>10.66+15.12</f>
+        <v>25.78</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
@@ -18014,14 +18081,14 @@
       </c>
       <c r="B59" s="18">
         <f t="shared" si="0"/>
-        <v>125.71000000000001</v>
+        <v>134.05000000000001</v>
       </c>
       <c r="C59" s="19">
         <v>106.98</v>
       </c>
       <c r="D59" s="19">
-        <f>8.98+9.75</f>
-        <v>18.73</v>
+        <f>8.98+9.75+8.34</f>
+        <v>27.07</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
@@ -18110,14 +18177,14 @@
       </c>
       <c r="B63" s="18">
         <f t="shared" si="0"/>
-        <v>45.759999999999991</v>
+        <v>49.579999999999991</v>
       </c>
       <c r="C63" s="19">
         <v>41.949999999999989</v>
       </c>
       <c r="D63" s="19">
-        <f>3.81</f>
-        <v>3.81</v>
+        <f>3.81+3.82</f>
+        <v>7.63</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
@@ -18157,14 +18224,14 @@
       </c>
       <c r="B65" s="18">
         <f t="shared" si="0"/>
-        <v>78.77000000000001</v>
+        <v>86.360000000000014</v>
       </c>
       <c r="C65" s="19">
         <v>65.330000000000013</v>
       </c>
       <c r="D65" s="19">
-        <f>5.87+7.57</f>
-        <v>13.440000000000001</v>
+        <f>5.87+7.57+7.59</f>
+        <v>21.03</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
@@ -18181,14 +18248,14 @@
       </c>
       <c r="B66" s="18">
         <f t="shared" si="0"/>
-        <v>288.69000000000005</v>
+        <v>292.77000000000004</v>
       </c>
       <c r="C66" s="19">
         <v>261.59000000000003</v>
       </c>
       <c r="D66" s="19">
-        <f>4.69+4.72+4.66+4.78+4.1+4.15</f>
-        <v>27.1</v>
+        <f>4.69+4.72+4.66+4.78+4.1+4.15+4.08</f>
+        <v>31.18</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
@@ -18588,14 +18655,14 @@
       </c>
       <c r="B83" s="18">
         <f t="shared" si="0"/>
-        <v>58.040000000000013</v>
+        <v>59.110000000000014</v>
       </c>
       <c r="C83" s="19">
         <v>56.980000000000011</v>
       </c>
       <c r="D83" s="19">
-        <f>1.06</f>
-        <v>1.06</v>
+        <f>1.06+1.07</f>
+        <v>2.13</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
@@ -18683,13 +18750,14 @@
       </c>
       <c r="B87" s="18">
         <f t="shared" si="0"/>
-        <v>114.68000000000002</v>
+        <v>132.70000000000002</v>
       </c>
       <c r="C87" s="19">
         <v>114.68000000000002</v>
       </c>
       <c r="D87" s="19">
-        <v>0</v>
+        <f>18.02</f>
+        <v>18.02</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -18870,13 +18938,14 @@
       </c>
       <c r="B95" s="18">
         <f t="shared" si="0"/>
-        <v>22.58</v>
+        <v>29.049999999999997</v>
       </c>
       <c r="C95" s="19">
         <v>22.58</v>
       </c>
       <c r="D95" s="19">
-        <v>0</v>
+        <f>4.52+1.95</f>
+        <v>6.47</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
@@ -18916,13 +18985,14 @@
       </c>
       <c r="B97" s="18">
         <f t="shared" ref="B97:B100" si="1">SUM(C97:X97)</f>
-        <v>25.28</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="C97" s="19">
         <v>25.28</v>
       </c>
       <c r="D97" s="19">
-        <v>0</v>
+        <f>8.6</f>
+        <v>8.6</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
@@ -19122,14 +19192,14 @@
       </c>
       <c r="B107" s="18">
         <f t="shared" si="2"/>
-        <v>1.5200000000000002</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="C107" s="19">
         <v>1.2000000000000002</v>
       </c>
       <c r="D107" s="19">
-        <f>0.16+0.16</f>
-        <v>0.32</v>
+        <f>0.16+0.16+0.14</f>
+        <v>0.46</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" s="19"/>
@@ -19221,16 +19291,20 @@
       </c>
     </row>
     <row r="112" spans="1:11" ht="12.75">
-      <c r="A112" s="17">
+      <c r="A112" s="17" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Grail</v>
       </c>
       <c r="B112" s="18">
         <f t="shared" si="2"/>
+        <v>2.37</v>
+      </c>
+      <c r="C112" s="19">
         <v>0</v>
       </c>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
+      <c r="D112" s="19">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="113" spans="1:21" ht="12.75">
       <c r="A113" s="17">
@@ -19307,10 +19381,10 @@
     <row r="127" spans="1:21" ht="12.75">
       <c r="A127" s="17"/>
       <c r="B127" s="87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C127" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D127" s="87">
         <v>2024</v>
@@ -19370,7 +19444,7 @@
     <row r="128" spans="1:21" ht="12.75">
       <c r="A128" s="86"/>
       <c r="B128" s="89" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C128" s="136">
         <f>SUM(C2:C111)/6</f>
@@ -19378,7 +19452,7 @@
       </c>
       <c r="D128" s="89">
         <f>SUM(D2:D114)</f>
-        <v>2007.8000000000004</v>
+        <v>2271.63</v>
       </c>
       <c r="E128" s="89">
         <f t="shared" ref="E128:U128" si="3">SUM(E2:E108)</f>
@@ -19452,7 +19526,7 @@
     <row r="129" spans="1:21" ht="12.75">
       <c r="A129" s="86"/>
       <c r="B129" s="89" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C129" s="137">
         <v>1500</v>
@@ -19532,7 +19606,7 @@
     <row r="130" spans="1:21" ht="12.75">
       <c r="A130" s="86"/>
       <c r="B130" s="89" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C130" s="89">
         <v>1500</v>
@@ -19607,13 +19681,13 @@
     <row r="131" spans="1:21" ht="12.75">
       <c r="A131" s="86"/>
       <c r="B131" s="89" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C131" s="89">
         <v>1802.83</v>
       </c>
       <c r="D131" s="89">
-        <v>1906</v>
+        <v>2270</v>
       </c>
       <c r="E131" s="89"/>
       <c r="F131" s="89"/>
@@ -19636,7 +19710,7 @@
     <row r="132" spans="1:21" ht="12.75">
       <c r="A132" s="17"/>
       <c r="B132" s="90" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C132" s="88">
         <v>190</v>
@@ -19717,7 +19791,7 @@
     <row r="133" spans="1:21" ht="12.75">
       <c r="A133" s="17"/>
       <c r="B133" s="111" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C133" s="88">
         <v>190</v>
@@ -31094,7 +31168,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31124,83 +31198,83 @@
         <v>0</v>
       </c>
       <c r="B1" s="112" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="112" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="112" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="E1" s="112" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="F1" s="112" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="G1" s="112" t="s">
         <v>296</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="H1" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="I1" s="112" t="s">
         <v>298</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="J1" s="112" t="s">
         <v>299</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="K1" s="112" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="L1" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="112" t="s">
+      <c r="M1" s="113" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="112" t="s">
+      <c r="N1" s="141" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="113" t="s">
+      <c r="O1" s="140" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="141" t="s">
+      <c r="P1" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="O1" s="140" t="s">
+      <c r="Q1" s="112" t="s">
         <v>306</v>
       </c>
-      <c r="P1" s="112" t="s">
+      <c r="R1" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="Q1" s="112" t="s">
+      <c r="S1" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="T1" s="83" t="s">
         <v>309</v>
       </c>
-      <c r="S1" s="83" t="s">
+      <c r="U1" s="83" t="s">
         <v>310</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="V1" s="84" t="s">
         <v>311</v>
       </c>
-      <c r="U1" s="83" t="s">
+      <c r="AB1" s="85" t="s">
         <v>312</v>
-      </c>
-      <c r="V1" s="84" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB1" s="85" t="s">
-        <v>314</v>
       </c>
       <c r="AD1" s="85"/>
       <c r="AE1" s="85" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF1" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG1" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="AF1" s="85" t="s">
+      <c r="AH1" s="85" t="s">
         <v>316</v>
-      </c>
-      <c r="AG1" s="85" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH1" s="85" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -31240,7 +31314,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="23">
         <f>SUM(B2:B150)</f>
@@ -31256,7 +31330,7 @@
         <v>43720</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="V2" s="26">
         <f>N2/('Portfolio Ned'!E2*'Portfolio Ned'!F2)</f>
@@ -31323,7 +31397,7 @@
         <v>0.19</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q3" s="23">
         <f>SUM(C2:C151)</f>
@@ -31401,7 +31475,7 @@
         <v>0.2</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="23" t="e">
         <f>SUM(D2:D152)</f>
@@ -31415,7 +31489,7 @@
         <v>1.1544632431806196E-3</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AC4" s="11">
         <f>1/131</f>
@@ -31467,7 +31541,7 @@
         <v>7.798</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="23">
         <f>SUM(E2:E153)</f>
@@ -31490,7 +31564,7 @@
         <v>1.3350003178572184E-2</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC5" s="11">
         <v>0.86</v>
@@ -31547,7 +31621,7 @@
         <v>0.158</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="23">
         <f>SUM(F2:F154)</f>
@@ -31619,7 +31693,7 @@
         <v>3.4</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="23" t="e">
         <f>SUM(G2:G155)</f>
@@ -31642,7 +31716,7 @@
         <v>#REF!</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AC7" s="11">
         <f>1/1.49</f>
@@ -31701,7 +31775,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="23">
         <f>SUM(H2:H156)</f>
@@ -31716,7 +31790,7 @@
         <v>2.6229396476755156E-3</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC8" s="11">
         <f>1/1.56</f>
@@ -31768,7 +31842,7 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q9" s="23">
         <f>SUM(I2:I157)</f>
@@ -31791,7 +31865,7 @@
         <v>0.31485571333872975</v>
       </c>
       <c r="AB9" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC9" s="11">
         <f>1/9.4</f>
@@ -31842,14 +31916,14 @@
         <v>1.29</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q10" s="23" t="e">
         <f>SUM(J2:J158)</f>
         <v>#REF!</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="S10" s="32">
         <v>43634</v>
@@ -31858,7 +31932,7 @@
         <v>43729</v>
       </c>
       <c r="U10" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="V10" s="26">
         <f>N10/('Portfolio Ned'!E31*'Portfolio Ned'!F31)</f>
@@ -31907,7 +31981,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q11" s="23">
         <f>SUM(K2:K159)</f>
@@ -31964,7 +32038,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q12" s="23">
         <f>SUM(L2:L160)</f>
@@ -32021,7 +32095,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="23" t="e">
         <f>SUM(M2:M161)</f>
@@ -32046,9 +32120,9 @@
       </c>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="5">
+      <c r="A14" s="5" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Bruker</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -32073,7 +32147,7 @@
         <v>2.5</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q14" s="37" t="e">
         <f>SUM(B2:M400)</f>
@@ -32160,23 +32234,23 @@
         <v>0.19</v>
       </c>
       <c r="P15" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q15" s="39" t="e">
         <f>(Q14-801)*0.72+801</f>
         <v>#REF!</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V15" s="26">
         <f>N15/('Portfolio Ned'!E15*'Portfolio Ned'!F15)</f>
@@ -32221,7 +32295,7 @@
         <v>0.99</v>
       </c>
       <c r="P16" s="40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="41" t="e">
         <f>Q14/'Portfolio Ned'!#REF!</f>
@@ -32283,7 +32357,7 @@
         <v>0.87</v>
       </c>
       <c r="P17" s="42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="41" t="e">
         <f>Q14/'Portfolio Ned'!#REF!</f>
@@ -32340,14 +32414,14 @@
         <v>0.2</v>
       </c>
       <c r="P18" s="43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="43" t="e">
         <f t="shared" ref="Q18:Q19" si="2">Q14/12</f>
         <v>#REF!</v>
       </c>
       <c r="R18" s="35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="S18" s="24">
         <v>43634</v>
@@ -32356,7 +32430,7 @@
         <v>43728</v>
       </c>
       <c r="U18" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V18" s="26">
         <f>N18/('Portfolio Ned'!E18*'Portfolio Ned'!F18)</f>
@@ -32408,7 +32482,7 @@
         <v>0.73</v>
       </c>
       <c r="P19" s="43" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q19" s="43" t="e">
         <f t="shared" si="2"/>
@@ -32420,7 +32494,7 @@
       </c>
       <c r="T19" s="45"/>
       <c r="U19" s="25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="V19" s="26">
         <f>N19/('Portfolio Ned'!E19*'Portfolio Ned'!F19)</f>
@@ -32443,9 +32517,9 @@
       </c>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="5">
+      <c r="A20" s="5" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Pepsi</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="6"/>
@@ -32470,7 +32544,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="43" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="46">
         <f>COUNTIF(B2:M500, "&gt;0.1")</f>
@@ -32525,7 +32599,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="43" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q21" s="47">
         <f>SUM(B2:M12)</f>
@@ -32588,14 +32662,14 @@
         <v>1.64</v>
       </c>
       <c r="P22" s="43" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="47" t="e">
         <f>SUM(B15:M78)</f>
         <v>#REF!</v>
       </c>
       <c r="R22" s="32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S22" s="32">
         <v>43629</v>
@@ -32604,7 +32678,7 @@
         <v>43721</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="V22" s="26">
         <f>N22/('Portfolio Ned'!E22*'Portfolio Ned'!F22)</f>
@@ -32622,9 +32696,9 @@
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="5">
+      <c r="A23" s="5" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Nike</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="6"/>
@@ -32802,7 +32876,7 @@
       <c r="P26" s="49"/>
       <c r="Q26" s="51"/>
       <c r="R26" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S26" s="32">
         <v>43620</v>
@@ -32811,7 +32885,7 @@
         <v>43707</v>
       </c>
       <c r="U26" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V26" s="26">
         <f>N26/('Portfolio Ned'!E86*'Portfolio Ned'!F86)</f>
@@ -32916,7 +32990,7 @@
       <c r="P28" s="49"/>
       <c r="Q28" s="51"/>
       <c r="R28" s="32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="S28" s="32">
         <v>43634</v>
@@ -32925,7 +32999,7 @@
         <v>43728</v>
       </c>
       <c r="U28" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V28" s="26">
         <f>N28/('Portfolio Ned'!E28*'Portfolio Ned'!F28)</f>
@@ -33553,7 +33627,7 @@
       </c>
       <c r="Q39" s="51"/>
       <c r="S39" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V39" s="26">
         <f>N39/('Portfolio Ned'!E39*'Portfolio Ned'!F39)</f>
@@ -34060,7 +34134,7 @@
         <v>#REF!</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AE48" s="7"/>
       <c r="AF48" s="26">
@@ -34364,16 +34438,16 @@
       </c>
       <c r="Q53" s="51"/>
       <c r="R53" s="35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="S53" s="35" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="T53" s="35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="U53" s="35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="V53" s="26">
         <f>N53/('Portfolio Ned'!E16*'Portfolio Ned'!F16)</f>
@@ -34636,7 +34710,7 @@
       </c>
       <c r="Q58" s="51"/>
       <c r="R58" s="35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="S58" s="32">
         <v>43621</v>
@@ -34645,7 +34719,7 @@
         <v>43719</v>
       </c>
       <c r="U58" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V58" s="26">
         <f>N58/('Portfolio Ned'!E58*'Portfolio Ned'!F58)</f>
@@ -35109,16 +35183,16 @@
       </c>
       <c r="Q66" s="51"/>
       <c r="R66" s="35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S66" s="35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="T66" s="35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="U66" s="35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="V66" s="26">
         <f>N66/('Portfolio Ned'!E66*'Portfolio Ned'!F66)</f>
@@ -36325,9 +36399,9 @@
       </c>
     </row>
     <row r="112" spans="1:25" ht="15">
-      <c r="A112" s="5">
+      <c r="A112" s="5" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Grail</v>
       </c>
       <c r="N112" s="54"/>
       <c r="O112" s="17"/>
@@ -41763,12 +41837,13 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="3" width="109.5703125" customWidth="1"/>
+    <col min="2" max="2" width="132.42578125" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
     <col min="4" max="4" width="45.140625" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" customWidth="1"/>
@@ -41777,22 +41852,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="71" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B1" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="71" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="E1" s="73" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="F1" s="71" t="s">
         <v>347</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>349</v>
       </c>
       <c r="G1" s="71"/>
     </row>
@@ -41801,7 +41876,7 @@
         <v>2018</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69">
@@ -41820,7 +41895,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="69">
@@ -41840,7 +41915,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="69">
@@ -41860,7 +41935,7 @@
         <v>2021</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="69">
@@ -41880,7 +41955,7 @@
         <v>2022</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>354</v>
+        <v>488</v>
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="69">
@@ -41900,10 +41975,10 @@
         <v>2023</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D7" s="69">
         <v>156.77000000000001</v>
@@ -41924,11 +41999,11 @@
         <v>485</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D8" s="69">
-        <f>-1187.53+1213.67+29.91+312.32+29.85</f>
-        <v>398.22000000000014</v>
+        <f>-1187.53+1213.67+29.91+312.32+29.85-95.32+1.07</f>
+        <v>303.97000000000014</v>
       </c>
       <c r="E8" s="76">
         <v>0</v>
@@ -47043,7 +47118,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -47061,37 +47136,37 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
       <c r="A1" s="138" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="138" t="s">
-        <v>378</v>
-      </c>
-      <c r="C1" s="138" t="s">
-        <v>373</v>
-      </c>
       <c r="D1" s="138" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="138" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="138" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1" s="138" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="138" t="s">
+      <c r="H1" s="138" t="s">
         <v>372</v>
-      </c>
-      <c r="F1" s="138" t="s">
-        <v>484</v>
-      </c>
-      <c r="G1" s="138" t="s">
-        <v>374</v>
-      </c>
-      <c r="H1" s="138" t="s">
-        <v>375</v>
       </c>
       <c r="I1" s="138"/>
       <c r="J1" s="138"/>
       <c r="K1" s="138"/>
       <c r="L1" s="138" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M1" s="138" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15">
@@ -47104,7 +47179,7 @@
       </c>
       <c r="C2" s="115">
         <f>L2+M2</f>
-        <v>92.15</v>
+        <v>93.15</v>
       </c>
       <c r="D2" s="81">
         <f>12*1.2</f>
@@ -47123,11 +47198,11 @@
       </c>
       <c r="H2">
         <f>C2-G2</f>
-        <v>62.95</v>
+        <v>63.95</v>
       </c>
       <c r="L2" s="81">
-        <f>13*3.05</f>
-        <v>39.65</v>
+        <f>13*3.05+1</f>
+        <v>40.65</v>
       </c>
       <c r="M2" s="81">
         <f>13*3.5+7</f>
@@ -47527,15 +47602,15 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="98" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="91" t="s">
@@ -47564,16 +47639,16 @@
         <v>9.8418277680140553E-2</v>
       </c>
       <c r="K2" s="95" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L2" s="96">
         <v>43135</v>
       </c>
       <c r="M2" s="97" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O2" s="98" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P2" s="104"/>
     </row>
@@ -47608,19 +47683,19 @@
         <v>-6.7171644990710044E-3</v>
       </c>
       <c r="K3" s="95" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L3" s="96">
         <v>43136</v>
       </c>
       <c r="O3" s="98" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P3" s="119"/>
     </row>
     <row r="4" spans="1:29" s="98" customFormat="1" ht="15">
       <c r="A4" s="118" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="91" t="s">
@@ -47649,19 +47724,19 @@
         <v>3.7665152305056973</v>
       </c>
       <c r="K4" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L4" s="96">
         <v>43137</v>
       </c>
       <c r="O4" s="108" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P4" s="105"/>
     </row>
     <row r="5" spans="1:29" s="98" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="118" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="91" t="s">
@@ -47691,19 +47766,19 @@
         <v>4.8780487804878092E-2</v>
       </c>
       <c r="K5" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L5" s="96">
         <v>43138</v>
       </c>
       <c r="O5" s="103" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P5" s="107"/>
     </row>
     <row r="6" spans="1:29" s="98" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="118" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="91" t="s">
@@ -47732,19 +47807,19 @@
         <v>0.68816388467374812</v>
       </c>
       <c r="K6" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L6" s="96">
         <v>43139</v>
       </c>
       <c r="O6" s="103" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P6" s="106"/>
     </row>
     <row r="7" spans="1:29" s="98" customFormat="1" ht="15">
       <c r="A7" s="118" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="91" t="s">
@@ -47773,19 +47848,19 @@
         <v>0.43540669856459346</v>
       </c>
       <c r="K7" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L7" s="96">
         <v>43140</v>
       </c>
       <c r="O7" s="108" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P7" s="109"/>
     </row>
     <row r="8" spans="1:29" s="98" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="118" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="91" t="s">
@@ -47814,7 +47889,7 @@
         <v>0.96600450542699146</v>
       </c>
       <c r="K8" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L8" s="96">
         <v>43141</v>
@@ -47822,7 +47897,7 @@
     </row>
     <row r="9" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="120" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B9" s="92"/>
       <c r="C9" s="91" t="s">
@@ -47851,7 +47926,7 @@
         <v>1.9341926729986434</v>
       </c>
       <c r="K9" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L9" s="96">
         <v>43142</v>
@@ -47876,7 +47951,7 @@
     </row>
     <row r="10" spans="1:29" s="98" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="92"/>
       <c r="C10" s="91" t="s">
@@ -47905,7 +47980,7 @@
         <v>0.25171729506945506</v>
       </c>
       <c r="K10" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L10" s="96">
         <v>43143</v>
@@ -47913,7 +47988,7 @@
     </row>
     <row r="11" spans="1:29" s="98" customFormat="1" ht="15">
       <c r="A11" s="120" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B11" s="92"/>
       <c r="C11" s="91" t="s">
@@ -47942,7 +48017,7 @@
         <v>0.19620802057477782</v>
       </c>
       <c r="K11" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L11" s="96">
         <v>43144</v>
@@ -47950,7 +48025,7 @@
     </row>
     <row r="12" spans="1:29" s="101" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="120" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="91" t="s">
@@ -47979,7 +48054,7 @@
         <v>8.1834464858372424E-3</v>
       </c>
       <c r="K12" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L12" s="96">
         <v>43145</v>
@@ -48004,7 +48079,7 @@
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1">
       <c r="A13" s="120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B13" s="67"/>
       <c r="C13" s="80" t="s">
@@ -48033,7 +48108,7 @@
         <v>0.34099616858237547</v>
       </c>
       <c r="K13" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L13" s="96">
         <v>43146</v>
@@ -48058,7 +48133,7 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1">
       <c r="A14" s="120" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B14" s="67"/>
       <c r="C14" s="80" t="s">
@@ -48087,7 +48162,7 @@
         <v>4.3685701505889574E-2</v>
       </c>
       <c r="K14" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L14" s="96">
         <v>43147</v>
@@ -48112,7 +48187,7 @@
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1">
       <c r="A15" s="120" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="91" t="s">
@@ -48141,7 +48216,7 @@
         <v>1.08153676886021</v>
       </c>
       <c r="K15" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L15" s="96">
         <v>43148</v>
@@ -48166,7 +48241,7 @@
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1">
       <c r="A16" s="120" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B16" s="67"/>
       <c r="C16" s="80" t="s">
@@ -48195,7 +48270,7 @@
         <v>0.24888492417484387</v>
       </c>
       <c r="K16" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L16" s="96">
         <v>43149</v>
@@ -48220,7 +48295,7 @@
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1">
       <c r="A17" s="120" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="80" t="s">
@@ -48249,7 +48324,7 @@
         <v>-4.7176383940124023E-3</v>
       </c>
       <c r="K17" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L17" s="96">
         <v>43150</v>
@@ -48274,7 +48349,7 @@
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1">
       <c r="A18" s="120" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B18" s="92"/>
       <c r="C18" s="91" t="s">
@@ -48303,7 +48378,7 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="K18" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L18" s="96">
         <v>43151</v>
@@ -48324,7 +48399,7 @@
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1">
       <c r="A19" s="120" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="81" t="s">
         <v>15</v>
@@ -48352,7 +48427,7 @@
         <v>0.11872146118721472</v>
       </c>
       <c r="K19" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L19" s="96">
         <v>43152</v>
@@ -48360,7 +48435,7 @@
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1">
       <c r="A20" s="120" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C20" s="81" t="s">
         <v>15</v>
@@ -48388,7 +48463,7 @@
         <v>0.14213197969543145</v>
       </c>
       <c r="K20" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L20" s="96">
         <v>43153</v>
@@ -48396,7 +48471,7 @@
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B21" s="92"/>
       <c r="C21" s="91" t="s">
@@ -48416,7 +48491,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L21" s="96">
         <v>43154</v>
@@ -48424,7 +48499,7 @@
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C22" s="91" t="s">
         <v>15</v>
@@ -48443,7 +48518,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L22" s="96">
         <v>43155</v>
@@ -48451,7 +48526,7 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1">
       <c r="A23" s="121" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B23" s="92"/>
       <c r="C23" s="91" t="s">
@@ -48474,7 +48549,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L23" s="96">
         <v>43156</v>
@@ -48482,7 +48557,7 @@
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1">
       <c r="A24" s="121" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="91" t="s">
@@ -48511,7 +48586,7 @@
         <v>0.93325661680092065</v>
       </c>
       <c r="K24" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L24" s="96">
         <v>43157</v>
@@ -48519,7 +48594,7 @@
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1">
       <c r="A25" s="121" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B25" s="92"/>
       <c r="C25" s="91" t="s">
@@ -48548,7 +48623,7 @@
         <v>1.111014528747051</v>
       </c>
       <c r="K25" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L25" s="96">
         <v>43158</v>
@@ -48556,7 +48631,7 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1">
       <c r="A26" s="121" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B26" s="92"/>
       <c r="C26" s="91" t="s">
@@ -48585,7 +48660,7 @@
         <v>0.96270348238203174</v>
       </c>
       <c r="K26" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L26" s="96">
         <v>43159</v>
@@ -48593,7 +48668,7 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1">
       <c r="A27" s="121" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B27" s="92"/>
       <c r="C27" s="91" t="s">
@@ -48616,7 +48691,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L27" s="96">
         <v>43160</v>
@@ -48624,7 +48699,7 @@
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1">
       <c r="A28" s="121" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B28" s="92"/>
       <c r="C28" s="91" t="s">
@@ -48647,7 +48722,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L28" s="96">
         <v>43161</v>
@@ -48655,7 +48730,7 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="91" t="s">
@@ -48684,7 +48759,7 @@
         <v>0.44993578855793515</v>
       </c>
       <c r="K29" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L29" s="96">
         <v>43162</v>
@@ -48692,7 +48767,7 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="91" t="s">
@@ -48714,7 +48789,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L30" s="96">
         <v>43163</v>
@@ -48722,7 +48797,7 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="91" t="s">
@@ -48745,7 +48820,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L31" s="96">
         <v>43164</v>
@@ -48753,7 +48828,7 @@
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B32" s="67"/>
       <c r="C32" s="91" t="s">
@@ -48776,7 +48851,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L32" s="96">
         <v>43165</v>
@@ -48784,7 +48859,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B33" s="67"/>
       <c r="C33" s="91" t="s">
@@ -48813,7 +48888,7 @@
         <v>0.19159265184531349</v>
       </c>
       <c r="K33" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L33" s="96">
         <v>43166</v>
@@ -48821,7 +48896,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B34" s="67"/>
       <c r="C34" s="91" t="s">
@@ -48850,7 +48925,7 @@
         <v>7.6647013586260027E-2</v>
       </c>
       <c r="K34" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L34" s="96">
         <v>43167</v>
@@ -48858,7 +48933,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B35" s="67"/>
       <c r="C35" s="91" t="s">
@@ -48881,7 +48956,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L35" s="96">
         <v>43168</v>
@@ -48889,7 +48964,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B36" s="67"/>
       <c r="C36" s="91" t="s">
@@ -48912,7 +48987,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L36" s="96">
         <v>43169</v>
@@ -48920,7 +48995,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B37" s="67"/>
       <c r="C37" s="80" t="s">
@@ -48949,7 +49024,7 @@
         <v>-3.6051667630614848E-2</v>
       </c>
       <c r="K37" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L37" s="96">
         <v>43170</v>
@@ -48957,7 +49032,7 @@
     </row>
     <row r="38" spans="1:12" ht="15">
       <c r="A38" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B38" s="67"/>
       <c r="C38" s="80" t="s">
@@ -48986,7 +49061,7 @@
         <v>1.0771513353115725</v>
       </c>
       <c r="K38" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L38" s="96">
         <v>43171</v>
@@ -48994,7 +49069,7 @@
     </row>
     <row r="39" spans="1:12" ht="15">
       <c r="A39" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B39" s="67"/>
       <c r="C39" s="91" t="s">
@@ -49017,7 +49092,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L39" s="96">
         <v>43172</v>
@@ -49025,7 +49100,7 @@
     </row>
     <row r="40" spans="1:12" ht="15">
       <c r="A40" s="13" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B40" s="67"/>
       <c r="C40" s="80" t="s">
@@ -49054,7 +49129,7 @@
         <v>0.54731457800511518</v>
       </c>
       <c r="K40" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L40" s="96">
         <v>43173</v>
@@ -49062,7 +49137,7 @@
     </row>
     <row r="41" spans="1:12" ht="15">
       <c r="A41" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B41" s="67"/>
       <c r="C41" s="80" t="s">
@@ -49091,7 +49166,7 @@
         <v>2.1503579952267304</v>
       </c>
       <c r="K41" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L41" s="96">
         <v>43174</v>
@@ -49099,7 +49174,7 @@
     </row>
     <row r="42" spans="1:12" ht="15">
       <c r="A42" s="13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B42" s="67"/>
       <c r="C42" s="80" t="s">
@@ -49128,7 +49203,7 @@
         <v>5.5913113435237305E-2</v>
       </c>
       <c r="K42" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L42" s="96">
         <v>43175</v>
@@ -49136,7 +49211,7 @@
     </row>
     <row r="43" spans="1:12" ht="15">
       <c r="A43" s="13" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B43" s="67"/>
       <c r="C43" s="91" t="s">
@@ -49156,7 +49231,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L43" s="96">
         <v>43176</v>
@@ -49164,7 +49239,7 @@
     </row>
     <row r="44" spans="1:12" ht="15">
       <c r="A44" s="13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B44" s="67"/>
       <c r="C44" s="91" t="s">
@@ -49187,7 +49262,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L44" s="96">
         <v>43177</v>
@@ -49195,7 +49270,7 @@
     </row>
     <row r="45" spans="1:12" ht="15">
       <c r="A45" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B45" s="67"/>
       <c r="C45" s="80" t="s">
@@ -49224,7 +49299,7 @@
         <v>0.37772675086107932</v>
       </c>
       <c r="K45" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L45" s="96">
         <v>43178</v>
@@ -49232,7 +49307,7 @@
     </row>
     <row r="46" spans="1:12" ht="15">
       <c r="A46" s="13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B46" s="67"/>
       <c r="C46" s="80" t="s">
@@ -49254,7 +49329,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K46" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L46" s="96">
         <v>43179</v>
@@ -49262,7 +49337,7 @@
     </row>
     <row r="47" spans="1:12" ht="15">
       <c r="A47" s="13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B47" s="67"/>
       <c r="C47" s="80" t="s">
@@ -49291,7 +49366,7 @@
         <v>0.2023777357470955</v>
       </c>
       <c r="K47" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L47" s="96">
         <v>43180</v>
@@ -49299,7 +49374,7 @@
     </row>
     <row r="48" spans="1:12" ht="15">
       <c r="A48" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B48" s="67"/>
       <c r="C48" s="80" t="s">
@@ -49322,7 +49397,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K48" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L48" s="96">
         <v>43181</v>
@@ -49330,7 +49405,7 @@
     </row>
     <row r="49" spans="1:12" ht="15">
       <c r="A49" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C49" s="80" t="s">
         <v>15</v>
@@ -49349,7 +49424,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K49" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L49" s="96">
         <v>43182</v>
@@ -49357,7 +49432,7 @@
     </row>
     <row r="50" spans="1:12" ht="15">
       <c r="A50" s="13" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B50" s="67"/>
       <c r="C50" s="80" t="s">
@@ -49380,7 +49455,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K50" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L50" s="96">
         <v>43183</v>
@@ -49388,7 +49463,7 @@
     </row>
     <row r="51" spans="1:12" ht="15">
       <c r="A51" s="13" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B51" s="67"/>
       <c r="C51" s="80" t="s">
@@ -49417,13 +49492,13 @@
         <v>0.81677794431575612</v>
       </c>
       <c r="K51" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L51" s="75"/>
     </row>
     <row r="52" spans="1:12" ht="15">
       <c r="A52" s="13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B52" s="67"/>
       <c r="C52" s="80" t="s">
@@ -49445,12 +49520,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K52" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15">
       <c r="A53" s="13" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B53" s="67"/>
       <c r="C53" s="80" t="s">
@@ -49689,7 +49764,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L65" s="75"/>
     </row>
@@ -49724,13 +49799,13 @@
         <v>-0.25339704345229208</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L66" s="75"/>
     </row>
     <row r="67" spans="1:12" ht="15">
       <c r="A67" s="13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B67" s="67"/>
       <c r="C67" s="91" t="s">
@@ -49750,13 +49825,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L67" s="75"/>
     </row>
     <row r="68" spans="1:12" ht="15">
       <c r="A68" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B68" s="67"/>
       <c r="C68" s="91" t="s">
@@ -49779,13 +49854,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L68" s="75"/>
     </row>
     <row r="69" spans="1:12" ht="15">
       <c r="A69" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B69" s="67"/>
       <c r="C69" s="91" t="s">
@@ -49808,13 +49883,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L69" s="75"/>
     </row>
     <row r="70" spans="1:12" ht="15">
       <c r="A70" s="13" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B70" s="67"/>
       <c r="C70" s="91" t="s">
@@ -50061,7 +50136,7 @@
       <c r="A80" s="13"/>
       <c r="B80" s="67"/>
       <c r="C80" s="80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -50197,7 +50272,7 @@
       <c r="A86" s="13"/>
       <c r="B86" s="67"/>
       <c r="C86" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
@@ -50222,7 +50297,7 @@
       <c r="A87" s="13"/>
       <c r="B87" s="67"/>
       <c r="C87" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
@@ -50320,7 +50395,7 @@
     </row>
     <row r="91" spans="1:12" ht="15">
       <c r="A91" s="13" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B91" s="67"/>
       <c r="C91" s="80" t="s">
@@ -50343,13 +50418,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K91" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L91" s="75"/>
     </row>
     <row r="92" spans="1:12" ht="15">
       <c r="A92" s="13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B92" s="67"/>
       <c r="C92" s="80" t="s">
@@ -50372,17 +50447,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K92" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L92" s="75"/>
     </row>
     <row r="93" spans="1:12" ht="15">
       <c r="A93" s="13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B93" s="67"/>
       <c r="C93" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -50401,17 +50476,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K93" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L93" s="75"/>
     </row>
     <row r="94" spans="1:12" ht="15">
       <c r="A94" s="13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B94" s="67"/>
       <c r="C94" s="80" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -50430,17 +50505,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K94" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L94" s="75"/>
     </row>
     <row r="95" spans="1:12" ht="15">
       <c r="A95" s="13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B95" s="67"/>
       <c r="C95" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -50459,17 +50534,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K95" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L95" s="75"/>
     </row>
     <row r="96" spans="1:12" ht="15">
       <c r="A96" s="13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B96" s="67"/>
       <c r="C96" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -50488,17 +50563,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K96" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L96" s="75"/>
     </row>
     <row r="97" spans="1:12" ht="15">
       <c r="A97" s="13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B97" s="67"/>
       <c r="C97" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -50517,17 +50592,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K97" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L97" s="75"/>
     </row>
     <row r="98" spans="1:12" ht="15">
       <c r="A98" s="13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B98" s="67"/>
       <c r="C98" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -50546,7 +50621,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K98" s="95" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L98" s="75"/>
     </row>
@@ -50554,7 +50629,7 @@
       <c r="A99" s="13"/>
       <c r="B99" s="67"/>
       <c r="C99" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
@@ -50646,7 +50721,7 @@
     </row>
     <row r="105" spans="1:12" ht="15">
       <c r="A105" s="13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B105" s="67"/>
       <c r="C105" s="80" t="s">

--- a/data/2023_08_NedPortfolio.xlsx
+++ b/data/2023_08_NedPortfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3082" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E285DB1-42FD-4D33-99A3-F2066301265F}"/>
+  <xr:revisionPtr revIDLastSave="3168" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B40EDEEF-814A-4F3F-B38E-7C8F92E7E77D}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Ned" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="528">
   <si>
     <t>Wertpapier</t>
   </si>
@@ -1520,9 +1520,6 @@
     <t>Brutto_Dividend_year</t>
   </si>
   <si>
-    <t>Verkauf Novavax (-4.700), Verkauf NVIDIA bei 5T valuation (+40.000)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gesamt 2025: </t>
   </si>
   <si>
@@ -1568,9 +1565,6 @@
     <t>AMZN</t>
   </si>
   <si>
-    <t>GOOG</t>
-  </si>
-  <si>
     <t>sum</t>
   </si>
   <si>
@@ -1604,25 +1598,34 @@
     <t>buy keep until 2027</t>
   </si>
   <si>
-    <t>29.08.2024, KKR</t>
-  </si>
-  <si>
     <t>sum_netto</t>
   </si>
   <si>
     <t>Dividendkalender</t>
   </si>
   <si>
-    <t xml:space="preserve">Kauf Samsung (15k), Kauf Rexford Realty (15k), Kauf Alphabet A (15k), Kauf Honeywell (10k), Kauf Bruker (10k), Verkauf VF Corp (-800), Kauf Alibaba (10k), </t>
-  </si>
-  <si>
-    <t>Trade: GOOG</t>
-  </si>
-  <si>
     <t>Div-CAGR</t>
   </si>
   <si>
-    <t>Gesamt 2024: Verkauf Adler Real Estate (-1187.53), Verkauf Meta (Gewinn +1213.67), 29.91 (Solventum 3M Spinoff), Trade Microsoft (312.32), Zwangsverkauf Brookfield Reinsurance (29.85), Verkauf Simon Propertry Trust (-95.32+11.07+152.40 Dividends), Kauf Nike at 66 EUR, Trade Amazon Juli (+894.5 EUR), Trade Amazon August (+168.90 EUR), Daytrade Alphabet C 15.08.2024 (+231.04 EUR), Swingtrade Meta 16.08-22.08 (+310.11EUR), Swingtrade Meta  26.08-30.08 (+269.62EUR), Kauf Samsung for 15k on 03.09.2024</t>
+    <t>long swing trade 2024-2026</t>
+  </si>
+  <si>
+    <t>Trade: GOOGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verkauf Novavax (-4.700), Verkauf NVIDIA bei 5T valuation (+40.000), Kauf Rexford Realty (15k), Kauf Honeywell (10k), Kauf Bruker (10k), Verkauf VF Corp (-800), Kauf Alibaba (10k), </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kauf Alphabet A (27k)</t>
+  </si>
+  <si>
+    <t>18.09.2024, Realty Income 26.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt 2024: Verkauf Adler Real Estate (-1187.53), Verkauf Meta (Gewinn +1213.67), 29.91 (Solventum 3M Spinoff), Trade Microsoft (312.32), Zwangsverkauf Brookfield Reinsurance (29.85), Verkauf Simon Propertry Trust (-95.32+11.07+152.40 Dividends), Kauf Nike at 66 EUR, Trade Amazon Juli (+894.5 EUR), Trade Amazon August (+168.90 EUR), Daytrade Alphabet C 15.08.2024 (+231.04 EUR), Swingtrade Meta 16.08-22.08 (+310.11EUR), Swingtrade Meta  26.08-30.08 (+269.62EUR), Kauf Samsung for 15k on 03.09.2024long-term, Zinsen 2024: </t>
+  </si>
+  <si>
+    <t>GRAL</t>
   </si>
 </sst>
 </file>
@@ -2662,14 +2665,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2915,7 +2911,7 @@
                   <c:v>1802.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2430.9</c:v>
+                  <c:v>2702.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3080,7 +3076,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" u="sng">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3088,7 +3084,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" b="0">
+              <a:rPr lang="de-DE" b="0" u="sng">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3097,7 +3093,7 @@
               <a:t>Histogram of netto Dividende</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="de-DE" b="0" baseline="0">
+              <a:rPr lang="de-DE" b="0" u="sng" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3105,7 +3101,7 @@
               </a:rPr>
               <a:t> received</a:t>
             </a:r>
-            <a:endParaRPr lang="de-DE" b="0">
+            <a:endParaRPr lang="de-DE" b="0" u="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3118,7 +3114,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1123738011186356"/>
+          <c:y val="2.0708879625152974E-2"/>
+          <c:w val="0.86350903045174687"/>
+          <c:h val="0.94278516619565778"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -3231,7 +3237,7 @@
                   <c:v>Honeywell</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Trade: GOOG</c:v>
+                  <c:v>Trade: GOOGL</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Procter&amp;Gamble</c:v>
@@ -3255,7 +3261,7 @@
                   <c:v>Nike</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Charter Hall Grp</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>Porsche Holding</c:v>
@@ -3309,7 +3315,7 @@
                   <c:v>BP PLC</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>Blackrock</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>Royal Dutch Shell</c:v>
@@ -3435,7 +3441,7 @@
                   <c:v>V.F Corp</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>Charter Hall Grp</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>ICBC</c:v>
@@ -3519,7 +3525,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="0">
-                  <c:v>803.56</c:v>
+                  <c:v>859.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>47.480000000000004</c:v>
@@ -3528,7 +3534,7 @@
                   <c:v>11.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>745.99</c:v>
+                  <c:v>787.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>413.65999999999997</c:v>
@@ -3570,22 +3576,22 @@
                   <c:v>30.09</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>504.99</c:v>
+                  <c:v>511.37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>665.62000000000012</c:v>
+                  <c:v>691.91000000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>80.06</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>172.51</c:v>
+                  <c:v>179.26</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>402.29999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>219.32</c:v>
@@ -3609,10 +3615,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>262.45999999999998</c:v>
+                  <c:v>276.27</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>223.37</c:v>
+                  <c:v>235.79</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>49.18</c:v>
@@ -3621,7 +3627,7 @@
                   <c:v>26.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>110.29</c:v>
+                  <c:v>117.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>81.3</c:v>
@@ -3648,7 +3654,7 @@
                   <c:v>64.27</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>167.73000000000002</c:v>
+                  <c:v>185.73000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>61.21</c:v>
@@ -3672,7 +3678,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>55.86</c:v>
+                  <c:v>59.320000000000007</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>26.290000000000003</c:v>
@@ -3684,7 +3690,7 @@
                   <c:v>43.879999999999995</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>266.15999999999997</c:v>
+                  <c:v>282.86999999999995</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>134.05000000000001</c:v>
@@ -3708,16 +3714,16 @@
                   <c:v>86.360000000000014</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>296.84000000000003</c:v>
+                  <c:v>300.85000000000002</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>22.47</c:v>
+                  <c:v>24.21</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>38.81</c:v>
+                  <c:v>41.32</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>47.56</c:v>
@@ -3762,19 +3768,19 @@
                   <c:v>59.110000000000014</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>430.46</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>169.45000000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>212.34</c:v>
+                  <c:v>228.45</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>132.70000000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>20.639999999999997</c:v>
+                  <c:v>23.189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>7.629999999999999</c:v>
@@ -4538,9 +4544,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4578,7 +4584,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4684,7 +4690,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4826,7 +4832,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4843,7 +4849,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4886,7 +4892,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -4935,18 +4941,18 @@
       </c>
       <c r="H2" s="88">
         <f>'Dividends per year'!B2</f>
-        <v>803.56</v>
+        <v>859.02</v>
       </c>
       <c r="I2" s="182">
         <v>0.05</v>
       </c>
       <c r="J2" s="89">
         <f>(G2-(F2*E2)+H2)</f>
-        <v>1860.0747999999999</v>
+        <v>1915.5347999999999</v>
       </c>
       <c r="K2" s="90">
         <f t="shared" ref="K2:K34" si="1">((D2*F2)+H2)/(E2*F2)-100%</f>
-        <v>0.22729616471964764</v>
+        <v>0.2340732283599658</v>
       </c>
       <c r="L2" s="91" t="s">
         <v>420</v>
@@ -4955,7 +4961,7 @@
         <v>43135</v>
       </c>
       <c r="N2" s="93" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="P2" s="94" t="s">
         <v>291</v>
@@ -5071,7 +5077,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="88">
-        <v>1050</v>
+        <v>906</v>
       </c>
       <c r="E5" s="89">
         <v>969.6</v>
@@ -5082,22 +5088,22 @@
       </c>
       <c r="G5" s="88">
         <f t="shared" si="0"/>
-        <v>26250</v>
+        <v>22650</v>
       </c>
       <c r="H5" s="88">
         <f>'Dividends per year'!B5</f>
-        <v>745.99</v>
+        <v>787.03</v>
       </c>
       <c r="I5" s="182">
         <v>0.05</v>
       </c>
       <c r="J5" s="89">
         <f t="shared" si="2"/>
-        <v>2755.99</v>
+        <v>-802.97</v>
       </c>
       <c r="K5" s="90">
         <f t="shared" si="1"/>
-        <v>0.11369595709570968</v>
+        <v>-3.3125825082508276E-2</v>
       </c>
       <c r="L5" s="91" t="s">
         <v>422</v>
@@ -5210,7 +5216,7 @@
     </row>
     <row r="8" spans="1:37" s="94" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="112" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B8" s="163" t="s">
         <v>27</v>
@@ -5296,7 +5302,7 @@
         <v>0.14893763246810843</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M9" s="71">
         <v>45527</v>
@@ -5331,13 +5337,13 @@
         <v>30</v>
       </c>
       <c r="B10" s="165" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C10" s="87" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="88">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E10" s="89">
         <v>173.537667</v>
@@ -5347,7 +5353,7 @@
       </c>
       <c r="G10" s="88">
         <f t="shared" si="0"/>
-        <v>7650</v>
+        <v>7860</v>
       </c>
       <c r="H10" s="88">
         <f>'Dividends per year'!B10</f>
@@ -5358,14 +5364,14 @@
       </c>
       <c r="J10" s="89">
         <f t="shared" si="2"/>
-        <v>3032.0799900000002</v>
+        <v>3242.0799900000002</v>
       </c>
       <c r="K10" s="90">
         <f t="shared" si="1"/>
-        <v>0.58240573788513572</v>
+        <v>0.62274280199929155</v>
       </c>
       <c r="L10" s="91" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M10" s="95">
         <v>43466</v>
@@ -5501,7 +5507,7 @@
         <v>0.33231134017788522</v>
       </c>
       <c r="L13" s="91" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M13" s="95">
         <v>45214</v>
@@ -5519,17 +5525,17 @@
         <v>15</v>
       </c>
       <c r="D14" s="117">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E14" s="118">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F14" s="117">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="88">
         <f t="shared" ref="G14:G16" si="3">F14*D14</f>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="H14" s="88">
         <f>'Dividends per year'!B14</f>
@@ -5542,9 +5548,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="90" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L14" s="91" t="s">
         <v>427</v>
@@ -5597,7 +5603,7 @@
     </row>
     <row r="16" spans="1:37" ht="15.75" customHeight="1">
       <c r="A16" s="112" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B16" s="163" t="s">
         <v>19</v>
@@ -5634,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="91" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M16" s="95">
         <v>45544</v>
@@ -5651,7 +5657,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="6">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E17" s="7">
         <v>72.849999999999994</v>
@@ -5661,7 +5667,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="H17" s="88">
         <f>'Dividends per year'!B17</f>
@@ -5670,11 +5676,11 @@
       <c r="I17" s="88"/>
       <c r="J17" s="89">
         <f t="shared" si="2"/>
-        <v>926.08</v>
+        <v>986.08</v>
       </c>
       <c r="K17" s="90">
         <f t="shared" si="1"/>
-        <v>1.2712148249828412</v>
+        <v>1.3535758407687029</v>
       </c>
       <c r="L17" s="91" t="s">
         <v>428</v>
@@ -5751,16 +5757,16 @@
       </c>
       <c r="H19" s="88">
         <f>'Dividends per year'!B19</f>
-        <v>504.99</v>
+        <v>511.37</v>
       </c>
       <c r="I19" s="88"/>
       <c r="J19" s="89">
         <f t="shared" si="2"/>
-        <v>242.68999999999983</v>
+        <v>249.06999999999982</v>
       </c>
       <c r="K19" s="90">
         <f t="shared" si="1"/>
-        <v>0.13391270760911533</v>
+        <v>0.13743309606577259</v>
       </c>
       <c r="L19" s="91" t="s">
         <v>419</v>
@@ -5780,7 +5786,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="6">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E20" s="7">
         <v>44</v>
@@ -5790,20 +5796,20 @@
       </c>
       <c r="G20" s="6">
         <f>F20*D20</f>
-        <v>7200</v>
+        <v>8400</v>
       </c>
       <c r="H20" s="88">
         <f>'Dividends per year'!B20</f>
-        <v>665.62000000000012</v>
+        <v>691.91000000000008</v>
       </c>
       <c r="I20" s="88"/>
       <c r="J20" s="89">
         <f t="shared" si="2"/>
-        <v>1265.6200000000001</v>
+        <v>2491.91</v>
       </c>
       <c r="K20" s="90">
         <f t="shared" si="1"/>
-        <v>0.19176060606060608</v>
+        <v>0.37756212121212118</v>
       </c>
       <c r="L20" s="91" t="s">
         <v>380</v>
@@ -5880,16 +5886,16 @@
       </c>
       <c r="H22" s="88">
         <f>'Dividends per year'!B22</f>
-        <v>172.51</v>
+        <v>179.26</v>
       </c>
       <c r="I22" s="88"/>
       <c r="J22" s="89">
         <f t="shared" si="2"/>
-        <v>351.01</v>
+        <v>357.76</v>
       </c>
       <c r="K22" s="90">
         <f t="shared" si="1"/>
-        <v>0.48650034650034657</v>
+        <v>0.4958558558558559</v>
       </c>
       <c r="L22" s="91" t="s">
         <v>432</v>
@@ -5941,49 +5947,6 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="B24" s="168" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2.02</v>
-      </c>
-      <c r="E24" s="7">
-        <v>2.7789999999999999</v>
-      </c>
-      <c r="F24" s="6">
-        <v>500</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>1010</v>
-      </c>
-      <c r="H24" s="88">
-        <f>'Dividends per year'!B24</f>
-        <v>402.29999999999995</v>
-      </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="89">
-        <f t="shared" si="2"/>
-        <v>22.799999999999955</v>
-      </c>
-      <c r="K24" s="90">
-        <f t="shared" si="1"/>
-        <v>1.6408780136739853E-2</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="M24" s="71">
-        <v>43251</v>
-      </c>
-    </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="s">
         <v>60</v>
@@ -6038,7 +6001,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="88">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="E26" s="89">
         <v>134.42400000000001</v>
@@ -6048,7 +6011,7 @@
       </c>
       <c r="G26" s="88">
         <f>F26*D26</f>
-        <v>2660</v>
+        <v>2870</v>
       </c>
       <c r="H26" s="88">
         <f>'Dividends per year'!B26</f>
@@ -6057,11 +6020,11 @@
       <c r="I26" s="88"/>
       <c r="J26" s="89">
         <f t="shared" si="2"/>
-        <v>1408.62</v>
+        <v>1618.62</v>
       </c>
       <c r="K26" s="90">
         <f t="shared" si="1"/>
-        <v>1.0478932333511874</v>
+        <v>1.2041153365470452</v>
       </c>
       <c r="L26" s="91" t="s">
         <v>417</v>
@@ -6124,7 +6087,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="6">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E28" s="7">
         <v>38.668750000000003</v>
@@ -6134,7 +6097,7 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="0"/>
-        <v>2480</v>
+        <v>3040</v>
       </c>
       <c r="H28" s="88">
         <f>'Dividends per year'!B28</f>
@@ -6143,11 +6106,11 @@
       <c r="I28" s="88"/>
       <c r="J28" s="89">
         <f t="shared" si="2"/>
-        <v>1181.3499999999999</v>
+        <v>1741.35</v>
       </c>
       <c r="K28" s="90">
         <f t="shared" si="1"/>
-        <v>0.76376272830127689</v>
+        <v>1.125812186843381</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>416</v>
@@ -6167,7 +6130,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="6">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E29" s="7">
         <v>39.840000000000003</v>
@@ -6177,7 +6140,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="0"/>
-        <v>1520</v>
+        <v>1660</v>
       </c>
       <c r="H29" s="6">
         <f>'Dividends per year'!B29</f>
@@ -6186,11 +6149,11 @@
       <c r="I29" s="6"/>
       <c r="J29" s="89">
         <f t="shared" si="2"/>
-        <v>760.32999999999993</v>
+        <v>900.32999999999993</v>
       </c>
       <c r="K29" s="90">
         <f t="shared" si="1"/>
-        <v>0.9542294176706827</v>
+        <v>1.1299322289156626</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>415</v>
@@ -6310,16 +6273,16 @@
       </c>
       <c r="H32" s="6">
         <f>'Dividends per year'!B32</f>
-        <v>262.45999999999998</v>
+        <v>276.27</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="89">
         <f t="shared" si="2"/>
-        <v>77.630000000000052</v>
+        <v>91.440000000000055</v>
       </c>
       <c r="K32" s="8">
         <f t="shared" si="1"/>
-        <v>2.1534996102451354E-2</v>
+        <v>2.5365967327169336E-2</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>435</v>
@@ -6353,16 +6316,16 @@
       </c>
       <c r="H33" s="6">
         <f>'Dividends per year'!B33</f>
-        <v>223.37</v>
+        <v>235.79</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="89">
         <f t="shared" si="2"/>
-        <v>916.03000199999985</v>
+        <v>928.45000199999981</v>
       </c>
       <c r="K33" s="8">
         <f t="shared" si="1"/>
-        <v>0.80118775132714259</v>
+        <v>0.81205066176649199</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>488</v>
@@ -6474,7 +6437,7 @@
         <v>15</v>
       </c>
       <c r="D36" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E36" s="7">
         <v>68.150000000000006</v>
@@ -6484,20 +6447,20 @@
       </c>
       <c r="G36" s="6">
         <f>F36*D36</f>
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="H36" s="6">
         <f>'Dividends per year'!B36</f>
-        <v>110.29</v>
+        <v>117.30000000000001</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="89">
         <f t="shared" si="2"/>
-        <v>-71.209999999999994</v>
+        <v>-14.199999999999989</v>
       </c>
       <c r="K36" s="8">
         <f t="shared" si="5"/>
-        <v>-0.10449009537784304</v>
+        <v>-2.083639031548068E-2</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>430</v>
@@ -6518,7 +6481,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="6">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E37" s="7">
         <v>91.994</v>
@@ -6528,7 +6491,7 @@
       </c>
       <c r="G37" s="6">
         <f t="shared" si="4"/>
-        <v>1980</v>
+        <v>2120</v>
       </c>
       <c r="H37" s="6">
         <f>'Dividends per year'!B37</f>
@@ -6537,11 +6500,11 @@
       <c r="I37" s="6"/>
       <c r="J37" s="89">
         <f t="shared" si="2"/>
-        <v>221.4199999999999</v>
+        <v>361.4199999999999</v>
       </c>
       <c r="K37" s="8">
         <f t="shared" si="5"/>
-        <v>0.12034480509598455</v>
+        <v>0.19643672413418267</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>439</v>
@@ -6724,9 +6687,7 @@
       <c r="N41" s="66"/>
     </row>
     <row r="42" spans="1:14" ht="15">
-      <c r="A42" s="13" t="s">
-        <v>338</v>
-      </c>
+      <c r="A42" s="13"/>
       <c r="B42" s="171"/>
       <c r="C42" s="76" t="s">
         <v>15</v>
@@ -6751,7 +6712,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="7">
         <v>25.0008892</v>
@@ -6761,7 +6722,7 @@
       </c>
       <c r="G43" s="6">
         <f t="shared" si="4"/>
-        <v>1440</v>
+        <v>1395</v>
       </c>
       <c r="H43" s="6">
         <f>'Dividends per year'!B43</f>
@@ -6770,11 +6731,11 @@
       <c r="I43" s="6"/>
       <c r="J43" s="89">
         <f t="shared" si="2"/>
-        <v>471.70998600000007</v>
+        <v>426.70998600000007</v>
       </c>
       <c r="K43" s="8">
         <f t="shared" si="5"/>
-        <v>0.41928285228084361</v>
+        <v>0.37928427495024208</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>486</v>
@@ -6894,16 +6855,16 @@
       </c>
       <c r="H46" s="6">
         <f>'Dividends per year'!B46</f>
-        <v>167.73000000000002</v>
+        <v>185.73000000000002</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="7">
         <f>(G46-(F46*E46)+H46)</f>
-        <v>-128.50822700000026</v>
+        <v>-110.50822700000026</v>
       </c>
       <c r="K46" s="8">
         <f>((D46*F46)+H46)/(E46*F46)-100%</f>
-        <v>-3.1681627115635491E-2</v>
+        <v>-2.7244017933762299E-2</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>485</v>
@@ -7052,7 +7013,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="6">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="E50" s="7">
         <v>259.24329999999998</v>
@@ -7062,7 +7023,7 @@
       </c>
       <c r="G50" s="6">
         <f t="shared" si="4"/>
-        <v>840</v>
+        <v>1101</v>
       </c>
       <c r="H50" s="6">
         <f>'Dividends per year'!B50</f>
@@ -7071,11 +7032,11 @@
       <c r="I50" s="6"/>
       <c r="J50" s="89">
         <f t="shared" si="2"/>
-        <v>113.53010000000008</v>
+        <v>374.53010000000006</v>
       </c>
       <c r="K50" s="8">
         <f t="shared" si="5"/>
-        <v>0.14597625730989661</v>
+        <v>0.4815683439713454</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>397</v>
@@ -7095,7 +7056,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="6">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="E51" s="7">
         <v>153.06</v>
@@ -7105,7 +7066,7 @@
       </c>
       <c r="G51" s="6">
         <f t="shared" si="4"/>
-        <v>800</v>
+        <v>1230</v>
       </c>
       <c r="H51" s="6">
         <f>'Dividends per year'!B51</f>
@@ -7114,11 +7075,11 @@
       <c r="I51" s="6"/>
       <c r="J51" s="89">
         <f t="shared" si="2"/>
-        <v>49.520000000000046</v>
+        <v>479.52000000000004</v>
       </c>
       <c r="K51" s="8">
         <f t="shared" si="5"/>
-        <v>6.470665098654127E-2</v>
+        <v>0.62657781262250101</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>387</v>
@@ -7171,6 +7132,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15">
+      <c r="A53" s="13"/>
       <c r="J53" s="89">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7187,7 +7149,7 @@
         <v>117</v>
       </c>
       <c r="D54" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E54" s="7">
         <v>16.383600000000001</v>
@@ -7197,20 +7159,20 @@
       </c>
       <c r="G54" s="6">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H54" s="6">
         <f>'Dividends per year'!B54</f>
-        <v>55.86</v>
+        <v>59.320000000000007</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="89">
         <f t="shared" si="2"/>
-        <v>236.67999999999995</v>
+        <v>40.139999999999944</v>
       </c>
       <c r="K54" s="8">
         <f t="shared" si="5"/>
-        <v>0.28892306941087398</v>
+        <v>4.9000219731927031E-2</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>385</v>
@@ -7230,7 +7192,7 @@
         <v>15</v>
       </c>
       <c r="D55" s="6">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E55" s="7">
         <v>22.274999999999999</v>
@@ -7240,7 +7202,7 @@
       </c>
       <c r="G55" s="6">
         <f t="shared" si="4"/>
-        <v>1596</v>
+        <v>2337</v>
       </c>
       <c r="H55" s="6">
         <f>'Dividends per year'!B55</f>
@@ -7249,11 +7211,11 @@
       <c r="I55" s="6"/>
       <c r="J55" s="7">
         <f t="shared" ref="J55:J62" si="6">(G55-(F55*E55)+H55)</f>
-        <v>352.61500000000007</v>
+        <v>1093.615</v>
       </c>
       <c r="K55" s="8">
         <f t="shared" si="5"/>
-        <v>0.27772067655108601</v>
+        <v>0.8613345934983363</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>386</v>
@@ -7359,7 +7321,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="6">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E58" s="7">
         <v>44.665576999999999</v>
@@ -7369,20 +7331,20 @@
       </c>
       <c r="G58" s="6">
         <f t="shared" si="4"/>
-        <v>2184</v>
+        <v>2860</v>
       </c>
       <c r="H58" s="6">
         <f>'Dividends per year'!B58</f>
-        <v>266.15999999999997</v>
+        <v>282.86999999999995</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="7">
         <f t="shared" si="6"/>
-        <v>127.54999599999985</v>
+        <v>820.25999599999977</v>
       </c>
       <c r="K58" s="8">
         <f t="shared" si="5"/>
-        <v>5.4916665208680326E-2</v>
+        <v>0.35316303408120509</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>379</v>
@@ -7402,7 +7364,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="7">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="E59" s="7">
         <v>225.54</v>
@@ -7412,7 +7374,7 @@
       </c>
       <c r="G59" s="6">
         <f t="shared" si="4"/>
-        <v>1300</v>
+        <v>1415</v>
       </c>
       <c r="H59" s="6">
         <f>'Dividends per year'!B59</f>
@@ -7421,11 +7383,11 @@
       <c r="I59" s="6"/>
       <c r="J59" s="7">
         <f t="shared" si="6"/>
-        <v>306.34999999999997</v>
+        <v>421.34999999999997</v>
       </c>
       <c r="K59" s="8">
         <f t="shared" si="5"/>
-        <v>0.27165912920102864</v>
+        <v>0.37363660548018074</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>375</v>
@@ -7491,7 +7453,7 @@
         <v>15</v>
       </c>
       <c r="D61" s="7">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E61" s="7">
         <v>27.248889999999999</v>
@@ -7501,7 +7463,7 @@
       </c>
       <c r="G61" s="6">
         <f t="shared" si="4"/>
-        <v>2403</v>
+        <v>3132</v>
       </c>
       <c r="H61" s="6">
         <f>'Dividends per year'!B61</f>
@@ -7510,11 +7472,11 @@
       <c r="I61" s="6"/>
       <c r="J61" s="7">
         <f t="shared" si="6"/>
-        <v>1716.1499699999999</v>
+        <v>2445.1499699999999</v>
       </c>
       <c r="K61" s="8">
         <f t="shared" si="5"/>
-        <v>2.3326128146871303</v>
+        <v>3.3234788646436613</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>399</v>
@@ -7534,7 +7496,7 @@
         <v>22</v>
       </c>
       <c r="D62" s="7">
-        <v>237</v>
+        <v>421</v>
       </c>
       <c r="E62" s="7">
         <v>184.58250000000001</v>
@@ -7544,7 +7506,7 @@
       </c>
       <c r="G62" s="6">
         <f t="shared" si="4"/>
-        <v>948</v>
+        <v>1684</v>
       </c>
       <c r="H62" s="6">
         <f>'Dividends per year'!B62</f>
@@ -7553,11 +7515,11 @@
       <c r="I62" s="6"/>
       <c r="J62" s="7">
         <f t="shared" si="6"/>
-        <v>261.15999999999997</v>
+        <v>997.16</v>
       </c>
       <c r="K62" s="8">
         <f t="shared" si="5"/>
-        <v>0.35371717253802504</v>
+        <v>1.3505614020830792</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>445</v>
@@ -7666,7 +7628,7 @@
         <v>15</v>
       </c>
       <c r="D65" s="7">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E65" s="7">
         <v>82.373999999999995</v>
@@ -7676,7 +7638,7 @@
       </c>
       <c r="G65" s="6">
         <f t="shared" si="4"/>
-        <v>820</v>
+        <v>1100</v>
       </c>
       <c r="H65" s="6">
         <f>'Dividends per year'!B65</f>
@@ -7685,11 +7647,11 @@
       <c r="I65" s="6"/>
       <c r="J65" s="7">
         <f t="shared" si="7"/>
-        <v>82.62</v>
+        <v>362.62</v>
       </c>
       <c r="K65" s="8">
         <f t="shared" si="5"/>
-        <v>0.10029863791973193</v>
+        <v>0.4402117172894362</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>447</v>
@@ -7723,16 +7685,16 @@
       </c>
       <c r="H66" s="6">
         <f>'Dividends per year'!B66</f>
-        <v>296.84000000000003</v>
+        <v>300.85000000000002</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="7">
         <f t="shared" si="7"/>
-        <v>656.24245549939985</v>
+        <v>660.25245549939984</v>
       </c>
       <c r="K66" s="8">
         <f t="shared" ref="K66:K98" si="8">((D66*F66)+H66)/(E66*F66)-100%</f>
-        <v>0.67493130710485039</v>
+        <v>0.67905550620048905</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>449</v>
@@ -7795,7 +7757,7 @@
         <v>15</v>
       </c>
       <c r="D68" s="7">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E68" s="7">
         <v>168.798</v>
@@ -7805,20 +7767,20 @@
       </c>
       <c r="G68" s="6">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H68" s="6">
         <f>'Dividends per year'!B68</f>
-        <v>22.47</v>
+        <v>24.21</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="7">
         <f t="shared" si="7"/>
-        <v>378.48</v>
+        <v>480.21999999999997</v>
       </c>
       <c r="K68" s="8">
         <f t="shared" si="8"/>
-        <v>0.44844133224327298</v>
+        <v>0.56898778421545271</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>450</v>
@@ -7852,16 +7814,16 @@
       </c>
       <c r="H69" s="6">
         <f>'Dividends per year'!B69</f>
-        <v>38.81</v>
+        <v>41.32</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="7">
         <f t="shared" si="7"/>
-        <v>598.55060000000003</v>
+        <v>601.06060000000002</v>
       </c>
       <c r="K69" s="8">
         <f t="shared" si="8"/>
-        <v>0.9010796083578192</v>
+        <v>0.90485825266454634</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>451</v>
@@ -7924,7 +7886,7 @@
         <v>22</v>
       </c>
       <c r="D71" s="7">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E71" s="7">
         <v>80.447999999999993</v>
@@ -7934,7 +7896,7 @@
       </c>
       <c r="G71" s="6">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>1110</v>
       </c>
       <c r="H71" s="6">
         <f>'Dividends per year'!B71</f>
@@ -7943,11 +7905,11 @@
       <c r="I71" s="6"/>
       <c r="J71" s="7">
         <f t="shared" si="7"/>
-        <v>192.2300000000001</v>
+        <v>402.23000000000013</v>
       </c>
       <c r="K71" s="8">
         <f t="shared" si="8"/>
-        <v>0.23894938345266525</v>
+        <v>0.4999875696101832</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>453</v>
@@ -8010,7 +7972,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E73" s="7">
         <v>14.056125</v>
@@ -8020,7 +7982,7 @@
       </c>
       <c r="G73" s="6">
         <f t="shared" si="4"/>
-        <v>1280</v>
+        <v>1360</v>
       </c>
       <c r="H73" s="6">
         <f>'Dividends per year'!B73</f>
@@ -8029,11 +7991,11 @@
       <c r="I73" s="6"/>
       <c r="J73" s="7">
         <f t="shared" si="7"/>
-        <v>259.90999999999997</v>
+        <v>339.90999999999997</v>
       </c>
       <c r="K73" s="8">
         <f t="shared" si="8"/>
-        <v>0.23113589271580892</v>
+        <v>0.30227925548470869</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>384</v>
@@ -8225,7 +8187,7 @@
         <v>15</v>
       </c>
       <c r="D78" s="7">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E78" s="7">
         <v>6.8310000000000004</v>
@@ -8235,7 +8197,7 @@
       </c>
       <c r="G78" s="6">
         <f t="shared" si="4"/>
-        <v>1075.8</v>
+        <v>1141</v>
       </c>
       <c r="H78" s="6">
         <f>'Dividends per year'!B78</f>
@@ -8244,11 +8206,11 @@
       <c r="I78" s="6"/>
       <c r="J78" s="7">
         <f t="shared" si="7"/>
-        <v>97.736999999999966</v>
+        <v>162.93700000000001</v>
       </c>
       <c r="K78" s="8">
         <f t="shared" si="8"/>
-        <v>8.777828969880197E-2</v>
+        <v>0.1463348699945124</v>
       </c>
       <c r="L78" s="10" t="s">
         <v>457</v>
@@ -8311,7 +8273,7 @@
         <v>59</v>
       </c>
       <c r="D80" s="7">
-        <v>40.005000000000003</v>
+        <v>88</v>
       </c>
       <c r="E80" s="7">
         <v>41.091000000000001</v>
@@ -8321,7 +8283,7 @@
       </c>
       <c r="G80" s="14">
         <f t="shared" si="4"/>
-        <v>400.05</v>
+        <v>880</v>
       </c>
       <c r="H80" s="6">
         <f>'Dividends per year'!B80</f>
@@ -8330,11 +8292,11 @@
       <c r="I80" s="6"/>
       <c r="J80" s="7">
         <f t="shared" si="7"/>
-        <v>65.909999999999982</v>
+        <v>545.86</v>
       </c>
       <c r="K80" s="8">
         <f t="shared" si="8"/>
-        <v>0.16040008761042546</v>
+        <v>1.3284174150057186</v>
       </c>
       <c r="L80" s="10" t="s">
         <v>460</v>
@@ -8397,7 +8359,7 @@
         <v>22</v>
       </c>
       <c r="D82" s="7">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="E82" s="7">
         <v>5.1372499999999999</v>
@@ -8407,7 +8369,7 @@
       </c>
       <c r="G82" s="6">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="H82" s="6">
         <f>'Dividends per year'!B82</f>
@@ -8416,11 +8378,11 @@
       <c r="I82" s="6"/>
       <c r="J82" s="7">
         <f t="shared" si="7"/>
-        <v>-236.81000000000006</v>
+        <v>-156.81000000000006</v>
       </c>
       <c r="K82" s="8">
         <f t="shared" si="8"/>
-        <v>-0.23048323519392677</v>
+        <v>-0.15262056547763891</v>
       </c>
       <c r="L82" s="10" t="s">
         <v>462</v>
@@ -8440,7 +8402,7 @@
         <v>15</v>
       </c>
       <c r="D83" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E83" s="6">
         <v>61.96</v>
@@ -8450,7 +8412,7 @@
       </c>
       <c r="G83" s="6">
         <f t="shared" si="4"/>
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="H83" s="6">
         <f>'Dividends per year'!B83</f>
@@ -8459,11 +8421,11 @@
       <c r="I83" s="6"/>
       <c r="J83" s="7">
         <f t="shared" si="7"/>
-        <v>-660.29</v>
+        <v>-600.29</v>
       </c>
       <c r="K83" s="8">
         <f t="shared" si="8"/>
-        <v>-0.71044760060253931</v>
+        <v>-0.64588982139014417</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>392</v>
@@ -8476,18 +8438,46 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="15">
+      <c r="A84" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84" s="168" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="6">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="E84" s="7">
+        <v>2.7789999999999999</v>
+      </c>
+      <c r="F84" s="6">
+        <v>500</v>
+      </c>
+      <c r="G84" s="6">
+        <f>F84*D84</f>
+        <v>1073</v>
+      </c>
       <c r="H84" s="6">
         <f>'Dividends per year'!B84</f>
-        <v>0</v>
-      </c>
-      <c r="I84" s="6"/>
-      <c r="J84" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>430.46</v>
+      </c>
+      <c r="I84" s="88"/>
+      <c r="J84" s="89">
+        <f>(G84-(F84*E84)+H84)</f>
+        <v>113.95999999999998</v>
+      </c>
+      <c r="K84" s="90">
+        <f>((D84*F84)+H84)/(E84*F84)-100%</f>
+        <v>8.2015113350125901E-2</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="M84" s="71">
+        <v>43251</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="15">
@@ -8558,16 +8548,16 @@
       </c>
       <c r="H86" s="6">
         <f>'Dividends per year'!B86</f>
-        <v>212.34</v>
+        <v>228.45</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="7">
         <f t="shared" si="7"/>
-        <v>540.84</v>
+        <v>556.95000000000005</v>
       </c>
       <c r="K86" s="8">
         <f t="shared" si="8"/>
-        <v>0.6362823529411763</v>
+        <v>0.65523529411764714</v>
       </c>
       <c r="L86" s="10" t="s">
         <v>465</v>
@@ -8644,16 +8634,16 @@
       </c>
       <c r="H88" s="6">
         <f>'Dividends per year'!B88</f>
-        <v>20.639999999999997</v>
+        <v>23.189999999999998</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="7">
         <f t="shared" ref="J88:J98" si="10">(G88-(F88*E88)+H88)</f>
-        <v>-10.510049999999968</v>
+        <v>-7.960049999999967</v>
       </c>
       <c r="K88" s="8">
         <f t="shared" si="8"/>
-        <v>-3.4385893278931157E-2</v>
+        <v>-2.6043018805329665E-2</v>
       </c>
       <c r="L88" s="10" t="s">
         <v>467</v>
@@ -8845,7 +8835,7 @@
         <v>73</v>
       </c>
       <c r="D93" s="7">
-        <v>16.899999999999999</v>
+        <v>7</v>
       </c>
       <c r="E93" s="7">
         <v>17.789000000000001</v>
@@ -8855,7 +8845,7 @@
       </c>
       <c r="G93" s="6">
         <f t="shared" si="9"/>
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="H93" s="6">
         <f>'Dividends per year'!B93</f>
@@ -8864,11 +8854,11 @@
       <c r="I93" s="6"/>
       <c r="J93" s="7">
         <f t="shared" si="10"/>
-        <v>-8.3200000000000305</v>
+        <v>-206.32000000000002</v>
       </c>
       <c r="K93" s="8">
         <f t="shared" si="8"/>
-        <v>-2.3385238068469372E-2</v>
+        <v>-0.57990893248636799</v>
       </c>
       <c r="L93" s="10" t="s">
         <v>471</v>
@@ -9160,16 +9150,16 @@
       </c>
       <c r="H100" s="6">
         <f>'Dividends per year'!B46</f>
-        <v>167.73000000000002</v>
+        <v>185.73000000000002</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="7">
         <f>(G100-(F100*E100)+H100)</f>
-        <v>-567.125</v>
+        <v>-549.125</v>
       </c>
       <c r="K100" s="8">
         <f>((D100*F100)+H100)/(E100*F100)-100%</f>
-        <v>-0.35604307987858275</v>
+        <v>-0.34474261624567204</v>
       </c>
       <c r="L100" s="10" t="s">
         <v>479</v>
@@ -9506,7 +9496,7 @@
         <v>15</v>
       </c>
       <c r="D111" s="6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E111" s="7">
         <v>63</v>
@@ -9516,7 +9506,7 @@
       </c>
       <c r="G111" s="6">
         <f>F111*D111</f>
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="H111" s="6">
         <f>'Dividends per year'!B111</f>
@@ -9525,11 +9515,11 @@
       <c r="I111" s="6"/>
       <c r="J111" s="7">
         <f>(G111-(F111*E111)+H111)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>7.07</v>
       </c>
       <c r="K111" s="8">
         <f t="shared" si="12"/>
-        <v>1.5873015873024698E-4</v>
+        <v>1.6031746031746064E-2</v>
       </c>
       <c r="L111" s="10" t="s">
         <v>287</v>
@@ -9542,13 +9532,35 @@
       <c r="A112" s="13" t="s">
         <v>404</v>
       </c>
+      <c r="B112" s="172" t="s">
+        <v>527</v>
+      </c>
+      <c r="C112" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="E112" s="7">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6">
+        <v>2</v>
+      </c>
+      <c r="G112" s="6">
+        <f>F112*D112</f>
+        <v>25</v>
+      </c>
+      <c r="H112" s="6">
+        <v>0</v>
+      </c>
       <c r="J112" s="7">
         <f>(G112-(F112*E112)+H112)</f>
-        <v>0</v>
-      </c>
-      <c r="K112" s="8" t="e">
+        <v>23</v>
+      </c>
+      <c r="K112" s="8">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>11.5</v>
       </c>
       <c r="L112" s="10" t="s">
         <v>405</v>
@@ -17010,27 +17022,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="K2:K52 K54:K1000">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="K2:K23 K25:K52 K54:K1000">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K52 K54:K1000">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L85:L110 L1:L83">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="buy">
+  <conditionalFormatting sqref="L1:L23 L25:L110">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="buy">
       <formula>NOT(ISERROR(SEARCH("buy",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="keep">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="keep">
       <formula>NOT(ISERROR(SEARCH("keep",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="sell">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="sell">
       <formula>NOT(ISERROR(SEARCH("sell",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hold">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Hold">
       <formula>NOT(ISERROR(SEARCH("Hold",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17048,7 +17058,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -17113,14 +17123,14 @@
       </c>
       <c r="B2" s="18">
         <f t="shared" ref="B2:B96" si="0">SUM(C2:X2)</f>
-        <v>803.56</v>
+        <v>859.02</v>
       </c>
       <c r="C2" s="98">
         <v>686.67</v>
       </c>
       <c r="D2" s="98">
-        <f>61.09+55.8</f>
-        <v>116.89</v>
+        <f>61.09+55.8+55.46</f>
+        <v>172.35</v>
       </c>
       <c r="E2" s="98"/>
       <c r="F2" s="98"/>
@@ -17185,14 +17195,14 @@
       </c>
       <c r="B5" s="18">
         <f t="shared" si="0"/>
-        <v>745.99</v>
+        <v>787.03</v>
       </c>
       <c r="C5" s="98">
         <v>664.43</v>
       </c>
       <c r="D5" s="98">
-        <f>40.51+41.05</f>
-        <v>81.56</v>
+        <f>40.51+41.05+41.04</f>
+        <v>122.6</v>
       </c>
       <c r="E5" s="98"/>
       <c r="F5" s="98"/>
@@ -17625,7 +17635,7 @@
     <row r="16" spans="1:28" ht="15.75" customHeight="1">
       <c r="A16" s="121" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>Trade: GOOG</v>
+        <v>Trade: GOOGL</v>
       </c>
       <c r="B16" s="18">
         <f>SUM(C16:X16)</f>
@@ -17698,14 +17708,14 @@
       </c>
       <c r="B19" s="18">
         <f>SUM(C19:X19)</f>
-        <v>504.99</v>
+        <v>511.37</v>
       </c>
       <c r="C19" s="98">
         <v>456.65</v>
       </c>
       <c r="D19" s="98">
-        <f>6.37+7.44+7.48+6.59+6.5+7.48+6.48</f>
-        <v>48.34</v>
+        <f>6.37+7.44+7.48+6.59+6.5+7.48+6.48+6.38</f>
+        <v>54.720000000000006</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -17722,14 +17732,14 @@
       </c>
       <c r="B20" s="18">
         <f>SUM(C20:X20)</f>
-        <v>665.62000000000012</v>
+        <v>691.91000000000008</v>
       </c>
       <c r="C20" s="19">
         <v>437.65000000000009</v>
       </c>
       <c r="D20" s="19">
-        <f>29.95+30.26+30.05+30.7+26.36+27.29+26.84+26.52</f>
-        <v>227.97</v>
+        <f>29.95+30.26+30.05+30.7+26.36+27.29+26.84+26.52+26.29</f>
+        <v>254.26</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -17770,14 +17780,14 @@
       </c>
       <c r="B22" s="18">
         <f t="shared" si="0"/>
-        <v>172.51</v>
+        <v>179.26</v>
       </c>
       <c r="C22" s="19">
         <v>157.88</v>
       </c>
       <c r="D22" s="19">
-        <f>7.72+6.91</f>
-        <v>14.629999999999999</v>
+        <f>7.72+6.91+6.75</f>
+        <v>21.38</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -17811,20 +17821,13 @@
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="17" t="str">
+      <c r="A24" s="17">
         <f>'Portfolio Ned'!A:A</f>
-        <v>Charter Hall Grp</v>
+        <v>0</v>
       </c>
       <c r="B24" s="18">
         <f t="shared" si="0"/>
-        <v>402.29999999999995</v>
-      </c>
-      <c r="C24" s="19">
-        <v>369.77</v>
-      </c>
-      <c r="D24" s="19">
-        <f>24.48+8.05</f>
-        <v>32.53</v>
+        <v>0</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -18007,14 +18010,14 @@
       </c>
       <c r="B32" s="18">
         <f t="shared" si="0"/>
-        <v>262.45999999999998</v>
+        <v>276.27</v>
       </c>
       <c r="C32" s="19">
         <v>212.80999999999997</v>
       </c>
       <c r="D32" s="19">
-        <f>35.09+14.56</f>
-        <v>49.650000000000006</v>
+        <f>35.09+14.56+13.81</f>
+        <v>63.460000000000008</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -18031,14 +18034,14 @@
       </c>
       <c r="B33" s="18">
         <f t="shared" si="0"/>
-        <v>223.37</v>
+        <v>235.79</v>
       </c>
       <c r="C33" s="19">
         <v>199.72</v>
       </c>
       <c r="D33" s="19">
-        <f>12.51+11.14</f>
-        <v>23.65</v>
+        <f>12.51+11.14+12.42</f>
+        <v>36.07</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -18103,14 +18106,14 @@
       </c>
       <c r="B36" s="18">
         <f t="shared" si="0"/>
-        <v>110.29</v>
+        <v>117.30000000000001</v>
       </c>
       <c r="C36" s="19">
         <v>100.29</v>
       </c>
       <c r="D36" s="19">
-        <f>10</f>
-        <v>10</v>
+        <f>10+7.01</f>
+        <v>17.009999999999998</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -18241,9 +18244,9 @@
       <c r="K41" s="19"/>
     </row>
     <row r="42" spans="1:11" ht="12.75">
-      <c r="A42" s="17" t="str">
+      <c r="A42" s="17">
         <f>'Portfolio Ned'!A:A</f>
-        <v>Blackrock</v>
+        <v>0</v>
       </c>
       <c r="C42" s="19">
         <v>0</v>
@@ -18337,14 +18340,14 @@
       </c>
       <c r="B46" s="18">
         <f>SUM(C46:X46)</f>
-        <v>167.73000000000002</v>
+        <v>185.73000000000002</v>
       </c>
       <c r="C46" s="19">
         <v>128.54000000000002</v>
       </c>
       <c r="D46" s="19">
-        <f>20.91+18.28</f>
-        <v>39.19</v>
+        <f>20.91+18.28+18</f>
+        <v>57.19</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
@@ -18528,14 +18531,14 @@
       </c>
       <c r="B54" s="18">
         <f t="shared" si="0"/>
-        <v>55.86</v>
+        <v>59.320000000000007</v>
       </c>
       <c r="C54" s="19">
         <v>46.49</v>
       </c>
       <c r="D54" s="19">
-        <f>6.19+3.18</f>
-        <v>9.370000000000001</v>
+        <f>6.19+3.18+3.46</f>
+        <v>12.830000000000002</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -18624,14 +18627,14 @@
       </c>
       <c r="B58" s="18">
         <f t="shared" si="0"/>
-        <v>266.15999999999997</v>
+        <v>282.86999999999995</v>
       </c>
       <c r="C58" s="19">
         <v>227.52999999999997</v>
       </c>
       <c r="D58" s="19">
-        <f>22.06+16.57</f>
-        <v>38.629999999999995</v>
+        <f>22.06+16.57+16.71</f>
+        <v>55.339999999999996</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
@@ -18815,14 +18818,14 @@
       </c>
       <c r="B66" s="18">
         <f t="shared" si="0"/>
-        <v>296.84000000000003</v>
+        <v>300.85000000000002</v>
       </c>
       <c r="C66" s="19">
         <v>261.59000000000003</v>
       </c>
       <c r="D66" s="19">
-        <f>4.69+4.72+4.66+4.78+4.1+4.15+4.08+4.07</f>
-        <v>35.25</v>
+        <f>4.69+4.72+4.66+4.78+4.1+4.15+4.08+4.07+4.01</f>
+        <v>39.26</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
@@ -18862,14 +18865,14 @@
       </c>
       <c r="B68" s="18">
         <f t="shared" si="0"/>
-        <v>22.47</v>
+        <v>24.21</v>
       </c>
       <c r="C68" s="19">
         <v>18.66</v>
       </c>
       <c r="D68" s="19">
-        <f>2.03+1.78</f>
-        <v>3.8099999999999996</v>
+        <f>2.03+1.78+1.74</f>
+        <v>5.55</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
@@ -18886,14 +18889,14 @@
       </c>
       <c r="B69" s="18">
         <f t="shared" si="0"/>
-        <v>38.81</v>
+        <v>41.32</v>
       </c>
       <c r="C69" s="19">
         <v>30.64</v>
       </c>
       <c r="D69" s="19">
-        <f>2.65+2.94+2.58</f>
-        <v>8.17</v>
+        <f>2.65+2.94+2.58+2.51</f>
+        <v>10.68</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -19240,19 +19243,20 @@
       <c r="K83" s="19"/>
     </row>
     <row r="84" spans="1:11" ht="12.75">
-      <c r="A84" s="17">
+      <c r="A84" s="17" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Charter Hall Grp</v>
       </c>
       <c r="B84" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C84:X84)</f>
+        <v>430.46</v>
       </c>
       <c r="C84" s="19">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
+        <v>369.77</v>
+      </c>
+      <c r="D84" s="19">
+        <f>24.48+8.05+28.16</f>
+        <v>60.69</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
@@ -19293,14 +19297,14 @@
       </c>
       <c r="B86" s="18">
         <f t="shared" si="0"/>
-        <v>212.34</v>
+        <v>228.45</v>
       </c>
       <c r="C86" s="19">
         <v>189.6</v>
       </c>
       <c r="D86" s="19">
-        <f>14.2+1.82+6.72</f>
-        <v>22.74</v>
+        <f>14.2+1.82+6.72+10.09+1.27+4.75</f>
+        <v>38.85</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
@@ -19341,14 +19345,14 @@
       </c>
       <c r="B88" s="18">
         <f t="shared" si="0"/>
-        <v>20.639999999999997</v>
+        <v>23.189999999999998</v>
       </c>
       <c r="C88" s="19">
         <v>17.079999999999998</v>
       </c>
       <c r="D88" s="19">
-        <f>3.56</f>
-        <v>3.56</v>
+        <f>3.56+2.55</f>
+        <v>6.1099999999999994</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -20029,7 +20033,7 @@
       </c>
       <c r="D128" s="85">
         <f>SUM(D2:D115)</f>
-        <v>2440.0499999999993</v>
+        <v>2702.46</v>
       </c>
       <c r="E128" s="85">
         <f t="shared" ref="E128:O128" si="3">SUM(E2:E115)</f>
@@ -20264,7 +20268,7 @@
         <v>1802.83</v>
       </c>
       <c r="D131" s="85">
-        <v>2430.9</v>
+        <v>2702.46</v>
       </c>
       <c r="E131" s="85"/>
       <c r="F131" s="85"/>
@@ -20287,14 +20291,14 @@
     <row r="132" spans="1:21" ht="12.75">
       <c r="A132" s="82"/>
       <c r="B132" s="85" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C132" s="85" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D132" s="174">
         <f>D131/C131-1</f>
-        <v>0.34838004692622171</v>
+        <v>0.49900989000626805</v>
       </c>
       <c r="E132" s="174"/>
       <c r="F132" s="85"/>
@@ -31853,10 +31857,10 @@
   <dimension ref="A1:AI1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32907,7 +32911,7 @@
     <row r="16" spans="1:35">
       <c r="A16" s="129" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>Trade: GOOG</v>
+        <v>Trade: GOOGL</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -33450,13 +33454,13 @@
       </c>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="5" t="str">
+      <c r="A24" s="5">
         <f>'Portfolio Ned'!A:A</f>
-        <v>Charter Hall Grp</v>
+        <v>0</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="7">
-        <f>'Portfolio Ned'!$F24*$O24*$AC$8*0.85</f>
+        <f>'Portfolio Ned'!$F84*$O24*$AC$8*0.85</f>
         <v>46.314102564102555</v>
       </c>
       <c r="D24" s="7"/>
@@ -33465,7 +33469,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7">
-        <f>'Portfolio Ned'!$F24*$O24*$AC$8*0.85</f>
+        <f>'Portfolio Ned'!$F84*$O24*$AC$8*0.85</f>
         <v>46.314102564102555</v>
       </c>
       <c r="J24" s="6"/>
@@ -33490,7 +33494,7 @@
       </c>
       <c r="U24" s="34"/>
       <c r="V24" s="26">
-        <f>N24/('Portfolio Ned'!E24*'Portfolio Ned'!F24)</f>
+        <f>N24/('Portfolio Ned'!E84*'Portfolio Ned'!F84)</f>
         <v>6.6662975982875211E-2</v>
       </c>
       <c r="AE24" s="7"/>
@@ -33544,11 +33548,11 @@
       <c r="AE25" s="7"/>
       <c r="AF25" s="26"/>
       <c r="AG25" s="27">
-        <f>'Portfolio Ned'!F24*AE25*((1+AF25)^10)*0.75</f>
+        <f>'Portfolio Ned'!F84*AE25*((1+AF25)^10)*0.75</f>
         <v>0</v>
       </c>
       <c r="AH25" s="26">
-        <f>AG25/('Portfolio Ned'!E24*'Portfolio Ned'!F24)</f>
+        <f>AG25/('Portfolio Ned'!E84*'Portfolio Ned'!F84)</f>
         <v>0</v>
       </c>
     </row>
@@ -34475,9 +34479,9 @@
       </c>
     </row>
     <row r="42" spans="1:34">
-      <c r="A42" s="5" t="str">
+      <c r="A42" s="5">
         <f>'Portfolio Ned'!A:A</f>
-        <v>Blackrock</v>
+        <v>0</v>
       </c>
       <c r="B42" s="7">
         <f>'Portfolio Ned'!$F9*$O42*$AC$2*0.85</f>
@@ -36521,9 +36525,9 @@
       </c>
     </row>
     <row r="84" spans="1:25">
-      <c r="A84" s="5">
+      <c r="A84" s="5" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Charter Hall Grp</v>
       </c>
       <c r="D84" s="7">
         <f>'Portfolio Ned'!$F$83*$O$84*$AC$2*0.85</f>
@@ -42498,7 +42502,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -42529,10 +42533,10 @@
         <v>277</v>
       </c>
       <c r="F1" s="152" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G1" s="175" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1" s="81" t="s">
         <v>278</v>
@@ -42703,7 +42707,7 @@
         <v>526</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D8" s="68">
         <f>(-1187.53)+1213.67+29.91+312.32+29.85-(95.32)+1.07+894.5+168.9+231.04+310.11+269.62</f>
@@ -42715,11 +42719,11 @@
       </c>
       <c r="F8" s="72">
         <f>'Dividends per year'!D131</f>
-        <v>2430.9</v>
+        <v>2702.46</v>
       </c>
       <c r="G8" s="176">
         <f>D8+E8+F8</f>
-        <v>4772.51</v>
+        <v>5044.07</v>
       </c>
       <c r="H8" s="68">
         <v>2024</v>
@@ -42731,10 +42735,10 @@
         <v>2025</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="D9" s="68"/>
       <c r="E9" s="155"/>
@@ -51382,7 +51386,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L36" s="92">
         <v>43169</v>
@@ -51420,7 +51424,7 @@
         <v>-0.25775978407557343</v>
       </c>
       <c r="K37" s="91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L37" s="92">
         <v>43170</v>
@@ -51638,7 +51642,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L43" s="92">
         <v>43176</v>
@@ -51672,7 +51676,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L44" s="92">
         <v>43177</v>
@@ -51951,7 +51955,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K52" s="91" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L52" s="92">
         <v>43185</v>
@@ -51989,7 +51993,7 @@
         <v>-0.56956521739130439</v>
       </c>
       <c r="K53" s="91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L53" s="92">
         <v>43186</v>
@@ -61245,26 +61249,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J1000">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1000">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hold">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Hold">
       <formula>NOT(ISERROR(SEARCH("Hold",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Sell">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Sell">
       <formula>NOT(ISERROR(SEARCH("Sell",K1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K11">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Hold">
-      <formula>NOT(ISERROR(SEARCH("Hold",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -61277,7 +61274,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -61289,30 +61286,30 @@
     <col min="5" max="5" width="14.140625" style="77" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1">
       <c r="A1" s="156" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1" s="156" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="156" t="s">
         <v>502</v>
       </c>
-      <c r="C1" s="156" t="s">
+      <c r="D1" s="156" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="156" t="s">
-        <v>504</v>
-      </c>
       <c r="E1" s="156" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F1" s="156" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G1" s="157" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H1" s="159" t="s">
         <v>489</v>
@@ -61320,7 +61317,7 @@
     </row>
     <row r="2" spans="1:8" ht="23.25">
       <c r="A2" s="156" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B2" s="156">
         <v>260</v>
@@ -61347,25 +61344,25 @@
     <row r="5" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:8" ht="24" thickBot="1">
       <c r="A6" s="156" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B6" s="156" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="156" t="s">
         <v>502</v>
       </c>
-      <c r="C6" s="156" t="s">
+      <c r="D6" s="156" t="s">
         <v>503</v>
       </c>
-      <c r="D6" s="156" t="s">
-        <v>504</v>
-      </c>
       <c r="E6" s="156" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F6" s="157" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G6" s="157" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H6" s="159" t="s">
         <v>489</v>
@@ -61373,52 +61370,55 @@
     </row>
     <row r="7" spans="1:8" ht="24" thickBot="1">
       <c r="A7" s="156" t="s">
-        <v>508</v>
+        <v>19</v>
       </c>
       <c r="B7" s="156">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="C7" s="156">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D7" s="156">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="E7" s="156">
         <f>B7*C7</f>
-        <v>40890</v>
+        <v>27000</v>
       </c>
       <c r="F7" s="158">
         <f>(B7*D7)-(B7*C7)-139.8</f>
-        <v>142.19999999999999</v>
+        <v>12860.2</v>
       </c>
       <c r="G7" s="157">
         <f>F7*0.74</f>
-        <v>105.22799999999999</v>
+        <v>9516.5480000000007</v>
+      </c>
+      <c r="H7" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="11" spans="1:8" ht="24" thickBot="1">
       <c r="A11" s="156" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B11" s="156" t="s">
+        <v>501</v>
+      </c>
+      <c r="C11" s="156" t="s">
         <v>502</v>
       </c>
-      <c r="C11" s="156" t="s">
+      <c r="D11" s="156" t="s">
         <v>503</v>
       </c>
-      <c r="D11" s="156" t="s">
-        <v>504</v>
-      </c>
       <c r="E11" s="156" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F11" s="157" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G11" s="157" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H11" s="159" t="s">
         <v>489</v>
@@ -61426,7 +61426,7 @@
     </row>
     <row r="12" spans="1:8" ht="24" thickBot="1">
       <c r="A12" s="156" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B12" s="156">
         <v>87</v>
@@ -61450,31 +61450,31 @@
         <v>89.687999999999988</v>
       </c>
       <c r="H12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:8" ht="24" thickBot="1">
       <c r="A16" s="156" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B16" s="156" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" s="156" t="s">
         <v>502</v>
       </c>
-      <c r="C16" s="156" t="s">
+      <c r="D16" s="156" t="s">
         <v>503</v>
       </c>
-      <c r="D16" s="156" t="s">
-        <v>504</v>
-      </c>
       <c r="E16" s="156" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F16" s="157" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G16" s="158" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H16" s="159" t="s">
         <v>489</v>
@@ -61482,7 +61482,7 @@
     </row>
     <row r="17" spans="1:8" ht="24" thickBot="1">
       <c r="A17" s="156" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B17" s="156">
         <v>1500</v>
@@ -61509,25 +61509,25 @@
     <row r="20" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="21" spans="1:8" ht="24" thickBot="1">
       <c r="A21" s="156" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B21" s="156" t="s">
+        <v>501</v>
+      </c>
+      <c r="C21" s="156" t="s">
         <v>502</v>
       </c>
-      <c r="C21" s="156" t="s">
+      <c r="D21" s="156" t="s">
         <v>503</v>
       </c>
-      <c r="D21" s="156" t="s">
-        <v>504</v>
-      </c>
       <c r="E21" s="156" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F21" s="157" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G21" s="158" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H21" s="159" t="s">
         <v>489</v>
@@ -61535,7 +61535,7 @@
     </row>
     <row r="22" spans="1:8" ht="24" thickBot="1">
       <c r="A22" s="156" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B22" s="156">
         <v>110</v>
@@ -61559,7 +61559,7 @@
         <v>629.14800000000002</v>
       </c>
       <c r="H22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/data/2023_08_NedPortfolio.xlsx
+++ b/data/2023_08_NedPortfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3883" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{995D9503-403A-4659-8BB6-548BFD20B5D2}"/>
+  <xr:revisionPtr revIDLastSave="3894" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84142181-264B-4518-AB2A-463B0F9998D5}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-1428" windowWidth="23256" windowHeight="14016" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Ned" sheetId="1" r:id="rId1"/>
@@ -2371,7 +2371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2838,9 +2838,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -50622,11 +50619,11 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M40" sqref="M40"/>
+      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -51528,101 +51525,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B21" s="6"/>
+    <row r="21" spans="1:13" ht="15">
+      <c r="A21" s="103" t="s">
+        <v>377</v>
+      </c>
       <c r="C21" s="76" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="7">
-        <v>160</v>
+        <v>38.6</v>
+      </c>
+      <c r="E21" s="7">
+        <v>38.6</v>
+      </c>
+      <c r="F21" s="6">
+        <v>500</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F21*D21</f>
+        <v>19300</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="7">
-        <f t="shared" si="2"/>
+        <f>(G21-(F21*E21)+H21)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="J21" s="8">
+        <f>((D21*F21)+H21)/(E21*F21)-100%</f>
+        <v>0</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="L21" s="86">
-        <v>43154</v>
+      <c r="L21" s="71">
+        <v>45631</v>
       </c>
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="7">
-        <v>128</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="L22" s="86">
-        <v>43155</v>
-      </c>
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="104" t="s">
-        <v>317</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="7">
-        <v>244</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="L23" s="86">
-        <v>43156</v>
-      </c>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
@@ -52756,7 +52699,9 @@
       <c r="K54" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="L54" s="71"/>
+      <c r="L54" s="71">
+        <v>45296</v>
+      </c>
       <c r="M54" s="7">
         <f>F54*12</f>
         <v>120</v>
@@ -52839,53 +52784,102 @@
       </c>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13" ht="15">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1">
       <c r="A57" s="13" t="s">
-        <v>377</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B57" s="6"/>
       <c r="C57" s="76" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="7">
-        <v>39</v>
-      </c>
-      <c r="E57" s="7">
-        <v>39</v>
-      </c>
-      <c r="F57" s="6">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G57" s="6">
         <f>F57*D57</f>
-        <v>19500</v>
+        <v>0</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="7">
         <f>(G57-(F57*E57)+H57)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J57" s="8" t="e">
         <f>((D57*F57)+H57)/(E57*F57)-100%</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="L57" s="71">
-        <v>45617</v>
-      </c>
-      <c r="M57" s="7"/>
+      <c r="L57" s="86">
+        <v>43154</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A58" s="13"/>
+      <c r="A58" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C58" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="7">
+        <v>128</v>
+      </c>
+      <c r="G58" s="6">
+        <f>F58*D58</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7">
+        <f>(G58-(F58*E58)+H58)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="8" t="e">
+        <f>((D58*F58)+H58)/(E58*F58)-100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="L58" s="86">
+        <v>43155</v>
+      </c>
       <c r="M58" s="7"/>
     </row>
     <row r="59" spans="1:13" ht="15">
-      <c r="A59" s="13"/>
-    </row>
-    <row r="60" spans="1:13" ht="15">
-      <c r="A60" s="13"/>
-    </row>
+      <c r="A59" s="104" t="s">
+        <v>317</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="7">
+        <v>244</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6">
+        <f>F59*D59</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="7">
+        <f>(G59-(F59*E59)+H59)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="8" t="e">
+        <f>((D59*F59)+H59)/(E59*F59)-100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="L59" s="86">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="12.75"/>
     <row r="61" spans="1:13" ht="15">
       <c r="A61" s="13"/>
       <c r="G61" s="6">
@@ -61996,7 +61990,7 @@
       <c r="J1000" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J57 J61:J1000">
+  <conditionalFormatting sqref="J2:J21 J61:J1000 J24:J59">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -62004,7 +61998,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K57 K61:K1048576">
+  <conditionalFormatting sqref="K1:K21 K61:K1048576 K24:K59">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Hold">
       <formula>NOT(ISERROR(SEARCH("Hold",K1)))</formula>
     </cfRule>
@@ -62024,7 +62018,7 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -62352,7 +62346,7 @@
       <c r="Q7" s="94"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="103" t="s">
         <v>524</v>
       </c>
       <c r="B8" s="6"/>

--- a/data/2023_08_NedPortfolio.xlsx
+++ b/data/2023_08_NedPortfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4008" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D63CA8E4-CD3C-4A23-8268-426F2A54C52F}"/>
+  <xr:revisionPtr revIDLastSave="4068" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF257E43-59D7-4795-95A1-A4323E092A80}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="564">
   <si>
     <t>Wertpapier</t>
   </si>
@@ -1489,9 +1489,6 @@
     <t>Brutto_Dividend_year</t>
   </si>
   <si>
-    <t xml:space="preserve">Gesamt 2025: </t>
-  </si>
-  <si>
     <t>buy, Industrial REIT, 23.06.2024</t>
   </si>
   <si>
@@ -1657,13 +1654,7 @@
     <t>setup_05</t>
   </si>
   <si>
-    <t>Verkauf Novavax (-4.800), Verkauf Exxon (+700), Verkauf NVIDIA bei 5T valuation (+40.000), Kauf Bruker (10k)</t>
-  </si>
-  <si>
     <t>buy, Lithography-Supplier, 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kauf Samsung 16k, Kauf Rexford Realty for 16k, </t>
   </si>
   <si>
     <t xml:space="preserve">Gesamt 2024: Verkauf Adler Real Estate (-1187.53), Verkauf Meta (Gewinn +1213.67), 29.91 (Solventum 3M Spinoff), Trade Microsoft (312.32), Zwangsverkauf Brookfield Reinsurance (29.85), Verkauf Simon Propertry Trust (-95.32+11.07+152.40 Dividends), Kauf Nike at 66 EUR, Trade Amazon Juli (+894.5 EUR), Trade Amazon August (+168.90 EUR), Daytrade Alphabet C 15.08.2024 (+231.04 EUR), Swingtrade Meta 16.08-22.08 (+310.11EUR), Swingtrade Meta  26.08-30.08 (+269.62EUR), Kauf Samsung for 15k on 03.09.2024 long-term, Verkauf VF Corp (-638.56), Verkauf McDonalds (+2838.79-605.69 Steuer, 621.50 Euro Dividende), Kauf Rexford Realty für 16k, Kauf Samsung 13.11.2024, Zinsen 2024: </t>
@@ -1739,6 +1730,12 @@
   </si>
   <si>
     <t>ING</t>
+  </si>
+  <si>
+    <t>Gesamt 2025: Umzug nach Scalable für Trading,</t>
+  </si>
+  <si>
+    <t>Verkauf Novavax (-4.800), Verkauf Exxon (+700), Verkauf NVIDIA bei 5T valuation (+50.000), Verschieben 50k auf Tradingaccount, Küchenkauf 17k, Zaunkauf 7k</t>
   </si>
 </sst>
 </file>
@@ -2786,9 +2783,6 @@
     <xf numFmtId="0" fontId="24" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2843,6 +2837,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="24" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5074,7 +5071,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5084,7 +5081,7 @@
     <col min="3" max="4" width="12.42578125" style="77" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="183" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="182" customWidth="1"/>
     <col min="13" max="13" width="40.7109375" style="141" customWidth="1"/>
     <col min="14" max="14" width="24.85546875" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
@@ -5103,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E1" s="73" t="s">
         <v>3</v>
@@ -5120,8 +5117,8 @@
       <c r="I1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="182" t="s">
-        <v>543</v>
+      <c r="J1" s="181" t="s">
+        <v>540</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>8</v>
@@ -5156,7 +5153,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E2" s="6">
         <v>147</v>
@@ -5177,7 +5174,7 @@
       </c>
       <c r="J2" s="8">
         <f>H2/$O$5</f>
-        <v>3.6612490788103816E-2</v>
+        <v>3.672711075516949E-2</v>
       </c>
       <c r="K2" s="7">
         <f>(H2-(G2*F2)+I2)</f>
@@ -5194,7 +5191,7 @@
         <v>43135</v>
       </c>
       <c r="O2" s="87" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q2" t="s">
         <v>287</v>
@@ -5212,10 +5209,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E3" s="6">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="F3" s="7">
         <v>179.45</v>
@@ -5225,7 +5222,7 @@
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>5030</v>
       </c>
       <c r="I3" s="6">
         <f>'Dividends per year'!B3</f>
@@ -5233,15 +5230,15 @@
       </c>
       <c r="J3" s="8">
         <f t="shared" ref="J3:J66" si="2">H3/$O$5</f>
-        <v>2.0755380265364973E-2</v>
+        <v>1.904116337853046E-2</v>
       </c>
       <c r="K3" s="7">
         <f t="shared" ref="K3:K54" si="3">(H3-(G3*F3)+I3)</f>
-        <v>3755.65</v>
+        <v>3285.65</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" si="1"/>
-        <v>2.0928670938980214</v>
+        <v>1.8309556979660071</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>429</v>
@@ -5265,7 +5262,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E4" s="6">
         <v>150</v>
@@ -5286,7 +5283,7 @@
       </c>
       <c r="J4" s="8">
         <f t="shared" si="2"/>
-        <v>4.5284466033523582E-2</v>
+        <v>4.5426234700271476E-2</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" si="3"/>
@@ -5302,8 +5299,8 @@
       <c r="N4" s="86">
         <v>43767</v>
       </c>
-      <c r="O4" s="181" t="s">
-        <v>546</v>
+      <c r="O4" s="180" t="s">
+        <v>543</v>
       </c>
       <c r="Q4" s="66" t="s">
         <v>291</v>
@@ -5321,7 +5318,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E5" s="6">
         <v>825</v>
@@ -5343,7 +5340,7 @@
       </c>
       <c r="J5" s="8">
         <f t="shared" si="2"/>
-        <v>0.18057180830867528</v>
+        <v>0.1811371108673325</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="3"/>
@@ -5359,9 +5356,9 @@
       <c r="N5" s="71">
         <v>43679</v>
       </c>
-      <c r="O5" s="184">
+      <c r="O5" s="183">
         <f>SUM(H2:H121)</f>
-        <v>264991.53133696079</v>
+        <v>264164.53133696079</v>
       </c>
       <c r="Q5" t="s">
         <v>393</v>
@@ -5379,7 +5376,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E6" s="6">
         <v>55</v>
@@ -5400,7 +5397,7 @@
       </c>
       <c r="J6" s="8">
         <f t="shared" si="2"/>
-        <v>4.7737374610339438E-2</v>
+        <v>4.7886822413202849E-2</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="3"/>
@@ -5432,7 +5429,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E7" s="6">
         <v>44</v>
@@ -5453,7 +5450,7 @@
       </c>
       <c r="J7" s="8">
         <f t="shared" si="2"/>
-        <v>1.9094949844135775E-2</v>
+        <v>1.9154728965281139E-2</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
@@ -5476,7 +5473,7 @@
     </row>
     <row r="8" spans="1:38" ht="15.75" customHeight="1">
       <c r="A8" s="101" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B8" s="144" t="s">
         <v>27</v>
@@ -5485,7 +5482,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E8" s="6">
         <v>130</v>
@@ -5506,7 +5503,7 @@
       </c>
       <c r="J8" s="8">
         <f t="shared" si="2"/>
-        <v>0.19623268614526884</v>
+        <v>0.19684701703450974</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
@@ -5538,7 +5535,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E9" s="6">
         <v>40</v>
@@ -5559,7 +5556,7 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="2"/>
-        <v>4.5116913509199537E-3</v>
+        <v>4.5258157631880474E-3</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
@@ -5570,7 +5567,7 @@
         <v>0.11602930844123249</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N9" s="71">
         <v>45527</v>
@@ -5629,7 +5626,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N10" s="71">
         <v>45596</v>
@@ -5646,7 +5643,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E11" s="6">
         <v>90</v>
@@ -5667,7 +5664,7 @@
       </c>
       <c r="J11" s="8">
         <f t="shared" si="2"/>
-        <v>3.9277179793210562E-2</v>
+        <v>3.940014190142619E-2</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
@@ -5695,7 +5692,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E12" s="6">
         <v>33</v>
@@ -5716,7 +5713,7 @@
       </c>
       <c r="J12" s="8">
         <f t="shared" si="2"/>
-        <v>1.4043543309422505E-2</v>
+        <v>1.408750837262805E-2</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
@@ -5745,7 +5742,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E13" s="7">
         <v>190</v>
@@ -5766,7 +5763,7 @@
       </c>
       <c r="J13" s="8">
         <f t="shared" si="2"/>
-        <v>2.1994967048922624E-2</v>
+        <v>2.2063825035486522E-2</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
@@ -5777,7 +5774,7 @@
         <v>0.33949674700779631</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N13" s="71">
         <v>45214</v>
@@ -5877,7 +5874,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N16" s="71">
         <v>45544</v>
@@ -5894,7 +5891,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E17" s="6">
         <v>156</v>
@@ -5915,7 +5912,7 @@
       </c>
       <c r="J17" s="8">
         <f t="shared" si="2"/>
-        <v>5.8869805843580654E-3</v>
+        <v>5.905410511035292E-3</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
@@ -5943,7 +5940,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E18" s="6">
         <v>57</v>
@@ -5964,7 +5961,7 @@
       </c>
       <c r="J18" s="8">
         <f t="shared" si="2"/>
-        <v>2.1510121365923701E-3</v>
+        <v>2.1577461482628949E-3</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
@@ -5992,7 +5989,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E19" s="6">
         <v>36</v>
@@ -6013,7 +6010,7 @@
       </c>
       <c r="J19" s="8">
         <f t="shared" si="2"/>
-        <v>6.7926699050285368E-3</v>
+        <v>6.8139352050407215E-3</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
@@ -6041,7 +6038,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E20" s="6">
         <v>56</v>
@@ -6062,7 +6059,7 @@
       </c>
       <c r="J20" s="8">
         <f t="shared" si="2"/>
-        <v>3.1699126223466503E-2</v>
+        <v>3.1798364290190034E-2</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
@@ -6090,7 +6087,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E21" s="6">
         <v>214</v>
@@ -6111,7 +6108,7 @@
       </c>
       <c r="J21" s="8">
         <f t="shared" si="2"/>
-        <v>4.037864887989186E-3</v>
+        <v>4.0505059274408735E-3</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
@@ -6139,7 +6136,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E22" s="6">
         <v>198</v>
@@ -6160,7 +6157,7 @@
       </c>
       <c r="J22" s="8">
         <f t="shared" si="2"/>
-        <v>4.483162137318834E-3</v>
+        <v>4.4971972353268766E-3</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
@@ -6188,7 +6185,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E23" s="6">
         <v>72</v>
@@ -6209,7 +6206,7 @@
       </c>
       <c r="J23" s="8">
         <f t="shared" si="2"/>
-        <v>8.1512038860342435E-3</v>
+        <v>8.1767222460488662E-3</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
@@ -6244,7 +6241,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E25" s="6">
         <v>33</v>
@@ -6265,7 +6262,7 @@
       </c>
       <c r="J25" s="8">
         <f t="shared" si="2"/>
-        <v>2.490645631843797E-3</v>
+        <v>2.4984429085149313E-3</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
@@ -6293,7 +6290,7 @@
         <v>38</v>
       </c>
       <c r="D26" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E26" s="6">
         <v>287</v>
@@ -6314,7 +6311,7 @@
       </c>
       <c r="J26" s="8">
         <f t="shared" si="2"/>
-        <v>1.0830534793017722E-2</v>
+        <v>1.0864441132481594E-2</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
@@ -6342,7 +6339,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E27" s="6">
         <v>47</v>
@@ -6363,7 +6360,7 @@
       </c>
       <c r="J27" s="8">
         <f t="shared" si="2"/>
-        <v>3.5472831726260138E-3</v>
+        <v>3.5583883848545991E-3</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
@@ -6391,7 +6388,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E28" s="6">
         <v>76</v>
@@ -6412,7 +6409,7 @@
       </c>
       <c r="J28" s="8">
         <f t="shared" si="2"/>
-        <v>1.147206472849264E-2</v>
+        <v>1.1507979457402107E-2</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
@@ -6440,7 +6437,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E29" s="6">
         <v>83</v>
@@ -6461,7 +6458,7 @@
       </c>
       <c r="J29" s="8">
         <f t="shared" si="2"/>
-        <v>6.2643511346374284E-3</v>
+        <v>6.2839624668708871E-3</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
@@ -6489,7 +6486,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E30" s="6">
         <v>4.8</v>
@@ -6510,7 +6507,7 @@
       </c>
       <c r="J30" s="8">
         <f t="shared" si="2"/>
-        <v>5.4341359240228293E-3</v>
+        <v>5.4511481640325769E-3</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
@@ -6538,7 +6535,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E31" s="6">
         <v>135</v>
@@ -6559,7 +6556,7 @@
       </c>
       <c r="J31" s="8">
         <f t="shared" si="2"/>
-        <v>6.6228531574028231E-3</v>
+        <v>6.6435868249147033E-3</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
@@ -6587,7 +6584,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E32" s="6">
         <v>120</v>
@@ -6608,7 +6605,7 @@
       </c>
       <c r="J32" s="8">
         <f t="shared" si="2"/>
-        <v>1.3585339810057074E-2</v>
+        <v>1.3627870410081443E-2</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
@@ -6636,7 +6633,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E33" s="6">
         <v>108</v>
@@ -6657,7 +6654,7 @@
       </c>
       <c r="J33" s="8">
         <f t="shared" si="2"/>
-        <v>6.9285233031291076E-3</v>
+        <v>6.9502139091415357E-3</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
@@ -6674,7 +6671,7 @@
         <v>43608</v>
       </c>
       <c r="O33" s="66" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
@@ -6688,7 +6685,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E34" s="6">
         <v>71</v>
@@ -6709,7 +6706,7 @@
       </c>
       <c r="J34" s="8">
         <f t="shared" si="2"/>
-        <v>3.2151970883801742E-3</v>
+        <v>3.2252626637192749E-3</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
@@ -6740,7 +6737,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E35" s="6">
         <v>50</v>
@@ -6761,7 +6758,7 @@
       </c>
       <c r="J35" s="8">
         <f t="shared" si="2"/>
-        <v>2.2642233016761789E-3</v>
+        <v>2.2713117350135737E-3</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
@@ -6789,7 +6786,7 @@
         <v>15</v>
       </c>
       <c r="D36" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E36" s="6">
         <v>55</v>
@@ -6810,7 +6807,7 @@
       </c>
       <c r="J36" s="8">
         <f t="shared" si="2"/>
-        <v>2.0755380265364974E-3</v>
+        <v>2.0820357570957761E-3</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
@@ -6839,10 +6836,10 @@
         <v>15</v>
       </c>
       <c r="D37" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E37" s="6">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F37" s="7">
         <v>91.994</v>
@@ -6852,7 +6849,7 @@
       </c>
       <c r="H37" s="6">
         <f t="shared" si="6"/>
-        <v>2120</v>
+        <v>1960</v>
       </c>
       <c r="I37" s="6">
         <f>'Dividends per year'!B37</f>
@@ -6860,15 +6857,15 @@
       </c>
       <c r="J37" s="8">
         <f t="shared" si="2"/>
-        <v>8.000255665922499E-3</v>
+        <v>7.4196183343776742E-3</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>382.38999999999987</v>
+        <v>222.38999999999987</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" si="7"/>
-        <v>0.20783420657868978</v>
+        <v>0.12087201339217768</v>
       </c>
       <c r="M37" s="10" t="s">
         <v>430</v>
@@ -6888,10 +6885,10 @@
         <v>22</v>
       </c>
       <c r="D38" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E38" s="6">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F38" s="7">
         <v>101.74</v>
@@ -6901,7 +6898,7 @@
       </c>
       <c r="H38" s="6">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I38" s="6">
         <f>'Dividends per year'!B38</f>
@@ -6909,15 +6906,15 @@
       </c>
       <c r="J38" s="8">
         <f t="shared" si="2"/>
-        <v>3.3585978974863323E-4</v>
+        <v>2.6498636908491697E-4</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>-2.779999999999994</v>
+        <v>-21.779999999999994</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" si="7"/>
-        <v>-2.7324552781600064E-2</v>
+        <v>-0.2140750933752702</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>431</v>
@@ -6937,7 +6934,7 @@
         <v>15</v>
       </c>
       <c r="D39" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E39" s="6">
         <v>92</v>
@@ -6958,7 +6955,7 @@
       </c>
       <c r="J39" s="8">
         <f t="shared" si="2"/>
-        <v>2.0830854375420847E-3</v>
+        <v>2.0896067962124878E-3</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
@@ -6986,7 +6983,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E40" s="6">
         <v>51</v>
@@ -7007,7 +7004,7 @@
       </c>
       <c r="J40" s="8">
         <f t="shared" si="2"/>
-        <v>1.4434423548185641E-2</v>
+        <v>1.4479612310711532E-2</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
@@ -7035,10 +7032,10 @@
         <v>91</v>
       </c>
       <c r="D41" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E41" s="6">
-        <v>6.15</v>
+        <v>4.7</v>
       </c>
       <c r="F41" s="7">
         <v>5.4936499999999997</v>
@@ -7048,7 +7045,7 @@
       </c>
       <c r="H41" s="6">
         <f t="shared" si="6"/>
-        <v>1230</v>
+        <v>940</v>
       </c>
       <c r="I41" s="6">
         <f>'Dividends per year'!B41</f>
@@ -7056,15 +7053,15 @@
       </c>
       <c r="J41" s="8">
         <f t="shared" si="2"/>
-        <v>4.6416577684361667E-3</v>
+        <v>3.5583883848545991E-3</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>327.52999999999997</v>
+        <v>37.529999999999973</v>
       </c>
       <c r="L41" s="8">
         <f t="shared" si="7"/>
-        <v>0.29809871396976506</v>
+        <v>3.4157618341175588E-2</v>
       </c>
       <c r="M41" s="10" t="s">
         <v>476</v>
@@ -7105,10 +7102,10 @@
         <v>22</v>
       </c>
       <c r="D43" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E43" s="6">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="F43" s="7">
         <v>25.0008892</v>
@@ -7118,7 +7115,7 @@
       </c>
       <c r="H43" s="6">
         <f t="shared" si="6"/>
-        <v>1395</v>
+        <v>1377</v>
       </c>
       <c r="I43" s="6">
         <f>'Dividends per year'!B43</f>
@@ -7126,15 +7123,15 @@
       </c>
       <c r="J43" s="8">
         <f t="shared" si="2"/>
-        <v>5.2643191763971165E-3</v>
+        <v>5.2126604318561516E-3</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>436.98998600000004</v>
+        <v>418.98998600000004</v>
       </c>
       <c r="L43" s="8">
         <f t="shared" si="7"/>
-        <v>0.38842172772709938</v>
+        <v>0.37242229679485872</v>
       </c>
       <c r="M43" s="10" t="s">
         <v>475</v>
@@ -7154,7 +7151,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E44" s="6">
         <v>146.9</v>
@@ -7175,7 +7172,7 @@
       </c>
       <c r="J44" s="8">
         <f t="shared" si="2"/>
-        <v>3.8805013685226913E-3</v>
+        <v>3.8926497618574298E-3</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="3"/>
@@ -7203,7 +7200,7 @@
         <v>15</v>
       </c>
       <c r="D45" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E45" s="6">
         <v>27</v>
@@ -7224,7 +7221,7 @@
       </c>
       <c r="J45" s="8">
         <f t="shared" si="2"/>
-        <v>2.0378009715085609E-3</v>
+        <v>2.0441805615122165E-3</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="3"/>
@@ -7252,7 +7249,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E46" s="7">
         <v>89</v>
@@ -7273,7 +7270,7 @@
       </c>
       <c r="J46" s="8">
         <f t="shared" si="2"/>
-        <v>1.578541011818576E-2</v>
+        <v>1.5834828312602967E-2</v>
       </c>
       <c r="K46" s="7">
         <f>(H46-(G46*F46)+I46)</f>
@@ -7301,7 +7298,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E47" s="6">
         <v>192</v>
@@ -7322,7 +7319,7 @@
       </c>
       <c r="J47" s="8">
         <f t="shared" si="2"/>
-        <v>3.6227572826818865E-3</v>
+        <v>3.6340987760217179E-3</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="3"/>
@@ -7350,7 +7347,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E48" s="6">
         <v>107</v>
@@ -7371,7 +7368,7 @@
       </c>
       <c r="J48" s="8">
         <f t="shared" si="2"/>
-        <v>2.4227189327935116E-3</v>
+        <v>2.4303035564645242E-3</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="3"/>
@@ -7399,7 +7396,7 @@
         <v>22</v>
       </c>
       <c r="D49" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E49" s="6">
         <v>59</v>
@@ -7420,7 +7417,7 @@
       </c>
       <c r="J49" s="8">
         <f t="shared" si="2"/>
-        <v>1.3358917479889456E-3</v>
+        <v>1.3400739236580086E-3</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="3"/>
@@ -7448,7 +7445,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E50" s="6">
         <v>330</v>
@@ -7469,7 +7466,7 @@
       </c>
       <c r="J50" s="8">
         <f t="shared" si="2"/>
-        <v>3.7359684477656953E-3</v>
+        <v>3.7476643627723967E-3</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="3"/>
@@ -7497,7 +7494,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E51" s="6">
         <v>246</v>
@@ -7518,7 +7515,7 @@
       </c>
       <c r="J51" s="8">
         <f t="shared" si="2"/>
-        <v>4.6416577684361667E-3</v>
+        <v>4.6561890567778262E-3</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="3"/>
@@ -7546,7 +7543,7 @@
         <v>38</v>
       </c>
       <c r="D52" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E52" s="6">
         <v>520</v>
@@ -7567,7 +7564,7 @@
       </c>
       <c r="J52" s="8">
         <f t="shared" si="2"/>
-        <v>1.9623268614526886E-3</v>
+        <v>1.9684701703450973E-3</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="3"/>
@@ -7587,7 +7584,7 @@
     <row r="53" spans="1:15" ht="15">
       <c r="A53" s="13"/>
       <c r="D53" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J53" s="8">
         <f t="shared" si="2"/>
@@ -7609,7 +7606,7 @@
         <v>116</v>
       </c>
       <c r="D54" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E54" s="6">
         <v>16</v>
@@ -7630,7 +7627,7 @@
       </c>
       <c r="J54" s="8">
         <f t="shared" si="2"/>
-        <v>3.0189644022349054E-3</v>
+        <v>3.0284156466847652E-3</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="3"/>
@@ -7658,7 +7655,7 @@
         <v>15</v>
       </c>
       <c r="D55" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E55" s="6">
         <v>41</v>
@@ -7679,7 +7676,7 @@
       </c>
       <c r="J55" s="8">
         <f t="shared" si="2"/>
-        <v>8.8191497600287171E-3</v>
+        <v>8.8467592078778703E-3</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" ref="K55:K62" si="8">(H55-(G55*F55)+I55)</f>
@@ -7707,7 +7704,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E56" s="7">
         <v>20</v>
@@ -7728,7 +7725,7 @@
       </c>
       <c r="J56" s="8">
         <f t="shared" si="2"/>
-        <v>3.7737055027936314E-3</v>
+        <v>3.7855195583559563E-3</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="8"/>
@@ -7756,7 +7753,7 @@
         <v>15</v>
       </c>
       <c r="D57" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E57" s="7">
         <v>80</v>
@@ -7777,7 +7774,7 @@
       </c>
       <c r="J57" s="8">
         <f t="shared" si="2"/>
-        <v>1.8113786413409432E-3</v>
+        <v>1.817049388010859E-3</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="8"/>
@@ -7805,7 +7802,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E58" s="6">
         <v>55</v>
@@ -7826,7 +7823,7 @@
       </c>
       <c r="J58" s="8">
         <f t="shared" si="2"/>
-        <v>1.0792797737989787E-2</v>
+        <v>1.0826585936898035E-2</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="8"/>
@@ -7854,7 +7851,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E59" s="7">
         <v>285</v>
@@ -7875,7 +7872,7 @@
       </c>
       <c r="J59" s="8">
         <f t="shared" si="2"/>
-        <v>5.3775303414809253E-3</v>
+        <v>5.3943653706572375E-3</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="8"/>
@@ -7892,7 +7889,7 @@
         <v>43985</v>
       </c>
       <c r="O59" s="66" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15">
@@ -7906,7 +7903,7 @@
         <v>22</v>
       </c>
       <c r="D60" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E60" s="6">
         <v>42</v>
@@ -7927,7 +7924,7 @@
       </c>
       <c r="J60" s="8">
         <f t="shared" si="2"/>
-        <v>1.5849563111733252E-3</v>
+        <v>1.5899182145095016E-3</v>
       </c>
       <c r="K60" s="7">
         <f>(H60-(G60*F60)+I60)</f>
@@ -7955,7 +7952,7 @@
         <v>15</v>
       </c>
       <c r="D61" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E61" s="7">
         <v>116</v>
@@ -7976,7 +7973,7 @@
       </c>
       <c r="J61" s="8">
         <f t="shared" si="2"/>
-        <v>1.1819245634749655E-2</v>
+        <v>1.1856247256770855E-2</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="8"/>
@@ -8004,7 +8001,7 @@
         <v>22</v>
       </c>
       <c r="D62" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E62" s="7">
         <v>421</v>
@@ -8025,7 +8022,7 @@
       </c>
       <c r="J62" s="8">
         <f t="shared" si="2"/>
-        <v>6.3549200667044753E-3</v>
+        <v>6.3748149362714305E-3</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="8"/>
@@ -8053,7 +8050,7 @@
         <v>15</v>
       </c>
       <c r="D63" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E63" s="7">
         <v>60</v>
@@ -8074,7 +8071,7 @@
       </c>
       <c r="J63" s="8">
         <f t="shared" si="2"/>
-        <v>2.2642233016761789E-3</v>
+        <v>2.2713117350135737E-3</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" ref="K63:K86" si="9">(H63-(G63*F63)+I63)</f>
@@ -8102,10 +8099,10 @@
         <v>15</v>
       </c>
       <c r="D64" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E64" s="7">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="F64" s="7">
         <v>372.4</v>
@@ -8115,7 +8112,7 @@
       </c>
       <c r="H64" s="6">
         <f t="shared" si="6"/>
-        <v>1010</v>
+        <v>1040</v>
       </c>
       <c r="I64" s="6">
         <f>'Dividends per year'!B64</f>
@@ -8123,15 +8120,15 @@
       </c>
       <c r="J64" s="8">
         <f t="shared" si="2"/>
-        <v>3.811442557821568E-3</v>
+        <v>3.9369403406901947E-3</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="9"/>
-        <v>265.20000000000005</v>
+        <v>295.20000000000005</v>
       </c>
       <c r="L64" s="8">
         <f t="shared" si="7"/>
-        <v>0.35606874328678839</v>
+        <v>0.39634801288936639</v>
       </c>
       <c r="M64" s="10" t="s">
         <v>401</v>
@@ -8154,7 +8151,7 @@
         <v>15</v>
       </c>
       <c r="D65" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E65" s="7">
         <v>110</v>
@@ -8175,7 +8172,7 @@
       </c>
       <c r="J65" s="8">
         <f t="shared" si="2"/>
-        <v>4.1510760530729949E-3</v>
+        <v>4.1640715141915523E-3</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="9"/>
@@ -8203,7 +8200,7 @@
         <v>15</v>
       </c>
       <c r="D66" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E66" s="7">
         <v>53</v>
@@ -8224,7 +8221,7 @@
       </c>
       <c r="J66" s="8">
         <f t="shared" si="2"/>
-        <v>5.0254906007037893E-3</v>
+        <v>5.0412235255811282E-3</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="9"/>
@@ -8252,7 +8249,7 @@
         <v>22</v>
       </c>
       <c r="D67" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E67" s="7">
         <v>52</v>
@@ -8273,7 +8270,7 @@
       </c>
       <c r="J67" s="8">
         <f t="shared" ref="J67:J120" si="11">H67/$O$5</f>
-        <v>4.9058171536317209E-3</v>
+        <v>4.9211754258627434E-3</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" si="9"/>
@@ -8301,10 +8298,10 @@
         <v>15</v>
       </c>
       <c r="D68" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E68" s="7">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="F68" s="7">
         <v>168.798</v>
@@ -8314,7 +8311,7 @@
       </c>
       <c r="H68" s="6">
         <f t="shared" si="6"/>
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="I68" s="6">
         <f>'Dividends per year'!B68</f>
@@ -8322,15 +8319,15 @@
       </c>
       <c r="J68" s="8">
         <f t="shared" si="11"/>
-        <v>4.9058171536317209E-3</v>
+        <v>5.6782793375339344E-3</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" si="9"/>
-        <v>480.21999999999997</v>
+        <v>680.22</v>
       </c>
       <c r="L68" s="8">
         <f t="shared" si="10"/>
-        <v>0.56898778421545271</v>
+        <v>0.80595741655706821</v>
       </c>
       <c r="M68" s="10" t="s">
         <v>441</v>
@@ -8350,7 +8347,7 @@
         <v>15</v>
       </c>
       <c r="D69" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E69" s="7">
         <v>72</v>
@@ -8371,7 +8368,7 @@
       </c>
       <c r="J69" s="8">
         <f t="shared" si="11"/>
-        <v>4.8907223316205463E-3</v>
+        <v>4.9060333476293192E-3</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="9"/>
@@ -8399,7 +8396,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E70" s="7">
         <v>91</v>
@@ -8420,7 +8417,7 @@
       </c>
       <c r="J70" s="8">
         <f t="shared" si="11"/>
-        <v>3.434072007542205E-3</v>
+        <v>3.4448227981039204E-3</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="9"/>
@@ -8448,10 +8445,10 @@
         <v>22</v>
       </c>
       <c r="D71" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E71" s="7">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F71" s="7">
         <v>80.447999999999993</v>
@@ -8461,7 +8458,7 @@
       </c>
       <c r="H71" s="6">
         <f t="shared" si="6"/>
-        <v>1110</v>
+        <v>1010</v>
       </c>
       <c r="I71" s="6">
         <f>'Dividends per year'!B71</f>
@@ -8469,15 +8466,15 @@
       </c>
       <c r="J71" s="8">
         <f t="shared" si="11"/>
-        <v>4.1888131081009314E-3</v>
+        <v>3.8233747539395159E-3</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="9"/>
-        <v>408.74000000000012</v>
+        <v>308.74000000000012</v>
       </c>
       <c r="L71" s="8">
         <f t="shared" si="10"/>
-        <v>0.50807975338106615</v>
+        <v>0.38377585521081969</v>
       </c>
       <c r="M71" s="10" t="s">
         <v>444</v>
@@ -8497,7 +8494,7 @@
         <v>15</v>
       </c>
       <c r="D72" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E72" s="7">
         <v>176</v>
@@ -8518,7 +8515,7 @@
       </c>
       <c r="J72" s="8">
         <f t="shared" si="11"/>
-        <v>4.649205179441754E-3</v>
+        <v>4.6637600958945383E-3</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="9"/>
@@ -8546,7 +8543,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E73" s="7">
         <v>17</v>
@@ -8567,7 +8564,7 @@
       </c>
       <c r="J73" s="8">
         <f t="shared" si="11"/>
-        <v>5.1322394837993394E-3</v>
+        <v>5.1483065993641009E-3</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="9"/>
@@ -8595,7 +8592,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E74" s="7">
         <v>607</v>
@@ -8616,7 +8613,7 @@
       </c>
       <c r="J74" s="8">
         <f t="shared" si="11"/>
-        <v>2.2906392401957345E-3</v>
+        <v>2.2978103719220656E-3</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="9"/>
@@ -8644,7 +8641,7 @@
         <v>22</v>
       </c>
       <c r="D75" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E75" s="7">
         <v>280</v>
@@ -8665,7 +8662,7 @@
       </c>
       <c r="J75" s="8">
         <f t="shared" si="11"/>
-        <v>1.0566375407822168E-3</v>
+        <v>1.0599454763396679E-3</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="9"/>
@@ -8693,7 +8690,7 @@
         <v>38</v>
       </c>
       <c r="D76" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E76" s="7">
         <v>320</v>
@@ -8714,7 +8711,7 @@
       </c>
       <c r="J76" s="8">
         <f t="shared" si="11"/>
-        <v>2.4151715217879243E-3</v>
+        <v>2.4227325173478121E-3</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="9"/>
@@ -8742,7 +8739,7 @@
         <v>15</v>
       </c>
       <c r="D77" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E77" s="7">
         <v>5.8</v>
@@ -8763,7 +8760,7 @@
       </c>
       <c r="J77" s="8">
         <f t="shared" si="11"/>
-        <v>2.1887491916203062E-3</v>
+        <v>2.1956013438464545E-3</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="9"/>
@@ -8791,7 +8788,7 @@
         <v>15</v>
       </c>
       <c r="D78" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E78" s="7">
         <v>7</v>
@@ -8812,7 +8809,7 @@
       </c>
       <c r="J78" s="8">
         <f t="shared" si="11"/>
-        <v>4.3057979786875339E-3</v>
+        <v>4.3192778160841463E-3</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="9"/>
@@ -8840,7 +8837,7 @@
         <v>22</v>
       </c>
       <c r="D79" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E79" s="7">
         <v>32</v>
@@ -8861,7 +8858,7 @@
       </c>
       <c r="J79" s="8">
         <f t="shared" si="11"/>
-        <v>1.8113786413409432E-3</v>
+        <v>1.817049388010859E-3</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="9"/>
@@ -8889,7 +8886,7 @@
         <v>58</v>
       </c>
       <c r="D80" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E80" s="7">
         <v>88</v>
@@ -8910,7 +8907,7 @@
       </c>
       <c r="J80" s="8">
         <f t="shared" si="11"/>
-        <v>3.3208608424583957E-3</v>
+        <v>3.3312572113532416E-3</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="9"/>
@@ -8938,7 +8935,7 @@
         <v>15</v>
       </c>
       <c r="D81" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E81" s="7">
         <v>52</v>
@@ -8959,7 +8956,7 @@
       </c>
       <c r="J81" s="8">
         <f t="shared" si="11"/>
-        <v>2.9434902921790327E-3</v>
+        <v>2.952705255517646E-3</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="9"/>
@@ -8987,7 +8984,7 @@
         <v>22</v>
       </c>
       <c r="D82" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E82" s="7">
         <v>4</v>
@@ -9008,7 +9005,7 @@
       </c>
       <c r="J82" s="8">
         <f t="shared" si="11"/>
-        <v>3.0189644022349054E-3</v>
+        <v>3.0284156466847652E-3</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="9"/>
@@ -9052,7 +9049,7 @@
         <v>58</v>
       </c>
       <c r="D84" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E84" s="6">
         <v>2.1459999999999999</v>
@@ -9073,7 +9070,7 @@
       </c>
       <c r="J84" s="8">
         <f t="shared" si="11"/>
-        <v>4.049186004497567E-3</v>
+        <v>4.0618624861159412E-3</v>
       </c>
       <c r="K84" s="7">
         <f>(H84-(G84*F84)+I84)</f>
@@ -9101,7 +9098,7 @@
         <v>56</v>
       </c>
       <c r="D85" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E85" s="6">
         <v>0.48</v>
@@ -9122,7 +9119,7 @@
       </c>
       <c r="J85" s="8">
         <f t="shared" si="11"/>
-        <v>1.8113786413409432E-3</v>
+        <v>1.817049388010859E-3</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="9"/>
@@ -9150,7 +9147,7 @@
         <v>63</v>
       </c>
       <c r="D86" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E86" s="6">
         <v>2.3570000000000002</v>
@@ -9171,7 +9168,7 @@
       </c>
       <c r="J86" s="8">
         <f t="shared" si="11"/>
-        <v>4.4473119350422951E-3</v>
+        <v>4.4612347995224948E-3</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="9"/>
@@ -9199,7 +9196,7 @@
         <v>72</v>
       </c>
       <c r="D87" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E87" s="6">
         <v>8.4</v>
@@ -9220,7 +9217,7 @@
       </c>
       <c r="J87" s="8">
         <f t="shared" si="11"/>
-        <v>2.2189388356426555E-3</v>
+        <v>2.2258855003133024E-3</v>
       </c>
       <c r="K87" s="7">
         <f>(H87-(G87*F87)+I87)</f>
@@ -9248,7 +9245,7 @@
         <v>22</v>
       </c>
       <c r="D88" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E88" s="7">
         <v>1.83</v>
@@ -9269,7 +9266,7 @@
       </c>
       <c r="J88" s="8">
         <f t="shared" si="11"/>
-        <v>1.0358821605168519E-3</v>
+        <v>1.03912511876871E-3</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" ref="K88:K98" si="13">(H88-(G88*F88)+I88)</f>
@@ -9297,7 +9294,7 @@
         <v>15</v>
       </c>
       <c r="D89" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E89" s="7">
         <v>5.25</v>
@@ -9318,7 +9315,7 @@
       </c>
       <c r="J89" s="8">
         <f t="shared" si="11"/>
-        <v>1.5849563111733252E-3</v>
+        <v>1.5899182145095016E-3</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="13"/>
@@ -9346,7 +9343,7 @@
         <v>15</v>
       </c>
       <c r="D90" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E90" s="7">
         <v>40</v>
@@ -9367,7 +9364,7 @@
       </c>
       <c r="J90" s="8">
         <f t="shared" si="11"/>
-        <v>1.6604304212291979E-3</v>
+        <v>1.6656286056766208E-3</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="13"/>
@@ -9395,7 +9392,7 @@
         <v>15</v>
       </c>
       <c r="D91" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E91" s="7">
         <v>40</v>
@@ -9416,7 +9413,7 @@
       </c>
       <c r="J91" s="8">
         <f t="shared" si="11"/>
-        <v>3.0189644022349054E-4</v>
+        <v>3.0284156466847651E-4</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="13"/>
@@ -9444,7 +9441,7 @@
         <v>15</v>
       </c>
       <c r="D92" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E92" s="7">
         <v>17.8</v>
@@ -9465,7 +9462,7 @@
       </c>
       <c r="J92" s="8">
         <f t="shared" si="11"/>
-        <v>1.3434391589945329E-3</v>
+        <v>1.3476449627747205E-3</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="13"/>
@@ -9493,7 +9490,7 @@
         <v>72</v>
       </c>
       <c r="D93" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E93" s="7">
         <v>7</v>
@@ -9514,7 +9511,7 @@
       </c>
       <c r="J93" s="8">
         <f t="shared" si="11"/>
-        <v>5.2831877039110839E-4</v>
+        <v>5.2997273816983393E-4</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="13"/>
@@ -9542,7 +9539,7 @@
         <v>72</v>
       </c>
       <c r="D94" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E94" s="7">
         <v>2.6</v>
@@ -9563,7 +9560,7 @@
       </c>
       <c r="J94" s="8">
         <f t="shared" si="11"/>
-        <v>1.4717451460895163E-3</v>
+        <v>1.476352627758823E-3</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="13"/>
@@ -9591,7 +9588,7 @@
         <v>15</v>
       </c>
       <c r="D95" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E95" s="7">
         <v>14.6</v>
@@ -9612,7 +9609,7 @@
       </c>
       <c r="J95" s="8">
         <f t="shared" si="11"/>
-        <v>1.6528830102236105E-3</v>
+        <v>1.6580575665599089E-3</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="13"/>
@@ -9640,7 +9637,7 @@
         <v>22</v>
       </c>
       <c r="D96" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E96" s="7">
         <v>112</v>
@@ -9661,7 +9658,7 @@
       </c>
       <c r="J96" s="8">
         <f t="shared" si="11"/>
-        <v>1.2679650489386602E-3</v>
+        <v>1.2719345716076013E-3</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="13"/>
@@ -9689,7 +9686,7 @@
         <v>72</v>
       </c>
       <c r="D97" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E97" s="7">
         <v>1.83</v>
@@ -9710,7 +9707,7 @@
       </c>
       <c r="J97" s="8">
         <f t="shared" si="11"/>
-        <v>1.7264702675280864E-3</v>
+        <v>1.7318751979478501E-3</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="13"/>
@@ -9738,7 +9735,7 @@
         <v>72</v>
       </c>
       <c r="D98" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E98" s="7">
         <v>1.07</v>
@@ -9759,7 +9756,7 @@
       </c>
       <c r="J98" s="8">
         <f t="shared" si="11"/>
-        <v>4.037864887989186E-3</v>
+        <v>4.0505059274408735E-3</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="13"/>
@@ -9787,7 +9784,7 @@
         <v>72</v>
       </c>
       <c r="D99" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E99" s="6">
         <v>5.9</v>
@@ -9808,7 +9805,7 @@
       </c>
       <c r="J99" s="8">
         <f t="shared" si="11"/>
-        <v>2.2264862466482428E-3</v>
+        <v>2.2334565394300141E-3</v>
       </c>
       <c r="K99" s="7">
         <f>(H99-(G99*F99)+I99)</f>
@@ -9836,7 +9833,7 @@
         <v>15</v>
       </c>
       <c r="D100" s="76" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E100" s="6">
         <v>78</v>
@@ -9857,7 +9854,7 @@
       </c>
       <c r="J100" s="8">
         <f t="shared" si="11"/>
-        <v>3.2378393213969357E-3</v>
+        <v>3.2479757810694107E-3</v>
       </c>
       <c r="K100" s="7">
         <f>(H100-(G100*F100)+I100)</f>
@@ -9979,7 +9976,7 @@
       </c>
       <c r="J105" s="8">
         <f t="shared" si="11"/>
-        <v>2.316300437614731E-4</v>
+        <v>2.3235519049188857E-4</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" ref="K105:K110" si="14">(H105-(G105*F105)+I105)</f>
@@ -9998,7 +9995,7 @@
     </row>
     <row r="106" spans="1:14" ht="15">
       <c r="A106" s="13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B106" s="152" t="s">
         <v>201</v>
@@ -10026,7 +10023,7 @@
       </c>
       <c r="J106" s="8">
         <f t="shared" si="11"/>
-        <v>4.4144361674430577E-4</v>
+        <v>4.4282561102340097E-4</v>
       </c>
       <c r="K106" s="7">
         <f t="shared" si="14"/>
@@ -10073,7 +10070,7 @@
       </c>
       <c r="J107" s="8">
         <f t="shared" si="11"/>
-        <v>1.2355111816146351E-4</v>
+        <v>1.2393791034057402E-4</v>
       </c>
       <c r="K107" s="7">
         <f t="shared" si="14"/>
@@ -10120,7 +10117,7 @@
       </c>
       <c r="J108" s="8">
         <f t="shared" si="11"/>
-        <v>5.5322522670954643E-5</v>
+        <v>5.5495716725498317E-5</v>
       </c>
       <c r="K108" s="7">
         <f t="shared" si="14"/>
@@ -10167,7 +10164,7 @@
       </c>
       <c r="J109" s="8">
         <f t="shared" si="11"/>
-        <v>9.690875731174046E-5</v>
+        <v>9.7212142258580963E-5</v>
       </c>
       <c r="K109" s="7">
         <f t="shared" si="14"/>
@@ -10214,7 +10211,7 @@
       </c>
       <c r="J110" s="8">
         <f t="shared" si="11"/>
-        <v>3.6604943377098226E-4</v>
+        <v>3.6719539716052778E-4</v>
       </c>
       <c r="K110" s="7">
         <f t="shared" si="14"/>
@@ -10261,7 +10258,7 @@
       </c>
       <c r="J111" s="8">
         <f t="shared" si="11"/>
-        <v>1.6906200652515469E-3</v>
+        <v>1.6959127621434685E-3</v>
       </c>
       <c r="K111" s="7">
         <f>(H111-(G111*F111)+I111)</f>
@@ -10283,7 +10280,7 @@
         <v>396</v>
       </c>
       <c r="B112" s="153" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C112" s="77" t="s">
         <v>15</v>
@@ -10306,7 +10303,7 @@
       </c>
       <c r="J112" s="8">
         <f t="shared" si="11"/>
-        <v>9.4342637569840793E-5</v>
+        <v>9.4637988958898913E-5</v>
       </c>
       <c r="K112" s="7">
         <f>(H112-(G112*F112)+I112)</f>
@@ -18721,7 +18718,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -21958,10 +21955,10 @@
     <row r="132" spans="1:21" ht="12.75">
       <c r="A132" s="4"/>
       <c r="B132" s="84" t="s">
+        <v>498</v>
+      </c>
+      <c r="C132" s="84" t="s">
         <v>499</v>
-      </c>
-      <c r="C132" s="84" t="s">
-        <v>500</v>
       </c>
       <c r="D132" s="155">
         <f>D131/C131-1</f>
@@ -33523,7 +33520,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -33554,10 +33551,10 @@
         <v>273</v>
       </c>
       <c r="F1" s="136" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G1" s="156" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1" s="81" t="s">
         <v>274</v>
@@ -33725,11 +33722,9 @@
         <v>2024</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>540</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>539</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="C8" s="67"/>
       <c r="D8" s="68">
         <f>(-1187.53)+1213.67+29.91+312.32+29.85-(95.32)+1.07+894.5+168.9+231.04+310.11+269.62-638.56+(2838.79-605.59)</f>
         <v>3772.78</v>
@@ -33756,13 +33751,19 @@
         <v>2025</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>481</v>
+        <v>562</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>537</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="139"/>
+        <v>563</v>
+      </c>
+      <c r="D9" s="68">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="68">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="F9" s="139"/>
       <c r="G9" s="157">
         <f t="shared" ref="G9" si="1">D9+E9</f>
@@ -51495,301 +51496,301 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="130" customWidth="1"/>
-    <col min="2" max="2" width="13" style="177" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="170" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="172" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="174" customWidth="1"/>
+    <col min="2" max="2" width="13" style="176" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="169" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="171" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="173" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" style="163" customWidth="1"/>
-    <col min="7" max="7" width="18" style="167" customWidth="1"/>
+    <col min="7" max="7" width="18" style="166" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="F1" s="163" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1" s="166" t="s">
         <v>516</v>
-      </c>
-      <c r="G1" s="167" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="176" t="s">
-        <v>491</v>
-      </c>
-      <c r="B3" s="178" t="s">
+      <c r="A3" s="175" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="170" t="s">
         <v>488</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="D3" s="172" t="s">
         <v>489</v>
       </c>
-      <c r="D3" s="173" t="s">
-        <v>490</v>
-      </c>
-      <c r="E3" s="175" t="s">
-        <v>495</v>
+      <c r="E3" s="174" t="s">
+        <v>494</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>494</v>
-      </c>
-      <c r="G3" s="168" t="s">
-        <v>504</v>
+        <v>493</v>
+      </c>
+      <c r="G3" s="167" t="s">
+        <v>503</v>
       </c>
       <c r="H3" s="140" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.25">
-      <c r="A4" s="176" t="s">
-        <v>493</v>
-      </c>
-      <c r="B4" s="178">
+      <c r="A4" s="175" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="177">
         <v>260</v>
       </c>
-      <c r="C4" s="171">
+      <c r="C4" s="170">
         <v>153</v>
       </c>
-      <c r="D4" s="173">
+      <c r="D4" s="172">
         <v>155</v>
       </c>
-      <c r="E4" s="175">
+      <c r="E4" s="174">
         <f>B4*C4</f>
         <v>39780</v>
       </c>
       <c r="F4" s="164">
-        <f>(B4*D4)-(B4*C4)-139.8</f>
-        <v>380.2</v>
-      </c>
-      <c r="G4" s="168">
+        <f>((B4*D4)*0.995)-((B4*C4)*0.995)-2</f>
+        <v>515.40000000000146</v>
+      </c>
+      <c r="G4" s="167">
         <f>F4*0.74</f>
-        <v>281.34800000000001</v>
+        <v>381.3960000000011</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="8" spans="1:8" ht="24" thickBot="1">
-      <c r="A8" s="176" t="s">
-        <v>492</v>
-      </c>
-      <c r="B8" s="178" t="s">
+      <c r="A8" s="175" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="C8" s="170" t="s">
         <v>488</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="D8" s="172" t="s">
         <v>489</v>
       </c>
-      <c r="D8" s="173" t="s">
-        <v>490</v>
-      </c>
-      <c r="E8" s="175" t="s">
-        <v>495</v>
+      <c r="E8" s="174" t="s">
+        <v>494</v>
       </c>
       <c r="F8" s="165" t="s">
-        <v>494</v>
-      </c>
-      <c r="G8" s="168" t="s">
-        <v>504</v>
+        <v>493</v>
+      </c>
+      <c r="G8" s="167" t="s">
+        <v>503</v>
       </c>
       <c r="H8" s="140" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" thickBot="1">
-      <c r="A9" s="176" t="s">
+      <c r="A9" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="178">
+      <c r="B9" s="177">
         <v>35</v>
       </c>
-      <c r="C9" s="171">
+      <c r="C9" s="170">
         <v>163</v>
       </c>
-      <c r="D9" s="173">
+      <c r="D9" s="172">
         <v>180</v>
       </c>
-      <c r="E9" s="175">
+      <c r="E9" s="174">
         <f>B9*C9</f>
         <v>5705</v>
       </c>
-      <c r="F9" s="166">
-        <f>(B9*D9)-(B9*C9)-139.8</f>
-        <v>455.2</v>
-      </c>
-      <c r="G9" s="168">
+      <c r="F9" s="186">
+        <f>((B9*D9)*0.995)-((B9*C9)*0.995)-2</f>
+        <v>590.02499999999964</v>
+      </c>
+      <c r="G9" s="167">
         <f>F9*0.74</f>
-        <v>336.84800000000001</v>
+        <v>436.6184999999997</v>
       </c>
       <c r="H9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="13" spans="1:8" ht="24" thickBot="1">
-      <c r="A13" s="176" t="s">
-        <v>496</v>
-      </c>
-      <c r="B13" s="178" t="s">
+      <c r="A13" s="175" t="s">
+        <v>495</v>
+      </c>
+      <c r="B13" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="170" t="s">
         <v>488</v>
       </c>
-      <c r="C13" s="171" t="s">
+      <c r="D13" s="172" t="s">
         <v>489</v>
       </c>
-      <c r="D13" s="173" t="s">
-        <v>490</v>
-      </c>
-      <c r="E13" s="175" t="s">
-        <v>495</v>
+      <c r="E13" s="174" t="s">
+        <v>494</v>
       </c>
       <c r="F13" s="165" t="s">
-        <v>494</v>
-      </c>
-      <c r="G13" s="168" t="s">
-        <v>504</v>
+        <v>493</v>
+      </c>
+      <c r="G13" s="167" t="s">
+        <v>503</v>
       </c>
       <c r="H13" s="140" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" thickBot="1">
-      <c r="A14" s="176" t="s">
-        <v>497</v>
-      </c>
-      <c r="B14" s="178">
+      <c r="A14" s="175" t="s">
+        <v>496</v>
+      </c>
+      <c r="B14" s="177">
         <v>87</v>
       </c>
-      <c r="C14" s="171">
+      <c r="C14" s="170">
         <v>465</v>
       </c>
-      <c r="D14" s="173">
+      <c r="D14" s="172">
         <v>510</v>
       </c>
-      <c r="E14" s="175">
+      <c r="E14" s="174">
         <f>B14*C14</f>
         <v>40455</v>
       </c>
-      <c r="F14" s="166">
-        <f>(B14*D14)-(B14*C14)-139.8</f>
-        <v>3775.2</v>
-      </c>
-      <c r="G14" s="168">
+      <c r="F14" s="186">
+        <f>((B14*D14)*0.995)-((B14*C14)*0.995)-2</f>
+        <v>3893.4250000000029</v>
+      </c>
+      <c r="G14" s="167">
         <f>F14*0.74</f>
-        <v>2793.6479999999997</v>
+        <v>2881.1345000000019</v>
       </c>
       <c r="H14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="18" spans="1:8" ht="24" thickBot="1">
-      <c r="A18" s="176" t="s">
-        <v>535</v>
-      </c>
-      <c r="B18" s="178" t="s">
+      <c r="A18" s="175" t="s">
+        <v>534</v>
+      </c>
+      <c r="B18" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" s="170" t="s">
         <v>488</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="D18" s="172" t="s">
         <v>489</v>
       </c>
-      <c r="D18" s="173" t="s">
-        <v>490</v>
-      </c>
-      <c r="E18" s="175" t="s">
-        <v>495</v>
+      <c r="E18" s="174" t="s">
+        <v>494</v>
       </c>
       <c r="F18" s="165" t="s">
-        <v>494</v>
-      </c>
-      <c r="G18" s="169" t="s">
-        <v>504</v>
+        <v>493</v>
+      </c>
+      <c r="G18" s="168" t="s">
+        <v>503</v>
       </c>
       <c r="H18" s="140" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" thickBot="1">
-      <c r="A19" s="176" t="s">
-        <v>498</v>
-      </c>
-      <c r="B19" s="178">
+      <c r="A19" s="175" t="s">
+        <v>497</v>
+      </c>
+      <c r="B19" s="177">
         <v>1500</v>
       </c>
-      <c r="C19" s="171">
+      <c r="C19" s="170">
         <v>25</v>
       </c>
-      <c r="D19" s="173">
+      <c r="D19" s="172">
         <v>26</v>
       </c>
-      <c r="E19" s="175">
+      <c r="E19" s="174">
         <f>B19*C19</f>
         <v>37500</v>
       </c>
-      <c r="F19" s="166">
-        <f>(B19*D19)-(B19*C19)-139.8</f>
-        <v>1360.2</v>
-      </c>
-      <c r="G19" s="169">
+      <c r="F19" s="186">
+        <f>((B19*D19)*0.995)-((B19*C19)*0.995)-2</f>
+        <v>1490.5</v>
+      </c>
+      <c r="G19" s="168">
         <f>F19*0.74</f>
-        <v>1006.548</v>
+        <v>1102.97</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="23" spans="1:8" ht="24" thickBot="1">
-      <c r="A23" s="176" t="s">
-        <v>536</v>
-      </c>
-      <c r="B23" s="178" t="s">
+      <c r="A23" s="175" t="s">
+        <v>535</v>
+      </c>
+      <c r="B23" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" s="170" t="s">
         <v>488</v>
       </c>
-      <c r="C23" s="171" t="s">
+      <c r="D23" s="172" t="s">
         <v>489</v>
       </c>
-      <c r="D23" s="173" t="s">
-        <v>490</v>
-      </c>
-      <c r="E23" s="175" t="s">
-        <v>495</v>
+      <c r="E23" s="174" t="s">
+        <v>494</v>
       </c>
       <c r="F23" s="165" t="s">
-        <v>494</v>
-      </c>
-      <c r="G23" s="169" t="s">
-        <v>504</v>
+        <v>493</v>
+      </c>
+      <c r="G23" s="168" t="s">
+        <v>503</v>
       </c>
       <c r="H23" s="140" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" thickBot="1">
-      <c r="A24" s="176" t="s">
-        <v>523</v>
-      </c>
-      <c r="B24" s="178">
-        <v>50</v>
-      </c>
-      <c r="C24" s="171">
-        <v>616</v>
-      </c>
-      <c r="D24" s="173">
+      <c r="A24" s="175" t="s">
+        <v>522</v>
+      </c>
+      <c r="B24" s="177">
+        <v>10</v>
+      </c>
+      <c r="C24" s="170">
         <v>650</v>
       </c>
-      <c r="E24" s="175">
+      <c r="D24" s="172">
+        <v>700</v>
+      </c>
+      <c r="E24" s="174">
         <f>B24*C24</f>
-        <v>30800</v>
-      </c>
-      <c r="F24" s="166">
-        <f>(B24*D24)-(B24*C24)-139.8</f>
-        <v>1560.2</v>
-      </c>
-      <c r="G24" s="169">
+        <v>6500</v>
+      </c>
+      <c r="F24" s="186">
+        <f>((B24*D24)*0.995)-((B24*C24)*0.995)-2</f>
+        <v>495.5</v>
+      </c>
+      <c r="G24" s="168">
         <f>F24*0.74</f>
-        <v>1154.548</v>
+        <v>366.67</v>
       </c>
       <c r="H24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -51808,7 +51809,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -51862,7 +51863,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="N1" s="73" t="s">
         <v>12</v>
@@ -52594,7 +52595,7 @@
     </row>
     <row r="18" spans="1:13" ht="15">
       <c r="A18" s="103" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C18" s="76" t="s">
         <v>15</v>
@@ -52745,7 +52746,10 @@
       <c r="L21" s="71">
         <v>45631</v>
       </c>
-      <c r="M21" s="7"/>
+      <c r="M21" s="7">
+        <f>4*0.4175*F21*0.9</f>
+        <v>751.5</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="M22" s="7"/>
@@ -53232,7 +53236,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L36" s="86">
         <v>43169</v>
@@ -53270,7 +53274,7 @@
         <v>-0.25775978407557343</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L37" s="86">
         <v>43170</v>
@@ -53491,7 +53495,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L43" s="86">
         <v>43176</v>
@@ -53525,7 +53529,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L44" s="86">
         <v>43177</v>
@@ -53615,7 +53619,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="7">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="E47" s="7">
         <v>148.04</v>
@@ -53625,16 +53629,16 @@
       </c>
       <c r="G47" s="6">
         <f t="shared" si="0"/>
-        <v>2670</v>
+        <v>3060</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
-        <v>449.40000000000009</v>
+        <v>839.40000000000009</v>
       </c>
       <c r="J47" s="8">
         <f t="shared" si="1"/>
-        <v>0.2023777357470955</v>
+        <v>0.37800594433936774</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>355</v>
@@ -53642,7 +53646,10 @@
       <c r="L47" s="86">
         <v>43180</v>
       </c>
-      <c r="M47" s="7"/>
+      <c r="M47" s="7">
+        <f>1*4.75*F47</f>
+        <v>71.25</v>
+      </c>
     </row>
     <row r="48" spans="1:13" ht="15">
       <c r="A48" s="13" t="s">
@@ -53807,7 +53814,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L52" s="86">
         <v>43185</v>
@@ -53845,7 +53852,7 @@
         <v>-0.56956521739130439</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L53" s="86">
         <v>43186</v>
@@ -53934,7 +53941,7 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C56" s="76" t="s">
         <v>15</v>
@@ -63375,7 +63382,7 @@
         <v>322</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C4" s="76" t="s">
         <v>15</v>
@@ -63416,7 +63423,7 @@
         <v>306</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>15</v>
@@ -63454,7 +63461,7 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1">
       <c r="A6" s="101" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -63495,7 +63502,7 @@
     </row>
     <row r="7" spans="1:30" ht="15">
       <c r="A7" s="103" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="76"/>
@@ -63532,7 +63539,7 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1">
       <c r="A8" s="103" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="76"/>
@@ -63564,7 +63571,7 @@
     </row>
     <row r="9" spans="1:30" s="88" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="103" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="76"/>
@@ -63740,7 +63747,7 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
       <c r="A13" s="103" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="76"/>
@@ -63773,7 +63780,7 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1">
       <c r="A14" s="103" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="76"/>
@@ -63806,7 +63813,7 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1">
       <c r="A15" s="103" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="76"/>
@@ -63839,7 +63846,7 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
       <c r="A16" s="103" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="76"/>
@@ -63872,7 +63879,7 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="103" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="76"/>
@@ -63905,7 +63912,7 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="103" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="76"/>
@@ -64100,7 +64107,7 @@
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -64130,7 +64137,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="76" t="s">
@@ -64162,10 +64169,10 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="C27" s="76" t="s">
         <v>15</v>
@@ -64196,7 +64203,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="A28" s="104" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="76" t="s">
@@ -64228,10 +64235,10 @@
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C29" s="76" t="s">
         <v>15</v>
@@ -64262,7 +64269,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -64291,7 +64298,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -73525,14 +73532,14 @@
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="186" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="73" customFormat="1" ht="18">
       <c r="B1" s="73" t="s">
-        <v>529</v>
-      </c>
-      <c r="C1" s="185">
+        <v>528</v>
+      </c>
+      <c r="C1" s="184">
         <v>2024</v>
       </c>
       <c r="D1" s="73">
@@ -73592,10 +73599,10 @@
     </row>
     <row r="2" spans="1:21" ht="15">
       <c r="A2" s="187" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C2" s="105">
         <f>67000</f>
@@ -73611,7 +73618,7 @@
     <row r="3" spans="1:21" ht="15">
       <c r="A3" s="188"/>
       <c r="B3" s="101" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C3" s="105">
         <v>2400</v>
@@ -73640,7 +73647,7 @@
     <row r="7" spans="1:21" ht="15">
       <c r="A7" s="188"/>
       <c r="B7" s="101" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C7" s="105">
         <f>SUM(C2:C6)</f>
@@ -73653,10 +73660,10 @@
     </row>
     <row r="8" spans="1:21" ht="15">
       <c r="A8" s="118" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B8" s="101" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C8" s="105">
         <f>'Dividends per year'!D131</f>
@@ -73672,13 +73679,13 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="15">
-      <c r="A11" s="179" t="s">
-        <v>530</v>
-      </c>
-      <c r="B11" s="180" t="s">
-        <v>550</v>
-      </c>
-      <c r="C11" s="186">
+      <c r="A11" s="178" t="s">
+        <v>529</v>
+      </c>
+      <c r="B11" s="179" t="s">
+        <v>547</v>
+      </c>
+      <c r="C11" s="185">
         <f>(2/12)*7600</f>
         <v>1266.6666666666665</v>
       </c>
@@ -73738,9 +73745,9 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15">
-      <c r="A12" s="179"/>
+      <c r="A12" s="178"/>
       <c r="B12" s="101" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E12">
         <f>20000/20</f>
@@ -73812,9 +73819,9 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15">
-      <c r="A13" s="179"/>
+      <c r="A13" s="178"/>
       <c r="B13" s="101" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D13">
         <f>17000/10</f>
@@ -73861,58 +73868,58 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15">
-      <c r="A14" s="179"/>
+      <c r="A14" s="178"/>
       <c r="B14" s="101" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15">
-      <c r="A15" s="179"/>
+      <c r="A15" s="178"/>
       <c r="B15" s="101" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
-      <c r="A16" s="179"/>
+      <c r="A16" s="178"/>
       <c r="B16" s="101" t="s">
-        <v>555</v>
-      </c>
-      <c r="C16" s="186">
+        <v>552</v>
+      </c>
+      <c r="C16" s="185">
         <v>2022.15</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15">
-      <c r="A17" s="179"/>
+      <c r="A17" s="178"/>
       <c r="B17" s="101" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E17">
         <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15">
-      <c r="A18" s="179"/>
-      <c r="B18" s="180" t="s">
-        <v>547</v>
+      <c r="A18" s="178"/>
+      <c r="B18" s="179" t="s">
+        <v>544</v>
       </c>
       <c r="D18">
         <v>7000</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15">
-      <c r="A19" s="179"/>
+      <c r="A19" s="178"/>
       <c r="B19" s="101"/>
     </row>
     <row r="20" spans="1:21" ht="15">
-      <c r="A20" s="179"/>
+      <c r="A20" s="178"/>
       <c r="B20" s="101"/>
     </row>
     <row r="21" spans="1:21" ht="15">
-      <c r="A21" s="179"/>
+      <c r="A21" s="178"/>
       <c r="B21" s="101" t="s">
-        <v>485</v>
-      </c>
-      <c r="C21" s="186">
+        <v>484</v>
+      </c>
+      <c r="C21" s="185">
         <f>SUM(C11:C20)</f>
         <v>3288.8166666666666</v>
       </c>
@@ -73990,13 +73997,13 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="C26" s="186" t="s">
-        <v>553</v>
+      <c r="C26" s="185" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="C27" s="186" t="s">
-        <v>554</v>
+      <c r="C27" s="185" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -74071,13 +74078,13 @@
       </c>
       <c r="N1" s="114"/>
       <c r="O1" s="114" t="s">
+        <v>519</v>
+      </c>
+      <c r="P1" s="114" t="s">
         <v>520</v>
       </c>
-      <c r="P1" s="114" t="s">
+      <c r="Q1" s="114" t="s">
         <v>521</v>
-      </c>
-      <c r="Q1" s="114" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15">

--- a/data/2023_08_NedPortfolio.xlsx
+++ b/data/2023_08_NedPortfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4068" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF257E43-59D7-4795-95A1-A4323E092A80}"/>
+  <xr:revisionPtr revIDLastSave="4148" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B89A170-726F-428F-A29B-77E7C704C32C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="572">
   <si>
     <t>Wertpapier</t>
   </si>
@@ -1297,9 +1297,6 @@
     <t>buy,Tech China, 22.05.2019</t>
   </si>
   <si>
-    <t>keep,Tencent, 2019</t>
-  </si>
-  <si>
     <t>buy, Life Science Tech</t>
   </si>
   <si>
@@ -1471,15 +1468,6 @@
     <t>hold, Coffee,19.01.2022</t>
   </si>
   <si>
-    <t>keep, Energy, 26.08.2019</t>
-  </si>
-  <si>
-    <t>hold,Energy, 23.08.2019</t>
-  </si>
-  <si>
-    <t>sell, Öl&amp;basic Materials, 23.05.2019</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -1645,9 +1633,6 @@
     <t>Boden</t>
   </si>
   <si>
-    <t>profit 700 EUR, sell after oil boom</t>
-  </si>
-  <si>
     <t>setup_04</t>
   </si>
   <si>
@@ -1705,9 +1690,6 @@
     <t xml:space="preserve">Notar </t>
   </si>
   <si>
-    <t>04.12.2024 LTC</t>
-  </si>
-  <si>
     <t>DHL</t>
   </si>
   <si>
@@ -1732,10 +1714,52 @@
     <t>ING</t>
   </si>
   <si>
-    <t>Gesamt 2025: Umzug nach Scalable für Trading,</t>
+    <t>12.12.2024 Naspers</t>
   </si>
   <si>
-    <t>Verkauf Novavax (-4.800), Verkauf Exxon (+700), Verkauf NVIDIA bei 5T valuation (+50.000), Verschieben 50k auf Tradingaccount, Küchenkauf 17k, Zaunkauf 7k</t>
+    <t>50k trading</t>
+  </si>
+  <si>
+    <t>SCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt 2025: Umzug nach Scalable für Trading, </t>
+  </si>
+  <si>
+    <t>Verkauf - 200 EUR</t>
+  </si>
+  <si>
+    <t>hold, Öl&amp;basic Materials, 23.05.2019</t>
+  </si>
+  <si>
+    <t>sell,Energy, 23.08.2019</t>
+  </si>
+  <si>
+    <t>Verkauf + 250 EUR</t>
+  </si>
+  <si>
+    <t>sell, Energy, 26.08.2019</t>
+  </si>
+  <si>
+    <t>sell ,Tencent, 2019</t>
+  </si>
+  <si>
+    <t>HB Fuller</t>
+  </si>
+  <si>
+    <t>KLA</t>
+  </si>
+  <si>
+    <t>profit 650</t>
+  </si>
+  <si>
+    <t>Verkauf Walmart 1k, Verkauf Novavax (-4.800), Verkauf Shell 1k (+250), Verkauf BP 1k (-150), Verkauf Prosus 7k (+3500), Verkauf NextEra 3k (+2000). Verkauf NVIDIA bei 5T valuation (+50.000), Verschieben 10k auf Tradingaccount, Küchenkauf 20k, Zaunkauf 7k</t>
+  </si>
+  <si>
+    <t>sell for 7k und 3550 EURO profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> profit 945</t>
   </si>
 </sst>
 </file>
@@ -3459,13 +3483,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>50k trading</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Procter&amp;Gamble</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Ball Corp.</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>LTC Properties</c:v>
@@ -3483,7 +3507,7 @@
                   <c:v>Nike</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>HB Fuller</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>Porsche Holding</c:v>
@@ -3570,7 +3594,7 @@
                   <c:v>Swisscom</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>Ball Corp.</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>Mowi SK</c:v>
@@ -3795,7 +3819,7 @@
                   <c:v>161.65</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>530.74</c:v>
@@ -3828,7 +3852,7 @@
                   <c:v>261.84000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.130000000000003</c:v>
+                  <c:v>41.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>210.81</c:v>
@@ -3861,7 +3885,7 @@
                   <c:v>68.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51.44</c:v>
+                  <c:v>59.16</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>196.26</c:v>
@@ -3870,13 +3894,13 @@
                   <c:v>167.03</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.61</c:v>
+                  <c:v>12.709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>72.569999999999993</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>185.73000000000002</c:v>
+                  <c:v>205.96000000000004</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>64.710000000000008</c:v>
@@ -3897,7 +3921,7 @@
                   <c:v>94.28</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>31.43</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>62.430000000000007</c:v>
@@ -3912,7 +3936,7 @@
                   <c:v>43.879999999999995</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>282.86999999999995</c:v>
+                  <c:v>299.75</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>142.38</c:v>
@@ -3942,7 +3966,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>24.21</c:v>
+                  <c:v>26.3</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>41.32</c:v>
@@ -3960,7 +3984,7 @@
                   <c:v>104.4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>28.490000000000002</c:v>
+                  <c:v>31.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>32.450000000000003</c:v>
@@ -4358,7 +4382,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.42081518806951</c:v>
+                  <c:v>227.62019535335872</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4367,7 +4391,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>684.51316066335517</c:v>
+                  <c:v>802.71254082864425</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4376,7 +4400,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114.77317386575547</c:v>
+                  <c:v>232.97255403104467</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4385,7 +4409,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.173694202416272</c:v>
+                  <c:v>193.3730743677055</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -5068,17 +5092,18 @@
   <dimension ref="A1:AL1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="153" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="77" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="77" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="182" customWidth="1"/>
@@ -5100,7 +5125,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E1" s="73" t="s">
         <v>3</v>
@@ -5118,7 +5143,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="181" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>8</v>
@@ -5153,10 +5178,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E2" s="6">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F2" s="7">
         <v>123.9922</v>
@@ -5166,7 +5191,7 @@
       </c>
       <c r="H2" s="6">
         <f t="shared" ref="H2:H29" si="0">G2*E2</f>
-        <v>9702</v>
+        <v>9240</v>
       </c>
       <c r="I2" s="6">
         <f>'Dividends per year'!B2</f>
@@ -5174,15 +5199,15 @@
       </c>
       <c r="J2" s="8">
         <f>H2/$O$5</f>
-        <v>3.672711075516949E-2</v>
+        <v>3.304570144150186E-2</v>
       </c>
       <c r="K2" s="7">
         <f>(H2-(G2*F2)+I2)</f>
-        <v>2377.5347999999999</v>
+        <v>1915.5347999999999</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" ref="L2:L34" si="1">((E2*G2)+I2)/(F2*G2)-100%</f>
-        <v>0.29052839247512785</v>
+        <v>0.2340732283599658</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>411</v>
@@ -5191,7 +5216,7 @@
         <v>43135</v>
       </c>
       <c r="O2" s="87" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="Q2" t="s">
         <v>287</v>
@@ -5209,10 +5234,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E3" s="6">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F3" s="7">
         <v>179.45</v>
@@ -5222,7 +5247,7 @@
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>5030</v>
+        <v>5100</v>
       </c>
       <c r="I3" s="6">
         <f>'Dividends per year'!B3</f>
@@ -5230,18 +5255,18 @@
       </c>
       <c r="J3" s="8">
         <f t="shared" ref="J3:J66" si="2">H3/$O$5</f>
-        <v>1.904116337853046E-2</v>
+        <v>1.8239510535893882E-2</v>
       </c>
       <c r="K3" s="7">
         <f t="shared" ref="K3:K54" si="3">(H3-(G3*F3)+I3)</f>
-        <v>3285.65</v>
+        <v>3355.65</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" si="1"/>
-        <v>1.8309556979660071</v>
+        <v>1.8699637782112006</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N3" s="86">
         <v>43251</v>
@@ -5262,7 +5287,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E4" s="6">
         <v>150</v>
@@ -5283,7 +5308,7 @@
       </c>
       <c r="J4" s="8">
         <f t="shared" si="2"/>
-        <v>4.5426234700271476E-2</v>
+        <v>4.2916495378573838E-2</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" si="3"/>
@@ -5300,7 +5325,7 @@
         <v>43767</v>
       </c>
       <c r="O4" s="180" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="Q4" s="66" t="s">
         <v>291</v>
@@ -5318,7 +5343,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E5" s="6">
         <v>825</v>
@@ -5340,7 +5365,7 @@
       </c>
       <c r="J5" s="8">
         <f t="shared" si="2"/>
-        <v>0.1811371108673325</v>
+        <v>0.17112952532206319</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="3"/>
@@ -5358,7 +5383,7 @@
       </c>
       <c r="O5" s="183">
         <f>SUM(H2:H121)</f>
-        <v>264164.53133696079</v>
+        <v>279612.76646999997</v>
       </c>
       <c r="Q5" t="s">
         <v>393</v>
@@ -5376,7 +5401,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E6" s="6">
         <v>55</v>
@@ -5397,7 +5422,7 @@
       </c>
       <c r="J6" s="8">
         <f t="shared" si="2"/>
-        <v>4.7886822413202849E-2</v>
+        <v>4.5241138878246587E-2</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="3"/>
@@ -5429,7 +5454,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E7" s="6">
         <v>44</v>
@@ -5450,7 +5475,7 @@
       </c>
       <c r="J7" s="8">
         <f t="shared" si="2"/>
-        <v>1.9154728965281139E-2</v>
+        <v>1.8096455551298636E-2</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
@@ -5473,7 +5498,7 @@
     </row>
     <row r="8" spans="1:38" ht="15.75" customHeight="1">
       <c r="A8" s="101" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B8" s="144" t="s">
         <v>27</v>
@@ -5482,7 +5507,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E8" s="6">
         <v>130</v>
@@ -5503,7 +5528,7 @@
       </c>
       <c r="J8" s="8">
         <f t="shared" si="2"/>
-        <v>0.19684701703450974</v>
+        <v>0.18597147997381996</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
@@ -5535,20 +5560,20 @@
         <v>15</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E9" s="6">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6">
         <v>39.851999999999997</v>
       </c>
       <c r="G9" s="6">
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="H9" s="6">
-        <f>G9*F9</f>
-        <v>1195.56</v>
+        <f t="shared" si="0"/>
+        <v>16340</v>
       </c>
       <c r="I9" s="6">
         <f>'Dividends per year'!B9</f>
@@ -5556,18 +5581,18 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="2"/>
-        <v>4.5258157631880474E-3</v>
+        <v>5.8437961207158044E-2</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>134.28000000000003</v>
+        <v>-662.07999999999697</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="1"/>
-        <v>0.11602930844123249</v>
+        <v>-3.863597636837679E-2</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="N9" s="71">
         <v>45527</v>
@@ -5606,7 +5631,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:H14" si="4">G10*F10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="6">
@@ -5626,7 +5651,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="N10" s="71">
         <v>45596</v>
@@ -5643,7 +5668,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E11" s="6">
         <v>90</v>
@@ -5655,8 +5680,8 @@
         <v>60</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="4"/>
-        <v>10408.12002</v>
+        <f t="shared" si="0"/>
+        <v>5400</v>
       </c>
       <c r="I11" s="6">
         <f>'Dividends per year'!B11</f>
@@ -5664,11 +5689,11 @@
       </c>
       <c r="J11" s="8">
         <f t="shared" si="2"/>
-        <v>3.940014190142619E-2</v>
+        <v>1.9312422920358226E-2</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>92.77000000000001</v>
+        <v>-4915.3500199999999</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="1"/>
@@ -5692,10 +5717,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E12" s="6">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7">
         <v>20.821788999999999</v>
@@ -5703,9 +5728,9 @@
       <c r="G12" s="14">
         <v>178.72720000000001</v>
       </c>
-      <c r="H12" s="6">
-        <f t="shared" si="4"/>
-        <v>3721.4200469607999</v>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>7327.8152</v>
       </c>
       <c r="I12" s="6">
         <f>'Dividends per year'!B12</f>
@@ -5713,23 +5738,25 @@
       </c>
       <c r="J12" s="8">
         <f t="shared" si="2"/>
-        <v>1.408750837262805E-2</v>
+        <v>2.6207012263820263E-2</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>45.22</v>
+        <v>3651.6151530391999</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="1"/>
-        <v>0.59702950083629847</v>
+        <v>0.98124240396388274</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>417</v>
+        <v>565</v>
       </c>
       <c r="N12" s="71">
         <v>43466</v>
       </c>
-      <c r="O12" s="105"/>
+      <c r="O12" s="105" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="13" spans="1:38" ht="15.75" customHeight="1">
       <c r="A13" s="101" t="s">
@@ -5742,7 +5769,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E13" s="7">
         <v>190</v>
@@ -5754,8 +5781,8 @@
         <v>40</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="4"/>
-        <v>5828.48</v>
+        <f>G13*E13</f>
+        <v>7600</v>
       </c>
       <c r="I13" s="6">
         <f>'Dividends per year'!B13</f>
@@ -5763,18 +5790,18 @@
       </c>
       <c r="J13" s="8">
         <f t="shared" si="2"/>
-        <v>2.2063825035486522E-2</v>
+        <v>2.7180447073096765E-2</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>207.23</v>
+        <v>1978.7500000000005</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" si="1"/>
         <v>0.33949674700779631</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N13" s="71">
         <v>45214</v>
@@ -5793,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="6">
@@ -5813,7 +5840,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N14" s="71"/>
     </row>
@@ -5839,22 +5866,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N15" s="71"/>
     </row>
     <row r="16" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A16" s="101"/>
+      <c r="A16" s="101" t="s">
+        <v>557</v>
+      </c>
       <c r="B16" s="144"/>
       <c r="C16" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="76" t="s">
+        <v>558</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6">
-        <f t="shared" ref="H16" si="5">G16*E16</f>
+        <f t="shared" ref="H16" si="4">G16*E16</f>
         <v>0</v>
       </c>
       <c r="I16" s="6">
@@ -5874,7 +5905,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="N16" s="71">
         <v>45544</v>
@@ -5891,7 +5922,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E17" s="6">
         <v>156</v>
@@ -5912,7 +5943,7 @@
       </c>
       <c r="J17" s="8">
         <f t="shared" si="2"/>
-        <v>5.905410511035292E-3</v>
+        <v>5.5791443992145992E-3</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
@@ -5923,59 +5954,10 @@
         <v>1.3632807137954703</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N17" s="71">
         <v>43123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="148" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>561</v>
-      </c>
-      <c r="E18" s="6">
-        <v>57</v>
-      </c>
-      <c r="F18" s="7">
-        <v>29.92</v>
-      </c>
-      <c r="G18" s="6">
-        <v>10</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="0"/>
-        <v>570</v>
-      </c>
-      <c r="I18" s="6">
-        <f>'Dividends per year'!B18</f>
-        <v>31.43</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="2"/>
-        <v>2.1577461482628949E-3</v>
-      </c>
-      <c r="K18" s="7">
-        <f t="shared" si="3"/>
-        <v>302.22999999999996</v>
-      </c>
-      <c r="L18" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0101270053475933</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="N18" s="71">
-        <v>43130</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
@@ -5989,7 +5971,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E19" s="6">
         <v>36</v>
@@ -6010,7 +5992,7 @@
       </c>
       <c r="J19" s="8">
         <f t="shared" si="2"/>
-        <v>6.8139352050407215E-3</v>
+        <v>6.437474306786076E-3</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
@@ -6038,7 +6020,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E20" s="6">
         <v>56</v>
@@ -6059,7 +6041,7 @@
       </c>
       <c r="J20" s="8">
         <f t="shared" si="2"/>
-        <v>3.1798364290190034E-2</v>
+        <v>3.0041546765001686E-2</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
@@ -6087,7 +6069,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E21" s="6">
         <v>214</v>
@@ -6108,7 +6090,7 @@
       </c>
       <c r="J21" s="8">
         <f t="shared" si="2"/>
-        <v>4.0505059274408735E-3</v>
+        <v>3.826720837922834E-3</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
@@ -6119,7 +6101,7 @@
         <v>0.35380812242495585</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N21" s="71">
         <v>43196</v>
@@ -6136,7 +6118,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E22" s="6">
         <v>198</v>
@@ -6157,7 +6139,7 @@
       </c>
       <c r="J22" s="8">
         <f t="shared" si="2"/>
-        <v>4.4971972353268766E-3</v>
+        <v>4.2487330424788097E-3</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
@@ -6168,7 +6150,7 @@
         <v>1.2740366703922508</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N22" s="71">
         <v>43209</v>
@@ -6185,7 +6167,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E23" s="6">
         <v>72</v>
@@ -6206,7 +6188,7 @@
       </c>
       <c r="J23" s="8">
         <f t="shared" si="2"/>
-        <v>8.1767222460488662E-3</v>
+        <v>7.7249691681432909E-3</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
@@ -6217,13 +6199,16 @@
         <v>9.2567949028147467E-2</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N23" s="71">
         <v>45497</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>566</v>
+      </c>
       <c r="D24" s="76"/>
       <c r="J24" s="8">
         <f t="shared" si="2"/>
@@ -6241,7 +6226,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E25" s="6">
         <v>33</v>
@@ -6262,7 +6247,7 @@
       </c>
       <c r="J25" s="8">
         <f t="shared" si="2"/>
-        <v>2.4984429085149313E-3</v>
+        <v>2.3604072458215612E-3</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
@@ -6290,7 +6275,7 @@
         <v>38</v>
       </c>
       <c r="D26" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E26" s="6">
         <v>287</v>
@@ -6311,7 +6296,7 @@
       </c>
       <c r="J26" s="8">
         <f t="shared" si="2"/>
-        <v>1.0864441132481594E-2</v>
+        <v>1.026419514470891E-2</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
@@ -6339,10 +6324,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E27" s="6">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7">
         <v>73.34</v>
@@ -6352,7 +6337,7 @@
       </c>
       <c r="H27" s="6">
         <f t="shared" si="0"/>
-        <v>940</v>
+        <v>1240</v>
       </c>
       <c r="I27" s="6">
         <f>'Dividends per year'!B27</f>
@@ -6360,15 +6345,15 @@
       </c>
       <c r="J27" s="8">
         <f t="shared" si="2"/>
-        <v>3.5583883848545991E-3</v>
+        <v>4.43470452245263E-3</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
-        <v>-367.5300000000002</v>
+        <v>-67.5300000000002</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" si="1"/>
-        <v>-0.25056585764930472</v>
+        <v>-4.6038996454867864E-2</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>383</v>
@@ -6388,10 +6373,10 @@
         <v>15</v>
       </c>
       <c r="D28" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E28" s="6">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F28" s="7">
         <v>38.668750000000003</v>
@@ -6401,7 +6386,7 @@
       </c>
       <c r="H28" s="6">
         <f t="shared" si="0"/>
-        <v>3040</v>
+        <v>2760</v>
       </c>
       <c r="I28" s="6">
         <f>'Dividends per year'!B28</f>
@@ -6409,15 +6394,15 @@
       </c>
       <c r="J28" s="8">
         <f t="shared" si="2"/>
-        <v>1.1507979457402107E-2</v>
+        <v>9.8707939370719835E-3</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>1755.0900000000001</v>
+        <v>1475.0900000000001</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" si="1"/>
-        <v>1.134695328915468</v>
+        <v>0.9536705996444157</v>
       </c>
       <c r="M28" s="10" t="s">
         <v>407</v>
@@ -6437,7 +6422,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E29" s="6">
         <v>83</v>
@@ -6454,19 +6439,19 @@
       </c>
       <c r="I29" s="6">
         <f>'Dividends per year'!B29</f>
-        <v>37.130000000000003</v>
+        <v>41.800000000000004</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" si="2"/>
-        <v>6.2839624668708871E-3</v>
+        <v>5.9367818607027143E-3</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>900.32999999999993</v>
+        <v>904.99999999999989</v>
       </c>
       <c r="L29" s="8">
         <f t="shared" si="1"/>
-        <v>1.1299322289156626</v>
+        <v>1.1357931726907626</v>
       </c>
       <c r="M29" s="10" t="s">
         <v>406</v>
@@ -6486,10 +6471,10 @@
         <v>15</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E30" s="6">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F30" s="7">
         <v>3.5150000000000001</v>
@@ -6499,7 +6484,7 @@
       </c>
       <c r="H30" s="6">
         <f>G30*E30</f>
-        <v>1440</v>
+        <v>1380</v>
       </c>
       <c r="I30" s="6">
         <f>'Dividends per year'!B30</f>
@@ -6507,15 +6492,15 @@
       </c>
       <c r="J30" s="8">
         <f t="shared" si="2"/>
-        <v>5.4511481640325769E-3</v>
+        <v>4.9353969685359917E-3</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>596.30999999999995</v>
+        <v>536.30999999999995</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" si="1"/>
-        <v>0.56549075391180659</v>
+        <v>0.50859174964438125</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>405</v>
@@ -6535,7 +6520,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E31" s="6">
         <v>135</v>
@@ -6556,7 +6541,7 @@
       </c>
       <c r="J31" s="8">
         <f t="shared" si="2"/>
-        <v>6.6435868249147033E-3</v>
+        <v>6.2765374491164242E-3</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
@@ -6584,7 +6569,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E32" s="6">
         <v>120</v>
@@ -6596,7 +6581,7 @@
         <v>30</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:H82" si="6">G32*E32</f>
+        <f t="shared" ref="H32:H82" si="5">G32*E32</f>
         <v>3600</v>
       </c>
       <c r="I32" s="6">
@@ -6605,7 +6590,7 @@
       </c>
       <c r="J32" s="8">
         <f t="shared" si="2"/>
-        <v>1.3627870410081443E-2</v>
+        <v>1.2874948613572152E-2</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
@@ -6616,7 +6601,7 @@
         <v>7.5298973876715358E-2</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N32" s="71">
         <v>43594</v>
@@ -6633,7 +6618,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E33" s="6">
         <v>108</v>
@@ -6645,7 +6630,7 @@
         <v>17</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1836</v>
       </c>
       <c r="I33" s="6">
@@ -6654,7 +6639,7 @@
       </c>
       <c r="J33" s="8">
         <f t="shared" si="2"/>
-        <v>6.9502139091415357E-3</v>
+        <v>6.5662237929217972E-3</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
@@ -6665,13 +6650,13 @@
         <v>0.81205066176649199</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>477</v>
+        <v>561</v>
       </c>
       <c r="N33" s="71">
         <v>43608</v>
       </c>
       <c r="O33" s="66" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
@@ -6685,7 +6670,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E34" s="6">
         <v>71</v>
@@ -6697,7 +6682,7 @@
         <v>12</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>852</v>
       </c>
       <c r="I34" s="6">
@@ -6706,7 +6691,7 @@
       </c>
       <c r="J34" s="8">
         <f t="shared" si="2"/>
-        <v>3.2252626637192749E-3</v>
+        <v>3.0470711718787427E-3</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
@@ -6717,7 +6702,7 @@
         <v>0.21916756087838296</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N34" s="71">
         <v>43623</v>
@@ -6737,7 +6722,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E35" s="6">
         <v>50</v>
@@ -6749,7 +6734,7 @@
         <v>12</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="I35" s="6">
@@ -6758,18 +6743,18 @@
       </c>
       <c r="J35" s="8">
         <f t="shared" si="2"/>
-        <v>2.2713117350135737E-3</v>
+        <v>2.1458247689286922E-3</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
         <v>380.93999600000001</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" ref="L35:L65" si="7">((E35*G35)+I35)/(F35*G35)-100%</f>
+        <f t="shared" ref="L35:L65" si="6">((E35*G35)+I35)/(F35*G35)-100%</f>
         <v>1.5408947085042519</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N35" s="71">
         <v>43624</v>
@@ -6786,10 +6771,10 @@
         <v>15</v>
       </c>
       <c r="D36" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E36" s="6">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F36" s="7">
         <v>68.150000000000006</v>
@@ -6799,7 +6784,7 @@
       </c>
       <c r="H36" s="6">
         <f>G36*E36</f>
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="I36" s="6">
         <f>'Dividends per year'!B36</f>
@@ -6807,18 +6792,18 @@
       </c>
       <c r="J36" s="8">
         <f t="shared" si="2"/>
-        <v>2.0820357570957761E-3</v>
+        <v>2.0742972766310689E-3</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>-14.199999999999989</v>
+        <v>15.800000000000011</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="7"/>
-        <v>-2.083639031548068E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.3184152604548647E-2</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N36" s="71">
         <v>43158</v>
@@ -6836,7 +6821,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E37" s="6">
         <v>98</v>
@@ -6848,7 +6833,7 @@
         <v>20</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1960</v>
       </c>
       <c r="I37" s="6">
@@ -6857,18 +6842,18 @@
       </c>
       <c r="J37" s="8">
         <f t="shared" si="2"/>
-        <v>7.4196183343776742E-3</v>
+        <v>7.0096942451670606E-3</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
         <v>222.38999999999987</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12087201339217768</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N37" s="71">
         <v>45153</v>
@@ -6885,7 +6870,7 @@
         <v>22</v>
       </c>
       <c r="D38" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E38" s="6">
         <v>70</v>
@@ -6897,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="I38" s="6">
@@ -6906,18 +6891,18 @@
       </c>
       <c r="J38" s="8">
         <f t="shared" si="2"/>
-        <v>2.6498636908491697E-4</v>
+        <v>2.5034622304168075E-4</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
         <v>-21.779999999999994</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.2140750933752702</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N38" s="71">
         <v>43657</v>
@@ -6934,7 +6919,7 @@
         <v>15</v>
       </c>
       <c r="D39" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E39" s="6">
         <v>92</v>
@@ -6946,7 +6931,7 @@
         <v>6</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>552</v>
       </c>
       <c r="I39" s="6">
@@ -6955,18 +6940,18 @@
       </c>
       <c r="J39" s="8">
         <f t="shared" si="2"/>
-        <v>2.0896067962124878E-3</v>
+        <v>1.9741587874143964E-3</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
         <v>228.26000000000002</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.58134678076609614</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N39" s="71">
         <v>43165</v>
@@ -6983,7 +6968,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E40" s="6">
         <v>51</v>
@@ -6995,27 +6980,27 @@
         <v>75</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3825</v>
       </c>
       <c r="I40" s="6">
         <f>'Dividends per year'!B40</f>
-        <v>51.44</v>
+        <v>59.16</v>
       </c>
       <c r="J40" s="8">
         <f t="shared" si="2"/>
-        <v>1.4479612310711532E-2</v>
+        <v>1.367963290192041E-2</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>1167.6650000000004</v>
+        <v>1175.3850000000004</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="7"/>
-        <v>0.43106754898431965</v>
+        <f t="shared" si="6"/>
+        <v>0.43391754575407715</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N40" s="71">
         <v>43697</v>
@@ -7032,7 +7017,7 @@
         <v>91</v>
       </c>
       <c r="D41" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E41" s="6">
         <v>4.7</v>
@@ -7044,7 +7029,7 @@
         <v>200</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>940</v>
       </c>
       <c r="I41" s="6">
@@ -7053,23 +7038,25 @@
       </c>
       <c r="J41" s="8">
         <f t="shared" si="2"/>
-        <v>3.5583883848545991E-3</v>
+        <v>3.3617921379882842E-3</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
         <v>37.529999999999973</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.4157618341175588E-2</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>476</v>
+        <v>562</v>
       </c>
       <c r="N41" s="71">
         <v>43700</v>
       </c>
-      <c r="O41" s="66"/>
+      <c r="O41" s="66" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="15">
       <c r="A42" s="13"/>
@@ -7087,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7102,7 +7089,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E43" s="6">
         <v>30.6</v>
@@ -7114,7 +7101,7 @@
         <v>45</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1377</v>
       </c>
       <c r="I43" s="6">
@@ -7123,21 +7110,24 @@
       </c>
       <c r="J43" s="8">
         <f t="shared" si="2"/>
-        <v>5.2126604318561516E-3</v>
+        <v>4.9246678446913479E-3</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
         <v>418.98998600000004</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.37242229679485872</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>475</v>
+        <v>564</v>
       </c>
       <c r="N43" s="71">
         <v>43703</v>
+      </c>
+      <c r="O43" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15">
@@ -7151,7 +7141,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E44" s="6">
         <v>146.9</v>
@@ -7163,27 +7153,27 @@
         <v>7</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1028.3</v>
       </c>
       <c r="I44" s="6">
         <f>'Dividends per year'!B44</f>
-        <v>9.61</v>
+        <v>12.709999999999999</v>
       </c>
       <c r="J44" s="8">
         <f t="shared" si="2"/>
-        <v>3.8926497618574298E-3</v>
+        <v>3.6775860164822895E-3</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="3"/>
-        <v>-290.91000300000007</v>
+        <v>-287.81000300000011</v>
       </c>
       <c r="L44" s="8">
-        <f t="shared" si="7"/>
-        <v>-0.2189235580012564</v>
+        <f t="shared" si="6"/>
+        <v>-0.21659066115066605</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N44" s="71">
         <v>43728</v>
@@ -7200,7 +7190,7 @@
         <v>15</v>
       </c>
       <c r="D45" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E45" s="6">
         <v>27</v>
@@ -7212,7 +7202,7 @@
         <v>20</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>540</v>
       </c>
       <c r="I45" s="6">
@@ -7221,14 +7211,14 @@
       </c>
       <c r="J45" s="8">
         <f t="shared" si="2"/>
-        <v>2.0441805615122165E-3</v>
+        <v>1.9312422920358227E-3</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="3"/>
         <v>-124.95999999999998</v>
       </c>
       <c r="L45" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.16943039605168608</v>
       </c>
       <c r="M45" s="10" t="s">
@@ -7249,7 +7239,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E46" s="7">
         <v>89</v>
@@ -7266,22 +7256,22 @@
       </c>
       <c r="I46" s="6">
         <f>'Dividends per year'!B46</f>
-        <v>185.73000000000002</v>
+        <v>205.96000000000004</v>
       </c>
       <c r="J46" s="8">
         <f t="shared" si="2"/>
-        <v>1.5834828312602967E-2</v>
+        <v>1.4959975014047864E-2</v>
       </c>
       <c r="K46" s="7">
         <f>(H46-(G46*F46)+I46)</f>
-        <v>312.49177299999974</v>
+        <v>332.72177299999976</v>
       </c>
       <c r="L46" s="8">
         <f>((E46*G46)+I46)/(F46*G46)-100%</f>
-        <v>7.7039797840256163E-2</v>
+        <v>8.2027177492994818E-2</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N46" s="71">
         <v>44580</v>
@@ -7298,7 +7288,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E47" s="6">
         <v>192</v>
@@ -7310,7 +7300,7 @@
         <v>5</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>960</v>
       </c>
       <c r="I47" s="6">
@@ -7319,14 +7309,14 @@
       </c>
       <c r="J47" s="8">
         <f t="shared" si="2"/>
-        <v>3.6340987760217179E-3</v>
+        <v>3.433319630285907E-3</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="3"/>
         <v>455.70000000000005</v>
       </c>
       <c r="L47" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.80086465967206211</v>
       </c>
       <c r="M47" s="10" t="s">
@@ -7347,7 +7337,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E48" s="6">
         <v>107</v>
@@ -7359,7 +7349,7 @@
         <v>6</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>642</v>
       </c>
       <c r="I48" s="6">
@@ -7368,14 +7358,14 @@
       </c>
       <c r="J48" s="8">
         <f t="shared" si="2"/>
-        <v>2.4303035564645242E-3</v>
+        <v>2.2960325027537006E-3</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="3"/>
         <v>99.758399999999966</v>
       </c>
       <c r="L48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.15370819258084123</v>
       </c>
       <c r="M48" s="10" t="s">
@@ -7396,10 +7386,10 @@
         <v>22</v>
       </c>
       <c r="D49" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E49" s="6">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F49" s="7">
         <v>100.26860000000001</v>
@@ -7408,8 +7398,8 @@
         <v>6</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="6"/>
-        <v>354</v>
+        <f t="shared" si="5"/>
+        <v>396</v>
       </c>
       <c r="I49" s="6">
         <f>'Dividends per year'!B49</f>
@@ -7417,15 +7407,15 @@
       </c>
       <c r="J49" s="8">
         <f t="shared" si="2"/>
-        <v>1.3400739236580086E-3</v>
+        <v>1.4162443474929366E-3</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="3"/>
-        <v>-195.24160000000006</v>
+        <v>-153.24160000000006</v>
       </c>
       <c r="L49" s="8">
-        <f t="shared" si="7"/>
-        <v>-0.32453097646388473</v>
+        <f t="shared" si="6"/>
+        <v>-0.25471849279501935</v>
       </c>
       <c r="M49" s="10" t="s">
         <v>389</v>
@@ -7445,7 +7435,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E50" s="6">
         <v>330</v>
@@ -7457,7 +7447,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>990</v>
       </c>
       <c r="I50" s="6">
@@ -7466,14 +7456,14 @@
       </c>
       <c r="J50" s="8">
         <f t="shared" si="2"/>
-        <v>3.7476643627723967E-3</v>
+        <v>3.5406108687323417E-3</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="3"/>
         <v>263.53010000000006</v>
       </c>
       <c r="L50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.33884527263256836</v>
       </c>
       <c r="M50" s="10" t="s">
@@ -7494,7 +7484,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E51" s="6">
         <v>246</v>
@@ -7506,7 +7496,7 @@
         <v>5</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1230</v>
       </c>
       <c r="I51" s="6">
@@ -7515,14 +7505,14 @@
       </c>
       <c r="J51" s="8">
         <f t="shared" si="2"/>
-        <v>4.6561890567778262E-3</v>
+        <v>4.3989407763038186E-3</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="3"/>
         <v>480.26000000000005</v>
       </c>
       <c r="L51" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.62754475369136298</v>
       </c>
       <c r="M51" s="10" t="s">
@@ -7543,7 +7533,7 @@
         <v>38</v>
       </c>
       <c r="D52" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E52" s="6">
         <v>520</v>
@@ -7564,7 +7554,7 @@
       </c>
       <c r="J52" s="8">
         <f t="shared" si="2"/>
-        <v>1.9684701703450973E-3</v>
+        <v>1.8597147997381997E-3</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="3"/>
@@ -7575,24 +7565,59 @@
         <v>0.48916363636363625</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N52" s="71">
         <v>43179</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="15">
-      <c r="A53" s="13"/>
+      <c r="A53" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="76" t="s">
+        <v>15</v>
+      </c>
       <c r="D53" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
+      </c>
+      <c r="E53" s="6">
+        <v>54</v>
+      </c>
+      <c r="F53" s="7">
+        <v>29.92</v>
+      </c>
+      <c r="G53" s="6">
+        <v>10</v>
+      </c>
+      <c r="H53" s="6">
+        <f>G53*E53</f>
+        <v>540</v>
+      </c>
+      <c r="I53" s="6">
+        <f>'Dividends per year'!B18</f>
+        <v>0</v>
       </c>
       <c r="J53" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>H53/$O$5</f>
+        <v>1.9312422920358227E-3</v>
       </c>
       <c r="K53" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>(H53-(G53*F53)+I53)</f>
+        <v>240.79999999999995</v>
+      </c>
+      <c r="L53" s="8">
+        <f>((E53*G53)+I53)/(F53*G53)-100%</f>
+        <v>0.80481283422459859</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="N53" s="71">
+        <v>43130</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15">
@@ -7606,7 +7631,7 @@
         <v>116</v>
       </c>
       <c r="D54" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E54" s="6">
         <v>16</v>
@@ -7618,7 +7643,7 @@
         <v>50</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
       <c r="I54" s="6">
@@ -7627,14 +7652,14 @@
       </c>
       <c r="J54" s="8">
         <f t="shared" si="2"/>
-        <v>3.0284156466847652E-3</v>
+        <v>2.8610996919049224E-3</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="3"/>
         <v>43.249999999999943</v>
       </c>
       <c r="L54" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.2796699138162539E-2</v>
       </c>
       <c r="M54" s="10" t="s">
@@ -7655,7 +7680,7 @@
         <v>15</v>
       </c>
       <c r="D55" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E55" s="6">
         <v>41</v>
@@ -7667,7 +7692,7 @@
         <v>57</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2337</v>
       </c>
       <c r="I55" s="6">
@@ -7676,14 +7701,14 @@
       </c>
       <c r="J55" s="8">
         <f t="shared" si="2"/>
-        <v>8.8467592078778703E-3</v>
+        <v>8.3579874749772545E-3</v>
       </c>
       <c r="K55" s="7">
-        <f t="shared" ref="K55:K62" si="8">(H55-(G55*F55)+I55)</f>
+        <f t="shared" ref="K55:K62" si="7">(H55-(G55*F55)+I55)</f>
         <v>1106.095</v>
       </c>
       <c r="L55" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.87116388052060567</v>
       </c>
       <c r="M55" s="10" t="s">
@@ -7704,7 +7729,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E56" s="7">
         <v>20</v>
@@ -7716,7 +7741,7 @@
         <v>50</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I56" s="6">
@@ -7725,18 +7750,18 @@
       </c>
       <c r="J56" s="8">
         <f t="shared" si="2"/>
-        <v>3.7855195583559563E-3</v>
+        <v>3.5763746148811532E-3</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1214.9399999999998</v>
       </c>
       <c r="L56" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.49687139597084873</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N56" s="71">
         <v>43965</v>
@@ -7753,7 +7778,7 @@
         <v>15</v>
       </c>
       <c r="D57" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E57" s="7">
         <v>80</v>
@@ -7765,7 +7790,7 @@
         <v>6</v>
       </c>
       <c r="H57" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
       <c r="I57" s="6">
@@ -7774,14 +7799,14 @@
       </c>
       <c r="J57" s="8">
         <f t="shared" si="2"/>
-        <v>1.817049388010859E-3</v>
+        <v>1.7166598151429535E-3</v>
       </c>
       <c r="K57" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-56.760999999999967</v>
       </c>
       <c r="L57" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-9.7755756138474537E-2</v>
       </c>
       <c r="M57" s="10" t="s">
@@ -7802,7 +7827,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E58" s="6">
         <v>55</v>
@@ -7814,24 +7839,24 @@
         <v>52</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2860</v>
       </c>
       <c r="I58" s="6">
         <f>'Dividends per year'!B58</f>
-        <v>282.86999999999995</v>
+        <v>299.75</v>
       </c>
       <c r="J58" s="8">
         <f t="shared" si="2"/>
-        <v>1.0826585936898035E-2</v>
+        <v>1.0228431398560098E-2</v>
       </c>
       <c r="K58" s="7">
-        <f t="shared" si="8"/>
-        <v>820.25999599999977</v>
+        <f t="shared" si="7"/>
+        <v>837.13999599999988</v>
       </c>
       <c r="L58" s="8">
-        <f t="shared" si="7"/>
-        <v>0.35316303408120509</v>
+        <f t="shared" si="6"/>
+        <v>0.36043071999099152</v>
       </c>
       <c r="M58" s="10" t="s">
         <v>375</v>
@@ -7851,7 +7876,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E59" s="7">
         <v>285</v>
@@ -7863,7 +7888,7 @@
         <v>5</v>
       </c>
       <c r="H59" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1425</v>
       </c>
       <c r="I59" s="6">
@@ -7872,14 +7897,14 @@
       </c>
       <c r="J59" s="8">
         <f t="shared" si="2"/>
-        <v>5.3943653706572375E-3</v>
+        <v>5.0963338262056436E-3</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>439.67999999999995</v>
       </c>
       <c r="L59" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.38989092843841444</v>
       </c>
       <c r="M59" s="10" t="s">
@@ -7889,7 +7914,7 @@
         <v>43985</v>
       </c>
       <c r="O59" s="66" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15">
@@ -7903,7 +7928,7 @@
         <v>22</v>
       </c>
       <c r="D60" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E60" s="6">
         <v>42</v>
@@ -7924,7 +7949,7 @@
       </c>
       <c r="J60" s="8">
         <f t="shared" si="2"/>
-        <v>1.5899182145095016E-3</v>
+        <v>1.5020773382500843E-3</v>
       </c>
       <c r="K60" s="7">
         <f>(H60-(G60*F60)+I60)</f>
@@ -7952,7 +7977,7 @@
         <v>15</v>
       </c>
       <c r="D61" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E61" s="7">
         <v>116</v>
@@ -7964,7 +7989,7 @@
         <v>27</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3132</v>
       </c>
       <c r="I61" s="6">
@@ -7973,14 +7998,14 @@
       </c>
       <c r="J61" s="8">
         <f t="shared" si="2"/>
-        <v>1.1856247256770855E-2</v>
+        <v>1.1201205293807772E-2</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2448.4799699999999</v>
       </c>
       <c r="L61" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.3280050428965486</v>
       </c>
       <c r="M61" s="10" t="s">
@@ -8001,7 +8026,7 @@
         <v>22</v>
       </c>
       <c r="D62" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E62" s="7">
         <v>421</v>
@@ -8013,7 +8038,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1684</v>
       </c>
       <c r="I62" s="6">
@@ -8022,18 +8047,18 @@
       </c>
       <c r="J62" s="8">
         <f t="shared" si="2"/>
-        <v>6.3748149362714305E-3</v>
+        <v>6.0226148514598617E-3</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1000.8199999999999</v>
       </c>
       <c r="L62" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.3555185350723931</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N62" s="71">
         <v>43994</v>
@@ -8050,7 +8075,7 @@
         <v>15</v>
       </c>
       <c r="D63" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E63" s="7">
         <v>60</v>
@@ -8062,7 +8087,7 @@
         <v>10</v>
       </c>
       <c r="H63" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="I63" s="6">
@@ -8071,18 +8096,18 @@
       </c>
       <c r="J63" s="8">
         <f t="shared" si="2"/>
-        <v>2.2713117350135737E-3</v>
+        <v>2.1458247689286922E-3</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" ref="K63:K86" si="9">(H63-(G63*F63)+I63)</f>
+        <f t="shared" ref="K63:K86" si="8">(H63-(G63*F63)+I63)</f>
         <v>251.96</v>
       </c>
       <c r="L63" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.62850158397565425</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N63" s="71">
         <v>44019</v>
@@ -8099,7 +8124,7 @@
         <v>15</v>
       </c>
       <c r="D64" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E64" s="7">
         <v>520</v>
@@ -8111,7 +8136,7 @@
         <v>2</v>
       </c>
       <c r="H64" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1040</v>
       </c>
       <c r="I64" s="6">
@@ -8120,14 +8145,14 @@
       </c>
       <c r="J64" s="8">
         <f t="shared" si="2"/>
-        <v>3.9369403406901947E-3</v>
+        <v>3.7194295994763993E-3</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>295.20000000000005</v>
       </c>
       <c r="L64" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.39634801288936639</v>
       </c>
       <c r="M64" s="10" t="s">
@@ -8140,7 +8165,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="15">
+    <row r="65" spans="1:15" ht="15">
       <c r="A65" s="13" t="s">
         <v>135</v>
       </c>
@@ -8151,7 +8176,7 @@
         <v>15</v>
       </c>
       <c r="D65" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E65" s="7">
         <v>110</v>
@@ -8163,7 +8188,7 @@
         <v>10</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1100</v>
       </c>
       <c r="I65" s="6">
@@ -8172,24 +8197,24 @@
       </c>
       <c r="J65" s="8">
         <f t="shared" si="2"/>
-        <v>4.1640715141915523E-3</v>
+        <v>3.9340120763692683E-3</v>
       </c>
       <c r="K65" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>369.04</v>
       </c>
       <c r="L65" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.44800543860926978</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N65" s="71">
         <v>44027</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15">
+    <row r="66" spans="1:15" ht="15">
       <c r="A66" s="13" t="s">
         <v>137</v>
       </c>
@@ -8200,7 +8225,7 @@
         <v>15</v>
       </c>
       <c r="D66" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E66" s="7">
         <v>53</v>
@@ -8212,7 +8237,7 @@
         <v>25.126650000000001</v>
       </c>
       <c r="H66" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1331.71245</v>
       </c>
       <c r="I66" s="6">
@@ -8221,24 +8246,24 @@
       </c>
       <c r="J66" s="8">
         <f t="shared" si="2"/>
-        <v>5.0412235255811282E-3</v>
+        <v>4.7627026005011867E-3</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>668.5624554993999</v>
       </c>
       <c r="L66" s="8">
-        <f t="shared" ref="L66:L98" si="10">((E66*G66)+I66)/(F66*G66)-100%</f>
+        <f t="shared" ref="L66:L98" si="9">((E66*G66)+I66)/(F66*G66)-100%</f>
         <v>0.68760216317923195</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N66" s="71">
         <v>44062</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15">
+    <row r="67" spans="1:15" ht="15">
       <c r="A67" s="13" t="s">
         <v>139</v>
       </c>
@@ -8249,7 +8274,7 @@
         <v>22</v>
       </c>
       <c r="D67" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E67" s="7">
         <v>52</v>
@@ -8261,7 +8286,7 @@
         <v>25</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1300</v>
       </c>
       <c r="I67" s="6">
@@ -8269,25 +8294,25 @@
         <v>0</v>
       </c>
       <c r="J67" s="8">
-        <f t="shared" ref="J67:J120" si="11">H67/$O$5</f>
-        <v>4.9211754258627434E-3</v>
+        <f t="shared" ref="J67:J120" si="10">H67/$O$5</f>
+        <v>4.6492869993454995E-3</v>
       </c>
       <c r="K67" s="7">
+        <f t="shared" si="8"/>
+        <v>404.88</v>
+      </c>
+      <c r="L67" s="8">
         <f t="shared" si="9"/>
-        <v>404.88</v>
-      </c>
-      <c r="L67" s="8">
-        <f t="shared" si="10"/>
         <v>0.45231924211278929</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N67" s="71">
         <v>44036</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15">
+    <row r="68" spans="1:15" ht="15">
       <c r="A68" s="13" t="s">
         <v>141</v>
       </c>
@@ -8298,7 +8323,7 @@
         <v>15</v>
       </c>
       <c r="D68" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E68" s="7">
         <v>300</v>
@@ -8310,33 +8335,33 @@
         <v>5</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="I68" s="6">
         <f>'Dividends per year'!B68</f>
-        <v>24.21</v>
+        <v>26.3</v>
       </c>
       <c r="J68" s="8">
-        <f t="shared" si="11"/>
-        <v>5.6782793375339344E-3</v>
+        <f t="shared" si="10"/>
+        <v>5.3645619223217297E-3</v>
       </c>
       <c r="K68" s="7">
+        <f t="shared" si="8"/>
+        <v>682.31</v>
+      </c>
+      <c r="L68" s="8">
         <f t="shared" si="9"/>
-        <v>680.22</v>
-      </c>
-      <c r="L68" s="8">
-        <f t="shared" si="10"/>
-        <v>0.80595741655706821</v>
+        <v>0.80843374921503797</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N68" s="71">
         <v>44037</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15">
+    <row r="69" spans="1:15" ht="15">
       <c r="A69" s="13" t="s">
         <v>143</v>
       </c>
@@ -8347,10 +8372,10 @@
         <v>15</v>
       </c>
       <c r="D69" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E69" s="7">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F69" s="7">
         <v>36.903300000000002</v>
@@ -8359,33 +8384,36 @@
         <v>18</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" si="6"/>
-        <v>1296</v>
+        <f t="shared" si="5"/>
+        <v>1620</v>
       </c>
       <c r="I69" s="6">
         <f>'Dividends per year'!B69</f>
         <v>41.32</v>
       </c>
       <c r="J69" s="8">
-        <f t="shared" si="11"/>
-        <v>4.9060333476293192E-3</v>
+        <f t="shared" si="10"/>
+        <v>5.7937268761074686E-3</v>
       </c>
       <c r="K69" s="7">
+        <f t="shared" si="8"/>
+        <v>997.06060000000002</v>
+      </c>
+      <c r="L69" s="8">
         <f t="shared" si="9"/>
-        <v>673.06060000000002</v>
-      </c>
-      <c r="L69" s="8">
-        <f t="shared" si="10"/>
-        <v>1.0132496431364011</v>
+        <v>1.5010109002597476</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N69" s="71">
         <v>44043</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="15">
+      <c r="O69" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15">
       <c r="A70" s="13" t="s">
         <v>145</v>
       </c>
@@ -8396,7 +8424,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E70" s="7">
         <v>91</v>
@@ -8408,7 +8436,7 @@
         <v>10</v>
       </c>
       <c r="H70" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>910</v>
       </c>
       <c r="I70" s="6">
@@ -8416,25 +8444,25 @@
         <v>47.56</v>
       </c>
       <c r="J70" s="8">
-        <f t="shared" si="11"/>
-        <v>3.4448227981039204E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.2545008995418494E-3</v>
       </c>
       <c r="K70" s="7">
+        <f t="shared" si="8"/>
+        <v>183.14000000000004</v>
+      </c>
+      <c r="L70" s="8">
         <f t="shared" si="9"/>
-        <v>183.14000000000004</v>
-      </c>
-      <c r="L70" s="8">
-        <f t="shared" si="10"/>
         <v>0.23648666098499516</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N70" s="71">
         <v>44049</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15">
+    <row r="71" spans="1:15" ht="15">
       <c r="A71" s="13" t="s">
         <v>147</v>
       </c>
@@ -8445,7 +8473,7 @@
         <v>22</v>
       </c>
       <c r="D71" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E71" s="7">
         <v>101</v>
@@ -8457,7 +8485,7 @@
         <v>10</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1010</v>
       </c>
       <c r="I71" s="6">
@@ -8465,25 +8493,25 @@
         <v>103.22</v>
       </c>
       <c r="J71" s="8">
-        <f t="shared" si="11"/>
-        <v>3.8233747539395159E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.6121383610299646E-3</v>
       </c>
       <c r="K71" s="7">
+        <f t="shared" si="8"/>
+        <v>308.74000000000012</v>
+      </c>
+      <c r="L71" s="8">
         <f t="shared" si="9"/>
-        <v>308.74000000000012</v>
-      </c>
-      <c r="L71" s="8">
-        <f t="shared" si="10"/>
         <v>0.38377585521081969</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N71" s="71">
         <v>44074</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15">
+    <row r="72" spans="1:15" ht="15">
       <c r="A72" s="13" t="s">
         <v>149</v>
       </c>
@@ -8494,7 +8522,7 @@
         <v>15</v>
       </c>
       <c r="D72" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E72" s="7">
         <v>176</v>
@@ -8506,7 +8534,7 @@
         <v>7</v>
       </c>
       <c r="H72" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1232</v>
       </c>
       <c r="I72" s="6">
@@ -8514,25 +8542,25 @@
         <v>68.44</v>
       </c>
       <c r="J72" s="8">
-        <f t="shared" si="11"/>
-        <v>4.6637600958945383E-3</v>
+        <f t="shared" si="10"/>
+        <v>4.4060935255335809E-3</v>
       </c>
       <c r="K72" s="7">
+        <f t="shared" si="8"/>
+        <v>495.54000200000002</v>
+      </c>
+      <c r="L72" s="8">
         <f t="shared" si="9"/>
-        <v>495.54000200000002</v>
-      </c>
-      <c r="L72" s="8">
-        <f t="shared" si="10"/>
         <v>0.61565412253858653</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N72" s="71">
         <v>44095</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15">
+    <row r="73" spans="1:15" ht="15">
       <c r="A73" s="13" t="s">
         <v>151</v>
       </c>
@@ -8543,7 +8571,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E73" s="7">
         <v>17</v>
@@ -8555,7 +8583,7 @@
         <v>80</v>
       </c>
       <c r="H73" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1360</v>
       </c>
       <c r="I73" s="6">
@@ -8563,15 +8591,15 @@
         <v>104.4</v>
       </c>
       <c r="J73" s="8">
-        <f t="shared" si="11"/>
-        <v>5.1483065993641009E-3</v>
+        <f t="shared" si="10"/>
+        <v>4.863869476238368E-3</v>
       </c>
       <c r="K73" s="7">
+        <f t="shared" si="8"/>
+        <v>339.90999999999997</v>
+      </c>
+      <c r="L73" s="8">
         <f t="shared" si="9"/>
-        <v>339.90999999999997</v>
-      </c>
-      <c r="L73" s="8">
-        <f t="shared" si="10"/>
         <v>0.30227925548470869</v>
       </c>
       <c r="M73" s="10" t="s">
@@ -8581,7 +8609,7 @@
         <v>44096</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15">
+    <row r="74" spans="1:15" ht="15">
       <c r="A74" s="13" t="s">
         <v>153</v>
       </c>
@@ -8592,7 +8620,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E74" s="7">
         <v>607</v>
@@ -8604,33 +8632,33 @@
         <v>1</v>
       </c>
       <c r="H74" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>607</v>
       </c>
       <c r="I74" s="6">
         <f>'Dividends per year'!B74</f>
-        <v>28.490000000000002</v>
+        <v>31.900000000000002</v>
       </c>
       <c r="J74" s="8">
-        <f t="shared" si="11"/>
-        <v>2.2978103719220656E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.1708593912328602E-3</v>
       </c>
       <c r="K74" s="7">
+        <f t="shared" si="8"/>
+        <v>215.91</v>
+      </c>
+      <c r="L74" s="8">
         <f t="shared" si="9"/>
-        <v>212.5</v>
-      </c>
-      <c r="L74" s="8">
-        <f t="shared" si="10"/>
-        <v>0.50237594269368069</v>
+        <v>0.51043759899761221</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N74" s="71">
         <v>44131</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15">
+    <row r="75" spans="1:15" ht="15">
       <c r="A75" s="13" t="s">
         <v>155</v>
       </c>
@@ -8641,7 +8669,7 @@
         <v>22</v>
       </c>
       <c r="D75" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E75" s="7">
         <v>280</v>
@@ -8653,7 +8681,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="I75" s="6">
@@ -8661,25 +8689,25 @@
         <v>32.450000000000003</v>
       </c>
       <c r="J75" s="8">
-        <f t="shared" si="11"/>
-        <v>1.0599454763396679E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.001384892166723E-3</v>
       </c>
       <c r="K75" s="7">
+        <f t="shared" si="8"/>
+        <v>-231.2</v>
+      </c>
+      <c r="L75" s="8">
         <f t="shared" si="9"/>
-        <v>-231.2</v>
-      </c>
-      <c r="L75" s="8">
-        <f t="shared" si="10"/>
         <v>-0.42527361353812199</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N75" s="71">
         <v>44132</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15">
+    <row r="76" spans="1:15" ht="15">
       <c r="A76" s="13" t="s">
         <v>157</v>
       </c>
@@ -8690,7 +8718,7 @@
         <v>38</v>
       </c>
       <c r="D76" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E76" s="7">
         <v>320</v>
@@ -8702,7 +8730,7 @@
         <v>2</v>
       </c>
       <c r="H76" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>640</v>
       </c>
       <c r="I76" s="6">
@@ -8710,25 +8738,25 @@
         <v>47.650000000000006</v>
       </c>
       <c r="J76" s="8">
-        <f t="shared" si="11"/>
-        <v>2.4227325173478121E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.2888797535239383E-3</v>
       </c>
       <c r="K76" s="7">
+        <f t="shared" si="8"/>
+        <v>82.049999999999983</v>
+      </c>
+      <c r="L76" s="8">
         <f t="shared" si="9"/>
-        <v>82.049999999999983</v>
-      </c>
-      <c r="L76" s="8">
-        <f t="shared" si="10"/>
         <v>0.1354854689564069</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N76" s="71">
         <v>44103</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="15">
+    <row r="77" spans="1:15" ht="15">
       <c r="A77" s="13" t="s">
         <v>159</v>
       </c>
@@ -8739,7 +8767,7 @@
         <v>15</v>
       </c>
       <c r="D77" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E77" s="7">
         <v>5.8</v>
@@ -8751,7 +8779,7 @@
         <v>100</v>
       </c>
       <c r="H77" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>580</v>
       </c>
       <c r="I77" s="6">
@@ -8759,25 +8787,25 @@
         <v>71.89</v>
       </c>
       <c r="J77" s="8">
-        <f t="shared" si="11"/>
-        <v>2.1956013438464545E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.0742972766310689E-3</v>
       </c>
       <c r="K77" s="7">
+        <f t="shared" si="8"/>
+        <v>242.27999999999997</v>
+      </c>
+      <c r="L77" s="8">
         <f t="shared" si="9"/>
-        <v>242.27999999999997</v>
-      </c>
-      <c r="L77" s="8">
-        <f t="shared" si="10"/>
         <v>0.59148946558921889</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N77" s="71">
         <v>44129</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="15">
+    <row r="78" spans="1:15" ht="15">
       <c r="A78" s="13" t="s">
         <v>161</v>
       </c>
@@ -8788,7 +8816,7 @@
         <v>15</v>
       </c>
       <c r="D78" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E78" s="7">
         <v>7</v>
@@ -8800,7 +8828,7 @@
         <v>163</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1141</v>
       </c>
       <c r="I78" s="6">
@@ -8808,25 +8836,25 @@
         <v>135.38999999999999</v>
       </c>
       <c r="J78" s="8">
-        <f t="shared" si="11"/>
-        <v>4.3192778160841463E-3</v>
+        <f t="shared" si="10"/>
+        <v>4.0806434355793956E-3</v>
       </c>
       <c r="K78" s="7">
+        <f t="shared" si="8"/>
+        <v>162.93700000000001</v>
+      </c>
+      <c r="L78" s="8">
         <f t="shared" si="9"/>
-        <v>162.93700000000001</v>
-      </c>
-      <c r="L78" s="8">
-        <f t="shared" si="10"/>
         <v>0.1463348699945124</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N78" s="71">
         <v>45226</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15">
+    <row r="79" spans="1:15" ht="15">
       <c r="A79" s="13" t="s">
         <v>163</v>
       </c>
@@ -8837,7 +8865,7 @@
         <v>22</v>
       </c>
       <c r="D79" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E79" s="7">
         <v>32</v>
@@ -8849,7 +8877,7 @@
         <v>15</v>
       </c>
       <c r="H79" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
       <c r="I79" s="6">
@@ -8857,25 +8885,25 @@
         <v>99.57</v>
       </c>
       <c r="J79" s="8">
-        <f t="shared" si="11"/>
-        <v>1.817049388010859E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.7166598151429535E-3</v>
       </c>
       <c r="K79" s="7">
+        <f t="shared" si="8"/>
+        <v>194.96999999999997</v>
+      </c>
+      <c r="L79" s="8">
         <f t="shared" si="9"/>
-        <v>194.96999999999997</v>
-      </c>
-      <c r="L79" s="8">
-        <f t="shared" si="10"/>
         <v>0.50694227769110745</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N79" s="71">
         <v>44126</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15">
+    <row r="80" spans="1:15" ht="15">
       <c r="A80" s="13" t="s">
         <v>165</v>
       </c>
@@ -8886,7 +8914,7 @@
         <v>58</v>
       </c>
       <c r="D80" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E80" s="7">
         <v>88</v>
@@ -8898,7 +8926,7 @@
         <v>10</v>
       </c>
       <c r="H80" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>880</v>
       </c>
       <c r="I80" s="6">
@@ -8906,19 +8934,19 @@
         <v>88.179999999999993</v>
       </c>
       <c r="J80" s="8">
-        <f t="shared" si="11"/>
-        <v>3.3312572113532416E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.1472096610954147E-3</v>
       </c>
       <c r="K80" s="7">
+        <f t="shared" si="8"/>
+        <v>557.27</v>
+      </c>
+      <c r="L80" s="8">
         <f t="shared" si="9"/>
-        <v>557.27</v>
-      </c>
-      <c r="L80" s="8">
-        <f t="shared" si="10"/>
         <v>1.3561850526879362</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N80" s="71">
         <v>44132</v>
@@ -8935,7 +8963,7 @@
         <v>15</v>
       </c>
       <c r="D81" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E81" s="7">
         <v>52</v>
@@ -8947,7 +8975,7 @@
         <v>15</v>
       </c>
       <c r="H81" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>780</v>
       </c>
       <c r="I81" s="6">
@@ -8955,19 +8983,19 @@
         <v>14.52</v>
       </c>
       <c r="J81" s="8">
-        <f t="shared" si="11"/>
-        <v>2.952705255517646E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.7895721996072996E-3</v>
       </c>
       <c r="K81" s="7">
+        <f t="shared" si="8"/>
+        <v>-2.100000000000005</v>
+      </c>
+      <c r="L81" s="8">
         <f t="shared" si="9"/>
-        <v>-2.100000000000005</v>
-      </c>
-      <c r="L81" s="8">
-        <f t="shared" si="10"/>
         <v>-2.6361376817052307E-3</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N81" s="71">
         <v>44327</v>
@@ -8984,7 +9012,7 @@
         <v>22</v>
       </c>
       <c r="D82" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E82" s="7">
         <v>4</v>
@@ -8996,7 +9024,7 @@
         <v>200</v>
       </c>
       <c r="H82" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
       <c r="I82" s="6">
@@ -9004,19 +9032,19 @@
         <v>70.64</v>
       </c>
       <c r="J82" s="8">
-        <f t="shared" si="11"/>
-        <v>3.0284156466847652E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.8610996919049224E-3</v>
       </c>
       <c r="K82" s="7">
+        <f t="shared" si="8"/>
+        <v>-156.81000000000006</v>
+      </c>
+      <c r="L82" s="8">
         <f t="shared" si="9"/>
-        <v>-156.81000000000006</v>
-      </c>
-      <c r="L82" s="8">
-        <f t="shared" si="10"/>
         <v>-0.15262056547763891</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N82" s="71">
         <v>43935</v>
@@ -9049,7 +9077,7 @@
         <v>58</v>
       </c>
       <c r="D84" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E84" s="6">
         <v>2.1459999999999999</v>
@@ -9069,8 +9097,8 @@
         <v>430.46</v>
       </c>
       <c r="J84" s="8">
-        <f t="shared" si="11"/>
-        <v>4.0618624861159412E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.8374499617674774E-3</v>
       </c>
       <c r="K84" s="7">
         <f>(H84-(G84*F84)+I84)</f>
@@ -9081,7 +9109,7 @@
         <v>8.2015113350125901E-2</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N84" s="71">
         <v>43251</v>
@@ -9098,7 +9126,7 @@
         <v>56</v>
       </c>
       <c r="D85" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E85" s="6">
         <v>0.48</v>
@@ -9118,19 +9146,19 @@
         <v>169.45000000000002</v>
       </c>
       <c r="J85" s="8">
-        <f t="shared" si="11"/>
-        <v>1.817049388010859E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.7166598151429535E-3</v>
       </c>
       <c r="K85" s="7">
+        <f t="shared" si="8"/>
+        <v>-89.049999999999983</v>
+      </c>
+      <c r="L85" s="8">
         <f t="shared" si="9"/>
-        <v>-89.049999999999983</v>
-      </c>
-      <c r="L85" s="8">
-        <f t="shared" si="10"/>
         <v>-0.12058226134055516</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N85" s="71">
         <v>43608</v>
@@ -9147,7 +9175,7 @@
         <v>63</v>
       </c>
       <c r="D86" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E86" s="6">
         <v>2.3570000000000002</v>
@@ -9167,19 +9195,19 @@
         <v>239.37</v>
       </c>
       <c r="J86" s="8">
-        <f t="shared" si="11"/>
-        <v>4.4612347995224948E-3</v>
+        <f t="shared" si="10"/>
+        <v>4.2147574836374395E-3</v>
       </c>
       <c r="K86" s="7">
+        <f t="shared" si="8"/>
+        <v>567.87</v>
+      </c>
+      <c r="L86" s="8">
         <f t="shared" si="9"/>
-        <v>567.87</v>
-      </c>
-      <c r="L86" s="8">
-        <f t="shared" si="10"/>
         <v>0.66808235294117635</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N86" s="71">
         <v>43270</v>
@@ -9196,7 +9224,7 @@
         <v>72</v>
       </c>
       <c r="D87" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E87" s="6">
         <v>8.4</v>
@@ -9216,8 +9244,8 @@
         <v>147.82000000000002</v>
       </c>
       <c r="J87" s="8">
-        <f t="shared" si="11"/>
-        <v>2.2258855003133024E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.102908273550118E-3</v>
       </c>
       <c r="K87" s="7">
         <f>(H87-(G87*F87)+I87)</f>
@@ -9228,7 +9256,7 @@
         <v>0.26031124487692825</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N87" s="71">
         <v>43591</v>
@@ -9245,7 +9273,7 @@
         <v>22</v>
       </c>
       <c r="D88" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E88" s="7">
         <v>1.83</v>
@@ -9257,7 +9285,7 @@
         <v>150</v>
       </c>
       <c r="H88" s="14">
-        <f t="shared" ref="H88:H98" si="12">G88*E88</f>
+        <f t="shared" ref="H88:H98" si="11">G88*E88</f>
         <v>274.5</v>
       </c>
       <c r="I88" s="6">
@@ -9265,19 +9293,19 @@
         <v>23.189999999999998</v>
       </c>
       <c r="J88" s="8">
-        <f t="shared" si="11"/>
-        <v>1.03912511876871E-3</v>
+        <f t="shared" si="10"/>
+        <v>9.817148317848765E-4</v>
       </c>
       <c r="K88" s="7">
-        <f t="shared" ref="K88:K98" si="13">(H88-(G88*F88)+I88)</f>
+        <f t="shared" ref="K88:K98" si="12">(H88-(G88*F88)+I88)</f>
         <v>-7.960049999999967</v>
       </c>
       <c r="L88" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-2.6043018805329665E-2</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N88" s="71">
         <v>44211</v>
@@ -9294,7 +9322,7 @@
         <v>15</v>
       </c>
       <c r="D89" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E89" s="7">
         <v>5.25</v>
@@ -9306,7 +9334,7 @@
         <v>80</v>
       </c>
       <c r="H89" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>420</v>
       </c>
       <c r="I89" s="6">
@@ -9314,19 +9342,19 @@
         <v>7.629999999999999</v>
       </c>
       <c r="J89" s="8">
-        <f t="shared" si="11"/>
-        <v>1.5899182145095016E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.5020773382500843E-3</v>
       </c>
       <c r="K89" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.6899999999999444</v>
       </c>
       <c r="L89" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.3485329667725088E-2</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N89" s="71">
         <v>44215</v>
@@ -9343,7 +9371,7 @@
         <v>15</v>
       </c>
       <c r="D90" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E90" s="7">
         <v>40</v>
@@ -9355,7 +9383,7 @@
         <v>11</v>
       </c>
       <c r="H90" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>440</v>
       </c>
       <c r="I90" s="6">
@@ -9363,19 +9391,19 @@
         <v>0</v>
       </c>
       <c r="J90" s="8">
-        <f t="shared" si="11"/>
-        <v>1.6656286056766208E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.5736048305477074E-3</v>
       </c>
       <c r="K90" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-12.129997000000003</v>
       </c>
       <c r="L90" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-2.6828560547819569E-2</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N90" s="71">
         <v>44222</v>
@@ -9392,7 +9420,7 @@
         <v>15</v>
       </c>
       <c r="D91" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E91" s="7">
         <v>40</v>
@@ -9404,7 +9432,7 @@
         <v>2</v>
       </c>
       <c r="H91" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="I91" s="6">
@@ -9412,19 +9440,19 @@
         <v>0</v>
       </c>
       <c r="J91" s="8">
-        <f t="shared" si="11"/>
-        <v>3.0284156466847651E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.8610996919049229E-4</v>
       </c>
       <c r="K91" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-274.77</v>
       </c>
       <c r="L91" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.77450178989204277</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N91" s="71">
         <v>44223</v>
@@ -9441,7 +9469,7 @@
         <v>15</v>
       </c>
       <c r="D92" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E92" s="7">
         <v>17.8</v>
@@ -9453,7 +9481,7 @@
         <v>20</v>
       </c>
       <c r="H92" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>356</v>
       </c>
       <c r="I92" s="6">
@@ -9461,19 +9489,19 @@
         <v>75.02</v>
       </c>
       <c r="J92" s="8">
-        <f t="shared" si="11"/>
-        <v>1.3476449627747205E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.2731893628976905E-3</v>
       </c>
       <c r="K92" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>69.629999999999953</v>
       </c>
       <c r="L92" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.19267273582556221</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N92" s="71">
         <v>44277</v>
@@ -9490,7 +9518,7 @@
         <v>72</v>
       </c>
       <c r="D93" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E93" s="7">
         <v>7</v>
@@ -9502,7 +9530,7 @@
         <v>20</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>140</v>
       </c>
       <c r="I93" s="6">
@@ -9510,19 +9538,19 @@
         <v>11.569999999999999</v>
       </c>
       <c r="J93" s="8">
-        <f t="shared" si="11"/>
-        <v>5.2997273816983393E-4</v>
+        <f t="shared" si="10"/>
+        <v>5.006924460833615E-4</v>
       </c>
       <c r="K93" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-204.21000000000004</v>
       </c>
       <c r="L93" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.57397830119736915</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N93" s="71">
         <v>44252</v>
@@ -9539,7 +9567,7 @@
         <v>72</v>
       </c>
       <c r="D94" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E94" s="7">
         <v>2.6</v>
@@ -9551,7 +9579,7 @@
         <v>150</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>390</v>
       </c>
       <c r="I94" s="6">
@@ -9559,19 +9587,19 @@
         <v>0</v>
       </c>
       <c r="J94" s="8">
-        <f t="shared" si="11"/>
-        <v>1.476352627758823E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.3947860998036498E-3</v>
       </c>
       <c r="K94" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-17.909999999999968</v>
       </c>
       <c r="L94" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-4.3906744134735498E-2</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N94" s="71">
         <v>44252</v>
@@ -9588,7 +9616,7 @@
         <v>15</v>
       </c>
       <c r="D95" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E95" s="7">
         <v>14.6</v>
@@ -9600,7 +9628,7 @@
         <v>30</v>
       </c>
       <c r="H95" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>438</v>
       </c>
       <c r="I95" s="6">
@@ -9608,19 +9636,19 @@
         <v>33.909999999999997</v>
       </c>
       <c r="J95" s="8">
-        <f t="shared" si="11"/>
-        <v>1.6580575665599089E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.5664520813179451E-3</v>
       </c>
       <c r="K95" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>27.909999999999997</v>
       </c>
       <c r="L95" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6.2860360360360357E-2</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N95" s="71">
         <v>44243</v>
@@ -9637,7 +9665,7 @@
         <v>22</v>
       </c>
       <c r="D96" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E96" s="7">
         <v>112</v>
@@ -9649,7 +9677,7 @@
         <v>3</v>
       </c>
       <c r="H96" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>336</v>
       </c>
       <c r="I96" s="6">
@@ -9657,19 +9685,19 @@
         <v>0</v>
       </c>
       <c r="J96" s="8">
-        <f t="shared" si="11"/>
-        <v>1.2719345716076013E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.2016618706000674E-3</v>
       </c>
       <c r="K96" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-20.780000099999995</v>
       </c>
       <c r="L96" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-5.8243175329827035E-2</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N96" s="71">
         <v>44274</v>
@@ -9686,7 +9714,7 @@
         <v>72</v>
       </c>
       <c r="D97" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E97" s="7">
         <v>1.83</v>
@@ -9698,7 +9726,7 @@
         <v>250</v>
       </c>
       <c r="H97" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>457.5</v>
       </c>
       <c r="I97" s="6">
@@ -9706,19 +9734,19 @@
         <v>42.78</v>
       </c>
       <c r="J97" s="8">
-        <f t="shared" si="11"/>
-        <v>1.7318751979478501E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.6361913863081276E-3</v>
       </c>
       <c r="K97" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>24.069999999999965</v>
       </c>
       <c r="L97" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.0544927657965921E-2</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N97" s="71">
         <v>44319</v>
@@ -9735,7 +9763,7 @@
         <v>72</v>
       </c>
       <c r="D98" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E98" s="7">
         <v>1.07</v>
@@ -9747,7 +9775,7 @@
         <v>1000</v>
       </c>
       <c r="H98" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1070</v>
       </c>
       <c r="I98" s="6">
@@ -9755,19 +9783,19 @@
         <v>91.42</v>
       </c>
       <c r="J98" s="8">
-        <f t="shared" si="11"/>
-        <v>4.0505059274408735E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.826720837922834E-3</v>
       </c>
       <c r="K98" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>143.49000000000007</v>
       </c>
       <c r="L98" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.14096254162859934</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N98" s="71">
         <v>44566</v>
@@ -9784,7 +9812,7 @@
         <v>72</v>
       </c>
       <c r="D99" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E99" s="6">
         <v>5.9</v>
@@ -9804,8 +9832,8 @@
         <v>94.28</v>
       </c>
       <c r="J99" s="8">
-        <f t="shared" si="11"/>
-        <v>2.2334565394300141E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.1100610227798803E-3</v>
       </c>
       <c r="K99" s="7">
         <f>(H99-(G99*F99)+I99)</f>
@@ -9816,7 +9844,7 @@
         <v>-0.10877832768950246</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N99" s="71">
         <v>43902</v>
@@ -9833,7 +9861,7 @@
         <v>15</v>
       </c>
       <c r="D100" s="76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E100" s="6">
         <v>78</v>
@@ -9850,22 +9878,22 @@
       </c>
       <c r="I100" s="6">
         <f>'Dividends per year'!B46</f>
-        <v>185.73000000000002</v>
+        <v>205.96000000000004</v>
       </c>
       <c r="J100" s="8">
-        <f t="shared" si="11"/>
-        <v>3.2479757810694107E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.0685294195680296E-3</v>
       </c>
       <c r="K100" s="7">
         <f>(H100-(G100*F100)+I100)</f>
-        <v>-549.125</v>
+        <v>-528.89499999999998</v>
       </c>
       <c r="L100" s="8">
         <f>((E100*G100)+I100)/(F100*G100)-100%</f>
-        <v>-0.34474261624567204</v>
+        <v>-0.33204215072935073</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N100" s="71">
         <v>43591</v>
@@ -9882,7 +9910,7 @@
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K101" s="7"/>
@@ -9901,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K102" s="16"/>
@@ -9919,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K103" s="16"/>
@@ -9939,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K104" s="16"/>
@@ -9975,15 +10003,15 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J105" s="8">
-        <f t="shared" si="11"/>
-        <v>2.3235519049188857E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.1951787386140516E-4</v>
       </c>
       <c r="K105" s="7">
-        <f t="shared" ref="K105:K110" si="14">(H105-(G105*F105)+I105)</f>
+        <f t="shared" ref="K105:K110" si="13">(H105-(G105*F105)+I105)</f>
         <v>-4.4660000000000055</v>
       </c>
       <c r="L105" s="8">
-        <f t="shared" ref="L105:L112" si="15">((E105*G105)+I105)/(F105*G105)-100%</f>
+        <f t="shared" ref="L105:L112" si="14">((E105*G105)+I105)/(F105*G105)-100%</f>
         <v>-6.7263088137839766E-2</v>
       </c>
       <c r="M105" s="10" t="s">
@@ -9995,7 +10023,7 @@
     </row>
     <row r="106" spans="1:14" ht="15">
       <c r="A106" s="13" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B106" s="152" t="s">
         <v>201</v>
@@ -10022,15 +10050,15 @@
         <v>0.35</v>
       </c>
       <c r="J106" s="8">
-        <f t="shared" si="11"/>
-        <v>4.4282561102340097E-4</v>
+        <f t="shared" si="10"/>
+        <v>4.1836008232675181E-4</v>
       </c>
       <c r="K106" s="7">
+        <f t="shared" si="13"/>
+        <v>0.35</v>
+      </c>
+      <c r="L106" s="8">
         <f t="shared" si="14"/>
-        <v>0.35</v>
-      </c>
-      <c r="L106" s="8">
-        <f t="shared" si="15"/>
         <v>-0.41852379772680226</v>
       </c>
       <c r="M106" s="10" t="s">
@@ -10061,7 +10089,7 @@
         <v>2</v>
       </c>
       <c r="H107" s="6">
-        <f t="shared" ref="H107:H110" si="16">G107*E107</f>
+        <f t="shared" ref="H107:H110" si="15">G107*E107</f>
         <v>32.74</v>
       </c>
       <c r="I107" s="6">
@@ -10069,15 +10097,15 @@
         <v>1.8000000000000003</v>
       </c>
       <c r="J107" s="8">
-        <f t="shared" si="11"/>
-        <v>1.2393791034057402E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.1709050489120897E-4</v>
       </c>
       <c r="K107" s="7">
+        <f t="shared" si="13"/>
+        <v>2.5400000000000023</v>
+      </c>
+      <c r="L107" s="8">
         <f t="shared" si="14"/>
-        <v>2.5400000000000023</v>
-      </c>
-      <c r="L107" s="8">
-        <f t="shared" si="15"/>
         <v>7.9374999999999973E-2</v>
       </c>
       <c r="M107" s="10" t="s">
@@ -10108,7 +10136,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>14.66</v>
       </c>
       <c r="I108" s="6">
@@ -10116,15 +10144,15 @@
         <v>0.98</v>
       </c>
       <c r="J108" s="8">
-        <f t="shared" si="11"/>
-        <v>5.5495716725498317E-5</v>
+        <f t="shared" si="10"/>
+        <v>5.242965185415771E-5</v>
       </c>
       <c r="K108" s="7">
+        <f t="shared" si="13"/>
+        <v>-84.57</v>
+      </c>
+      <c r="L108" s="8">
         <f t="shared" si="14"/>
-        <v>-84.57</v>
-      </c>
-      <c r="L108" s="8">
-        <f t="shared" si="15"/>
         <v>-0.84392775172138501</v>
       </c>
       <c r="M108" s="10" t="s">
@@ -10155,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="H109" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>25.68</v>
       </c>
       <c r="I109" s="6">
@@ -10163,15 +10191,15 @@
         <v>5.44</v>
       </c>
       <c r="J109" s="8">
-        <f t="shared" si="11"/>
-        <v>9.7212142258580963E-5</v>
+        <f t="shared" si="10"/>
+        <v>9.1841300110148013E-5</v>
       </c>
       <c r="K109" s="7">
+        <f t="shared" si="13"/>
+        <v>-14.989999999999998</v>
+      </c>
+      <c r="L109" s="8">
         <f t="shared" si="14"/>
-        <v>-14.989999999999998</v>
-      </c>
-      <c r="L109" s="8">
-        <f t="shared" si="15"/>
         <v>-0.32509217089568421</v>
       </c>
       <c r="M109" s="10" t="s">
@@ -10202,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="H110" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>97</v>
       </c>
       <c r="I110" s="6">
@@ -10210,15 +10238,15 @@
         <v>45.57</v>
       </c>
       <c r="J110" s="8">
-        <f t="shared" si="11"/>
-        <v>3.6719539716052778E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.4690833764347188E-4</v>
       </c>
       <c r="K110" s="7">
+        <f t="shared" si="13"/>
+        <v>27.770000000000003</v>
+      </c>
+      <c r="L110" s="8">
         <f t="shared" si="14"/>
-        <v>27.770000000000003</v>
-      </c>
-      <c r="L110" s="8">
-        <f t="shared" si="15"/>
         <v>0.24189895470383282</v>
       </c>
       <c r="M110" s="10" t="s">
@@ -10257,15 +10285,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J111" s="8">
-        <f t="shared" si="11"/>
-        <v>1.6959127621434685E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.6022158274667567E-3</v>
       </c>
       <c r="K111" s="7">
         <f>(H111-(G111*F111)+I111)</f>
         <v>7.07</v>
       </c>
       <c r="L111" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.6031746031746064E-2</v>
       </c>
       <c r="M111" s="10" t="s">
@@ -10280,7 +10308,7 @@
         <v>396</v>
       </c>
       <c r="B112" s="153" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C112" s="77" t="s">
         <v>15</v>
@@ -10302,15 +10330,15 @@
         <v>0</v>
       </c>
       <c r="J112" s="8">
-        <f t="shared" si="11"/>
-        <v>9.4637988958898913E-5</v>
+        <f t="shared" si="10"/>
+        <v>8.9409365372028826E-5</v>
       </c>
       <c r="K112" s="7">
         <f>(H112-(G112*F112)+I112)</f>
         <v>23</v>
       </c>
       <c r="L112" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>11.5</v>
       </c>
       <c r="M112" s="10" t="s">
@@ -10330,7 +10358,7 @@
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K113" s="7"/>
@@ -10348,7 +10376,7 @@
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K114" s="7"/>
@@ -10366,7 +10394,7 @@
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K115" s="7"/>
@@ -10382,7 +10410,7 @@
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
       <c r="J116" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K116" s="7"/>
@@ -10396,7 +10424,7 @@
       <c r="D117" s="76"/>
       <c r="F117" s="7"/>
       <c r="J117" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K117" s="16"/>
@@ -10410,7 +10438,7 @@
       <c r="D118" s="76"/>
       <c r="F118" s="16"/>
       <c r="J118" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K118" s="16"/>
@@ -10424,7 +10452,7 @@
       <c r="D119" s="76"/>
       <c r="F119" s="16"/>
       <c r="J119" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K119" s="16"/>
@@ -10437,7 +10465,7 @@
       <c r="C120" s="76"/>
       <c r="D120" s="76"/>
       <c r="J120" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N120" s="71"/>
@@ -10479,7 +10507,9 @@
       <c r="N130" s="71"/>
     </row>
     <row r="131" spans="1:14" ht="12.75">
-      <c r="A131" s="15"/>
+      <c r="A131" s="15" t="s">
+        <v>567</v>
+      </c>
       <c r="B131" s="154"/>
       <c r="C131" s="78"/>
       <c r="D131" s="78"/>
@@ -18682,7 +18712,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="L2:L23 L25:L52 L54:L1000">
+  <conditionalFormatting sqref="L2:L17 L19:L23 L25:L1000">
     <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18690,7 +18720,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M23 M25:M110">
+  <conditionalFormatting sqref="M1:M17 M19:M23 M25:M110">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="buy">
       <formula>NOT(ISERROR(SEARCH("buy",M1)))</formula>
     </cfRule>
@@ -18718,7 +18748,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -19292,9 +19322,9 @@
       <c r="AB15" s="19"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A16" s="108">
+      <c r="A16" s="108" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>50k trading</v>
       </c>
       <c r="B16" s="18">
         <f>SUM(C16:X16)</f>
@@ -19337,20 +19367,13 @@
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="17" t="str">
+      <c r="A18" s="17">
         <f>'Portfolio Ned'!A:A</f>
-        <v>Ball Corp.</v>
+        <v>0</v>
       </c>
       <c r="B18" s="18">
         <f t="shared" si="0"/>
-        <v>31.43</v>
-      </c>
-      <c r="C18" s="19">
-        <v>27.15</v>
-      </c>
-      <c r="D18" s="19">
-        <f>1.56+1.38+1.34</f>
-        <v>4.28</v>
+        <v>0</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -19481,9 +19504,9 @@
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="17">
+      <c r="A24" s="17" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>HB Fuller</v>
       </c>
       <c r="B24" s="18">
         <f t="shared" si="0"/>
@@ -19599,14 +19622,14 @@
       </c>
       <c r="B29" s="18">
         <f t="shared" si="0"/>
-        <v>37.130000000000003</v>
+        <v>41.800000000000004</v>
       </c>
       <c r="C29" s="19">
         <v>33.190000000000005</v>
       </c>
       <c r="D29" s="19">
-        <f>3.94</f>
-        <v>3.94</v>
+        <f>3.94+4.67</f>
+        <v>8.61</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
@@ -19862,14 +19885,14 @@
       </c>
       <c r="B40" s="18">
         <f t="shared" si="0"/>
-        <v>51.44</v>
+        <v>59.16</v>
       </c>
       <c r="C40" s="19">
         <v>43.3</v>
       </c>
       <c r="D40" s="19">
-        <f>8.14</f>
-        <v>8.14</v>
+        <f>8.14+7.72</f>
+        <v>15.86</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
@@ -19953,13 +19976,14 @@
       </c>
       <c r="B44" s="18">
         <f t="shared" si="0"/>
-        <v>9.61</v>
+        <v>12.709999999999999</v>
       </c>
       <c r="C44" s="19">
         <v>9.61</v>
       </c>
       <c r="D44" s="19">
-        <v>0</v>
+        <f>3.1</f>
+        <v>3.1</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
@@ -20000,14 +20024,14 @@
       </c>
       <c r="B46" s="18">
         <f>SUM(C46:X46)</f>
-        <v>185.73000000000002</v>
+        <v>205.96000000000004</v>
       </c>
       <c r="C46" s="19">
         <v>128.54000000000002</v>
       </c>
       <c r="D46" s="19">
-        <f>20.91+18.28+18</f>
-        <v>57.19</v>
+        <f>20.91+18.28+18+20.23</f>
+        <v>77.42</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
@@ -20162,19 +20186,20 @@
       <c r="K52" s="19"/>
     </row>
     <row r="53" spans="1:11" ht="12.75">
-      <c r="A53" s="17">
+      <c r="A53" s="17" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Ball Corp.</v>
       </c>
       <c r="B53" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C53:X53)</f>
+        <v>31.43</v>
       </c>
       <c r="C53" s="19">
-        <v>0</v>
+        <v>27.15</v>
       </c>
       <c r="D53" s="19">
-        <v>0</v>
+        <f>1.56+1.38+1.34</f>
+        <v>4.28</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -20287,14 +20312,14 @@
       </c>
       <c r="B58" s="18">
         <f t="shared" si="0"/>
-        <v>282.86999999999995</v>
+        <v>299.75</v>
       </c>
       <c r="C58" s="19">
         <v>227.52999999999997</v>
       </c>
       <c r="D58" s="19">
-        <f>22.06+16.57+16.71</f>
-        <v>55.339999999999996</v>
+        <f>22.06+16.57+16.71+16.88</f>
+        <v>72.22</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
@@ -20525,14 +20550,14 @@
       </c>
       <c r="B68" s="18">
         <f t="shared" si="0"/>
-        <v>24.21</v>
+        <v>26.3</v>
       </c>
       <c r="C68" s="19">
         <v>18.66</v>
       </c>
       <c r="D68" s="19">
-        <f>2.03+1.78+1.74</f>
-        <v>5.55</v>
+        <f>2.03+1.78+1.74+2.09</f>
+        <v>7.64</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
@@ -20669,14 +20694,14 @@
       </c>
       <c r="B74" s="18">
         <f t="shared" si="0"/>
-        <v>28.490000000000002</v>
+        <v>31.900000000000002</v>
       </c>
       <c r="C74" s="19">
         <v>22.87</v>
       </c>
       <c r="D74" s="19">
-        <f>5.62</f>
-        <v>5.62</v>
+        <f>5.62+3.41</f>
+        <v>9.0300000000000011</v>
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
@@ -21694,7 +21719,7 @@
       </c>
       <c r="D128" s="84">
         <f>SUM(D2:D115)</f>
-        <v>3129.81</v>
+        <v>3187.91</v>
       </c>
       <c r="E128" s="84">
         <f t="shared" ref="E128:O128" si="3">SUM(E2:E115)</f>
@@ -21955,10 +21980,10 @@
     <row r="132" spans="1:21" ht="12.75">
       <c r="A132" s="4"/>
       <c r="B132" s="84" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C132" s="84" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D132" s="155">
         <f>D131/C131-1</f>
@@ -21985,7 +22010,7 @@
     <row r="133" spans="1:21" ht="12.75">
       <c r="A133" s="17"/>
       <c r="B133" s="85" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C133" s="83">
         <v>190</v>
@@ -22065,7 +22090,7 @@
     <row r="134" spans="1:21" ht="12.75">
       <c r="A134" s="17"/>
       <c r="B134" s="85" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C134" s="83">
         <v>190</v>
@@ -33520,7 +33545,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -33551,10 +33576,10 @@
         <v>273</v>
       </c>
       <c r="F1" s="136" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G1" s="156" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H1" s="81" t="s">
         <v>274</v>
@@ -33722,7 +33747,7 @@
         <v>2024</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="68">
@@ -33751,10 +33776,10 @@
         <v>2025</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D9" s="68">
         <f>0</f>
@@ -40854,7 +40879,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -41087,7 +41112,7 @@
       </c>
       <c r="Q3" s="23">
         <f>SUM(C2:C151)</f>
-        <v>109.42081518806951</v>
+        <v>227.62019535335872</v>
       </c>
       <c r="R3" s="24">
         <v>43483</v>
@@ -41315,7 +41340,7 @@
       </c>
       <c r="Q6" s="23">
         <f>SUM(F2:F154)</f>
-        <v>684.51316066335517</v>
+        <v>802.71254082864425</v>
       </c>
       <c r="R6" s="31">
         <v>43839</v>
@@ -41503,30 +41528,30 @@
       </c>
       <c r="C9" s="7">
         <f>'Portfolio Ned'!$G$9*$O$9*$AC$2*0.85</f>
-        <v>8.7880165289256205</v>
+        <v>125.96157024793388</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7">
         <f>'Portfolio Ned'!$G$9*$O$9*$AC$2*0.85</f>
-        <v>8.7880165289256205</v>
+        <v>125.96157024793388</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7">
         <f>'Portfolio Ned'!$G$9*$O$9*$AC$2*0.85</f>
-        <v>8.7880165289256205</v>
+        <v>125.96157024793388</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="6"/>
       <c r="L9" s="7">
         <f>'Portfolio Ned'!$G$9*$O$9*$AC$2*0.85</f>
-        <v>8.7880165289256205</v>
+        <v>125.96157024793388</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="20">
         <f t="shared" si="1"/>
-        <v>35.152066115702482</v>
+        <v>503.84628099173551</v>
       </c>
       <c r="O9" s="33">
         <v>0.41699999999999998</v>
@@ -41536,7 +41561,7 @@
       </c>
       <c r="Q9" s="23">
         <f>SUM(I2:I157)</f>
-        <v>114.77317386575547</v>
+        <v>232.97255403104467</v>
       </c>
       <c r="R9" s="31">
         <v>43549</v>
@@ -41552,7 +41577,7 @@
       </c>
       <c r="V9" s="26">
         <f>N9/('Portfolio Ned'!F8*'Portfolio Ned'!G8)</f>
-        <v>2.3614178500404731E-2</v>
+        <v>0.33846989183913445</v>
       </c>
       <c r="AB9" s="11" t="s">
         <v>72</v>
@@ -41732,7 +41757,7 @@
       </c>
       <c r="Q12" s="23">
         <f>SUM(L2:L160)</f>
-        <v>75.173694202416272</v>
+        <v>193.3730743677055</v>
       </c>
       <c r="V12" s="26" t="e">
         <f>N12/(#REF!*#REF!)</f>
@@ -41907,18 +41932,15 @@
       </c>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="115">
+      <c r="A16" s="115" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>50k trading</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="7">
-        <f>'Portfolio Ned'!$G$16*$O$16*$AC$3</f>
-        <v>0</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -42022,35 +42044,13 @@
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="5" t="str">
+      <c r="A18" s="5">
         <f>'Portfolio Ned'!A:A</f>
-        <v>Ball Corp.</v>
-      </c>
-      <c r="D18" s="7">
-        <f>'Portfolio Ned'!$G$18*$O$18*$AC$2*0.85</f>
-        <v>1.4049586776859504</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="7">
-        <f>'Portfolio Ned'!$G$18*$O$18*$AC$2*0.85</f>
-        <v>1.4049586776859504</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="7">
-        <f>'Portfolio Ned'!$G$18*$O$18*$AC$2*0.85</f>
-        <v>1.4049586776859504</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7">
-        <f>'Portfolio Ned'!$G$18*$O$18*$AC$2*0.85</f>
-        <v>1.4049586776859504</v>
+        <v>0</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" si="1"/>
-        <v>5.6198347107438016</v>
-      </c>
-      <c r="O18" s="33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P18" s="43" t="s">
         <v>254</v>
@@ -42072,7 +42072,7 @@
         <v>256</v>
       </c>
       <c r="V18" s="26">
-        <f>N18/('Portfolio Ned'!F18*'Portfolio Ned'!G18)</f>
+        <f>N53/('Portfolio Ned'!F53*'Portfolio Ned'!G53)</f>
         <v>1.8782870022539443E-2</v>
       </c>
       <c r="AE18" s="7">
@@ -42177,11 +42177,11 @@
         <v>0.08</v>
       </c>
       <c r="AG19" s="27">
-        <f>'Portfolio Ned'!G18*AE19*((1+AF19)^10)*0.75</f>
+        <f>'Portfolio Ned'!G53*AE19*((1+AF19)^10)*0.75</f>
         <v>8.8319658979341309</v>
       </c>
       <c r="AH19" s="26">
-        <f>AG19/('Portfolio Ned'!F18*'Portfolio Ned'!G18)</f>
+        <f>AG19/('Portfolio Ned'!F53*'Portfolio Ned'!G53)</f>
         <v>2.9518602600047225E-2</v>
       </c>
     </row>
@@ -42191,56 +42191,44 @@
         <v>Realty Income REIT</v>
       </c>
       <c r="B20" s="7">
-        <f>'Portfolio Ned'!$G$20*$O$53*$AC$2*0.85</f>
-        <v>25.974173553719012</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
-        <f>'Portfolio Ned'!$G$20*$O$53*$AC$2*0.85</f>
-        <v>25.974173553719012</v>
+        <v>27</v>
       </c>
       <c r="D20" s="7">
-        <f>'Portfolio Ned'!$G$20*$O$53*$AC$2*0.85</f>
-        <v>25.974173553719012</v>
+        <v>27</v>
       </c>
       <c r="E20" s="7">
-        <f>'Portfolio Ned'!$G$20*$O$53*$AC$2*0.85</f>
-        <v>25.974173553719012</v>
+        <v>27</v>
       </c>
       <c r="F20" s="7">
-        <f>'Portfolio Ned'!$G$20*$O$53*$AC$2*0.85</f>
-        <v>25.974173553719012</v>
+        <v>27</v>
       </c>
       <c r="G20" s="7">
-        <f>'Portfolio Ned'!$G$20*$O$53*$AC$2*0.85</f>
-        <v>25.974173553719012</v>
+        <v>27</v>
       </c>
       <c r="H20" s="7">
-        <f>'Portfolio Ned'!$G$20*$O$53*$AC$2*0.85</f>
-        <v>25.974173553719012</v>
+        <v>27</v>
       </c>
       <c r="I20" s="7">
-        <f>'Portfolio Ned'!$G$20*$O$53*$AC$2*0.85</f>
-        <v>25.974173553719012</v>
+        <v>27</v>
       </c>
       <c r="J20" s="7">
-        <f>'Portfolio Ned'!$G$20*$O$53*$AC$2*0.85</f>
-        <v>25.974173553719012</v>
+        <v>27</v>
       </c>
       <c r="K20" s="7">
-        <f>'Portfolio Ned'!$G$20*$O$53*$AC$2*0.85</f>
-        <v>25.974173553719012</v>
+        <v>27</v>
       </c>
       <c r="L20" s="7">
-        <f>'Portfolio Ned'!$G$20*$O$53*$AC$2*0.85</f>
-        <v>25.974173553719012</v>
+        <v>27</v>
       </c>
       <c r="M20" s="7">
-        <f>'Portfolio Ned'!$G$20*$O$53*$AC$2*0.85</f>
-        <v>25.974173553719012</v>
+        <v>27</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" si="1"/>
-        <v>311.69008264462826</v>
+        <v>324</v>
       </c>
       <c r="O20" s="33">
         <v>0.19</v>
@@ -42260,7 +42248,7 @@
       <c r="U20" s="25"/>
       <c r="V20" s="26">
         <f>N20/('Portfolio Ned'!F52*'Portfolio Ned'!G52)</f>
-        <v>0.75561232156273517</v>
+        <v>0.78545454545454541</v>
       </c>
       <c r="AE20" s="7"/>
       <c r="AF20" s="26"/>
@@ -42305,7 +42293,7 @@
       </c>
       <c r="Q21" s="47">
         <f>SUM(B2:M12)</f>
-        <v>2321.4476829785972</v>
+        <v>2790.1418978546303</v>
       </c>
       <c r="R21" s="48"/>
       <c r="S21" s="32">
@@ -42452,9 +42440,9 @@
       </c>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="5">
+      <c r="A24" s="5" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>HB Fuller</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="7">
@@ -43483,23 +43471,23 @@
       </c>
       <c r="B42" s="7">
         <f>'Portfolio Ned'!$G9*$O42*$AC$2*0.85</f>
-        <v>5.0578512396694215</v>
+        <v>72.495867768595048</v>
       </c>
       <c r="E42" s="7">
         <f>'Portfolio Ned'!$G9*$O42*$AC$2*0.85</f>
-        <v>5.0578512396694215</v>
+        <v>72.495867768595048</v>
       </c>
       <c r="H42" s="7">
         <f>'Portfolio Ned'!$G9*$O42*$AC$2*0.85</f>
-        <v>5.0578512396694215</v>
+        <v>72.495867768595048</v>
       </c>
       <c r="K42" s="7">
         <f>'Portfolio Ned'!$G9*$O42*$AC$2*0.85</f>
-        <v>5.0578512396694215</v>
+        <v>72.495867768595048</v>
       </c>
       <c r="N42" s="20">
         <f>SUM(B42:L42)</f>
-        <v>20.231404958677686</v>
+        <v>289.98347107438019</v>
       </c>
       <c r="O42" s="33">
         <v>0.24</v>
@@ -43693,7 +43681,7 @@
       </c>
       <c r="AG45" s="27">
         <f>'Portfolio Ned'!G9*AE45*((1+AF45)^10)*0.75</f>
-        <v>32.678273822356289</v>
+        <v>468.38859145377342</v>
       </c>
       <c r="AH45" s="26" t="e">
         <f>AG45/('Portfolio Ned'!#REF!*'Portfolio Ned'!G9)</f>
@@ -43718,7 +43706,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f>N53/$Q$14</f>
         <v>#REF!</v>
       </c>
       <c r="AE46" s="7">
@@ -44090,16 +44078,35 @@
       </c>
     </row>
     <row r="53" spans="1:34">
-      <c r="A53" s="5">
+      <c r="A53" s="5" t="str">
         <f>'Portfolio Ned'!A:A</f>
-        <v>0</v>
+        <v>Ball Corp.</v>
+      </c>
+      <c r="D53" s="7">
+        <f>'Portfolio Ned'!$G$53*$O$53*$AC$2*0.85</f>
+        <v>1.4049586776859504</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="7">
+        <f>'Portfolio Ned'!$G$53*$O$53*$AC$2*0.85</f>
+        <v>1.4049586776859504</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="7">
+        <f>'Portfolio Ned'!$G$53*$O$53*$AC$2*0.85</f>
+        <v>1.4049586776859504</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="7">
+        <f>'Portfolio Ned'!$G$53*$O$53*$AC$2*0.85</f>
+        <v>1.4049586776859504</v>
       </c>
       <c r="N53" s="20">
-        <f>SUM(B20:M20)</f>
-        <v>311.69008264462826</v>
+        <f t="shared" si="6"/>
+        <v>5.6198347107438016</v>
       </c>
       <c r="O53" s="33">
-        <v>0.2465</v>
+        <v>0.2</v>
       </c>
       <c r="Q53" s="51"/>
       <c r="R53" s="35" t="s">
@@ -44114,9 +44121,9 @@
       <c r="U53" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="V53" s="26">
-        <f>N53/('Portfolio Ned'!F20*'Portfolio Ned'!G20)</f>
-        <v>4.7225770097670948E-2</v>
+      <c r="V53" s="26" t="e">
+        <f>#REF!/('Portfolio Ned'!F20*'Portfolio Ned'!G20)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y53" s="9" t="e">
         <f t="shared" si="4"/>
@@ -45453,7 +45460,7 @@
         <v>8.0025608194622278E-3</v>
       </c>
       <c r="Y81" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f>#REF!/$Q$14</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -51496,7 +51503,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -51513,42 +51520,42 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="F1" s="163" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G1" s="166" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="3" spans="1:8" ht="24" thickBot="1">
       <c r="A3" s="175" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="177" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="170" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" s="172" t="s">
+        <v>485</v>
+      </c>
+      <c r="E3" s="174" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="177" t="s">
-        <v>487</v>
-      </c>
-      <c r="C3" s="170" t="s">
-        <v>488</v>
-      </c>
-      <c r="D3" s="172" t="s">
+      <c r="F3" s="164" t="s">
         <v>489</v>
       </c>
-      <c r="E3" s="174" t="s">
-        <v>494</v>
-      </c>
-      <c r="F3" s="164" t="s">
-        <v>493</v>
-      </c>
       <c r="G3" s="167" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H3" s="140" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="175" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B4" s="177">
         <v>260</v>
@@ -51575,28 +51582,28 @@
     <row r="7" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="8" spans="1:8" ht="24" thickBot="1">
       <c r="A8" s="175" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B8" s="177" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C8" s="170" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D8" s="172" t="s">
+        <v>485</v>
+      </c>
+      <c r="E8" s="174" t="s">
+        <v>490</v>
+      </c>
+      <c r="F8" s="165" t="s">
         <v>489</v>
       </c>
-      <c r="E8" s="174" t="s">
-        <v>494</v>
-      </c>
-      <c r="F8" s="165" t="s">
-        <v>493</v>
-      </c>
       <c r="G8" s="167" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H8" s="140" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" thickBot="1">
@@ -51625,39 +51632,39 @@
         <v>436.6184999999997</v>
       </c>
       <c r="H9" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="13" spans="1:8" ht="24" thickBot="1">
       <c r="A13" s="175" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B13" s="177" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C13" s="170" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D13" s="172" t="s">
+        <v>485</v>
+      </c>
+      <c r="E13" s="174" t="s">
+        <v>490</v>
+      </c>
+      <c r="F13" s="165" t="s">
         <v>489</v>
       </c>
-      <c r="E13" s="174" t="s">
-        <v>494</v>
-      </c>
-      <c r="F13" s="165" t="s">
-        <v>493</v>
-      </c>
       <c r="G13" s="167" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H13" s="140" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" thickBot="1">
       <c r="A14" s="175" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B14" s="177">
         <v>87</v>
@@ -51681,92 +51688,92 @@
         <v>2881.1345000000019</v>
       </c>
       <c r="H14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="18" spans="1:8" ht="24" thickBot="1">
       <c r="A18" s="175" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B18" s="177" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C18" s="170" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D18" s="172" t="s">
+        <v>485</v>
+      </c>
+      <c r="E18" s="174" t="s">
+        <v>490</v>
+      </c>
+      <c r="F18" s="165" t="s">
         <v>489</v>
       </c>
-      <c r="E18" s="174" t="s">
-        <v>494</v>
-      </c>
-      <c r="F18" s="165" t="s">
-        <v>493</v>
-      </c>
       <c r="G18" s="168" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H18" s="140" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" thickBot="1">
       <c r="A19" s="175" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B19" s="177">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="C19" s="170">
+        <v>24</v>
+      </c>
+      <c r="D19" s="172">
         <v>25</v>
-      </c>
-      <c r="D19" s="172">
-        <v>26</v>
       </c>
       <c r="E19" s="174">
         <f>B19*C19</f>
-        <v>37500</v>
+        <v>6000</v>
       </c>
       <c r="F19" s="186">
         <f>((B19*D19)*0.995)-((B19*C19)*0.995)-2</f>
-        <v>1490.5</v>
+        <v>246.75</v>
       </c>
       <c r="G19" s="168">
         <f>F19*0.74</f>
-        <v>1102.97</v>
+        <v>182.595</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="23" spans="1:8" ht="24" thickBot="1">
       <c r="A23" s="175" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B23" s="177" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C23" s="170" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D23" s="172" t="s">
+        <v>485</v>
+      </c>
+      <c r="E23" s="174" t="s">
+        <v>490</v>
+      </c>
+      <c r="F23" s="165" t="s">
         <v>489</v>
       </c>
-      <c r="E23" s="174" t="s">
-        <v>494</v>
-      </c>
-      <c r="F23" s="165" t="s">
-        <v>493</v>
-      </c>
       <c r="G23" s="168" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H23" s="140" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" thickBot="1">
       <c r="A24" s="175" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B24" s="177">
         <v>10</v>
@@ -51790,7 +51797,7 @@
         <v>366.67</v>
       </c>
       <c r="H24" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -51863,7 +51870,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="N1" s="73" t="s">
         <v>12</v>
@@ -52595,7 +52602,7 @@
     </row>
     <row r="18" spans="1:13" ht="15">
       <c r="A18" s="103" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C18" s="76" t="s">
         <v>15</v>
@@ -53236,7 +53243,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L36" s="86">
         <v>43169</v>
@@ -53274,7 +53281,7 @@
         <v>-0.25775978407557343</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L37" s="86">
         <v>43170</v>
@@ -53495,7 +53502,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L43" s="86">
         <v>43176</v>
@@ -53529,7 +53536,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L44" s="86">
         <v>43177</v>
@@ -53814,7 +53821,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L52" s="86">
         <v>43185</v>
@@ -53852,7 +53859,7 @@
         <v>-0.56956521739130439</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L53" s="86">
         <v>43186</v>
@@ -53941,7 +53948,7 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C56" s="76" t="s">
         <v>15</v>
@@ -63268,7 +63275,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="N1" s="73" t="s">
         <v>12</v>
@@ -63382,7 +63389,7 @@
         <v>322</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C4" s="76" t="s">
         <v>15</v>
@@ -63423,7 +63430,7 @@
         <v>306</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>15</v>
@@ -63461,7 +63468,7 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1">
       <c r="A6" s="101" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -63502,7 +63509,7 @@
     </row>
     <row r="7" spans="1:30" ht="15">
       <c r="A7" s="103" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="76"/>
@@ -63539,7 +63546,7 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1">
       <c r="A8" s="103" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="76"/>
@@ -63571,7 +63578,7 @@
     </row>
     <row r="9" spans="1:30" s="88" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="103" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="76"/>
@@ -63747,7 +63754,7 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
       <c r="A13" s="103" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="76"/>
@@ -63780,7 +63787,7 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1">
       <c r="A14" s="103" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="76"/>
@@ -63813,7 +63820,7 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1">
       <c r="A15" s="103" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="76"/>
@@ -63846,7 +63853,7 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
       <c r="A16" s="103" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="76"/>
@@ -63879,7 +63886,7 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="103" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="76"/>
@@ -63912,7 +63919,7 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="103" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="76"/>
@@ -64107,7 +64114,7 @@
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -64137,7 +64144,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="76" t="s">
@@ -64169,10 +64176,10 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C27" s="76" t="s">
         <v>15</v>
@@ -64203,7 +64210,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="A28" s="104" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="76" t="s">
@@ -64235,10 +64242,10 @@
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C29" s="76" t="s">
         <v>15</v>
@@ -64269,7 +64276,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -64298,7 +64305,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -73537,7 +73544,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="73" customFormat="1" ht="18">
       <c r="B1" s="73" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C1" s="184">
         <v>2024</v>
@@ -73599,10 +73606,10 @@
     </row>
     <row r="2" spans="1:21" ht="15">
       <c r="A2" s="187" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C2" s="105">
         <f>67000</f>
@@ -73618,7 +73625,7 @@
     <row r="3" spans="1:21" ht="15">
       <c r="A3" s="188"/>
       <c r="B3" s="101" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C3" s="105">
         <v>2400</v>
@@ -73647,7 +73654,7 @@
     <row r="7" spans="1:21" ht="15">
       <c r="A7" s="188"/>
       <c r="B7" s="101" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C7" s="105">
         <f>SUM(C2:C6)</f>
@@ -73660,10 +73667,10 @@
     </row>
     <row r="8" spans="1:21" ht="15">
       <c r="A8" s="118" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B8" s="101" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C8" s="105">
         <f>'Dividends per year'!D131</f>
@@ -73680,10 +73687,10 @@
     </row>
     <row r="11" spans="1:21" ht="15">
       <c r="A11" s="178" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B11" s="179" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C11" s="185">
         <f>(2/12)*7600</f>
@@ -73747,7 +73754,7 @@
     <row r="12" spans="1:21" ht="15">
       <c r="A12" s="178"/>
       <c r="B12" s="101" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E12">
         <f>20000/20</f>
@@ -73821,7 +73828,7 @@
     <row r="13" spans="1:21" ht="15">
       <c r="A13" s="178"/>
       <c r="B13" s="101" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D13">
         <f>17000/10</f>
@@ -73870,19 +73877,19 @@
     <row r="14" spans="1:21" ht="15">
       <c r="A14" s="178"/>
       <c r="B14" s="101" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15">
       <c r="A15" s="178"/>
       <c r="B15" s="101" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
       <c r="A16" s="178"/>
       <c r="B16" s="101" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C16" s="185">
         <v>2022.15</v>
@@ -73891,7 +73898,7 @@
     <row r="17" spans="1:21" ht="15">
       <c r="A17" s="178"/>
       <c r="B17" s="101" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E17">
         <v>5000</v>
@@ -73900,7 +73907,7 @@
     <row r="18" spans="1:21" ht="15">
       <c r="A18" s="178"/>
       <c r="B18" s="179" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D18">
         <v>7000</v>
@@ -73917,7 +73924,7 @@
     <row r="21" spans="1:21" ht="15">
       <c r="A21" s="178"/>
       <c r="B21" s="101" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C21" s="185">
         <f>SUM(C11:C20)</f>
@@ -73998,12 +74005,12 @@
     </row>
     <row r="26" spans="1:21">
       <c r="C26" s="185" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="C27" s="185" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -74066,7 +74073,7 @@
         <v>298</v>
       </c>
       <c r="I1" s="114" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J1" s="114"/>
       <c r="K1" s="114"/>
@@ -74078,13 +74085,13 @@
       </c>
       <c r="N1" s="114"/>
       <c r="O1" s="114" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P1" s="114" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Q1" s="114" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15">
@@ -74163,7 +74170,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L3" s="77">
         <v>42</v>
